--- a/legendre_out/DATA/p2/a2/p2_a2Fit.xlsx
+++ b/legendre_out/DATA/p2/a2/p2_a2Fit.xlsx
@@ -405,7 +405,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3.424536350759639</v>
+        <v>3.99602</v>
       </c>
       <c r="B2" t="n">
         <v>8.232463614673826e-06</v>
@@ -431,7 +431,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3.42877843536789</v>
+        <v>4.00097</v>
       </c>
       <c r="B3" t="n">
         <v>1.257979156609018e-05</v>
@@ -457,7 +457,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3.430466699343294</v>
+        <v>4.00294</v>
       </c>
       <c r="B4" t="n">
         <v>1.50338234676356e-05</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3.433920356105163</v>
+        <v>4.00697</v>
       </c>
       <c r="B5" t="n">
         <v>2.164634269580537e-05</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3.435737168099</v>
+        <v>4.00909</v>
       </c>
       <c r="B6" t="n">
         <v>2.291809715931354e-05</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3.436542735681173</v>
+        <v>4.01003</v>
       </c>
       <c r="B7" t="n">
         <v>2.332966121507418e-05</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>3.440861949100481</v>
+        <v>4.01507</v>
       </c>
       <c r="B8" t="n">
         <v>2.648610018893967e-05</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3.444324175730245</v>
+        <v>4.01911</v>
       </c>
       <c r="B9" t="n">
         <v>2.611292385641881e-05</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>3.445018335029777</v>
+        <v>4.01992</v>
       </c>
       <c r="B10" t="n">
         <v>2.392141439975282e-05</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>3.44940610739225</v>
+        <v>4.02504</v>
       </c>
       <c r="B11" t="n">
         <v>2.352764275135444e-05</v>
@@ -665,7 +665,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>3.453639622132605</v>
+        <v>4.02998</v>
       </c>
       <c r="B12" t="n">
         <v>2.034040951072734e-05</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3.45806167396666</v>
+        <v>4.03514</v>
       </c>
       <c r="B13" t="n">
         <v>1.555666777143936e-05</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3.659299311887736</v>
+        <v>4.26996</v>
       </c>
       <c r="B14" t="n">
         <v>8.8728048924174e-06</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3.676516176489705</v>
+        <v>4.29005</v>
       </c>
       <c r="B15" t="n">
         <v>1.263902557221243e-05</v>
@@ -769,7 +769,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3.677433152354519</v>
+        <v>4.291119999999999</v>
       </c>
       <c r="B16" t="n">
         <v>1.739522180799901e-05</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3.679207115008878</v>
+        <v>4.29319</v>
       </c>
       <c r="B17" t="n">
         <v>2.047098896326159e-05</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3.680072671666319</v>
+        <v>4.2942</v>
       </c>
       <c r="B18" t="n">
         <v>2.411279235909329e-05</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>3.680886809116387</v>
+        <v>4.29515</v>
       </c>
       <c r="B19" t="n">
         <v>2.899253743242856e-05</v>
@@ -873,7 +873,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3.681743795905933</v>
+        <v>4.29615</v>
       </c>
       <c r="B20" t="n">
         <v>3.219884891208222e-05</v>
@@ -899,7 +899,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>3.682660771770746</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="B21" t="n">
         <v>4.929451155551363e-05</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>3.683397780409756</v>
+        <v>4.298080000000001</v>
       </c>
       <c r="B22" t="n">
         <v>0.0001414134429343385</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>3.684263337067197</v>
+        <v>4.299090000000001</v>
       </c>
       <c r="B23" t="n">
         <v>0.0002217785869435112</v>
@@ -977,7 +977,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>3.685943031174706</v>
+        <v>4.30105</v>
       </c>
       <c r="B24" t="n">
         <v>0.0003313021834590238</v>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>3.687699854093274</v>
+        <v>4.3031</v>
       </c>
       <c r="B25" t="n">
         <v>0.0003365145117351876</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>3.689525235955006</v>
+        <v>4.30523</v>
       </c>
       <c r="B26" t="n">
         <v>0.0003126617056009885</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>3.691256349269888</v>
+        <v>4.30725</v>
       </c>
       <c r="B27" t="n">
         <v>0.00029800710233571</v>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3.693013172188456</v>
+        <v>4.3093</v>
       </c>
       <c r="B28" t="n">
         <v>0.0002988752000285893</v>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3.693578783469556</v>
+        <v>4.30996</v>
       </c>
       <c r="B29" t="n">
         <v>0.0003032651344056436</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3.694615737484906</v>
+        <v>4.31117</v>
       </c>
       <c r="B30" t="n">
         <v>0.0002928808535923697</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>3.696278291856625</v>
+        <v>4.31311</v>
       </c>
       <c r="B31" t="n">
         <v>0.0002953800963141364</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>3.698009405171506</v>
+        <v>4.31513</v>
       </c>
       <c r="B32" t="n">
         <v>0.0002937665090610124</v>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3.699783367825865</v>
+        <v>4.3172</v>
       </c>
       <c r="B33" t="n">
         <v>0.0002868153780718074</v>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>3.70147163180127</v>
+        <v>4.31917</v>
       </c>
       <c r="B34" t="n">
         <v>0.0002800851154557215</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>3.703177035512466</v>
+        <v>4.32116</v>
       </c>
       <c r="B35" t="n">
         <v>0.0002597227682471274</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>3.704736751469439</v>
+        <v>4.32298</v>
       </c>
       <c r="B36" t="n">
         <v>0.000236241729400681</v>
@@ -1315,7 +1315,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>3.706647832010125</v>
+        <v>4.32521</v>
       </c>
       <c r="B37" t="n">
         <v>0.0001914926335249579</v>
@@ -1341,7 +1341,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>3.708276106910262</v>
+        <v>4.32711</v>
       </c>
       <c r="B38" t="n">
         <v>0.0001531425249208363</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>3.709964370885666</v>
+        <v>4.32908</v>
       </c>
       <c r="B39" t="n">
         <v>0.00010305087861454</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>3.710855637146794</v>
+        <v>4.33012</v>
       </c>
       <c r="B40" t="n">
         <v>0.0001461820579912724</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>3.711772613011608</v>
+        <v>4.33119</v>
       </c>
       <c r="B41" t="n">
         <v>7.28544683364258e-05</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>3.713529435930176</v>
+        <v>4.33324</v>
       </c>
       <c r="B42" t="n">
         <v>4.973654402034434e-05</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>3.715166280698207</v>
+        <v>4.33515</v>
       </c>
       <c r="B43" t="n">
         <v>3.783640895366658e-05</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>3.719356946099085</v>
+        <v>4.34004</v>
       </c>
       <c r="B44" t="n">
         <v>2.307185047129486e-05</v>
@@ -1523,7 +1523,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>3.723504762160485</v>
+        <v>4.34488</v>
       </c>
       <c r="B45" t="n">
         <v>2.037488293850584e-05</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>3.727875394787168</v>
+        <v>4.34998</v>
       </c>
       <c r="B46" t="n">
         <v>1.93320144836183e-05</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>3.745075119653346</v>
+        <v>4.37005</v>
       </c>
       <c r="B47" t="n">
         <v>2.112438584737053e-05</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>3.762300554123211</v>
+        <v>4.39015</v>
       </c>
       <c r="B48" t="n">
         <v>2.715045950437937e-05</v>
@@ -1627,7 +1627,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>3.779337451499375</v>
+        <v>4.41003</v>
       </c>
       <c r="B49" t="n">
         <v>3.742120114396968e-05</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>3.788087286620635</v>
+        <v>4.42024</v>
       </c>
       <c r="B50" t="n">
         <v>5.419675160998599e-05</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>3.796605735308717</v>
+        <v>4.43018</v>
       </c>
       <c r="B51" t="n">
         <v>6.784157048890814e-05</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>3.805055625053636</v>
+        <v>4.44004</v>
       </c>
       <c r="B52" t="n">
         <v>0.0001275204667181763</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>3.813539794270136</v>
+        <v>4.44994</v>
       </c>
       <c r="B53" t="n">
         <v>0.0001995537170794172</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>3.817867577557342</v>
+        <v>4.45499</v>
       </c>
       <c r="B54" t="n">
         <v>0.0004670985991246221</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>3.82226391978771</v>
+        <v>4.46012</v>
       </c>
       <c r="B55" t="n">
         <v>0.0007017954516086925</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>3.830696669796837</v>
+        <v>4.469959999999999</v>
       </c>
       <c r="B56" t="n">
         <v>0.0007410611360572172</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>3.837569703848993</v>
+        <v>4.477980000000001</v>
       </c>
       <c r="B57" t="n">
         <v>0.0005454812395226144</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>3.844554146183789</v>
+        <v>4.48613</v>
       </c>
       <c r="B58" t="n">
         <v>0.0002593444322312505</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>3.846319538970252</v>
+        <v>4.48819</v>
       </c>
       <c r="B59" t="n">
         <v>0.000190304027332999</v>
@@ -1913,7 +1913,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>3.847930674134597</v>
+        <v>4.490069999999999</v>
       </c>
       <c r="B60" t="n">
         <v>0.0002544698839570633</v>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>3.84977319573212</v>
+        <v>4.49222</v>
       </c>
       <c r="B61" t="n">
         <v>9.842032188347079e-05</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>3.852147049139162</v>
+        <v>4.49499</v>
       </c>
       <c r="B62" t="n">
         <v>6.599505236697462e-05</v>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>3.856414843351097</v>
+        <v>4.499969999999999</v>
       </c>
       <c r="B63" t="n">
         <v>3.743012048992724e-05</v>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>3.865190388076044</v>
+        <v>4.51021</v>
       </c>
       <c r="B64" t="n">
         <v>2.817448336847238e-05</v>
@@ -2043,7 +2043,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>3.866878652051449</v>
+        <v>4.51218</v>
       </c>
       <c r="B65" t="n">
         <v>6.356727390383587e-05</v>
@@ -2069,7 +2069,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>3.869363913741131</v>
+        <v>4.51508</v>
       </c>
       <c r="B66" t="n">
         <v>0.0001867945605482536</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>3.873640277820963</v>
+        <v>4.52007</v>
       </c>
       <c r="B67" t="n">
         <v>0.0003273393934337377</v>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>3.878070899522913</v>
+        <v>4.52524</v>
       </c>
       <c r="B68" t="n">
         <v>0.0005936119034289191</v>
@@ -2147,7 +2147,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>3.881644534435317</v>
+        <v>4.529409999999999</v>
       </c>
       <c r="B69" t="n">
         <v>0.000594527940394767</v>
@@ -2173,7 +2173,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>3.88648650979625</v>
+        <v>4.53506</v>
       </c>
       <c r="B70" t="n">
         <v>0.001033339253514835</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>3.890925701366096</v>
+        <v>4.54024</v>
       </c>
       <c r="B71" t="n">
         <v>0.001146118486760949</v>
@@ -2225,7 +2225,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>3.899118495074151</v>
+        <v>4.5498</v>
       </c>
       <c r="B72" t="n">
         <v>0.001477848717651293</v>
@@ -2251,7 +2251,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>3.908014017949633</v>
+        <v>4.56018</v>
       </c>
       <c r="B73" t="n">
         <v>0.00224085120012317</v>
@@ -2277,7 +2277,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>3.916541036505611</v>
+        <v>4.570130000000001</v>
       </c>
       <c r="B74" t="n">
         <v>0.002064208169039426</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>3.925025205722112</v>
+        <v>4.580030000000001</v>
       </c>
       <c r="B75" t="n">
         <v>0.001054205137114193</v>
@@ -2329,7 +2329,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>3.933637922957044</v>
+        <v>4.59008</v>
       </c>
       <c r="B76" t="n">
         <v>0.0005624896063433931</v>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>3.942370618342513</v>
+        <v>4.60027</v>
       </c>
       <c r="B77" t="n">
         <v>0.0004565074608074626</v>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>3.950700529936895</v>
+        <v>4.60999</v>
       </c>
       <c r="B78" t="n">
         <v>0.001029206197776572</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>3.959476074661841</v>
+        <v>4.62023</v>
       </c>
       <c r="B79" t="n">
         <v>0.001156613248461758</v>
@@ -2433,7 +2433,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>3.967797416388328</v>
+        <v>4.62994</v>
       </c>
       <c r="B80" t="n">
         <v>0.0008377875529097179</v>
@@ -2459,7 +2459,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>3.97227945729765</v>
+        <v>4.63517</v>
       </c>
       <c r="B81" t="n">
         <v>0.0004450210377194872</v>
@@ -2485,7 +2485,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>3.976384424019573</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="B82" t="n">
         <v>0.0002627443559731125</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>3.984954291915029</v>
+        <v>4.64996</v>
       </c>
       <c r="B83" t="n">
         <v>0.0002187886194285631</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>4.002231145592266</v>
+        <v>4.67012</v>
       </c>
       <c r="B84" t="n">
         <v>0.0001138788901573742</v>
@@ -2563,7 +2563,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.010826723091408</v>
+        <v>4.68015</v>
       </c>
       <c r="B85" t="n">
         <v>5.993832268573723e-05</v>
@@ -2589,7 +2589,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.019208053893163</v>
+        <v>4.68993</v>
       </c>
       <c r="B86" t="n">
         <v>4.599332598824577e-05</v>
@@ -2615,7 +2615,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.036424918495132</v>
+        <v>4.71002</v>
       </c>
       <c r="B87" t="n">
         <v>3.684020211434247e-05</v>
@@ -2641,7 +2641,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.053547514550251</v>
+        <v>4.73</v>
       </c>
       <c r="B88" t="n">
         <v>3.406545579689906e-05</v>
@@ -2667,7 +2667,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.070687250341162</v>
+        <v>4.75</v>
       </c>
       <c r="B89" t="n">
         <v>4.631781313841878e-05</v>
@@ -2693,7 +2693,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.075126441911007</v>
+        <v>4.75518</v>
       </c>
       <c r="B90" t="n">
         <v>8.316327378962752e-05</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.078297293032326</v>
+        <v>4.75888</v>
       </c>
       <c r="B91" t="n">
         <v>9.396337832565162e-05</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.087861265603653</v>
+        <v>4.77004</v>
       </c>
       <c r="B92" t="n">
         <v>0.000115217578072859</v>
@@ -2771,7 +2771,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.09212905981559</v>
+        <v>4.77502</v>
       </c>
       <c r="B93" t="n">
         <v>0.000174083512525363</v>
@@ -2797,7 +2797,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.096551111649645</v>
+        <v>4.780180000000001</v>
       </c>
       <c r="B94" t="n">
         <v>0.0003653004771173616</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.105069560337727</v>
+        <v>4.79012</v>
       </c>
       <c r="B95" t="n">
         <v>0.0004602484838240445</v>
@@ -2849,7 +2849,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.113468030875272</v>
+        <v>4.799919999999999</v>
       </c>
       <c r="B96" t="n">
         <v>0.0003794256122194448</v>
@@ -2875,7 +2875,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.122132167317578</v>
+        <v>4.81003</v>
       </c>
       <c r="B97" t="n">
         <v>0.0001837555331158386</v>
@@ -2901,7 +2901,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.12395754917931</v>
+        <v>4.81216</v>
       </c>
       <c r="B98" t="n">
         <v>8.77833840461308e-05</v>
@@ -2927,7 +2927,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.126622778094797</v>
+        <v>4.81527</v>
       </c>
       <c r="B99" t="n">
         <v>5.468815806457532e-05</v>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.13072774481672</v>
+        <v>4.82006</v>
       </c>
       <c r="B100" t="n">
         <v>2.971624615127015e-05</v>
@@ -2979,7 +2979,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.139151924957952</v>
+        <v>4.82989</v>
       </c>
       <c r="B101" t="n">
         <v>1.926094630253857e-05</v>
@@ -3005,7 +3005,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.156411638899399</v>
+        <v>4.85003</v>
       </c>
       <c r="B102" t="n">
         <v>1.34362146084029e-05</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.170346244097408</v>
+        <v>4.86629</v>
       </c>
       <c r="B103" t="n">
         <v>1.305264713322583e-05</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.190571132330683</v>
+        <v>4.88989</v>
       </c>
       <c r="B104" t="n">
         <v>1.565409290919784e-05</v>
@@ -3083,7 +3083,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.199158139961929</v>
+        <v>4.89991</v>
       </c>
       <c r="B105" t="n">
         <v>2.909931208032323e-05</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.207916544951084</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="B106" t="n">
         <v>4.178608936086427e-05</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.216340725092316</v>
+        <v>4.91996</v>
       </c>
       <c r="B107" t="n">
         <v>5.325853984490898e-05</v>
@@ -3161,7 +3161,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.221645473319603</v>
+        <v>4.92615</v>
       </c>
       <c r="B108" t="n">
         <v>5.412162589007096e-05</v>
@@ -3187,7 +3187,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.225107699949367</v>
+        <v>4.930190000000001</v>
       </c>
       <c r="B109" t="n">
         <v>5.486070151712534e-05</v>
@@ -3213,7 +3213,7 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.230875221043007</v>
+        <v>4.93692</v>
       </c>
       <c r="B110" t="n">
         <v>5.288118770372362e-05</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.23929940118424</v>
+        <v>4.94675</v>
       </c>
       <c r="B111" t="n">
         <v>5.451346227125984e-05</v>
@@ -3265,7 +3265,7 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.24231599468344</v>
+        <v>4.95027</v>
       </c>
       <c r="B112" t="n">
         <v>5.539642131903197e-05</v>
@@ -3291,7 +3291,7 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.24787783894759</v>
+        <v>4.95676</v>
       </c>
       <c r="B113" t="n">
         <v>5.844966824587688e-05</v>
@@ -3317,7 +3317,7 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.252257041442167</v>
+        <v>4.961869999999999</v>
       </c>
       <c r="B114" t="n">
         <v>6.113214948040063e-05</v>
@@ -3343,7 +3343,7 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.25472516339606</v>
+        <v>4.96475</v>
       </c>
       <c r="B115" t="n">
         <v>6.532567694205565e-05</v>
@@ -3369,7 +3369,7 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.25739896217944</v>
+        <v>4.96787</v>
       </c>
       <c r="B116" t="n">
         <v>6.621471415060232e-05</v>
@@ -3395,7 +3395,7 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.259258623512755</v>
+        <v>4.97004</v>
       </c>
       <c r="B117" t="n">
         <v>6.788158405168714e-05</v>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.2616239070519</v>
+        <v>4.9728</v>
       </c>
       <c r="B118" t="n">
         <v>6.623800125108906e-05</v>
@@ -3447,7 +3447,7 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.263192192876769</v>
+        <v>4.97463</v>
       </c>
       <c r="B119" t="n">
         <v>6.572642871832565e-05</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.271830619715387</v>
+        <v>4.98471</v>
       </c>
       <c r="B120" t="n">
         <v>5.496376374671906e-05</v>
@@ -3499,7 +3499,7 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.27642406890735</v>
+        <v>4.990069999999999</v>
       </c>
       <c r="B121" t="n">
         <v>5.374818193762483e-05</v>
@@ -3525,7 +3525,7 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.28036620813926</v>
+        <v>4.994669999999999</v>
       </c>
       <c r="B122" t="n">
         <v>4.291713815530519e-05</v>
@@ -3551,7 +3551,7 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>4.28891036643103</v>
+        <v>5.00464</v>
       </c>
       <c r="B123" t="n">
         <v>3.427970347952398e-05</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>4.293495245755098</v>
+        <v>5.00999</v>
       </c>
       <c r="B124" t="n">
         <v>3.664136695863364e-05</v>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>4.297651631684394</v>
+        <v>5.01484</v>
       </c>
       <c r="B125" t="n">
         <v>4.640440721901179e-05</v>
@@ -3629,7 +3629,7 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>4.300136893374075</v>
+        <v>5.01774</v>
       </c>
       <c r="B126" t="n">
         <v>6.310641997229338e-05</v>
@@ -3655,7 +3655,7 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>4.300239731788821</v>
+        <v>5.01786</v>
       </c>
       <c r="B127" t="n">
         <v>6.060939660090968e-05</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>4.30191942589633</v>
+        <v>5.019819999999999</v>
       </c>
       <c r="B128" t="n">
         <v>9.810691315690851e-05</v>
@@ -3707,7 +3707,7 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>4.306187220108267</v>
+        <v>5.0248</v>
       </c>
       <c r="B129" t="n">
         <v>0.0001799654697582121</v>
@@ -3733,7 +3733,7 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>4.308783890080591</v>
+        <v>5.027830000000001</v>
       </c>
       <c r="B130" t="n">
         <v>0.0001968132177370199</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>4.310729250092858</v>
+        <v>5.0301</v>
       </c>
       <c r="B131" t="n">
         <v>0.0002086749837641645</v>
@@ -3785,7 +3785,7 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>4.31302597468884</v>
+        <v>5.032780000000001</v>
       </c>
       <c r="B132" t="n">
         <v>0.0002369348710586995</v>
@@ -3811,7 +3811,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>4.315699773472222</v>
+        <v>5.0359</v>
       </c>
       <c r="B133" t="n">
         <v>0.0002700992630753516</v>
@@ -3837,7 +3837,7 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>4.318107906350845</v>
+        <v>5.03871</v>
       </c>
       <c r="B134" t="n">
         <v>0.0002836707881108108</v>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>4.320910253152659</v>
+        <v>5.041980000000001</v>
       </c>
       <c r="B135" t="n">
         <v>0.0002751835269137551</v>
@@ -3889,7 +3889,7 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>4.323318386031281</v>
+        <v>5.04479</v>
       </c>
       <c r="B136" t="n">
         <v>0.0002504464402057697</v>
@@ -3915,7 +3915,7 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>4.327757577601127</v>
+        <v>5.04997</v>
       </c>
       <c r="B137" t="n">
         <v>0.0002011314475708528</v>
@@ -3941,7 +3941,7 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>4.331931103266214</v>
+        <v>5.05484</v>
       </c>
       <c r="B138" t="n">
         <v>0.0001414734777265313</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>4.340535250633251</v>
+        <v>5.06488</v>
       </c>
       <c r="B139" t="n">
         <v>9.633394041621357e-05</v>
@@ -3993,7 +3993,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>4.344845894184665</v>
+        <v>5.06991</v>
       </c>
       <c r="B140" t="n">
         <v>7.915496349577627e-05</v>
@@ -4019,7 +4019,7 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>4.348762323812888</v>
+        <v>5.07448</v>
       </c>
       <c r="B141" t="n">
         <v>6.401331309717953e-05</v>
@@ -4045,7 +4045,7 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>4.357083665539375</v>
+        <v>5.08419</v>
       </c>
       <c r="B142" t="n">
         <v>5.417478959608287e-05</v>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>4.362054188918739</v>
+        <v>5.08999</v>
       </c>
       <c r="B143" t="n">
         <v>6.0492084811831e-05</v>
@@ -4097,7 +4097,7 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>4.365250749643743</v>
+        <v>5.093719999999999</v>
       </c>
       <c r="B144" t="n">
         <v>0.0002241072497233426</v>
@@ -4123,7 +4123,7 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>4.367855989483961</v>
+        <v>5.09676</v>
       </c>
       <c r="B145" t="n">
         <v>0.0004266304683344603</v>
@@ -4149,7 +4149,7 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>4.369681371345694</v>
+        <v>5.09889</v>
       </c>
       <c r="B146" t="n">
         <v>0.0004743590475960229</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>4.370624056814194</v>
+        <v>5.09999</v>
       </c>
       <c r="B147" t="n">
         <v>0.0004982599422756639</v>
@@ -4201,7 +4201,7 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>4.371001131001594</v>
+        <v>5.10043</v>
       </c>
       <c r="B148" t="n">
         <v>0.0004879751143949518</v>
@@ -4227,7 +4227,7 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>4.371241087302666</v>
+        <v>5.100709999999999</v>
       </c>
       <c r="B149" t="n">
         <v>0.0004869198939026139</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>4.37310074863598</v>
+        <v>5.10288</v>
       </c>
       <c r="B150" t="n">
         <v>0.0006013526401345766</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>4.37479758247928</v>
+        <v>5.10486</v>
       </c>
       <c r="B151" t="n">
         <v>0.0006278199869541277</v>
@@ -4305,7 +4305,7 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>4.376545835529954</v>
+        <v>5.1069</v>
       </c>
       <c r="B152" t="n">
         <v>0.0006285871382441108</v>
@@ -4331,7 +4331,7 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>4.378156970694299</v>
+        <v>5.10878</v>
       </c>
       <c r="B153" t="n">
         <v>0.0006357055987174125</v>
@@ -4357,7 +4357,7 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>4.379236774049127</v>
+        <v>5.110040000000001</v>
       </c>
       <c r="B154" t="n">
         <v>0.0006444184054480942</v>
@@ -4383,7 +4383,7 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>4.379845234669704</v>
+        <v>5.11075</v>
       </c>
       <c r="B155" t="n">
         <v>0.0006359462523207123</v>
@@ -4409,7 +4409,7 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>4.382493323849399</v>
+        <v>5.11384</v>
       </c>
       <c r="B156" t="n">
         <v>0.0006235779804285535</v>
@@ -4435,7 +4435,7 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>4.386743978325545</v>
+        <v>5.1188</v>
       </c>
       <c r="B157" t="n">
         <v>0.0005207792962211723</v>
@@ -4461,7 +4461,7 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>4.391003202669586</v>
+        <v>5.123769999999999</v>
       </c>
       <c r="B158" t="n">
         <v>0.0003829154329758386</v>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>4.395073889919927</v>
+        <v>5.12852</v>
       </c>
       <c r="B159" t="n">
         <v>0.0002795197922945717</v>
@@ -4513,7 +4513,7 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>4.396290811161082</v>
+        <v>5.12994</v>
       </c>
       <c r="B160" t="n">
         <v>0.0002924987358110526</v>
@@ -4539,7 +4539,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>4.399607350036622</v>
+        <v>5.13381</v>
       </c>
       <c r="B161" t="n">
         <v>0.0002242774287237557</v>
@@ -4565,7 +4565,7 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>4.403952273059619</v>
+        <v>5.13888</v>
       </c>
       <c r="B162" t="n">
         <v>0.000224571981984055</v>
@@ -4591,7 +4591,7 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>4.406326126466659</v>
+        <v>5.14165</v>
       </c>
       <c r="B163" t="n">
         <v>0.0002163785791591971</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>4.408974215646356</v>
+        <v>5.144740000000001</v>
       </c>
       <c r="B164" t="n">
         <v>0.0001989756280375526</v>
@@ -4643,7 +4643,7 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>4.411759422712378</v>
+        <v>5.14799</v>
       </c>
       <c r="B165" t="n">
         <v>0.0001849164468374692</v>
@@ -4669,7 +4669,7 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>4.41349053602726</v>
+        <v>5.15001</v>
       </c>
       <c r="B166" t="n">
         <v>0.0001772881989689167</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>4.414321813213119</v>
+        <v>5.150980000000001</v>
       </c>
       <c r="B167" t="n">
         <v>0.0001690779254786708</v>
@@ -4721,7 +4721,7 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>4.419515153157765</v>
+        <v>5.15704</v>
       </c>
       <c r="B168" t="n">
         <v>0.0001422437165162428</v>
@@ -4747,7 +4747,7 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>4.421511932377406</v>
+        <v>5.15937</v>
       </c>
       <c r="B169" t="n">
         <v>0.000128609894755053</v>
@@ -4773,7 +4773,7 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>4.430664551289752</v>
+        <v>5.17005</v>
       </c>
       <c r="B170" t="n">
         <v>8.211120019027338e-05</v>
@@ -4799,7 +4799,7 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>4.447624319854858</v>
+        <v>5.18984</v>
       </c>
       <c r="B171" t="n">
         <v>6.055187362404291e-05</v>
@@ -4825,7 +4825,7 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>4.464926883135782</v>
+        <v>5.210030000000001</v>
       </c>
       <c r="B172" t="n">
         <v>6.673380305846012e-05</v>
@@ -4851,7 +4851,7 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>4.482066618926692</v>
+        <v>5.23003</v>
       </c>
       <c r="B173" t="n">
         <v>8.917377106153002e-05</v>
@@ -4877,7 +4877,7 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>4.490182283823687</v>
+        <v>5.2395</v>
       </c>
       <c r="B174" t="n">
         <v>0.0001154187861987452</v>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>4.493233156794469</v>
+        <v>5.24306</v>
       </c>
       <c r="B175" t="n">
         <v>0.0001271198097526713</v>
@@ -4929,7 +4929,7 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>4.499292053396556</v>
+        <v>5.25013</v>
       </c>
       <c r="B176" t="n">
         <v>0.0001753159354422004</v>
@@ -4955,7 +4955,7 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>4.507699093801998</v>
+        <v>5.25994</v>
       </c>
       <c r="B177" t="n">
         <v>0.0002619005846335759</v>
@@ -4981,7 +4981,7 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>4.512069726428679</v>
+        <v>5.26504</v>
       </c>
       <c r="B178" t="n">
         <v>0.0003112621966616535</v>
@@ -5007,7 +5007,7 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>4.516303241169035</v>
+        <v>5.26998</v>
       </c>
       <c r="B179" t="n">
         <v>0.0003812752810635608</v>
@@ -5033,7 +5033,7 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>4.520571035380971</v>
+        <v>5.27496</v>
       </c>
       <c r="B180" t="n">
         <v>0.0005131058657223901</v>
@@ -5059,7 +5059,7 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>4.520622454588343</v>
+        <v>5.27502</v>
       </c>
       <c r="B181" t="n">
         <v>0.0005040803783561956</v>
@@ -5085,7 +5085,7 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>4.524727421310266</v>
+        <v>5.279809999999999</v>
       </c>
       <c r="B182" t="n">
         <v>0.0007630451460646181</v>
@@ -5111,7 +5111,7 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>4.529132333408531</v>
+        <v>5.28495</v>
       </c>
       <c r="B183" t="n">
         <v>0.0009792085096289485</v>
@@ -5137,7 +5137,7 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>4.533597234582063</v>
+        <v>5.29016</v>
       </c>
       <c r="B184" t="n">
         <v>0.001280411529740756</v>
@@ -5163,7 +5163,7 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>4.535979657856999</v>
+        <v>5.29294</v>
       </c>
       <c r="B185" t="n">
         <v>0.001496678104824153</v>
@@ -5189,7 +5189,7 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>4.540033205371549</v>
+        <v>5.29767</v>
       </c>
       <c r="B186" t="n">
         <v>0.001457577445896527</v>
@@ -5215,7 +5215,7 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>4.541790028290118</v>
+        <v>5.29972</v>
       </c>
       <c r="B187" t="n">
         <v>0.001431590145847084</v>
@@ -5241,7 +5241,7 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>4.54406961315031</v>
+        <v>5.30238</v>
       </c>
       <c r="B188" t="n">
         <v>0.001349132298396453</v>
@@ -5267,7 +5267,7 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>4.54908298586915</v>
+        <v>5.30823</v>
       </c>
       <c r="B189" t="n">
         <v>0.001171849507962125</v>
@@ -5293,7 +5293,7 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>4.553067974440538</v>
+        <v>5.312880000000001</v>
       </c>
       <c r="B190" t="n">
         <v>0.001114045629841155</v>
@@ -5319,7 +5319,7 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>4.557044393144028</v>
+        <v>5.31752</v>
       </c>
       <c r="B191" t="n">
         <v>0.0009553741209153603</v>
@@ -5345,7 +5345,7 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>4.561577853260723</v>
+        <v>5.32281</v>
       </c>
       <c r="B192" t="n">
         <v>0.0007597650355808409</v>
@@ -5371,7 +5371,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>4.56575137892581</v>
+        <v>5.32768</v>
       </c>
       <c r="B193" t="n">
         <v>0.0006408187193375071</v>
@@ -5397,7 +5397,7 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>4.570207710231447</v>
+        <v>5.33288</v>
       </c>
       <c r="B194" t="n">
         <v>0.0004697096762260209</v>
@@ -5423,7 +5423,7 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>4.570233419835134</v>
+        <v>5.33291</v>
       </c>
       <c r="B195" t="n">
         <v>0.0004872115355994636</v>
@@ -5449,7 +5449,7 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>4.574141279595461</v>
+        <v>5.33747</v>
       </c>
       <c r="B196" t="n">
         <v>0.000328362512130552</v>
@@ -5475,7 +5475,7 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>4.578657599976365</v>
+        <v>5.34274</v>
       </c>
       <c r="B197" t="n">
         <v>0.0002007442298034332</v>
@@ -5501,7 +5501,7 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>4.578820427466379</v>
+        <v>5.34293</v>
       </c>
       <c r="B198" t="n">
         <v>0.000203647798427275</v>
@@ -5527,7 +5527,7 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>4.582256944492457</v>
+        <v>5.34694</v>
       </c>
       <c r="B199" t="n">
         <v>0.0001524158644392351</v>
@@ -5553,7 +5553,7 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>4.583388167054657</v>
+        <v>5.34826</v>
       </c>
       <c r="B200" t="n">
         <v>0.0001459810787927431</v>
@@ -5579,7 +5579,7 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>4.583662402827311</v>
+        <v>5.34858</v>
       </c>
       <c r="B201" t="n">
         <v>0.0001358686492306399</v>
@@ -5605,7 +5605,7 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>4.586636146987034</v>
+        <v>5.35205</v>
       </c>
       <c r="B202" t="n">
         <v>0.0002294203824155667</v>
@@ -5631,7 +5631,7 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>4.58796447651083</v>
+        <v>5.3536</v>
       </c>
       <c r="B203" t="n">
         <v>0.0001777588728919595</v>
@@ -5657,7 +5657,7 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>4.591649519705875</v>
+        <v>5.3579</v>
       </c>
       <c r="B204" t="n">
         <v>0.0002799699031295538</v>
@@ -5683,7 +5683,7 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>4.593303504209699</v>
+        <v>5.359830000000001</v>
       </c>
       <c r="B205" t="n">
         <v>0.0002654383468845253</v>
@@ -5709,7 +5709,7 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>4.595068896996162</v>
+        <v>5.36189</v>
       </c>
       <c r="B206" t="n">
         <v>0.000254566023535616</v>
@@ -5735,7 +5735,7 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>4.596757160971567</v>
+        <v>5.36386</v>
       </c>
       <c r="B207" t="n">
         <v>0.0002520899916363307</v>
@@ -5761,7 +5761,7 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>4.598633962040672</v>
+        <v>5.36605</v>
       </c>
       <c r="B208" t="n">
         <v>0.0002461840503136468</v>
@@ -5787,7 +5787,7 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>4.600339365751868</v>
+        <v>5.368040000000001</v>
       </c>
       <c r="B209" t="n">
         <v>0.0002326277729590772</v>
@@ -5813,7 +5813,7 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>4.601719114483036</v>
+        <v>5.36965</v>
       </c>
       <c r="B210" t="n">
         <v>0.0002368490595054481</v>
@@ -5839,7 +5839,7 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>4.606132596449195</v>
+        <v>5.3748</v>
       </c>
       <c r="B211" t="n">
         <v>0.0001395349119129253</v>
@@ -5865,7 +5865,7 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>4.610666056565891</v>
+        <v>5.38009</v>
       </c>
       <c r="B212" t="n">
         <v>6.124726611681148e-05</v>
@@ -5891,7 +5891,7 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>4.613091329180303</v>
+        <v>5.382919999999999</v>
       </c>
       <c r="B213" t="n">
         <v>3.909679294048478e-05</v>
@@ -5917,7 +5917,7 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>4.613451263631914</v>
+        <v>5.38334</v>
       </c>
       <c r="B214" t="n">
         <v>5.529582532342416e-05</v>
@@ -5943,7 +5943,7 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>4.613896896762476</v>
+        <v>5.383859999999999</v>
       </c>
       <c r="B215" t="n">
         <v>3.461865680530686e-05</v>
@@ -5969,7 +5969,7 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>4.615696569020522</v>
+        <v>5.38596</v>
       </c>
       <c r="B216" t="n">
         <v>2.693363227444642e-05</v>
@@ -5995,7 +5995,7 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>4.619038817499749</v>
+        <v>5.38986</v>
       </c>
       <c r="B217" t="n">
         <v>2.316200466380847e-05</v>
@@ -6021,7 +6021,7 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>4.621798314962087</v>
+        <v>5.39308</v>
       </c>
       <c r="B218" t="n">
         <v>2.18441583367648e-05</v>
@@ -6047,7 +6047,7 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>4.630650988498092</v>
+        <v>5.40341</v>
       </c>
       <c r="B219" t="n">
         <v>2.139859197739726e-05</v>
@@ -6073,7 +6073,7 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>4.639795037542543</v>
+        <v>5.41408</v>
       </c>
       <c r="B220" t="n">
         <v>2.572800696925341e-05</v>
@@ -6099,7 +6099,7 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>4.64860486173907</v>
+        <v>5.42436</v>
       </c>
       <c r="B221" t="n">
         <v>2.592430541681539e-05</v>
@@ -6125,7 +6125,7 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>4.658074565763548</v>
+        <v>5.43541</v>
       </c>
       <c r="B222" t="n">
         <v>2.894673111643238e-05</v>
@@ -6151,7 +6151,7 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>4.661373964903298</v>
+        <v>5.43926</v>
       </c>
       <c r="B223" t="n">
         <v>3.332664615901324e-05</v>

--- a/legendre_out/DATA/p2/a2/p2_a2Fit.xlsx
+++ b/legendre_out/DATA/p2/a2/p2_a2Fit.xlsx
@@ -405,7 +405,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3.99602</v>
+        <v>3.424536350759639</v>
       </c>
       <c r="B2" t="n">
         <v>8.232463614673826e-06</v>
@@ -431,7 +431,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>4.00097</v>
+        <v>3.42877843536789</v>
       </c>
       <c r="B3" t="n">
         <v>1.257979156609018e-05</v>
@@ -457,7 +457,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4.00294</v>
+        <v>3.430466699343294</v>
       </c>
       <c r="B4" t="n">
         <v>1.50338234676356e-05</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4.00697</v>
+        <v>3.433920356105163</v>
       </c>
       <c r="B5" t="n">
         <v>2.164634269580537e-05</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4.00909</v>
+        <v>3.435737168099</v>
       </c>
       <c r="B6" t="n">
         <v>2.291809715931354e-05</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>4.01003</v>
+        <v>3.436542735681173</v>
       </c>
       <c r="B7" t="n">
         <v>2.332966121507418e-05</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>4.01507</v>
+        <v>3.440861949100481</v>
       </c>
       <c r="B8" t="n">
         <v>2.648610018893967e-05</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>4.01911</v>
+        <v>3.444324175730245</v>
       </c>
       <c r="B9" t="n">
         <v>2.611292385641881e-05</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>4.01992</v>
+        <v>3.445018335029777</v>
       </c>
       <c r="B10" t="n">
         <v>2.392141439975282e-05</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>4.02504</v>
+        <v>3.44940610739225</v>
       </c>
       <c r="B11" t="n">
         <v>2.352764275135444e-05</v>
@@ -665,7 +665,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>4.02998</v>
+        <v>3.453639622132605</v>
       </c>
       <c r="B12" t="n">
         <v>2.034040951072734e-05</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>4.03514</v>
+        <v>3.45806167396666</v>
       </c>
       <c r="B13" t="n">
         <v>1.555666777143936e-05</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>4.26996</v>
+        <v>3.659299311887736</v>
       </c>
       <c r="B14" t="n">
         <v>8.8728048924174e-06</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>4.29005</v>
+        <v>3.676516176489705</v>
       </c>
       <c r="B15" t="n">
         <v>1.263902557221243e-05</v>
@@ -769,7 +769,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>4.291119999999999</v>
+        <v>3.677433152354519</v>
       </c>
       <c r="B16" t="n">
         <v>1.739522180799901e-05</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>4.29319</v>
+        <v>3.679207115008878</v>
       </c>
       <c r="B17" t="n">
         <v>2.047098896326159e-05</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>4.2942</v>
+        <v>3.680072671666319</v>
       </c>
       <c r="B18" t="n">
         <v>2.411279235909329e-05</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>4.29515</v>
+        <v>3.680886809116387</v>
       </c>
       <c r="B19" t="n">
         <v>2.899253743242856e-05</v>
@@ -873,7 +873,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>4.29615</v>
+        <v>3.681743795905933</v>
       </c>
       <c r="B20" t="n">
         <v>3.219884891208222e-05</v>
@@ -899,7 +899,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>4.297219999999999</v>
+        <v>3.682660771770746</v>
       </c>
       <c r="B21" t="n">
         <v>4.929451155551363e-05</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>4.298080000000001</v>
+        <v>3.683397780409756</v>
       </c>
       <c r="B22" t="n">
         <v>0.0001414134429343385</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>4.299090000000001</v>
+        <v>3.684263337067197</v>
       </c>
       <c r="B23" t="n">
         <v>0.0002217785869435112</v>
@@ -977,7 +977,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>4.30105</v>
+        <v>3.685943031174706</v>
       </c>
       <c r="B24" t="n">
         <v>0.0003313021834590238</v>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>4.3031</v>
+        <v>3.687699854093274</v>
       </c>
       <c r="B25" t="n">
         <v>0.0003365145117351876</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>4.30523</v>
+        <v>3.689525235955006</v>
       </c>
       <c r="B26" t="n">
         <v>0.0003126617056009885</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>4.30725</v>
+        <v>3.691256349269888</v>
       </c>
       <c r="B27" t="n">
         <v>0.00029800710233571</v>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>4.3093</v>
+        <v>3.693013172188456</v>
       </c>
       <c r="B28" t="n">
         <v>0.0002988752000285893</v>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>4.30996</v>
+        <v>3.693578783469556</v>
       </c>
       <c r="B29" t="n">
         <v>0.0003032651344056436</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>4.31117</v>
+        <v>3.694615737484906</v>
       </c>
       <c r="B30" t="n">
         <v>0.0002928808535923697</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>4.31311</v>
+        <v>3.696278291856625</v>
       </c>
       <c r="B31" t="n">
         <v>0.0002953800963141364</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>4.31513</v>
+        <v>3.698009405171506</v>
       </c>
       <c r="B32" t="n">
         <v>0.0002937665090610124</v>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>4.3172</v>
+        <v>3.699783367825865</v>
       </c>
       <c r="B33" t="n">
         <v>0.0002868153780718074</v>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>4.31917</v>
+        <v>3.70147163180127</v>
       </c>
       <c r="B34" t="n">
         <v>0.0002800851154557215</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>4.32116</v>
+        <v>3.703177035512466</v>
       </c>
       <c r="B35" t="n">
         <v>0.0002597227682471274</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>4.32298</v>
+        <v>3.704736751469439</v>
       </c>
       <c r="B36" t="n">
         <v>0.000236241729400681</v>
@@ -1315,7 +1315,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>4.32521</v>
+        <v>3.706647832010125</v>
       </c>
       <c r="B37" t="n">
         <v>0.0001914926335249579</v>
@@ -1341,7 +1341,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>4.32711</v>
+        <v>3.708276106910262</v>
       </c>
       <c r="B38" t="n">
         <v>0.0001531425249208363</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>4.32908</v>
+        <v>3.709964370885666</v>
       </c>
       <c r="B39" t="n">
         <v>0.00010305087861454</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>4.33012</v>
+        <v>3.710855637146794</v>
       </c>
       <c r="B40" t="n">
         <v>0.0001461820579912724</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>4.33119</v>
+        <v>3.711772613011608</v>
       </c>
       <c r="B41" t="n">
         <v>7.28544683364258e-05</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>4.33324</v>
+        <v>3.713529435930176</v>
       </c>
       <c r="B42" t="n">
         <v>4.973654402034434e-05</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>4.33515</v>
+        <v>3.715166280698207</v>
       </c>
       <c r="B43" t="n">
         <v>3.783640895366658e-05</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>4.34004</v>
+        <v>3.719356946099085</v>
       </c>
       <c r="B44" t="n">
         <v>2.307185047129486e-05</v>
@@ -1523,7 +1523,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>4.34488</v>
+        <v>3.723504762160485</v>
       </c>
       <c r="B45" t="n">
         <v>2.037488293850584e-05</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>4.34998</v>
+        <v>3.727875394787168</v>
       </c>
       <c r="B46" t="n">
         <v>1.93320144836183e-05</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>4.37005</v>
+        <v>3.745075119653346</v>
       </c>
       <c r="B47" t="n">
         <v>2.112438584737053e-05</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>4.39015</v>
+        <v>3.762300554123211</v>
       </c>
       <c r="B48" t="n">
         <v>2.715045950437937e-05</v>
@@ -1627,7 +1627,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>4.41003</v>
+        <v>3.779337451499375</v>
       </c>
       <c r="B49" t="n">
         <v>3.742120114396968e-05</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>4.42024</v>
+        <v>3.788087286620635</v>
       </c>
       <c r="B50" t="n">
         <v>5.419675160998599e-05</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>4.43018</v>
+        <v>3.796605735308717</v>
       </c>
       <c r="B51" t="n">
         <v>6.784157048890814e-05</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>4.44004</v>
+        <v>3.805055625053636</v>
       </c>
       <c r="B52" t="n">
         <v>0.0001275204667181763</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>4.44994</v>
+        <v>3.813539794270136</v>
       </c>
       <c r="B53" t="n">
         <v>0.0001995537170794172</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>4.45499</v>
+        <v>3.817867577557342</v>
       </c>
       <c r="B54" t="n">
         <v>0.0004670985991246221</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>4.46012</v>
+        <v>3.82226391978771</v>
       </c>
       <c r="B55" t="n">
         <v>0.0007017954516086925</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>4.469959999999999</v>
+        <v>3.830696669796837</v>
       </c>
       <c r="B56" t="n">
         <v>0.0007410611360572172</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>4.477980000000001</v>
+        <v>3.837569703848993</v>
       </c>
       <c r="B57" t="n">
         <v>0.0005454812395226144</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>4.48613</v>
+        <v>3.844554146183789</v>
       </c>
       <c r="B58" t="n">
         <v>0.0002593444322312505</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>4.48819</v>
+        <v>3.846319538970252</v>
       </c>
       <c r="B59" t="n">
         <v>0.000190304027332999</v>
@@ -1913,7 +1913,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>4.490069999999999</v>
+        <v>3.847930674134597</v>
       </c>
       <c r="B60" t="n">
         <v>0.0002544698839570633</v>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>4.49222</v>
+        <v>3.84977319573212</v>
       </c>
       <c r="B61" t="n">
         <v>9.842032188347079e-05</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>4.49499</v>
+        <v>3.852147049139162</v>
       </c>
       <c r="B62" t="n">
         <v>6.599505236697462e-05</v>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>4.499969999999999</v>
+        <v>3.856414843351097</v>
       </c>
       <c r="B63" t="n">
         <v>3.743012048992724e-05</v>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>4.51021</v>
+        <v>3.865190388076044</v>
       </c>
       <c r="B64" t="n">
         <v>2.817448336847238e-05</v>
@@ -2043,7 +2043,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>4.51218</v>
+        <v>3.866878652051449</v>
       </c>
       <c r="B65" t="n">
         <v>6.356727390383587e-05</v>
@@ -2069,7 +2069,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>4.51508</v>
+        <v>3.869363913741131</v>
       </c>
       <c r="B66" t="n">
         <v>0.0001867945605482536</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>4.52007</v>
+        <v>3.873640277820963</v>
       </c>
       <c r="B67" t="n">
         <v>0.0003273393934337377</v>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>4.52524</v>
+        <v>3.878070899522913</v>
       </c>
       <c r="B68" t="n">
         <v>0.0005936119034289191</v>
@@ -2147,7 +2147,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>4.529409999999999</v>
+        <v>3.881644534435317</v>
       </c>
       <c r="B69" t="n">
         <v>0.000594527940394767</v>
@@ -2173,7 +2173,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>4.53506</v>
+        <v>3.88648650979625</v>
       </c>
       <c r="B70" t="n">
         <v>0.001033339253514835</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>4.54024</v>
+        <v>3.890925701366096</v>
       </c>
       <c r="B71" t="n">
         <v>0.001146118486760949</v>
@@ -2225,7 +2225,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>4.5498</v>
+        <v>3.899118495074151</v>
       </c>
       <c r="B72" t="n">
         <v>0.001477848717651293</v>
@@ -2251,7 +2251,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>4.56018</v>
+        <v>3.908014017949633</v>
       </c>
       <c r="B73" t="n">
         <v>0.00224085120012317</v>
@@ -2277,7 +2277,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>4.570130000000001</v>
+        <v>3.916541036505611</v>
       </c>
       <c r="B74" t="n">
         <v>0.002064208169039426</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>4.580030000000001</v>
+        <v>3.925025205722112</v>
       </c>
       <c r="B75" t="n">
         <v>0.001054205137114193</v>
@@ -2329,7 +2329,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>4.59008</v>
+        <v>3.933637922957044</v>
       </c>
       <c r="B76" t="n">
         <v>0.0005624896063433931</v>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>4.60027</v>
+        <v>3.942370618342513</v>
       </c>
       <c r="B77" t="n">
         <v>0.0004565074608074626</v>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>4.60999</v>
+        <v>3.950700529936895</v>
       </c>
       <c r="B78" t="n">
         <v>0.001029206197776572</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>4.62023</v>
+        <v>3.959476074661841</v>
       </c>
       <c r="B79" t="n">
         <v>0.001156613248461758</v>
@@ -2433,7 +2433,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>4.62994</v>
+        <v>3.967797416388328</v>
       </c>
       <c r="B80" t="n">
         <v>0.0008377875529097179</v>
@@ -2459,7 +2459,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>4.63517</v>
+        <v>3.97227945729765</v>
       </c>
       <c r="B81" t="n">
         <v>0.0004450210377194872</v>
@@ -2485,7 +2485,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>4.639959999999999</v>
+        <v>3.976384424019573</v>
       </c>
       <c r="B82" t="n">
         <v>0.0002627443559731125</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>4.64996</v>
+        <v>3.984954291915029</v>
       </c>
       <c r="B83" t="n">
         <v>0.0002187886194285631</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>4.67012</v>
+        <v>4.002231145592266</v>
       </c>
       <c r="B84" t="n">
         <v>0.0001138788901573742</v>
@@ -2563,7 +2563,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.68015</v>
+        <v>4.010826723091408</v>
       </c>
       <c r="B85" t="n">
         <v>5.993832268573723e-05</v>
@@ -2589,7 +2589,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.68993</v>
+        <v>4.019208053893163</v>
       </c>
       <c r="B86" t="n">
         <v>4.599332598824577e-05</v>
@@ -2615,7 +2615,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.71002</v>
+        <v>4.036424918495132</v>
       </c>
       <c r="B87" t="n">
         <v>3.684020211434247e-05</v>
@@ -2641,7 +2641,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.73</v>
+        <v>4.053547514550251</v>
       </c>
       <c r="B88" t="n">
         <v>3.406545579689906e-05</v>
@@ -2667,7 +2667,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.75</v>
+        <v>4.070687250341162</v>
       </c>
       <c r="B89" t="n">
         <v>4.631781313841878e-05</v>
@@ -2693,7 +2693,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.75518</v>
+        <v>4.075126441911007</v>
       </c>
       <c r="B90" t="n">
         <v>8.316327378962752e-05</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.75888</v>
+        <v>4.078297293032326</v>
       </c>
       <c r="B91" t="n">
         <v>9.396337832565162e-05</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.77004</v>
+        <v>4.087861265603653</v>
       </c>
       <c r="B92" t="n">
         <v>0.000115217578072859</v>
@@ -2771,7 +2771,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.77502</v>
+        <v>4.09212905981559</v>
       </c>
       <c r="B93" t="n">
         <v>0.000174083512525363</v>
@@ -2797,7 +2797,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.780180000000001</v>
+        <v>4.096551111649645</v>
       </c>
       <c r="B94" t="n">
         <v>0.0003653004771173616</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.79012</v>
+        <v>4.105069560337727</v>
       </c>
       <c r="B95" t="n">
         <v>0.0004602484838240445</v>
@@ -2849,7 +2849,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.799919999999999</v>
+        <v>4.113468030875272</v>
       </c>
       <c r="B96" t="n">
         <v>0.0003794256122194448</v>
@@ -2875,7 +2875,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.81003</v>
+        <v>4.122132167317578</v>
       </c>
       <c r="B97" t="n">
         <v>0.0001837555331158386</v>
@@ -2901,7 +2901,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.81216</v>
+        <v>4.12395754917931</v>
       </c>
       <c r="B98" t="n">
         <v>8.77833840461308e-05</v>
@@ -2927,7 +2927,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.81527</v>
+        <v>4.126622778094797</v>
       </c>
       <c r="B99" t="n">
         <v>5.468815806457532e-05</v>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.82006</v>
+        <v>4.13072774481672</v>
       </c>
       <c r="B100" t="n">
         <v>2.971624615127015e-05</v>
@@ -2979,7 +2979,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.82989</v>
+        <v>4.139151924957952</v>
       </c>
       <c r="B101" t="n">
         <v>1.926094630253857e-05</v>
@@ -3005,7 +3005,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.85003</v>
+        <v>4.156411638899399</v>
       </c>
       <c r="B102" t="n">
         <v>1.34362146084029e-05</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.86629</v>
+        <v>4.170346244097408</v>
       </c>
       <c r="B103" t="n">
         <v>1.305264713322583e-05</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.88989</v>
+        <v>4.190571132330683</v>
       </c>
       <c r="B104" t="n">
         <v>1.565409290919784e-05</v>
@@ -3083,7 +3083,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.89991</v>
+        <v>4.199158139961929</v>
       </c>
       <c r="B105" t="n">
         <v>2.909931208032323e-05</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.910130000000001</v>
+        <v>4.207916544951084</v>
       </c>
       <c r="B106" t="n">
         <v>4.178608936086427e-05</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.91996</v>
+        <v>4.216340725092316</v>
       </c>
       <c r="B107" t="n">
         <v>5.325853984490898e-05</v>
@@ -3161,7 +3161,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.92615</v>
+        <v>4.221645473319603</v>
       </c>
       <c r="B108" t="n">
         <v>5.412162589007096e-05</v>
@@ -3187,7 +3187,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.930190000000001</v>
+        <v>4.225107699949367</v>
       </c>
       <c r="B109" t="n">
         <v>5.486070151712534e-05</v>
@@ -3213,7 +3213,7 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.93692</v>
+        <v>4.230875221043007</v>
       </c>
       <c r="B110" t="n">
         <v>5.288118770372362e-05</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.94675</v>
+        <v>4.23929940118424</v>
       </c>
       <c r="B111" t="n">
         <v>5.451346227125984e-05</v>
@@ -3265,7 +3265,7 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.95027</v>
+        <v>4.24231599468344</v>
       </c>
       <c r="B112" t="n">
         <v>5.539642131903197e-05</v>
@@ -3291,7 +3291,7 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.95676</v>
+        <v>4.24787783894759</v>
       </c>
       <c r="B113" t="n">
         <v>5.844966824587688e-05</v>
@@ -3317,7 +3317,7 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.961869999999999</v>
+        <v>4.252257041442167</v>
       </c>
       <c r="B114" t="n">
         <v>6.113214948040063e-05</v>
@@ -3343,7 +3343,7 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.96475</v>
+        <v>4.25472516339606</v>
       </c>
       <c r="B115" t="n">
         <v>6.532567694205565e-05</v>
@@ -3369,7 +3369,7 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.96787</v>
+        <v>4.25739896217944</v>
       </c>
       <c r="B116" t="n">
         <v>6.621471415060232e-05</v>
@@ -3395,7 +3395,7 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.97004</v>
+        <v>4.259258623512755</v>
       </c>
       <c r="B117" t="n">
         <v>6.788158405168714e-05</v>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.9728</v>
+        <v>4.2616239070519</v>
       </c>
       <c r="B118" t="n">
         <v>6.623800125108906e-05</v>
@@ -3447,7 +3447,7 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.97463</v>
+        <v>4.263192192876769</v>
       </c>
       <c r="B119" t="n">
         <v>6.572642871832565e-05</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.98471</v>
+        <v>4.271830619715387</v>
       </c>
       <c r="B120" t="n">
         <v>5.496376374671906e-05</v>
@@ -3499,7 +3499,7 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.990069999999999</v>
+        <v>4.27642406890735</v>
       </c>
       <c r="B121" t="n">
         <v>5.374818193762483e-05</v>
@@ -3525,7 +3525,7 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.994669999999999</v>
+        <v>4.28036620813926</v>
       </c>
       <c r="B122" t="n">
         <v>4.291713815530519e-05</v>
@@ -3551,7 +3551,7 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>5.00464</v>
+        <v>4.28891036643103</v>
       </c>
       <c r="B123" t="n">
         <v>3.427970347952398e-05</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>5.00999</v>
+        <v>4.293495245755098</v>
       </c>
       <c r="B124" t="n">
         <v>3.664136695863364e-05</v>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>5.01484</v>
+        <v>4.297651631684394</v>
       </c>
       <c r="B125" t="n">
         <v>4.640440721901179e-05</v>
@@ -3629,7 +3629,7 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>5.01774</v>
+        <v>4.300136893374075</v>
       </c>
       <c r="B126" t="n">
         <v>6.310641997229338e-05</v>
@@ -3655,7 +3655,7 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>5.01786</v>
+        <v>4.300239731788821</v>
       </c>
       <c r="B127" t="n">
         <v>6.060939660090968e-05</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>5.019819999999999</v>
+        <v>4.30191942589633</v>
       </c>
       <c r="B128" t="n">
         <v>9.810691315690851e-05</v>
@@ -3707,7 +3707,7 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>5.0248</v>
+        <v>4.306187220108267</v>
       </c>
       <c r="B129" t="n">
         <v>0.0001799654697582121</v>
@@ -3733,7 +3733,7 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>5.027830000000001</v>
+        <v>4.308783890080591</v>
       </c>
       <c r="B130" t="n">
         <v>0.0001968132177370199</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>5.0301</v>
+        <v>4.310729250092858</v>
       </c>
       <c r="B131" t="n">
         <v>0.0002086749837641645</v>
@@ -3785,7 +3785,7 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>5.032780000000001</v>
+        <v>4.31302597468884</v>
       </c>
       <c r="B132" t="n">
         <v>0.0002369348710586995</v>
@@ -3811,7 +3811,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>5.0359</v>
+        <v>4.315699773472222</v>
       </c>
       <c r="B133" t="n">
         <v>0.0002700992630753516</v>
@@ -3837,7 +3837,7 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>5.03871</v>
+        <v>4.318107906350845</v>
       </c>
       <c r="B134" t="n">
         <v>0.0002836707881108108</v>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>5.041980000000001</v>
+        <v>4.320910253152659</v>
       </c>
       <c r="B135" t="n">
         <v>0.0002751835269137551</v>
@@ -3889,7 +3889,7 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>5.04479</v>
+        <v>4.323318386031281</v>
       </c>
       <c r="B136" t="n">
         <v>0.0002504464402057697</v>
@@ -3915,7 +3915,7 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>5.04997</v>
+        <v>4.327757577601127</v>
       </c>
       <c r="B137" t="n">
         <v>0.0002011314475708528</v>
@@ -3941,7 +3941,7 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>5.05484</v>
+        <v>4.331931103266214</v>
       </c>
       <c r="B138" t="n">
         <v>0.0001414734777265313</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>5.06488</v>
+        <v>4.340535250633251</v>
       </c>
       <c r="B139" t="n">
         <v>9.633394041621357e-05</v>
@@ -3993,7 +3993,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>5.06991</v>
+        <v>4.344845894184665</v>
       </c>
       <c r="B140" t="n">
         <v>7.915496349577627e-05</v>
@@ -4019,7 +4019,7 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>5.07448</v>
+        <v>4.348762323812888</v>
       </c>
       <c r="B141" t="n">
         <v>6.401331309717953e-05</v>
@@ -4045,7 +4045,7 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>5.08419</v>
+        <v>4.357083665539375</v>
       </c>
       <c r="B142" t="n">
         <v>5.417478959608287e-05</v>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>5.08999</v>
+        <v>4.362054188918739</v>
       </c>
       <c r="B143" t="n">
         <v>6.0492084811831e-05</v>
@@ -4097,7 +4097,7 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>5.093719999999999</v>
+        <v>4.365250749643743</v>
       </c>
       <c r="B144" t="n">
         <v>0.0002241072497233426</v>
@@ -4123,7 +4123,7 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>5.09676</v>
+        <v>4.367855989483961</v>
       </c>
       <c r="B145" t="n">
         <v>0.0004266304683344603</v>
@@ -4149,7 +4149,7 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>5.09889</v>
+        <v>4.369681371345694</v>
       </c>
       <c r="B146" t="n">
         <v>0.0004743590475960229</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>5.09999</v>
+        <v>4.370624056814194</v>
       </c>
       <c r="B147" t="n">
         <v>0.0004982599422756639</v>
@@ -4201,7 +4201,7 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>5.10043</v>
+        <v>4.371001131001594</v>
       </c>
       <c r="B148" t="n">
         <v>0.0004879751143949518</v>
@@ -4227,7 +4227,7 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>5.100709999999999</v>
+        <v>4.371241087302666</v>
       </c>
       <c r="B149" t="n">
         <v>0.0004869198939026139</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>5.10288</v>
+        <v>4.37310074863598</v>
       </c>
       <c r="B150" t="n">
         <v>0.0006013526401345766</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>5.10486</v>
+        <v>4.37479758247928</v>
       </c>
       <c r="B151" t="n">
         <v>0.0006278199869541277</v>
@@ -4305,7 +4305,7 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>5.1069</v>
+        <v>4.376545835529954</v>
       </c>
       <c r="B152" t="n">
         <v>0.0006285871382441108</v>
@@ -4331,7 +4331,7 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>5.10878</v>
+        <v>4.378156970694299</v>
       </c>
       <c r="B153" t="n">
         <v>0.0006357055987174125</v>
@@ -4357,7 +4357,7 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>5.110040000000001</v>
+        <v>4.379236774049127</v>
       </c>
       <c r="B154" t="n">
         <v>0.0006444184054480942</v>
@@ -4383,7 +4383,7 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>5.11075</v>
+        <v>4.379845234669704</v>
       </c>
       <c r="B155" t="n">
         <v>0.0006359462523207123</v>
@@ -4409,7 +4409,7 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>5.11384</v>
+        <v>4.382493323849399</v>
       </c>
       <c r="B156" t="n">
         <v>0.0006235779804285535</v>
@@ -4435,7 +4435,7 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>5.1188</v>
+        <v>4.386743978325545</v>
       </c>
       <c r="B157" t="n">
         <v>0.0005207792962211723</v>
@@ -4461,7 +4461,7 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>5.123769999999999</v>
+        <v>4.391003202669586</v>
       </c>
       <c r="B158" t="n">
         <v>0.0003829154329758386</v>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>5.12852</v>
+        <v>4.395073889919927</v>
       </c>
       <c r="B159" t="n">
         <v>0.0002795197922945717</v>
@@ -4513,7 +4513,7 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>5.12994</v>
+        <v>4.396290811161082</v>
       </c>
       <c r="B160" t="n">
         <v>0.0002924987358110526</v>
@@ -4539,7 +4539,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>5.13381</v>
+        <v>4.399607350036622</v>
       </c>
       <c r="B161" t="n">
         <v>0.0002242774287237557</v>
@@ -4565,7 +4565,7 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>5.13888</v>
+        <v>4.403952273059619</v>
       </c>
       <c r="B162" t="n">
         <v>0.000224571981984055</v>
@@ -4591,7 +4591,7 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>5.14165</v>
+        <v>4.406326126466659</v>
       </c>
       <c r="B163" t="n">
         <v>0.0002163785791591971</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>5.144740000000001</v>
+        <v>4.408974215646356</v>
       </c>
       <c r="B164" t="n">
         <v>0.0001989756280375526</v>
@@ -4643,7 +4643,7 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>5.14799</v>
+        <v>4.411759422712378</v>
       </c>
       <c r="B165" t="n">
         <v>0.0001849164468374692</v>
@@ -4669,7 +4669,7 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>5.15001</v>
+        <v>4.41349053602726</v>
       </c>
       <c r="B166" t="n">
         <v>0.0001772881989689167</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>5.150980000000001</v>
+        <v>4.414321813213119</v>
       </c>
       <c r="B167" t="n">
         <v>0.0001690779254786708</v>
@@ -4721,7 +4721,7 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>5.15704</v>
+        <v>4.419515153157765</v>
       </c>
       <c r="B168" t="n">
         <v>0.0001422437165162428</v>
@@ -4747,7 +4747,7 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>5.15937</v>
+        <v>4.421511932377406</v>
       </c>
       <c r="B169" t="n">
         <v>0.000128609894755053</v>
@@ -4773,7 +4773,7 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>5.17005</v>
+        <v>4.430664551289752</v>
       </c>
       <c r="B170" t="n">
         <v>8.211120019027338e-05</v>
@@ -4799,7 +4799,7 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>5.18984</v>
+        <v>4.447624319854858</v>
       </c>
       <c r="B171" t="n">
         <v>6.055187362404291e-05</v>
@@ -4825,7 +4825,7 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>5.210030000000001</v>
+        <v>4.464926883135782</v>
       </c>
       <c r="B172" t="n">
         <v>6.673380305846012e-05</v>
@@ -4851,7 +4851,7 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>5.23003</v>
+        <v>4.482066618926692</v>
       </c>
       <c r="B173" t="n">
         <v>8.917377106153002e-05</v>
@@ -4877,7 +4877,7 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>5.2395</v>
+        <v>4.490182283823687</v>
       </c>
       <c r="B174" t="n">
         <v>0.0001154187861987452</v>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>5.24306</v>
+        <v>4.493233156794469</v>
       </c>
       <c r="B175" t="n">
         <v>0.0001271198097526713</v>
@@ -4929,7 +4929,7 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>5.25013</v>
+        <v>4.499292053396556</v>
       </c>
       <c r="B176" t="n">
         <v>0.0001753159354422004</v>
@@ -4955,7 +4955,7 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>5.25994</v>
+        <v>4.507699093801998</v>
       </c>
       <c r="B177" t="n">
         <v>0.0002619005846335759</v>
@@ -4981,7 +4981,7 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>5.26504</v>
+        <v>4.512069726428679</v>
       </c>
       <c r="B178" t="n">
         <v>0.0003112621966616535</v>
@@ -5007,7 +5007,7 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>5.26998</v>
+        <v>4.516303241169035</v>
       </c>
       <c r="B179" t="n">
         <v>0.0003812752810635608</v>
@@ -5033,7 +5033,7 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>5.27496</v>
+        <v>4.520571035380971</v>
       </c>
       <c r="B180" t="n">
         <v>0.0005131058657223901</v>
@@ -5059,7 +5059,7 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>5.27502</v>
+        <v>4.520622454588343</v>
       </c>
       <c r="B181" t="n">
         <v>0.0005040803783561956</v>
@@ -5085,7 +5085,7 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>5.279809999999999</v>
+        <v>4.524727421310266</v>
       </c>
       <c r="B182" t="n">
         <v>0.0007630451460646181</v>
@@ -5111,7 +5111,7 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>5.28495</v>
+        <v>4.529132333408531</v>
       </c>
       <c r="B183" t="n">
         <v>0.0009792085096289485</v>
@@ -5137,7 +5137,7 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>5.29016</v>
+        <v>4.533597234582063</v>
       </c>
       <c r="B184" t="n">
         <v>0.001280411529740756</v>
@@ -5163,7 +5163,7 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>5.29294</v>
+        <v>4.535979657856999</v>
       </c>
       <c r="B185" t="n">
         <v>0.001496678104824153</v>
@@ -5189,7 +5189,7 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>5.29767</v>
+        <v>4.540033205371549</v>
       </c>
       <c r="B186" t="n">
         <v>0.001457577445896527</v>
@@ -5215,7 +5215,7 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>5.29972</v>
+        <v>4.541790028290118</v>
       </c>
       <c r="B187" t="n">
         <v>0.001431590145847084</v>
@@ -5241,7 +5241,7 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>5.30238</v>
+        <v>4.54406961315031</v>
       </c>
       <c r="B188" t="n">
         <v>0.001349132298396453</v>
@@ -5267,7 +5267,7 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>5.30823</v>
+        <v>4.54908298586915</v>
       </c>
       <c r="B189" t="n">
         <v>0.001171849507962125</v>
@@ -5293,7 +5293,7 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>5.312880000000001</v>
+        <v>4.553067974440538</v>
       </c>
       <c r="B190" t="n">
         <v>0.001114045629841155</v>
@@ -5319,7 +5319,7 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>5.31752</v>
+        <v>4.557044393144028</v>
       </c>
       <c r="B191" t="n">
         <v>0.0009553741209153603</v>
@@ -5345,7 +5345,7 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>5.32281</v>
+        <v>4.561577853260723</v>
       </c>
       <c r="B192" t="n">
         <v>0.0007597650355808409</v>
@@ -5371,7 +5371,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>5.32768</v>
+        <v>4.56575137892581</v>
       </c>
       <c r="B193" t="n">
         <v>0.0006408187193375071</v>
@@ -5397,7 +5397,7 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>5.33288</v>
+        <v>4.570207710231447</v>
       </c>
       <c r="B194" t="n">
         <v>0.0004697096762260209</v>
@@ -5423,7 +5423,7 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>5.33291</v>
+        <v>4.570233419835134</v>
       </c>
       <c r="B195" t="n">
         <v>0.0004872115355994636</v>
@@ -5449,7 +5449,7 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>5.33747</v>
+        <v>4.574141279595461</v>
       </c>
       <c r="B196" t="n">
         <v>0.000328362512130552</v>
@@ -5475,7 +5475,7 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>5.34274</v>
+        <v>4.578657599976365</v>
       </c>
       <c r="B197" t="n">
         <v>0.0002007442298034332</v>
@@ -5501,7 +5501,7 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>5.34293</v>
+        <v>4.578820427466379</v>
       </c>
       <c r="B198" t="n">
         <v>0.000203647798427275</v>
@@ -5527,7 +5527,7 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>5.34694</v>
+        <v>4.582256944492457</v>
       </c>
       <c r="B199" t="n">
         <v>0.0001524158644392351</v>
@@ -5553,7 +5553,7 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>5.34826</v>
+        <v>4.583388167054657</v>
       </c>
       <c r="B200" t="n">
         <v>0.0001459810787927431</v>
@@ -5579,7 +5579,7 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>5.34858</v>
+        <v>4.583662402827311</v>
       </c>
       <c r="B201" t="n">
         <v>0.0001358686492306399</v>
@@ -5605,7 +5605,7 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>5.35205</v>
+        <v>4.586636146987034</v>
       </c>
       <c r="B202" t="n">
         <v>0.0002294203824155667</v>
@@ -5631,7 +5631,7 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>5.3536</v>
+        <v>4.58796447651083</v>
       </c>
       <c r="B203" t="n">
         <v>0.0001777588728919595</v>
@@ -5657,7 +5657,7 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>5.3579</v>
+        <v>4.591649519705875</v>
       </c>
       <c r="B204" t="n">
         <v>0.0002799699031295538</v>
@@ -5683,7 +5683,7 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>5.359830000000001</v>
+        <v>4.593303504209699</v>
       </c>
       <c r="B205" t="n">
         <v>0.0002654383468845253</v>
@@ -5709,7 +5709,7 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>5.36189</v>
+        <v>4.595068896996162</v>
       </c>
       <c r="B206" t="n">
         <v>0.000254566023535616</v>
@@ -5735,7 +5735,7 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>5.36386</v>
+        <v>4.596757160971567</v>
       </c>
       <c r="B207" t="n">
         <v>0.0002520899916363307</v>
@@ -5761,7 +5761,7 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>5.36605</v>
+        <v>4.598633962040672</v>
       </c>
       <c r="B208" t="n">
         <v>0.0002461840503136468</v>
@@ -5787,7 +5787,7 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>5.368040000000001</v>
+        <v>4.600339365751868</v>
       </c>
       <c r="B209" t="n">
         <v>0.0002326277729590772</v>
@@ -5813,7 +5813,7 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>5.36965</v>
+        <v>4.601719114483036</v>
       </c>
       <c r="B210" t="n">
         <v>0.0002368490595054481</v>
@@ -5839,7 +5839,7 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>5.3748</v>
+        <v>4.606132596449195</v>
       </c>
       <c r="B211" t="n">
         <v>0.0001395349119129253</v>
@@ -5865,7 +5865,7 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>5.38009</v>
+        <v>4.610666056565891</v>
       </c>
       <c r="B212" t="n">
         <v>6.124726611681148e-05</v>
@@ -5891,7 +5891,7 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>5.382919999999999</v>
+        <v>4.613091329180303</v>
       </c>
       <c r="B213" t="n">
         <v>3.909679294048478e-05</v>
@@ -5917,7 +5917,7 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>5.38334</v>
+        <v>4.613451263631914</v>
       </c>
       <c r="B214" t="n">
         <v>5.529582532342416e-05</v>
@@ -5943,7 +5943,7 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>5.383859999999999</v>
+        <v>4.613896896762476</v>
       </c>
       <c r="B215" t="n">
         <v>3.461865680530686e-05</v>
@@ -5969,7 +5969,7 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>5.38596</v>
+        <v>4.615696569020522</v>
       </c>
       <c r="B216" t="n">
         <v>2.693363227444642e-05</v>
@@ -5995,7 +5995,7 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>5.38986</v>
+        <v>4.619038817499749</v>
       </c>
       <c r="B217" t="n">
         <v>2.316200466380847e-05</v>
@@ -6021,7 +6021,7 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>5.39308</v>
+        <v>4.621798314962087</v>
       </c>
       <c r="B218" t="n">
         <v>2.18441583367648e-05</v>
@@ -6047,7 +6047,7 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>5.40341</v>
+        <v>4.630650988498092</v>
       </c>
       <c r="B219" t="n">
         <v>2.139859197739726e-05</v>
@@ -6073,7 +6073,7 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>5.41408</v>
+        <v>4.639795037542543</v>
       </c>
       <c r="B220" t="n">
         <v>2.572800696925341e-05</v>
@@ -6099,7 +6099,7 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>5.42436</v>
+        <v>4.64860486173907</v>
       </c>
       <c r="B221" t="n">
         <v>2.592430541681539e-05</v>
@@ -6125,7 +6125,7 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>5.43541</v>
+        <v>4.658074565763548</v>
       </c>
       <c r="B222" t="n">
         <v>2.894673111643238e-05</v>
@@ -6151,7 +6151,7 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>5.43926</v>
+        <v>4.661373964903298</v>
       </c>
       <c r="B223" t="n">
         <v>3.332664615901324e-05</v>

--- a/legendre_out/DATA/p2/a2/p2_a2Fit.xlsx
+++ b/legendre_out/DATA/p2/a2/p2_a2Fit.xlsx
@@ -405,5774 +405,5774 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3.424536350759639</v>
+        <v>3.996021</v>
       </c>
       <c r="B2" t="n">
-        <v>8.232463614673826e-06</v>
+        <v>7585493039781.103</v>
       </c>
       <c r="C2" t="n">
-        <v>1.100460154333214e-06</v>
+        <v>1369520302772.136</v>
       </c>
       <c r="D2" t="n">
-        <v>2.419119907539701e-07</v>
+        <v>224416333298.5092</v>
       </c>
       <c r="E2" t="n">
-        <v>3.976018346421162e-07</v>
+        <v>367741240280.0684</v>
       </c>
       <c r="F2" t="n">
-        <v>20.25118011215352</v>
+        <v>13.94412761536575</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001121088480734955</v>
+        <v>0.01596824715989604</v>
       </c>
       <c r="H2" t="n">
-        <v>4.050236022430704</v>
+        <v>2.788825523073151</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3.42877843536789</v>
+        <v>4.000967</v>
       </c>
       <c r="B3" t="n">
-        <v>1.257979156609018e-05</v>
+        <v>11549650931821.5</v>
       </c>
       <c r="C3" t="n">
-        <v>4.418165306012403e-07</v>
+        <v>1016291355562.106</v>
       </c>
       <c r="D3" t="n">
-        <v>3.698875704548847e-07</v>
+        <v>342980652984.8369</v>
       </c>
       <c r="E3" t="n">
-        <v>5.838214067315716e-07</v>
+        <v>542066492944.3048</v>
       </c>
       <c r="F3" t="n">
-        <v>19.05867788999898</v>
+        <v>16.09654734739471</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001874357365325504</v>
+        <v>0.006573765122918285</v>
       </c>
       <c r="H3" t="n">
-        <v>3.811735577999796</v>
+        <v>3.219309469478943</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3.430466699343294</v>
+        <v>4.00294</v>
       </c>
       <c r="B4" t="n">
-        <v>1.50338234676356e-05</v>
+        <v>13785799545795.35</v>
       </c>
       <c r="C4" t="n">
-        <v>9.753937478560465e-07</v>
+        <v>1742217803284.271</v>
       </c>
       <c r="D4" t="n">
-        <v>4.190900470805193e-07</v>
+        <v>387309443415.6152</v>
       </c>
       <c r="E4" t="n">
-        <v>6.67046806413698e-07</v>
+        <v>613953206060.318</v>
       </c>
       <c r="F4" t="n">
-        <v>25.81780782312254</v>
+        <v>19.93396042724375</v>
       </c>
       <c r="G4" t="n">
-        <v>9.679666846156082e-05</v>
+        <v>0.001285896600945782</v>
       </c>
       <c r="H4" t="n">
-        <v>5.163561564624507</v>
+        <v>3.986792085448751</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3.433920356105163</v>
+        <v>4.006972</v>
       </c>
       <c r="B5" t="n">
-        <v>2.164634269580537e-05</v>
+        <v>19957946216029.91</v>
       </c>
       <c r="C5" t="n">
-        <v>9.85767972365583e-08</v>
+        <v>664568799010.4297</v>
       </c>
       <c r="D5" t="n">
-        <v>5.680817274915621e-07</v>
+        <v>530297102355.7722</v>
       </c>
       <c r="E5" t="n">
-        <v>8.941993845015966e-07</v>
+        <v>838139979876.9357</v>
       </c>
       <c r="F5" t="n">
-        <v>5.101935984263667</v>
+        <v>4.491462657941051</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4035669798058744</v>
+        <v>0.4810265172596995</v>
       </c>
       <c r="H5" t="n">
-        <v>1.020387196852733</v>
+        <v>0.8982925315882102</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3.435737168099</v>
+        <v>4.009086</v>
       </c>
       <c r="B6" t="n">
-        <v>2.291809715931354e-05</v>
+        <v>21076085534615.56</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.303994570057856e-06</v>
+        <v>-469129644489.1562</v>
       </c>
       <c r="D6" t="n">
-        <v>6.294150575314751e-07</v>
+        <v>586529796597.4963</v>
       </c>
       <c r="E6" t="n">
-        <v>9.637610674549985e-07</v>
+        <v>900377950795.4089</v>
       </c>
       <c r="F6" t="n">
-        <v>8.531182971741208</v>
+        <v>10.08759142163688</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1292893349715448</v>
+        <v>0.07279108592856871</v>
       </c>
       <c r="H6" t="n">
-        <v>1.706236594348242</v>
+        <v>2.017518284327376</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3.436542735681173</v>
+        <v>4.010032</v>
       </c>
       <c r="B7" t="n">
-        <v>2.332966121507418e-05</v>
+        <v>21527619228188.83</v>
       </c>
       <c r="C7" t="n">
-        <v>2.179977888782049e-07</v>
+        <v>719086113943.1758</v>
       </c>
       <c r="D7" t="n">
-        <v>6.367314348690941e-07</v>
+        <v>597912891981.7338</v>
       </c>
       <c r="E7" t="n">
-        <v>9.977959182812003e-07</v>
+        <v>943670990005.1829</v>
       </c>
       <c r="F7" t="n">
-        <v>3.372434407287762</v>
+        <v>2.835826363849695</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6427715635668559</v>
+        <v>0.7252787074045141</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6744868814575524</v>
+        <v>0.567165272769939</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>3.440861949100481</v>
+        <v>4.01507</v>
       </c>
       <c r="B8" t="n">
-        <v>2.648610018893967e-05</v>
+        <v>24418052216553.77</v>
       </c>
       <c r="C8" t="n">
-        <v>-3.725028465522077e-08</v>
+        <v>664910319623.6016</v>
       </c>
       <c r="D8" t="n">
-        <v>6.626305419054738e-07</v>
+        <v>615907108412.5529</v>
       </c>
       <c r="E8" t="n">
-        <v>1.041402146029862e-06</v>
+        <v>968755824423.3208</v>
       </c>
       <c r="F8" t="n">
-        <v>8.187646235738463</v>
+        <v>7.751931763601892</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1461927916123524</v>
+        <v>0.1704474968317453</v>
       </c>
       <c r="H8" t="n">
-        <v>1.637529247147693</v>
+        <v>1.550386352720378</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3.444324175730245</v>
+        <v>4.019108</v>
       </c>
       <c r="B9" t="n">
-        <v>2.611292385641881e-05</v>
+        <v>24130583773148.82</v>
       </c>
       <c r="C9" t="n">
-        <v>-6.75943590799537e-07</v>
+        <v>-158732086871.5625</v>
       </c>
       <c r="D9" t="n">
-        <v>6.40261539502488e-07</v>
+        <v>595912469906.5944</v>
       </c>
       <c r="E9" t="n">
-        <v>1.002335114307156e-06</v>
+        <v>935692129688.4376</v>
       </c>
       <c r="F9" t="n">
-        <v>2.315721118406238</v>
+        <v>2.760228756292485</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8039551251047989</v>
+        <v>0.7368924233516464</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4631442236812475</v>
+        <v>0.5520457512584971</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>3.445018335029777</v>
+        <v>4.019916</v>
       </c>
       <c r="B10" t="n">
-        <v>2.392141439975282e-05</v>
+        <v>22068104912761.87</v>
       </c>
       <c r="C10" t="n">
-        <v>-6.007675787802547e-07</v>
+        <v>18456237242.36328</v>
       </c>
       <c r="D10" t="n">
-        <v>6.353748633577984e-07</v>
+        <v>593432966705.6805</v>
       </c>
       <c r="E10" t="n">
-        <v>9.966152689518118e-07</v>
+        <v>934918104261.2463</v>
       </c>
       <c r="F10" t="n">
-        <v>6.467056067557067</v>
+        <v>6.822232926609327</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2633859508200377</v>
+        <v>0.2342003301201825</v>
       </c>
       <c r="H10" t="n">
-        <v>1.293411213511413</v>
+        <v>1.364446585321865</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>3.44940610739225</v>
+        <v>4.025044</v>
       </c>
       <c r="B11" t="n">
-        <v>2.352764275135444e-05</v>
+        <v>21673295934570.81</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.14290507712198e-06</v>
+        <v>-420140214861.4141</v>
       </c>
       <c r="D11" t="n">
-        <v>6.278274134281646e-07</v>
+        <v>585748479134.7316</v>
       </c>
       <c r="E11" t="n">
-        <v>9.63014912505626e-07</v>
+        <v>900685102391.4139</v>
       </c>
       <c r="F11" t="n">
-        <v>6.990981332083674</v>
+        <v>8.176010707821755</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2213119023220301</v>
+        <v>0.1467983962210113</v>
       </c>
       <c r="H11" t="n">
-        <v>1.398196266416735</v>
+        <v>1.635202141564351</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>3.453639622132605</v>
+        <v>4.029979</v>
       </c>
       <c r="B12" t="n">
-        <v>2.034040951072734e-05</v>
+        <v>18764272672823.29</v>
       </c>
       <c r="C12" t="n">
-        <v>-8.041388087858677e-07</v>
+        <v>-279527340682.1211</v>
       </c>
       <c r="D12" t="n">
-        <v>5.346581290196728e-07</v>
+        <v>499544102512.3737</v>
       </c>
       <c r="E12" t="n">
-        <v>8.315236382810692e-07</v>
+        <v>780544169382.8563</v>
       </c>
       <c r="F12" t="n">
-        <v>4.516252931653209</v>
+        <v>5.360017009296688</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4777118012092089</v>
+        <v>0.3735397250199775</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9032505863306417</v>
+        <v>1.072003401859338</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3.45806167396666</v>
+        <v>4.035141</v>
       </c>
       <c r="B13" t="n">
-        <v>1.555666777143936e-05</v>
+        <v>14228679677940.42</v>
       </c>
       <c r="C13" t="n">
-        <v>-5.224024583373687e-07</v>
+        <v>306470156173.7383</v>
       </c>
       <c r="D13" t="n">
-        <v>4.323819731240113e-07</v>
+        <v>400600806732.6965</v>
       </c>
       <c r="E13" t="n">
-        <v>6.791518266257817e-07</v>
+        <v>627022290875.7762</v>
       </c>
       <c r="F13" t="n">
-        <v>19.85729817979258</v>
+        <v>20.11933432791686</v>
       </c>
       <c r="G13" t="n">
-        <v>0.001329172354539783</v>
+        <v>0.001186898106297362</v>
       </c>
       <c r="H13" t="n">
-        <v>3.971459635958516</v>
+        <v>4.023866865583372</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3.659299311887736</v>
+        <v>4.269958</v>
       </c>
       <c r="B14" t="n">
-        <v>8.8728048924174e-06</v>
+        <v>8240846607744.486</v>
       </c>
       <c r="C14" t="n">
-        <v>1.728635561165289e-07</v>
+        <v>155867921911.9561</v>
       </c>
       <c r="D14" t="n">
-        <v>2.872902421994668e-07</v>
+        <v>273980842863.0107</v>
       </c>
       <c r="E14" t="n">
-        <v>4.458515390167334e-07</v>
+        <v>433092444793.4725</v>
       </c>
       <c r="F14" t="n">
-        <v>2.224625055255425</v>
+        <v>2.227608799471579</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8172711692407081</v>
+        <v>0.8168381799383577</v>
       </c>
       <c r="H14" t="n">
-        <v>0.444925011051085</v>
+        <v>0.4455217598943159</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3.676516176489705</v>
+        <v>4.290051</v>
       </c>
       <c r="B15" t="n">
-        <v>1.263902557221243e-05</v>
+        <v>11674416926767.26</v>
       </c>
       <c r="C15" t="n">
-        <v>8.671887197267663e-08</v>
+        <v>330730557637.25</v>
       </c>
       <c r="D15" t="n">
-        <v>3.821839624537022e-07</v>
+        <v>360297372248.4633</v>
       </c>
       <c r="E15" t="n">
-        <v>5.921844921901934e-07</v>
+        <v>563542988237.6606</v>
       </c>
       <c r="F15" t="n">
-        <v>2.496702624236247</v>
+        <v>2.151387415108164</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7769915804084703</v>
+        <v>0.8278259544288968</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4993405248472493</v>
+        <v>0.4302774830216327</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3.677433152354519</v>
+        <v>4.291116000000001</v>
       </c>
       <c r="B16" t="n">
-        <v>1.739522180799901e-05</v>
+        <v>16063445255982.04</v>
       </c>
       <c r="C16" t="n">
-        <v>2.940764516264534e-06</v>
+        <v>3156155904726.287</v>
       </c>
       <c r="D16" t="n">
-        <v>5.088744841288848e-07</v>
+        <v>474348996500.9319</v>
       </c>
       <c r="E16" t="n">
-        <v>8.445575641455212e-07</v>
+        <v>792241899404.2887</v>
       </c>
       <c r="F16" t="n">
-        <v>6.358603966140532</v>
+        <v>2.610017807083909</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2728718900145052</v>
+        <v>0.759842602701288</v>
       </c>
       <c r="H16" t="n">
-        <v>1.271720793228106</v>
+        <v>0.5220035614167818</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3.679207115008878</v>
+        <v>4.293189</v>
       </c>
       <c r="B17" t="n">
-        <v>2.047098896326159e-05</v>
+        <v>18866020961200.47</v>
       </c>
       <c r="C17" t="n">
-        <v>3.357008210709399e-06</v>
+        <v>3763529485208.918</v>
       </c>
       <c r="D17" t="n">
-        <v>5.77585537456448e-07</v>
+        <v>540177172540.9076</v>
       </c>
       <c r="E17" t="n">
-        <v>9.601768218108604e-07</v>
+        <v>905743147727.9771</v>
       </c>
       <c r="F17" t="n">
-        <v>11.93564581650148</v>
+        <v>6.826741573517791</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03568030128785405</v>
+        <v>0.2338479417912939</v>
       </c>
       <c r="H17" t="n">
-        <v>2.387129163300296</v>
+        <v>1.365348314703558</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3.680072671666319</v>
+        <v>4.294196</v>
       </c>
       <c r="B18" t="n">
-        <v>2.411279235909329e-05</v>
+        <v>22204728399145.34</v>
       </c>
       <c r="C18" t="n">
-        <v>4.234192414324861e-06</v>
+        <v>4880675188367.482</v>
       </c>
       <c r="D18" t="n">
-        <v>6.649533062229612e-07</v>
+        <v>620289930632.2777</v>
       </c>
       <c r="E18" t="n">
-        <v>1.114146647816778e-06</v>
+        <v>1046262146417.922</v>
       </c>
       <c r="F18" t="n">
-        <v>21.4153402103584</v>
+        <v>14.11013157506467</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00067599634053721</v>
+        <v>0.01492477414789422</v>
       </c>
       <c r="H18" t="n">
-        <v>4.283068042071681</v>
+        <v>2.822026315012933</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>3.680886809116387</v>
+        <v>4.295147</v>
       </c>
       <c r="B19" t="n">
-        <v>2.899253743242856e-05</v>
+        <v>26752803698068.56</v>
       </c>
       <c r="C19" t="n">
-        <v>5.754278030059739e-06</v>
+        <v>6160603931071.41</v>
       </c>
       <c r="D19" t="n">
-        <v>7.637727717238079e-07</v>
+        <v>712299168778.6525</v>
       </c>
       <c r="E19" t="n">
-        <v>1.285699691219853e-06</v>
+        <v>1208461164798.662</v>
       </c>
       <c r="F19" t="n">
-        <v>8.052111486530038</v>
+        <v>2.079938167787261</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1533869496957424</v>
+        <v>0.8379771893988368</v>
       </c>
       <c r="H19" t="n">
-        <v>1.610422297306008</v>
+        <v>0.4159876335574522</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3.681743795905933</v>
+        <v>4.296155000000001</v>
       </c>
       <c r="B20" t="n">
-        <v>3.219884891208222e-05</v>
+        <v>29673457444894.81</v>
       </c>
       <c r="C20" t="n">
-        <v>7.134423241227892e-06</v>
+        <v>7931995767060.643</v>
       </c>
       <c r="D20" t="n">
-        <v>8.580891020384509e-07</v>
+        <v>798779757747.8169</v>
       </c>
       <c r="E20" t="n">
-        <v>1.443391025249541e-06</v>
+        <v>1349512178111.969</v>
       </c>
       <c r="F20" t="n">
-        <v>16.1833053319778</v>
+        <v>6.143513151767888</v>
       </c>
       <c r="G20" t="n">
-        <v>0.006339756479484267</v>
+        <v>0.2925039272039875</v>
       </c>
       <c r="H20" t="n">
-        <v>3.23666106639556</v>
+        <v>1.228702630353578</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>3.682660771770746</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>4.929451155551363e-05</v>
+        <v>45524932053838.75</v>
       </c>
       <c r="C21" t="n">
-        <v>9.875413939980924e-06</v>
+        <v>10519418706314.3</v>
       </c>
       <c r="D21" t="n">
-        <v>1.245399591799416e-06</v>
+        <v>1160662995831.165</v>
       </c>
       <c r="E21" t="n">
-        <v>2.121115986546181e-06</v>
+        <v>1986388127091.541</v>
       </c>
       <c r="F21" t="n">
-        <v>8.507419862220665</v>
+        <v>2.12254374108426</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1303994196801557</v>
+        <v>0.8319421421176396</v>
       </c>
       <c r="H21" t="n">
-        <v>1.701483972444133</v>
+        <v>0.4245087482168519</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>3.683397780409756</v>
+        <v>4.298083999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0001414134429343385</v>
+        <v>130733634516781.7</v>
       </c>
       <c r="C22" t="n">
-        <v>4.354790454555857e-05</v>
+        <v>45003413961814.18</v>
       </c>
       <c r="D22" t="n">
-        <v>3.406305130881375e-06</v>
+        <v>3169153311479.333</v>
       </c>
       <c r="E22" t="n">
-        <v>6.069110767022255e-06</v>
+        <v>5666874265375.806</v>
       </c>
       <c r="F22" t="n">
-        <v>12.80118310651989</v>
+        <v>1.207391880861028</v>
       </c>
       <c r="G22" t="n">
-        <v>0.02531486700665556</v>
+        <v>0.9441662509874618</v>
       </c>
       <c r="H22" t="n">
-        <v>2.560236621303977</v>
+        <v>0.2414783761722055</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>3.684263337067197</v>
+        <v>4.299093</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0002217785869435112</v>
+        <v>205333105690711.6</v>
       </c>
       <c r="C23" t="n">
-        <v>6.816074251671719e-05</v>
+        <v>72416425369761.08</v>
       </c>
       <c r="D23" t="n">
-        <v>5.293721440234037e-06</v>
+        <v>4911382997956.303</v>
       </c>
       <c r="E23" t="n">
-        <v>9.463075683590624e-06</v>
+        <v>8748089002680.22</v>
       </c>
       <c r="F23" t="n">
-        <v>20.1707332672711</v>
+        <v>3.532460606850477</v>
       </c>
       <c r="G23" t="n">
-        <v>0.001160802647252265</v>
+        <v>0.6184817186729332</v>
       </c>
       <c r="H23" t="n">
-        <v>4.03414665345422</v>
+        <v>0.7064921213700954</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>3.685943031174706</v>
+        <v>4.301051999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0003313021834590238</v>
+        <v>306555651877493.8</v>
       </c>
       <c r="C24" t="n">
-        <v>8.727728984228168e-05</v>
+        <v>92088401356720.8</v>
       </c>
       <c r="D24" t="n">
-        <v>7.808752697882997e-06</v>
+        <v>7248683117447.48</v>
       </c>
       <c r="E24" t="n">
-        <v>1.367463146189293e-05</v>
+        <v>12675821343566.94</v>
       </c>
       <c r="F24" t="n">
-        <v>15.01364310619683</v>
+        <v>2.983145405554504</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01030420183252433</v>
+        <v>0.7025844622452704</v>
       </c>
       <c r="H24" t="n">
-        <v>3.002728621239366</v>
+        <v>0.5966290811109007</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>3.687699854093274</v>
+        <v>4.303098</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0003365145117351876</v>
+        <v>311777914699906.2</v>
       </c>
       <c r="C25" t="n">
-        <v>9.683380255421006e-05</v>
+        <v>99693405541879.73</v>
       </c>
       <c r="D25" t="n">
-        <v>7.713889314590694e-06</v>
+        <v>7160940584596.698</v>
       </c>
       <c r="E25" t="n">
-        <v>1.373410782779035e-05</v>
+        <v>12723827778345.37</v>
       </c>
       <c r="F25" t="n">
-        <v>14.34371075210658</v>
+        <v>2.657103444541597</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01356740174165272</v>
+        <v>0.7526710475961818</v>
       </c>
       <c r="H25" t="n">
-        <v>2.868742150421316</v>
+        <v>0.5314206889083194</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>3.689525235955006</v>
+        <v>4.305231</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0003126617056009885</v>
+        <v>289523456653454.8</v>
       </c>
       <c r="C26" t="n">
-        <v>7.819302310992608e-05</v>
+        <v>84218991329347.56</v>
       </c>
       <c r="D26" t="n">
-        <v>7.346665955633374e-06</v>
+        <v>6804422715108.848</v>
       </c>
       <c r="E26" t="n">
-        <v>1.295176537445414e-05</v>
+        <v>11919033464814.23</v>
       </c>
       <c r="F26" t="n">
-        <v>17.70797827314065</v>
+        <v>4.220771440583025</v>
       </c>
       <c r="G26" t="n">
-        <v>0.003335559148292775</v>
+        <v>0.5180878257058416</v>
       </c>
       <c r="H26" t="n">
-        <v>3.54159565462813</v>
+        <v>0.8441542881166051</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>3.691256349269888</v>
+        <v>4.30725</v>
       </c>
       <c r="B27" t="n">
-        <v>0.00029800710233571</v>
+        <v>275616386813438</v>
       </c>
       <c r="C27" t="n">
-        <v>8.163732931508466e-05</v>
+        <v>86484775249930.86</v>
       </c>
       <c r="D27" t="n">
-        <v>7.140968915851101e-06</v>
+        <v>6631059880716.703</v>
       </c>
       <c r="E27" t="n">
-        <v>1.259506770218435e-05</v>
+        <v>11688899151831.46</v>
       </c>
       <c r="F27" t="n">
-        <v>16.72844643175624</v>
+        <v>4.000856566519746</v>
       </c>
       <c r="G27" t="n">
-        <v>0.005044666727218255</v>
+        <v>0.5492926330114524</v>
       </c>
       <c r="H27" t="n">
-        <v>3.345689286351249</v>
+        <v>0.8001713133039491</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3.693013172188456</v>
+        <v>4.309297</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0002988752000285893</v>
+        <v>276414181113733.8</v>
       </c>
       <c r="C28" t="n">
-        <v>7.491819598274557e-05</v>
+        <v>80420523738473.45</v>
       </c>
       <c r="D28" t="n">
-        <v>7.168012646553389e-06</v>
+        <v>6652058367085.521</v>
       </c>
       <c r="E28" t="n">
-        <v>1.254151937703933e-05</v>
+        <v>11612311921666.88</v>
       </c>
       <c r="F28" t="n">
-        <v>15.73787080150363</v>
+        <v>3.464033215742671</v>
       </c>
       <c r="G28" t="n">
-        <v>0.00763371067716154</v>
+        <v>0.6288367129063528</v>
       </c>
       <c r="H28" t="n">
-        <v>3.147574160300725</v>
+        <v>0.6928066431485342</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3.693578783469556</v>
+        <v>4.309961</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0003032651344056436</v>
+        <v>280672654259520.3</v>
       </c>
       <c r="C29" t="n">
-        <v>7.266841596667212e-05</v>
+        <v>78366132104853.36</v>
       </c>
       <c r="D29" t="n">
-        <v>7.1451683689988e-06</v>
+        <v>6621016043155.074</v>
       </c>
       <c r="E29" t="n">
-        <v>1.250709147743881e-05</v>
+        <v>11531377439951.75</v>
       </c>
       <c r="F29" t="n">
-        <v>15.31779836338594</v>
+        <v>2.886600158105756</v>
       </c>
       <c r="G29" t="n">
-        <v>0.009087336112452144</v>
+        <v>0.7174634967597785</v>
       </c>
       <c r="H29" t="n">
-        <v>3.063559672677187</v>
+        <v>0.5773200316211511</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3.694615737484906</v>
+        <v>4.311172</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0002928808535923697</v>
+        <v>271030130521007.9</v>
       </c>
       <c r="C30" t="n">
-        <v>7.013454852445477e-05</v>
+        <v>76385151228667.14</v>
       </c>
       <c r="D30" t="n">
-        <v>6.931207801960197e-06</v>
+        <v>6420231262176.621</v>
       </c>
       <c r="E30" t="n">
-        <v>1.217436156138852e-05</v>
+        <v>11210422451754.02</v>
       </c>
       <c r="F30" t="n">
-        <v>18.20973327329289</v>
+        <v>4.966855978375124</v>
       </c>
       <c r="G30" t="n">
-        <v>0.002694716788486881</v>
+        <v>0.4199385252665946</v>
       </c>
       <c r="H30" t="n">
-        <v>3.641946654658578</v>
+        <v>0.9933711956750247</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>3.696278291856625</v>
+        <v>4.313105999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0002953800963141364</v>
+        <v>273449578690354.5</v>
       </c>
       <c r="C31" t="n">
-        <v>8.025541189218194e-05</v>
+        <v>85129459897297.98</v>
       </c>
       <c r="D31" t="n">
-        <v>6.981839333744656e-06</v>
+        <v>6474492779079.496</v>
       </c>
       <c r="E31" t="n">
-        <v>1.233681520737924e-05</v>
+        <v>11399471193800.08</v>
       </c>
       <c r="F31" t="n">
-        <v>16.71273661562476</v>
+        <v>3.265800402733683</v>
       </c>
       <c r="G31" t="n">
-        <v>0.005078086829956007</v>
+        <v>0.6590815546139334</v>
       </c>
       <c r="H31" t="n">
-        <v>3.342547323124952</v>
+        <v>0.6531600805467367</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>3.698009405171506</v>
+        <v>4.315126</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0002937665090610124</v>
+        <v>272003811176948.4</v>
       </c>
       <c r="C32" t="n">
-        <v>8.564205170108962e-05</v>
+        <v>92316233736609.81</v>
       </c>
       <c r="D32" t="n">
-        <v>7.014604801071759e-06</v>
+        <v>6500794996832.602</v>
       </c>
       <c r="E32" t="n">
-        <v>1.249309249420521e-05</v>
+        <v>11513040073135.09</v>
       </c>
       <c r="F32" t="n">
-        <v>22.18734814572837</v>
+        <v>4.887693022012815</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0004823528334324422</v>
+        <v>0.429739611714946</v>
       </c>
       <c r="H32" t="n">
-        <v>4.437469629145674</v>
+        <v>0.977538604402563</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3.699783367825865</v>
+        <v>4.317204</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0002868153780718074</v>
+        <v>265370121855959</v>
       </c>
       <c r="C33" t="n">
-        <v>7.447964203211518e-05</v>
+        <v>78678226406858.08</v>
       </c>
       <c r="D33" t="n">
-        <v>6.740139728468519e-06</v>
+        <v>6257283821110.199</v>
       </c>
       <c r="E33" t="n">
-        <v>1.189148268916803e-05</v>
+        <v>11025483987042.78</v>
       </c>
       <c r="F33" t="n">
-        <v>15.02912658797822</v>
+        <v>3.332438666150023</v>
       </c>
       <c r="G33" t="n">
-        <v>0.01023860682461319</v>
+        <v>0.6488791170659822</v>
       </c>
       <c r="H33" t="n">
-        <v>3.005825317595644</v>
+        <v>0.6664877332300045</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>3.70147163180127</v>
+        <v>4.319168</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0002800851154557215</v>
+        <v>258777407763606.8</v>
       </c>
       <c r="C34" t="n">
-        <v>7.501439308055196e-05</v>
+        <v>77513245068787.45</v>
       </c>
       <c r="D34" t="n">
-        <v>6.7218268160846e-06</v>
+        <v>6260971326981.812</v>
       </c>
       <c r="E34" t="n">
-        <v>1.174110751043979e-05</v>
+        <v>10998665776069.22</v>
       </c>
       <c r="F34" t="n">
-        <v>11.00940938745221</v>
+        <v>2.147380930199452</v>
       </c>
       <c r="G34" t="n">
-        <v>0.05119374188787472</v>
+        <v>0.8283991336874934</v>
       </c>
       <c r="H34" t="n">
-        <v>2.201881877490441</v>
+        <v>0.4294761860398905</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>3.703177035512466</v>
+        <v>4.32116</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0002597227682471274</v>
+        <v>240384334557493.9</v>
       </c>
       <c r="C35" t="n">
-        <v>6.953999589781848e-05</v>
+        <v>75800397279923.81</v>
       </c>
       <c r="D35" t="n">
-        <v>6.17156426230512e-06</v>
+        <v>5717105705065.565</v>
       </c>
       <c r="E35" t="n">
-        <v>1.094343944602576e-05</v>
+        <v>10072609607173.69</v>
       </c>
       <c r="F35" t="n">
-        <v>21.6777938576531</v>
+        <v>5.441928949006709</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0006028221722494239</v>
+        <v>0.3643556081380313</v>
       </c>
       <c r="H35" t="n">
-        <v>4.33555877153062</v>
+        <v>1.088385789801342</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>3.704736751469439</v>
+        <v>4.32298</v>
       </c>
       <c r="B36" t="n">
-        <v>0.000236241729400681</v>
+        <v>218821073305897</v>
       </c>
       <c r="C36" t="n">
-        <v>6.470837056770082e-05</v>
+        <v>70635439848398.02</v>
       </c>
       <c r="D36" t="n">
-        <v>5.597237611552066e-06</v>
+        <v>5180676342803.709</v>
       </c>
       <c r="E36" t="n">
-        <v>9.980136863374091e-06</v>
+        <v>9158017036758.938</v>
       </c>
       <c r="F36" t="n">
-        <v>23.66190649818937</v>
+        <v>6.183677139949422</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0002521156464473202</v>
+        <v>0.2887544571607459</v>
       </c>
       <c r="H36" t="n">
-        <v>4.732381299637874</v>
+        <v>1.236735427989884</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>3.706647832010125</v>
+        <v>4.325205</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0001914926335249579</v>
+        <v>177348949546413.1</v>
       </c>
       <c r="C37" t="n">
-        <v>5.280667841487196e-05</v>
+        <v>56470959727070.7</v>
       </c>
       <c r="D37" t="n">
-        <v>4.49295537513894e-06</v>
+        <v>4164500804926.409</v>
       </c>
       <c r="E37" t="n">
-        <v>7.963778378998216e-06</v>
+        <v>7340251223214.965</v>
       </c>
       <c r="F37" t="n">
-        <v>19.0468963616188</v>
+        <v>3.804918694773687</v>
       </c>
       <c r="G37" t="n">
-        <v>0.001883856159914549</v>
+        <v>0.5778307854846167</v>
       </c>
       <c r="H37" t="n">
-        <v>3.80937927232376</v>
+        <v>0.7609837389547374</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>3.708276106910262</v>
+        <v>4.327112000000001</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0001531425249208363</v>
+        <v>141714570049934.5</v>
       </c>
       <c r="C38" t="n">
-        <v>3.714052098584088e-05</v>
+        <v>39543009355508.98</v>
       </c>
       <c r="D38" t="n">
-        <v>3.584950781448325e-06</v>
+        <v>3326467423030.495</v>
       </c>
       <c r="E38" t="n">
-        <v>6.277172586215938e-06</v>
+        <v>5809076589125.504</v>
       </c>
       <c r="F38" t="n">
-        <v>14.31910356523037</v>
+        <v>2.969624475982518</v>
       </c>
       <c r="G38" t="n">
-        <v>0.01370457205775478</v>
+        <v>0.704669023548804</v>
       </c>
       <c r="H38" t="n">
-        <v>2.863820713046075</v>
+        <v>0.5939248951965036</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>3.709964370885666</v>
+        <v>4.329078</v>
       </c>
       <c r="B39" t="n">
-        <v>0.00010305087861454</v>
+        <v>95488979955299.75</v>
       </c>
       <c r="C39" t="n">
-        <v>2.872929847556767e-05</v>
+        <v>31298214961094.67</v>
       </c>
       <c r="D39" t="n">
-        <v>2.439470718206127e-06</v>
+        <v>2257202008806.777</v>
       </c>
       <c r="E39" t="n">
-        <v>4.365528336619462e-06</v>
+        <v>4000560242822.104</v>
       </c>
       <c r="F39" t="n">
-        <v>22.59002254549851</v>
+        <v>4.731423251441687</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0004042466060441324</v>
+        <v>0.4495287212484468</v>
       </c>
       <c r="H39" t="n">
-        <v>4.518004509099702</v>
+        <v>0.9462846502883373</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>3.710855637146794</v>
+        <v>4.330119</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0001461820579912724</v>
+        <v>135168612866781.7</v>
       </c>
       <c r="C40" t="n">
-        <v>3.832628019193331e-05</v>
+        <v>40213738802712.46</v>
       </c>
       <c r="D40" t="n">
-        <v>3.488751446034487e-06</v>
+        <v>3242297329236.087</v>
       </c>
       <c r="E40" t="n">
-        <v>6.115197857011217e-06</v>
+        <v>5691550119861.354</v>
       </c>
       <c r="F40" t="n">
-        <v>12.4947387677103</v>
+        <v>1.847422068826189</v>
       </c>
       <c r="G40" t="n">
-        <v>0.02860287292369516</v>
+        <v>0.8698285322748676</v>
       </c>
       <c r="H40" t="n">
-        <v>2.498947753542061</v>
+        <v>0.3694844137652378</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>3.711772613011608</v>
+        <v>4.331189</v>
       </c>
       <c r="B41" t="n">
-        <v>7.28544683364258e-05</v>
+        <v>67371957361631.64</v>
       </c>
       <c r="C41" t="n">
-        <v>2.030907532838531e-05</v>
+        <v>21878091463470.32</v>
       </c>
       <c r="D41" t="n">
-        <v>1.774395282684384e-06</v>
+        <v>1647035930393.073</v>
       </c>
       <c r="E41" t="n">
-        <v>3.128774427694742e-06</v>
+        <v>2897602301607.478</v>
       </c>
       <c r="F41" t="n">
-        <v>18.542593359355</v>
+        <v>3.584834504947098</v>
       </c>
       <c r="G41" t="n">
-        <v>0.002337903029385974</v>
+        <v>0.6105917531524337</v>
       </c>
       <c r="H41" t="n">
-        <v>3.708518671871</v>
+        <v>0.7169669009894195</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>3.713529435930176</v>
+        <v>4.333242</v>
       </c>
       <c r="B42" t="n">
-        <v>4.973654402034434e-05</v>
+        <v>45924863270628.62</v>
       </c>
       <c r="C42" t="n">
-        <v>9.608472381379439e-06</v>
+        <v>10159583826107.02</v>
       </c>
       <c r="D42" t="n">
-        <v>1.228603605685263e-06</v>
+        <v>1146404251761.148</v>
       </c>
       <c r="E42" t="n">
-        <v>2.082849531234824e-06</v>
+        <v>1958058612592.854</v>
       </c>
       <c r="F42" t="n">
-        <v>7.388031411097922</v>
+        <v>1.730027404110499</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1933439612736572</v>
+        <v>0.885095313120692</v>
       </c>
       <c r="H42" t="n">
-        <v>1.477606282219584</v>
+        <v>0.3460054808220999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>3.715166280698207</v>
+        <v>4.335151000000001</v>
       </c>
       <c r="B43" t="n">
-        <v>3.783640895366658e-05</v>
+        <v>34894462604393.52</v>
       </c>
       <c r="C43" t="n">
-        <v>6.707176736716027e-06</v>
+        <v>7737069394903.848</v>
       </c>
       <c r="D43" t="n">
-        <v>9.509150188160274e-07</v>
+        <v>883302222218.1779</v>
       </c>
       <c r="E43" t="n">
-        <v>1.608522323111774e-06</v>
+        <v>1494695232833.826</v>
       </c>
       <c r="F43" t="n">
-        <v>15.1452868217242</v>
+        <v>5.729735677117205</v>
       </c>
       <c r="G43" t="n">
-        <v>0.009759257842593244</v>
+        <v>0.3334112330667613</v>
       </c>
       <c r="H43" t="n">
-        <v>3.02905736434484</v>
+        <v>1.145947135423441</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>3.719356946099085</v>
+        <v>4.340042</v>
       </c>
       <c r="B44" t="n">
-        <v>2.307185047129486e-05</v>
+        <v>21300948600562.94</v>
       </c>
       <c r="C44" t="n">
-        <v>3.546510121380234e-06</v>
+        <v>3784867973218.479</v>
       </c>
       <c r="D44" t="n">
-        <v>6.248941795271372e-07</v>
+        <v>584539558438.688</v>
       </c>
       <c r="E44" t="n">
-        <v>1.038132561934947e-06</v>
+        <v>981402391820.7451</v>
       </c>
       <c r="F44" t="n">
-        <v>7.976224960795378</v>
+        <v>4.790701658472811</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1575507933004048</v>
+        <v>0.4419536356563729</v>
       </c>
       <c r="H44" t="n">
-        <v>1.595244992159075</v>
+        <v>0.9581403316945621</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>3.723504762160485</v>
+        <v>4.344876999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>2.037488293850584e-05</v>
+        <v>18769297636400.39</v>
       </c>
       <c r="C45" t="n">
-        <v>1.269890344626317e-06</v>
+        <v>1829997346594.346</v>
       </c>
       <c r="D45" t="n">
-        <v>5.809661067668673e-07</v>
+        <v>543910918838.0872</v>
       </c>
       <c r="E45" t="n">
-        <v>9.333070260141546e-07</v>
+        <v>878889200290.4453</v>
       </c>
       <c r="F45" t="n">
-        <v>12.64812847303181</v>
+        <v>10.11875323885378</v>
       </c>
       <c r="G45" t="n">
-        <v>0.02690905093776015</v>
+        <v>0.07193950849357861</v>
       </c>
       <c r="H45" t="n">
-        <v>2.529625694606363</v>
+        <v>2.023750647770755</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>3.727875394787168</v>
+        <v>4.349976</v>
       </c>
       <c r="B46" t="n">
-        <v>1.93320144836183e-05</v>
+        <v>17914174371646.49</v>
       </c>
       <c r="C46" t="n">
-        <v>2.916938203058629e-07</v>
+        <v>432222938813.3105</v>
       </c>
       <c r="D46" t="n">
-        <v>5.42214511972319e-07</v>
+        <v>510956176607.6508</v>
       </c>
       <c r="E46" t="n">
-        <v>8.393547183799508e-07</v>
+        <v>800825472629.6503</v>
       </c>
       <c r="F46" t="n">
-        <v>3.854121812189336</v>
+        <v>3.677821252904772</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5706043477886338</v>
+        <v>0.5966679261249999</v>
       </c>
       <c r="H46" t="n">
-        <v>0.7708243624378672</v>
+        <v>0.7355642505809543</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>3.745075119653346</v>
+        <v>4.370053</v>
       </c>
       <c r="B47" t="n">
-        <v>2.112438584737053e-05</v>
+        <v>19645765825989.54</v>
       </c>
       <c r="C47" t="n">
-        <v>-5.608298235383056e-07</v>
+        <v>-567142558541.0645</v>
       </c>
       <c r="D47" t="n">
-        <v>5.677087062582532e-07</v>
+        <v>537580225059.4378</v>
       </c>
       <c r="E47" t="n">
-        <v>8.678941792669419e-07</v>
+        <v>832361851219.2594</v>
       </c>
       <c r="F47" t="n">
-        <v>4.263178239504829</v>
+        <v>4.198773998352915</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5121798148248744</v>
+        <v>0.5211668128789881</v>
       </c>
       <c r="H47" t="n">
-        <v>0.8526356479009658</v>
+        <v>0.839754799670583</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>3.762300554123211</v>
+        <v>4.390148</v>
       </c>
       <c r="B48" t="n">
-        <v>2.715045950437937e-05</v>
+        <v>25316920282697.02</v>
       </c>
       <c r="C48" t="n">
-        <v>-1.198663166321931e-06</v>
+        <v>-1357408637838.902</v>
       </c>
       <c r="D48" t="n">
-        <v>7.059399180206461e-07</v>
+        <v>669546104889.9362</v>
       </c>
       <c r="E48" t="n">
-        <v>1.102461984704847e-06</v>
+        <v>1060678219274.423</v>
       </c>
       <c r="F48" t="n">
-        <v>3.968899074061802</v>
+        <v>3.509613510717761</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5539023825935367</v>
+        <v>0.621933483034442</v>
       </c>
       <c r="H48" t="n">
-        <v>0.7937798148123605</v>
+        <v>0.7019227021435522</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>3.779337451499375</v>
+        <v>4.410025</v>
       </c>
       <c r="B49" t="n">
-        <v>3.742120114396968e-05</v>
+        <v>34722081815936.77</v>
       </c>
       <c r="C49" t="n">
-        <v>-2.747411083933461e-06</v>
+        <v>-2326469867019.848</v>
       </c>
       <c r="D49" t="n">
-        <v>9.465987615998773e-07</v>
+        <v>889468568248.8402</v>
       </c>
       <c r="E49" t="n">
-        <v>1.463892014959784e-06</v>
+        <v>1385796291232.685</v>
       </c>
       <c r="F49" t="n">
-        <v>3.760483677827734</v>
+        <v>4.446500288844306</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5843893791559758</v>
+        <v>0.4870732680865422</v>
       </c>
       <c r="H49" t="n">
-        <v>0.7520967355655468</v>
+        <v>0.8893000577688612</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>3.788087286620635</v>
+        <v>4.420244</v>
       </c>
       <c r="B50" t="n">
-        <v>5.419675160998599e-05</v>
+        <v>50163603411401.48</v>
       </c>
       <c r="C50" t="n">
-        <v>-2.97084484010876e-06</v>
+        <v>-2081312621021.75</v>
       </c>
       <c r="D50" t="n">
-        <v>1.345645413359598e-06</v>
+        <v>1257706922026.994</v>
       </c>
       <c r="E50" t="n">
-        <v>2.09471446731947e-06</v>
+        <v>1967057073318.118</v>
       </c>
       <c r="F50" t="n">
-        <v>4.51843872559992</v>
+        <v>5.40505508046486</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4774201969572115</v>
+        <v>0.3684692802068937</v>
       </c>
       <c r="H50" t="n">
-        <v>0.9036877451199841</v>
+        <v>1.081011016092972</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>3.796605735308717</v>
+        <v>4.430182</v>
       </c>
       <c r="B51" t="n">
-        <v>6.784157048890814e-05</v>
+        <v>62902979532807.73</v>
       </c>
       <c r="C51" t="n">
-        <v>-4.07484576518723e-06</v>
+        <v>-3309806143366.023</v>
       </c>
       <c r="D51" t="n">
-        <v>1.623362523992625e-06</v>
+        <v>1519918992651.737</v>
       </c>
       <c r="E51" t="n">
-        <v>2.516573148488114e-06</v>
+        <v>2368074006966.287</v>
       </c>
       <c r="F51" t="n">
-        <v>1.298845614645514</v>
+        <v>1.968243100060085</v>
       </c>
       <c r="G51" t="n">
-        <v>0.9350504196990782</v>
+        <v>0.8535215372164635</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2597691229291028</v>
+        <v>0.3936486200120169</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>3.805055625053636</v>
+        <v>4.440043</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0001275204667181763</v>
+        <v>118540290545157.9</v>
       </c>
       <c r="C52" t="n">
-        <v>-1.056407287779243e-05</v>
+        <v>-9704667942745.828</v>
       </c>
       <c r="D52" t="n">
-        <v>3.163368770480769e-06</v>
+        <v>2978880502293.146</v>
       </c>
       <c r="E52" t="n">
-        <v>4.853946169729472e-06</v>
+        <v>4610627227945.911</v>
       </c>
       <c r="F52" t="n">
-        <v>2.884038238162866</v>
+        <v>3.193057422751036</v>
       </c>
       <c r="G52" t="n">
-        <v>0.7178580503859701</v>
+        <v>0.6702500138492485</v>
       </c>
       <c r="H52" t="n">
-        <v>0.5768076476325732</v>
+        <v>0.6386114845502072</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>3.813539794270136</v>
+        <v>4.449945</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0001995537170794172</v>
+        <v>185569110470525.1</v>
       </c>
       <c r="C53" t="n">
-        <v>-2.404582686024655e-05</v>
+        <v>-22308769410819.19</v>
       </c>
       <c r="D53" t="n">
-        <v>4.830363263455963e-06</v>
+        <v>4540325479269.697</v>
       </c>
       <c r="E53" t="n">
-        <v>7.280608727280785e-06</v>
+        <v>6887827528821.776</v>
       </c>
       <c r="F53" t="n">
-        <v>0.7580626668409263</v>
+        <v>1.172349010121974</v>
       </c>
       <c r="G53" t="n">
-        <v>0.9796307717405123</v>
+        <v>0.947502436818134</v>
       </c>
       <c r="H53" t="n">
-        <v>0.1516125333681853</v>
+        <v>0.2344698020243948</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>3.817867577557342</v>
+        <v>4.454988</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0004670985991246221</v>
+        <v>435453810128798.1</v>
       </c>
       <c r="C54" t="n">
-        <v>-5.389990529280209e-05</v>
+        <v>-52614869316539.25</v>
       </c>
       <c r="D54" t="n">
-        <v>1.148512753498969e-05</v>
+        <v>10852483409275.54</v>
       </c>
       <c r="E54" t="n">
-        <v>1.73049323380901e-05</v>
+        <v>16505943285653.39</v>
       </c>
       <c r="F54" t="n">
-        <v>1.04360788551596</v>
+        <v>0.5853005812908606</v>
       </c>
       <c r="G54" t="n">
-        <v>0.9589723687979886</v>
+        <v>0.9886663653179723</v>
       </c>
       <c r="H54" t="n">
-        <v>0.2087215771031921</v>
+        <v>0.1170601162581721</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>3.82226391978771</v>
+        <v>4.460121</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0007017954516086925</v>
+        <v>651634016199492.2</v>
       </c>
       <c r="C55" t="n">
-        <v>-6.779523927133403e-05</v>
+        <v>-60560122498323.5</v>
       </c>
       <c r="D55" t="n">
-        <v>1.684116403020248e-05</v>
+        <v>15790215623771.08</v>
       </c>
       <c r="E55" t="n">
-        <v>2.580891375875308e-05</v>
+        <v>24332105868520.73</v>
       </c>
       <c r="F55" t="n">
-        <v>2.699701143879911</v>
+        <v>3.406627088106478</v>
       </c>
       <c r="G55" t="n">
-        <v>0.7461641458088852</v>
+        <v>0.6375607997606503</v>
       </c>
       <c r="H55" t="n">
-        <v>0.5399402287759821</v>
+        <v>0.6813254176212956</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>3.830696669796837</v>
+        <v>4.469957</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0007410611360572172</v>
+        <v>687414899321165.8</v>
       </c>
       <c r="C56" t="n">
-        <v>-9.559152143256348e-05</v>
+        <v>-84622073047013.12</v>
       </c>
       <c r="D56" t="n">
-        <v>1.754453310872644e-05</v>
+        <v>16403868260459.67</v>
       </c>
       <c r="E56" t="n">
-        <v>2.66609594977696e-05</v>
+        <v>25014770966841.62</v>
       </c>
       <c r="F56" t="n">
-        <v>3.377626523835322</v>
+        <v>4.78831376570147</v>
       </c>
       <c r="G56" t="n">
-        <v>0.6419796620527289</v>
+        <v>0.4422571726014888</v>
       </c>
       <c r="H56" t="n">
-        <v>0.6755253047670644</v>
+        <v>0.9576627531402939</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>3.837569703848993</v>
+        <v>4.477981</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0005454812395226144</v>
+        <v>507151610826900.2</v>
       </c>
       <c r="C57" t="n">
-        <v>-5.942276024079859e-05</v>
+        <v>-54964937317025.75</v>
       </c>
       <c r="D57" t="n">
-        <v>1.317059042722555e-05</v>
+        <v>12375992313150.2</v>
       </c>
       <c r="E57" t="n">
-        <v>2.008183456057811e-05</v>
+        <v>18994955896416.75</v>
       </c>
       <c r="F57" t="n">
-        <v>2.85399940662958</v>
+        <v>3.236861526138697</v>
       </c>
       <c r="G57" t="n">
-        <v>0.7224826001161294</v>
+        <v>0.6635211416346397</v>
       </c>
       <c r="H57" t="n">
-        <v>0.570799881325916</v>
+        <v>0.6473723052277394</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>3.844554146183789</v>
+        <v>4.486129</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0002593444322312505</v>
+        <v>239795521834659.2</v>
       </c>
       <c r="C58" t="n">
-        <v>-2.894966814838673e-05</v>
+        <v>-23213553756203.09</v>
       </c>
       <c r="D58" t="n">
-        <v>6.356523168659177e-06</v>
+        <v>5930664231321.534</v>
       </c>
       <c r="E58" t="n">
-        <v>9.669978036734713e-06</v>
+        <v>9043960285653.361</v>
       </c>
       <c r="F58" t="n">
-        <v>2.316349940150471</v>
+        <v>4.689418489954057</v>
       </c>
       <c r="G58" t="n">
-        <v>0.8038625458967935</v>
+        <v>0.4549464954541261</v>
       </c>
       <c r="H58" t="n">
-        <v>0.4632699880300943</v>
+        <v>0.9378836979908114</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>3.846319538970252</v>
+        <v>4.488189</v>
       </c>
       <c r="B59" t="n">
-        <v>0.000190304027332999</v>
+        <v>176794271830592.9</v>
       </c>
       <c r="C59" t="n">
-        <v>-1.914878054041705e-05</v>
+        <v>-17285037788669.88</v>
       </c>
       <c r="D59" t="n">
-        <v>4.700984256149801e-06</v>
+        <v>4420731675620.798</v>
       </c>
       <c r="E59" t="n">
-        <v>7.140724956786378e-06</v>
+        <v>6762078604552.597</v>
       </c>
       <c r="F59" t="n">
-        <v>1.715781837903777</v>
+        <v>2.37215220936723</v>
       </c>
       <c r="G59" t="n">
-        <v>0.886905548481948</v>
+        <v>0.7956138569717928</v>
       </c>
       <c r="H59" t="n">
-        <v>0.3431563675807555</v>
+        <v>0.4744304418734459</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>3.847930674134597</v>
+        <v>4.490073000000001</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0002544698839570633</v>
+        <v>236396128305783.9</v>
       </c>
       <c r="C60" t="n">
-        <v>-3.264967593910229e-05</v>
+        <v>-29662461486493.16</v>
       </c>
       <c r="D60" t="n">
-        <v>6.150101955734155e-06</v>
+        <v>5770577833441.512</v>
       </c>
       <c r="E60" t="n">
-        <v>9.308643240395464e-06</v>
+        <v>8781328502783.963</v>
       </c>
       <c r="F60" t="n">
-        <v>2.787526163563124</v>
+        <v>3.687520342678056</v>
       </c>
       <c r="G60" t="n">
-        <v>0.7327025714293756</v>
+        <v>0.5952222128777496</v>
       </c>
       <c r="H60" t="n">
-        <v>0.5575052327126249</v>
+        <v>0.7375040685356111</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>3.84977319573212</v>
+        <v>4.492223</v>
       </c>
       <c r="B61" t="n">
-        <v>9.842032188347079e-05</v>
+        <v>91273749079629.94</v>
       </c>
       <c r="C61" t="n">
-        <v>-6.752004223165064e-06</v>
+        <v>-5567298389606.766</v>
       </c>
       <c r="D61" t="n">
-        <v>2.470285263447771e-06</v>
+        <v>2319659016692.191</v>
       </c>
       <c r="E61" t="n">
-        <v>3.815752149141065e-06</v>
+        <v>3609676337327.545</v>
       </c>
       <c r="F61" t="n">
-        <v>3.839546820175595</v>
+        <v>4.587539560028036</v>
       </c>
       <c r="G61" t="n">
-        <v>0.5727409445102813</v>
+        <v>0.4682570583693022</v>
       </c>
       <c r="H61" t="n">
-        <v>0.7679093640351191</v>
+        <v>0.9175079120056072</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>3.852147049139162</v>
+        <v>4.494992</v>
       </c>
       <c r="B62" t="n">
-        <v>6.599505236697462e-05</v>
+        <v>61014126584082.91</v>
       </c>
       <c r="C62" t="n">
-        <v>-1.992141622386043e-06</v>
+        <v>-783231985250.1094</v>
       </c>
       <c r="D62" t="n">
-        <v>1.62524024672527e-06</v>
+        <v>1516116162899.526</v>
       </c>
       <c r="E62" t="n">
-        <v>2.565252210818789e-06</v>
+        <v>2400752945370.222</v>
       </c>
       <c r="F62" t="n">
-        <v>3.974985015223624</v>
+        <v>4.469237606561377</v>
       </c>
       <c r="G62" t="n">
-        <v>0.5530231078369461</v>
+        <v>0.484009861876565</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7949970030447249</v>
+        <v>0.8938475213122754</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>3.856414843351097</v>
+        <v>4.499972000000001</v>
       </c>
       <c r="B63" t="n">
-        <v>3.743012048992724e-05</v>
+        <v>34550774887587.69</v>
       </c>
       <c r="C63" t="n">
-        <v>2.270800579244262e-06</v>
+        <v>3001303710375.785</v>
       </c>
       <c r="D63" t="n">
-        <v>9.714722121312106e-07</v>
+        <v>907344115867.6257</v>
       </c>
       <c r="E63" t="n">
-        <v>1.569887766283875e-06</v>
+        <v>1472451971217.373</v>
       </c>
       <c r="F63" t="n">
-        <v>5.910425239673288</v>
+        <v>3.846824135039238</v>
       </c>
       <c r="G63" t="n">
-        <v>0.3150327587913012</v>
+        <v>0.5716737101847167</v>
       </c>
       <c r="H63" t="n">
-        <v>1.182085047934658</v>
+        <v>0.7693648270078477</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>3.865190388076044</v>
+        <v>4.510205</v>
       </c>
       <c r="B64" t="n">
-        <v>2.817448336847238e-05</v>
+        <v>26099112127224.2</v>
       </c>
       <c r="C64" t="n">
-        <v>2.891266447290616e-06</v>
+        <v>2776335696559.242</v>
       </c>
       <c r="D64" t="n">
-        <v>7.346668089154018e-07</v>
+        <v>691787493593.5184</v>
       </c>
       <c r="E64" t="n">
-        <v>1.192353601619965e-06</v>
+        <v>1141239351521.259</v>
       </c>
       <c r="F64" t="n">
-        <v>3.331728423477328</v>
+        <v>3.282714102951897</v>
       </c>
       <c r="G64" t="n">
-        <v>0.648987688768053</v>
+        <v>0.6564891666682664</v>
       </c>
       <c r="H64" t="n">
-        <v>0.6663456846954656</v>
+        <v>0.6565428205903794</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>3.866878652051449</v>
+        <v>4.512183</v>
       </c>
       <c r="B65" t="n">
-        <v>6.356727390383587e-05</v>
+        <v>58712035474950.38</v>
       </c>
       <c r="C65" t="n">
-        <v>1.627268006584285e-05</v>
+        <v>16698033743476.71</v>
       </c>
       <c r="D65" t="n">
-        <v>1.592720802734131e-06</v>
+        <v>1484640112163.856</v>
       </c>
       <c r="E65" t="n">
-        <v>2.769472401111683e-06</v>
+        <v>2602314136441.422</v>
       </c>
       <c r="F65" t="n">
-        <v>8.878792797018754</v>
+        <v>2.227643332407325</v>
       </c>
       <c r="G65" t="n">
-        <v>0.113997470347437</v>
+        <v>0.8168331673401544</v>
       </c>
       <c r="H65" t="n">
-        <v>1.775758559403751</v>
+        <v>0.4455286664814651</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>3.869363913741131</v>
+        <v>4.515076000000001</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0001867945605482536</v>
+        <v>172634464657125</v>
       </c>
       <c r="C66" t="n">
-        <v>4.478113239831004e-05</v>
+        <v>48826648884375.72</v>
       </c>
       <c r="D66" t="n">
-        <v>4.534046958483215e-06</v>
+        <v>4206830171350.905</v>
       </c>
       <c r="E66" t="n">
-        <v>7.907933773089996e-06</v>
+        <v>7322611076101.899</v>
       </c>
       <c r="F66" t="n">
-        <v>17.51769283328009</v>
+        <v>5.128272271948069</v>
       </c>
       <c r="G66" t="n">
-        <v>0.003615759853422177</v>
+        <v>0.4004272364099652</v>
       </c>
       <c r="H66" t="n">
-        <v>3.503538566656018</v>
+        <v>1.025654454389614</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>3.873640277820963</v>
+        <v>4.520067</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0003273393934337377</v>
+        <v>302748171184771.1</v>
       </c>
       <c r="C67" t="n">
-        <v>6.911922738413271e-05</v>
+        <v>72466302223680.47</v>
       </c>
       <c r="D67" t="n">
-        <v>7.653009201199132e-06</v>
+        <v>7116621579342.614</v>
       </c>
       <c r="E67" t="n">
-        <v>1.328413654213283e-05</v>
+        <v>12375657637535.97</v>
       </c>
       <c r="F67" t="n">
-        <v>9.337747801896565</v>
+        <v>2.125528766047025</v>
       </c>
       <c r="G67" t="n">
-        <v>0.09632747363963495</v>
+        <v>0.8315172770673078</v>
       </c>
       <c r="H67" t="n">
-        <v>1.867549560379313</v>
+        <v>0.425105753209405</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>3.878070899522913</v>
+        <v>4.525238</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0005936119034289191</v>
+        <v>548820970787523.7</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0001012180401593201</v>
+        <v>110481370418602.7</v>
       </c>
       <c r="D68" t="n">
-        <v>1.394498905081007e-05</v>
+        <v>12946768221803.09</v>
       </c>
       <c r="E68" t="n">
-        <v>2.380932821047686e-05</v>
+        <v>22083716672309.43</v>
       </c>
       <c r="F68" t="n">
-        <v>11.6714399873781</v>
+        <v>4.716561849224813</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03957797114637759</v>
+        <v>0.4514408200151268</v>
       </c>
       <c r="H68" t="n">
-        <v>2.334287997475621</v>
+        <v>0.9433123698449626</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>3.881644534435317</v>
+        <v>4.529406</v>
       </c>
       <c r="B69" t="n">
-        <v>0.000594527940394767</v>
+        <v>550369104897913.4</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0001114819849584974</v>
+        <v>118672026531873.2</v>
       </c>
       <c r="D69" t="n">
-        <v>1.343152634376002e-05</v>
+        <v>12453345693834.27</v>
       </c>
       <c r="E69" t="n">
-        <v>2.324888671981183e-05</v>
+        <v>21485341911775.27</v>
       </c>
       <c r="F69" t="n">
-        <v>9.639773006897855</v>
+        <v>2.128788218111326</v>
       </c>
       <c r="G69" t="n">
-        <v>0.08610976494209335</v>
+        <v>0.8310530541985537</v>
       </c>
       <c r="H69" t="n">
-        <v>1.927954601379571</v>
+        <v>0.4257576436222651</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>3.88648650979625</v>
+        <v>4.535056</v>
       </c>
       <c r="B70" t="n">
-        <v>0.001033339253514835</v>
+        <v>956195333374485</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0001664887674989904</v>
+        <v>175638205681695.1</v>
       </c>
       <c r="D70" t="n">
-        <v>2.361251700422788e-05</v>
+        <v>21950806786025.68</v>
       </c>
       <c r="E70" t="n">
-        <v>4.025995955726777e-05</v>
+        <v>37466627725227.73</v>
       </c>
       <c r="F70" t="n">
-        <v>6.517232085505858</v>
+        <v>1.643063170559358</v>
       </c>
       <c r="G70" t="n">
-        <v>0.2590894220219364</v>
+        <v>0.8959933035400335</v>
       </c>
       <c r="H70" t="n">
-        <v>1.303446417101172</v>
+        <v>0.3286126341118716</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>3.890925701366096</v>
+        <v>4.540236</v>
       </c>
       <c r="B71" t="n">
-        <v>0.001146118486760949</v>
+        <v>1059918255879134</v>
       </c>
       <c r="C71" t="n">
-        <v>0.000160531886253801</v>
+        <v>172466186138259.1</v>
       </c>
       <c r="D71" t="n">
-        <v>2.697924652257343e-05</v>
+        <v>25113836618796.45</v>
       </c>
       <c r="E71" t="n">
-        <v>4.533051363280929e-05</v>
+        <v>42305982635722.19</v>
       </c>
       <c r="F71" t="n">
-        <v>7.192962074621794</v>
+        <v>3.115594959052385</v>
       </c>
       <c r="G71" t="n">
-        <v>0.2066804783517336</v>
+        <v>0.6821698554784623</v>
       </c>
       <c r="H71" t="n">
-        <v>1.438592414924359</v>
+        <v>0.623118991810477</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>3.899118495074151</v>
+        <v>4.549804</v>
       </c>
       <c r="B72" t="n">
-        <v>0.001477848717651293</v>
+        <v>1369320679639348</v>
       </c>
       <c r="C72" t="n">
-        <v>7.157864357022455e-05</v>
+        <v>83515027843449.88</v>
       </c>
       <c r="D72" t="n">
-        <v>3.176344769637535e-05</v>
+        <v>29431269797183.2</v>
       </c>
       <c r="E72" t="n">
-        <v>5.225532634891967e-05</v>
+        <v>48291046415900.85</v>
       </c>
       <c r="F72" t="n">
-        <v>2.443953563901908</v>
+        <v>1.329274214197149</v>
       </c>
       <c r="G72" t="n">
-        <v>0.7849110987217176</v>
+        <v>0.9318907522035946</v>
       </c>
       <c r="H72" t="n">
-        <v>0.4887907127803816</v>
+        <v>0.2658548428394299</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>3.908014017949633</v>
+        <v>4.560183</v>
       </c>
       <c r="B73" t="n">
-        <v>0.00224085120012317</v>
+        <v>2076034398949510</v>
       </c>
       <c r="C73" t="n">
-        <v>-7.261330836485624e-05</v>
+        <v>-46840340773347.25</v>
       </c>
       <c r="D73" t="n">
-        <v>4.974839992043508e-05</v>
+        <v>46226530250770.2</v>
       </c>
       <c r="E73" t="n">
-        <v>7.914594279192039e-05</v>
+        <v>73557497700727.7</v>
       </c>
       <c r="F73" t="n">
-        <v>3.802611722379982</v>
+        <v>4.238772204197784</v>
       </c>
       <c r="G73" t="n">
-        <v>0.5781705473498709</v>
+        <v>0.5155755256921142</v>
       </c>
       <c r="H73" t="n">
-        <v>0.7605223444759964</v>
+        <v>0.8477544408395568</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>3.916541036505611</v>
+        <v>4.570129</v>
       </c>
       <c r="B74" t="n">
-        <v>0.002064208169039426</v>
+        <v>1916454486596276</v>
       </c>
       <c r="C74" t="n">
-        <v>-9.844368864760111e-05</v>
+        <v>-86102766391097</v>
       </c>
       <c r="D74" t="n">
-        <v>4.620353618991828e-05</v>
+        <v>43131494422425.77</v>
       </c>
       <c r="E74" t="n">
-        <v>7.270520487867948e-05</v>
+        <v>68105487494240</v>
       </c>
       <c r="F74" t="n">
-        <v>3.708062287922214</v>
+        <v>3.943426690683028</v>
       </c>
       <c r="G74" t="n">
-        <v>0.5921646315036353</v>
+        <v>0.5575896007288879</v>
       </c>
       <c r="H74" t="n">
-        <v>0.7416124575844428</v>
+        <v>0.7886853381366056</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>3.925025205722112</v>
+        <v>4.580025</v>
       </c>
       <c r="B75" t="n">
-        <v>0.001054205137114193</v>
+        <v>975483395180227.1</v>
       </c>
       <c r="C75" t="n">
-        <v>-5.77874108826002e-05</v>
+        <v>-40122203441391.88</v>
       </c>
       <c r="D75" t="n">
-        <v>2.506251782649397e-05</v>
+        <v>23361517497328.45</v>
       </c>
       <c r="E75" t="n">
-        <v>3.92097329685053e-05</v>
+        <v>36633033658997.59</v>
       </c>
       <c r="F75" t="n">
-        <v>3.828250639476977</v>
+        <v>4.800656568043453</v>
       </c>
       <c r="G75" t="n">
-        <v>0.574399235183097</v>
+        <v>0.4406896773089055</v>
       </c>
       <c r="H75" t="n">
-        <v>0.7656501278953954</v>
+        <v>0.9601313136086906</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>3.933637922957044</v>
+        <v>4.590082</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0005624896063433931</v>
+        <v>523158091322786.9</v>
       </c>
       <c r="C76" t="n">
-        <v>-2.587342910565258e-05</v>
+        <v>-25242452029536.25</v>
       </c>
       <c r="D76" t="n">
-        <v>1.323008600723369e-05</v>
+        <v>12439647115640.61</v>
       </c>
       <c r="E76" t="n">
-        <v>2.058515090138344e-05</v>
+        <v>19517396905719.22</v>
       </c>
       <c r="F76" t="n">
-        <v>1.387905548769103</v>
+        <v>1.295441743119721</v>
       </c>
       <c r="G76" t="n">
-        <v>0.9256316901399381</v>
+        <v>0.9354000208300223</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2775811097538205</v>
+        <v>0.2590883486239441</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>3.942370618342513</v>
+        <v>4.600268</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0004565074608074626</v>
+        <v>422112113820575.4</v>
       </c>
       <c r="C77" t="n">
-        <v>4.945902315670725e-05</v>
+        <v>54911328248596.31</v>
       </c>
       <c r="D77" t="n">
-        <v>1.080279135377125e-05</v>
+        <v>10059448805976.96</v>
       </c>
       <c r="E77" t="n">
-        <v>1.793096480933719e-05</v>
+        <v>16743150975019.9</v>
       </c>
       <c r="F77" t="n">
-        <v>5.943986905515134</v>
+        <v>2.792797444033007</v>
       </c>
       <c r="G77" t="n">
-        <v>0.3117074553060518</v>
+        <v>0.7318929667950443</v>
       </c>
       <c r="H77" t="n">
-        <v>1.188797381103027</v>
+        <v>0.5585594888066014</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>3.950700529936895</v>
+        <v>4.609989</v>
       </c>
       <c r="B78" t="n">
-        <v>0.001029206197776572</v>
+        <v>953278469754098.2</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0002006569364725538</v>
+        <v>210437376552096.9</v>
       </c>
       <c r="D78" t="n">
-        <v>2.312753777030459e-05</v>
+        <v>21442356738394.42</v>
       </c>
       <c r="E78" t="n">
-        <v>4.008360801694609e-05</v>
+        <v>37033527080999.2</v>
       </c>
       <c r="F78" t="n">
-        <v>9.672152822173093</v>
+        <v>2.443371029218431</v>
       </c>
       <c r="G78" t="n">
-        <v>0.08507583097199181</v>
+        <v>0.7849983030124581</v>
       </c>
       <c r="H78" t="n">
-        <v>1.934430564434618</v>
+        <v>0.4886742058436861</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>3.959476074661841</v>
+        <v>4.620227</v>
       </c>
       <c r="B79" t="n">
-        <v>0.001156613248461758</v>
+        <v>1070811528792134</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0002463001789350086</v>
+        <v>261435803031530.1</v>
       </c>
       <c r="D79" t="n">
-        <v>2.667604838347302e-05</v>
+        <v>24729993475682.14</v>
       </c>
       <c r="E79" t="n">
-        <v>4.637956626428096e-05</v>
+        <v>42831526837126.45</v>
       </c>
       <c r="F79" t="n">
-        <v>12.48786088623009</v>
+        <v>3.431964135048245</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02868116246887801</v>
+        <v>0.6337063913911531</v>
       </c>
       <c r="H79" t="n">
-        <v>2.497572177246018</v>
+        <v>0.686392827009649</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>3.967797416388328</v>
+        <v>4.629939</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0008377875529097179</v>
+        <v>776796662666442.8</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0002102499316808395</v>
+        <v>220206201416564.4</v>
       </c>
       <c r="D80" t="n">
-        <v>1.884695017570343e-05</v>
+        <v>17454450583026.72</v>
       </c>
       <c r="E80" t="n">
-        <v>3.32763475143125e-05</v>
+        <v>30604942698771.35</v>
       </c>
       <c r="F80" t="n">
-        <v>12.98467164217056</v>
+        <v>1.135439069482212</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02352283560073723</v>
+        <v>0.9509191155858728</v>
       </c>
       <c r="H80" t="n">
-        <v>2.596934328434113</v>
+        <v>0.2270878138964424</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>3.97227945729765</v>
+        <v>4.635173</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0004450210377194872</v>
+        <v>411450022166360.9</v>
       </c>
       <c r="C81" t="n">
-        <v>7.952194172514794e-05</v>
+        <v>87583780142367.66</v>
       </c>
       <c r="D81" t="n">
-        <v>1.049427274201601e-05</v>
+        <v>9729621373591.576</v>
       </c>
       <c r="E81" t="n">
-        <v>1.789880552518788e-05</v>
+        <v>16542330625230.77</v>
       </c>
       <c r="F81" t="n">
-        <v>11.28595042207857</v>
+        <v>2.992974213348316</v>
       </c>
       <c r="G81" t="n">
-        <v>0.04599611288125308</v>
+        <v>0.7010690724946849</v>
       </c>
       <c r="H81" t="n">
-        <v>2.257190084415715</v>
+        <v>0.5985948426696632</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>3.976384424019573</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0002627443559731125</v>
+        <v>242706065226495.8</v>
       </c>
       <c r="C82" t="n">
-        <v>3.681726655426729e-05</v>
+        <v>42076417116672.44</v>
       </c>
       <c r="D82" t="n">
-        <v>6.356416339332958e-06</v>
+        <v>5895811890760.587</v>
       </c>
       <c r="E82" t="n">
-        <v>1.064768991160057e-05</v>
+        <v>9856726807592.709</v>
       </c>
       <c r="F82" t="n">
-        <v>9.198561104954724</v>
+        <v>2.938395993258696</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1014015410061664</v>
+        <v>0.7094829503686428</v>
       </c>
       <c r="H82" t="n">
-        <v>1.839712220990945</v>
+        <v>0.5876791986517392</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>3.984954291915029</v>
+        <v>4.649962</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0002187886194285631</v>
+        <v>202410754203363.5</v>
       </c>
       <c r="C83" t="n">
-        <v>1.674658179070097e-05</v>
+        <v>18817945585077.75</v>
       </c>
       <c r="D83" t="n">
-        <v>5.352790950916763e-06</v>
+        <v>4998549551511.864</v>
       </c>
       <c r="E83" t="n">
-        <v>8.768023840758623e-06</v>
+        <v>8233599649585.811</v>
       </c>
       <c r="F83" t="n">
-        <v>5.850360632497493</v>
+        <v>4.278201742801238</v>
       </c>
       <c r="G83" t="n">
-        <v>0.3210529038394389</v>
+        <v>0.5100956200419386</v>
       </c>
       <c r="H83" t="n">
-        <v>1.170072126499499</v>
+        <v>0.8556403485602475</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>4.002231145592266</v>
+        <v>4.670119000000001</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0001138788901573742</v>
+        <v>105388598372697.1</v>
       </c>
       <c r="C84" t="n">
-        <v>1.034811122604181e-05</v>
+        <v>11191167265079.2</v>
       </c>
       <c r="D84" t="n">
-        <v>2.830184742141288e-06</v>
+        <v>2641992982688.919</v>
       </c>
       <c r="E84" t="n">
-        <v>4.58279006755636e-06</v>
+        <v>4298119834771.542</v>
       </c>
       <c r="F84" t="n">
-        <v>2.475237173936106</v>
+        <v>0.7895221111023611</v>
       </c>
       <c r="G84" t="n">
-        <v>0.7802196967174392</v>
+        <v>0.9776968368445274</v>
       </c>
       <c r="H84" t="n">
-        <v>0.4950474347872212</v>
+        <v>0.1579044222204722</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.010826723091408</v>
+        <v>4.680153</v>
       </c>
       <c r="B85" t="n">
-        <v>5.993832268573723e-05</v>
+        <v>55429971225844.67</v>
       </c>
       <c r="C85" t="n">
-        <v>6.260726838921282e-06</v>
+        <v>6710924159631.898</v>
       </c>
       <c r="D85" t="n">
-        <v>1.588546844510298e-06</v>
+        <v>1485620184277.09</v>
       </c>
       <c r="E85" t="n">
-        <v>2.566354729648022e-06</v>
+        <v>2417878123345.79</v>
       </c>
       <c r="F85" t="n">
-        <v>5.86377674090039</v>
+        <v>4.11679916733833</v>
       </c>
       <c r="G85" t="n">
-        <v>0.3197005523258612</v>
+        <v>0.532725341480464</v>
       </c>
       <c r="H85" t="n">
-        <v>1.172755348180078</v>
+        <v>0.8233598334676661</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.019208053893163</v>
+        <v>4.689928</v>
       </c>
       <c r="B86" t="n">
-        <v>4.599332598824577e-05</v>
+        <v>42493391691368.62</v>
       </c>
       <c r="C86" t="n">
-        <v>5.108504923128369e-06</v>
+        <v>5645456069736.117</v>
       </c>
       <c r="D86" t="n">
-        <v>1.218597148078624e-06</v>
+        <v>1139208502797.241</v>
       </c>
       <c r="E86" t="n">
-        <v>1.992108395772987e-06</v>
+        <v>1877299001309.672</v>
       </c>
       <c r="F86" t="n">
-        <v>7.695349186770069</v>
+        <v>5.225126724594396</v>
       </c>
       <c r="G86" t="n">
-        <v>0.1738440729276237</v>
+        <v>0.3890278933745321</v>
       </c>
       <c r="H86" t="n">
-        <v>1.539069837354014</v>
+        <v>1.045025344918879</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.036424918495132</v>
+        <v>4.71002</v>
       </c>
       <c r="B87" t="n">
-        <v>3.684020211434247e-05</v>
+        <v>34106733463558.21</v>
       </c>
       <c r="C87" t="n">
-        <v>4.29525813837338e-06</v>
+        <v>4315384679943.332</v>
       </c>
       <c r="D87" t="n">
-        <v>9.29103111040656e-07</v>
+        <v>870971216523.7125</v>
       </c>
       <c r="E87" t="n">
-        <v>1.533706523939268e-06</v>
+        <v>1452072264568.718</v>
       </c>
       <c r="F87" t="n">
-        <v>1.809081211923718</v>
+        <v>0.8439085268324604</v>
       </c>
       <c r="G87" t="n">
-        <v>0.8748809072844951</v>
+        <v>0.9741485960142092</v>
       </c>
       <c r="H87" t="n">
-        <v>0.3618162423847436</v>
+        <v>0.1687817053664921</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.053547514550251</v>
+        <v>4.730004</v>
       </c>
       <c r="B88" t="n">
-        <v>3.406545579689906e-05</v>
+        <v>31491128782167.26</v>
       </c>
       <c r="C88" t="n">
-        <v>5.318329697858257e-06</v>
+        <v>5508078332056.988</v>
       </c>
       <c r="D88" t="n">
-        <v>9.254993318685165e-07</v>
+        <v>864710901765.5515</v>
       </c>
       <c r="E88" t="n">
-        <v>1.522709189301123e-06</v>
+        <v>1432857965745.202</v>
       </c>
       <c r="F88" t="n">
-        <v>3.867428606760082</v>
+        <v>1.317588157316454</v>
       </c>
       <c r="G88" t="n">
-        <v>0.5686566701864961</v>
+        <v>0.9331115066024905</v>
       </c>
       <c r="H88" t="n">
-        <v>0.7734857213520163</v>
+        <v>0.2635176314632908</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.070687250341162</v>
+        <v>4.749999</v>
       </c>
       <c r="B89" t="n">
-        <v>4.631781313841878e-05</v>
+        <v>42814624856535.86</v>
       </c>
       <c r="C89" t="n">
-        <v>5.765491632615782e-06</v>
+        <v>5976525812078.012</v>
       </c>
       <c r="D89" t="n">
-        <v>1.258607473280422e-06</v>
+        <v>1181790783563.715</v>
       </c>
       <c r="E89" t="n">
-        <v>2.046519060379973e-06</v>
+        <v>1945684390613.955</v>
       </c>
       <c r="F89" t="n">
-        <v>4.081478929979491</v>
+        <v>2.589395688548584</v>
       </c>
       <c r="G89" t="n">
-        <v>0.5377456806198393</v>
+        <v>0.762975800567874</v>
       </c>
       <c r="H89" t="n">
-        <v>0.8162957859958982</v>
+        <v>0.5178791377097169</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.075126441911007</v>
+        <v>4.755179</v>
       </c>
       <c r="B90" t="n">
-        <v>8.316327378962752e-05</v>
+        <v>77069183989000.98</v>
       </c>
       <c r="C90" t="n">
-        <v>1.089277827061923e-05</v>
+        <v>10389603709364.71</v>
       </c>
       <c r="D90" t="n">
-        <v>2.236967073264269e-06</v>
+        <v>2097499017820.399</v>
       </c>
       <c r="E90" t="n">
-        <v>3.631926082976581e-06</v>
+        <v>3443114143107.147</v>
       </c>
       <c r="F90" t="n">
-        <v>2.796357404331692</v>
+        <v>2.674792813524524</v>
       </c>
       <c r="G90" t="n">
-        <v>0.7313461103131034</v>
+        <v>0.7499709824594936</v>
       </c>
       <c r="H90" t="n">
-        <v>0.5592714808663384</v>
+        <v>0.5349585627049048</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.078297293032326</v>
+        <v>4.758876</v>
       </c>
       <c r="B91" t="n">
-        <v>9.396337832565162e-05</v>
+        <v>86877929701738.48</v>
       </c>
       <c r="C91" t="n">
-        <v>7.404247796020938e-06</v>
+        <v>8602344045078.977</v>
       </c>
       <c r="D91" t="n">
-        <v>2.48249593738808e-06</v>
+        <v>2312043465779.816</v>
       </c>
       <c r="E91" t="n">
-        <v>3.98449608852997e-06</v>
+        <v>3720938535659.306</v>
       </c>
       <c r="F91" t="n">
-        <v>3.835205330854124</v>
+        <v>1.941081101971668</v>
       </c>
       <c r="G91" t="n">
-        <v>0.5733780383938346</v>
+        <v>0.8572360708506614</v>
       </c>
       <c r="H91" t="n">
-        <v>0.7670410661708248</v>
+        <v>0.3882162203943337</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.087861265603653</v>
+        <v>4.770038</v>
       </c>
       <c r="B92" t="n">
-        <v>0.000115217578072859</v>
+        <v>106472529691190</v>
       </c>
       <c r="C92" t="n">
-        <v>1.343409625481012e-05</v>
+        <v>14969394547613.19</v>
       </c>
       <c r="D92" t="n">
-        <v>2.964009510548062e-06</v>
+        <v>2761389396416.376</v>
       </c>
       <c r="E92" t="n">
-        <v>4.884108681474162e-06</v>
+        <v>4564626130398.073</v>
       </c>
       <c r="F92" t="n">
-        <v>5.415250724427446</v>
+        <v>2.226933880376832</v>
       </c>
       <c r="G92" t="n">
-        <v>0.3673284579053845</v>
+        <v>0.8169361412047693</v>
       </c>
       <c r="H92" t="n">
-        <v>1.083050144885489</v>
+        <v>0.4453867760753664</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.09212905981559</v>
+        <v>4.775016</v>
       </c>
       <c r="B93" t="n">
-        <v>0.000174083512525363</v>
+        <v>160896409479537.3</v>
       </c>
       <c r="C93" t="n">
-        <v>2.172499672303673e-05</v>
+        <v>23905920220063.25</v>
       </c>
       <c r="D93" t="n">
-        <v>4.30395329770264e-06</v>
+        <v>4010319494587.646</v>
       </c>
       <c r="E93" t="n">
-        <v>7.142529041827519e-06</v>
+        <v>6677595746648.697</v>
       </c>
       <c r="F93" t="n">
-        <v>5.111720144295324</v>
+        <v>1.546337509068247</v>
       </c>
       <c r="G93" t="n">
-        <v>0.4023985421008726</v>
+        <v>0.907661329330043</v>
       </c>
       <c r="H93" t="n">
-        <v>1.022344028859065</v>
+        <v>0.3092675018136494</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.096551111649645</v>
+        <v>4.780179</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0003653004771173616</v>
+        <v>337386980070313.6</v>
       </c>
       <c r="C94" t="n">
-        <v>6.591534286843787e-05</v>
+        <v>75531540535064</v>
       </c>
       <c r="D94" t="n">
-        <v>8.847966566950537e-06</v>
+        <v>8191743609698.797</v>
       </c>
       <c r="E94" t="n">
-        <v>1.501774425783742e-05</v>
+        <v>13832834849578.9</v>
       </c>
       <c r="F94" t="n">
-        <v>16.22045390683272</v>
+        <v>5.671211961195192</v>
       </c>
       <c r="G94" t="n">
-        <v>0.006242057592780572</v>
+        <v>0.339536790159943</v>
       </c>
       <c r="H94" t="n">
-        <v>3.244090781366544</v>
+        <v>1.134242392239039</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.105069560337727</v>
+        <v>4.790118</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0004602484838240445</v>
+        <v>425958194438808.7</v>
       </c>
       <c r="C95" t="n">
-        <v>9.675521339898933e-05</v>
+        <v>99181599843974.5</v>
       </c>
       <c r="D95" t="n">
-        <v>1.057157862551819e-05</v>
+        <v>9834436073569.525</v>
       </c>
       <c r="E95" t="n">
-        <v>1.832863914047507e-05</v>
+        <v>17095348230728.01</v>
       </c>
       <c r="F95" t="n">
-        <v>8.265552218730917</v>
+        <v>2.47284735426136</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1421950432199287</v>
+        <v>0.7805786460409283</v>
       </c>
       <c r="H95" t="n">
-        <v>1.653110443746183</v>
+        <v>0.494569470852272</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.113468030875272</v>
+        <v>4.799915</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0003794256122194448</v>
+        <v>351294852190468.7</v>
       </c>
       <c r="C96" t="n">
-        <v>6.991255789649042e-05</v>
+        <v>70842421447254.38</v>
       </c>
       <c r="D96" t="n">
-        <v>8.707198393011351e-06</v>
+        <v>8106082419783.982</v>
       </c>
       <c r="E96" t="n">
-        <v>1.488263227953496e-05</v>
+        <v>13903717098388.63</v>
       </c>
       <c r="F96" t="n">
-        <v>5.333742783177827</v>
+        <v>1.436221408629889</v>
       </c>
       <c r="G96" t="n">
-        <v>0.3765210486114752</v>
+        <v>0.9203104146519434</v>
       </c>
       <c r="H96" t="n">
-        <v>1.066748556635565</v>
+        <v>0.2872442817259779</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.122132167317578</v>
+        <v>4.810027</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0001837555331158386</v>
+        <v>169734965292295.7</v>
       </c>
       <c r="C97" t="n">
-        <v>3.935303253561086e-05</v>
+        <v>39901976255133.53</v>
       </c>
       <c r="D97" t="n">
-        <v>4.608450792767502e-06</v>
+        <v>4309734805378.38</v>
       </c>
       <c r="E97" t="n">
-        <v>7.902226882099959e-06</v>
+        <v>7472895449095.022</v>
       </c>
       <c r="F97" t="n">
-        <v>6.13027774622962</v>
+        <v>2.422398910945935</v>
       </c>
       <c r="G97" t="n">
-        <v>0.2937479814467549</v>
+        <v>0.7881338788185042</v>
       </c>
       <c r="H97" t="n">
-        <v>1.226055549245924</v>
+        <v>0.4844797821891869</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.12395754917931</v>
+        <v>4.81216</v>
       </c>
       <c r="B98" t="n">
-        <v>8.77833840461308e-05</v>
+        <v>80931132408066.69</v>
       </c>
       <c r="C98" t="n">
-        <v>1.86516969939712e-05</v>
+        <v>19773661489865.48</v>
       </c>
       <c r="D98" t="n">
-        <v>2.359080071396508e-06</v>
+        <v>2206177995533.204</v>
       </c>
       <c r="E98" t="n">
-        <v>3.987523254333275e-06</v>
+        <v>3772377100394.047</v>
       </c>
       <c r="F98" t="n">
-        <v>5.977164636688681</v>
+        <v>0.3864919571546307</v>
       </c>
       <c r="G98" t="n">
-        <v>0.3084472449768429</v>
+        <v>0.9956934995920783</v>
       </c>
       <c r="H98" t="n">
-        <v>1.195432927337736</v>
+        <v>0.07729839143092614</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.126622778094797</v>
+        <v>4.81527</v>
       </c>
       <c r="B99" t="n">
-        <v>5.468815806457532e-05</v>
+        <v>50428355791684.77</v>
       </c>
       <c r="C99" t="n">
-        <v>1.260189190211329e-05</v>
+        <v>12939230338629.65</v>
       </c>
       <c r="D99" t="n">
-        <v>1.502523711298063e-06</v>
+        <v>1408085629819.186</v>
       </c>
       <c r="E99" t="n">
-        <v>2.557537439231187e-06</v>
+        <v>2428613522494.86</v>
       </c>
       <c r="F99" t="n">
-        <v>5.5000297639567</v>
+        <v>1.388821728724163</v>
       </c>
       <c r="G99" t="n">
-        <v>0.3579426171360506</v>
+        <v>0.9255321392600426</v>
       </c>
       <c r="H99" t="n">
-        <v>1.10000595279134</v>
+        <v>0.2777643457448326</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.13072774481672</v>
+        <v>4.820058</v>
       </c>
       <c r="B100" t="n">
-        <v>2.971624615127015e-05</v>
+        <v>27386348895151.21</v>
       </c>
       <c r="C100" t="n">
-        <v>6.122330591565587e-06</v>
+        <v>6414237965533.988</v>
       </c>
       <c r="D100" t="n">
-        <v>8.57807813947495e-07</v>
+        <v>803929215051.2976</v>
       </c>
       <c r="E100" t="n">
-        <v>1.420515501319526e-06</v>
+        <v>1350213295175.44</v>
       </c>
       <c r="F100" t="n">
-        <v>4.959930920598326</v>
+        <v>0.9889437185033915</v>
       </c>
       <c r="G100" t="n">
-        <v>0.420789845694845</v>
+        <v>0.9634525998646938</v>
       </c>
       <c r="H100" t="n">
-        <v>0.9919861841196653</v>
+        <v>0.1977887437006783</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.139151924957952</v>
+        <v>4.829886</v>
       </c>
       <c r="B101" t="n">
-        <v>1.926094630253857e-05</v>
+        <v>17821025573580.78</v>
       </c>
       <c r="C101" t="n">
-        <v>2.257052244219248e-06</v>
+        <v>2194494335110.15</v>
       </c>
       <c r="D101" t="n">
-        <v>5.47936326858049e-07</v>
+        <v>517721116448.4822</v>
       </c>
       <c r="E101" t="n">
-        <v>8.859300726546522e-07</v>
+        <v>853763363122.9524</v>
       </c>
       <c r="F101" t="n">
-        <v>2.460202584092007</v>
+        <v>2.324508578988906</v>
       </c>
       <c r="G101" t="n">
-        <v>0.7824763490849627</v>
+        <v>0.8026606028264177</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4920405168184013</v>
+        <v>0.4649017157977812</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.156411638899399</v>
+        <v>4.85003</v>
       </c>
       <c r="B102" t="n">
-        <v>1.34362146084029e-05</v>
+        <v>12406016436393.5</v>
       </c>
       <c r="C102" t="n">
-        <v>2.190490920656187e-06</v>
+        <v>2267683118959.1</v>
       </c>
       <c r="D102" t="n">
-        <v>4.416921653874054e-07</v>
+        <v>413630034513.3762</v>
       </c>
       <c r="E102" t="n">
-        <v>7.265624868045553e-07</v>
+        <v>689269232291.5898</v>
       </c>
       <c r="F102" t="n">
-        <v>6.943666229691827</v>
+        <v>5.226368631784059</v>
       </c>
       <c r="G102" t="n">
-        <v>0.224863751216276</v>
+        <v>0.3888832348882396</v>
       </c>
       <c r="H102" t="n">
-        <v>1.388733245938365</v>
+        <v>1.045273726356812</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.170346244097408</v>
+        <v>4.866293</v>
       </c>
       <c r="B103" t="n">
-        <v>1.305264713322583e-05</v>
+        <v>11978350782505.32</v>
       </c>
       <c r="C103" t="n">
-        <v>2.934374382330526e-06</v>
+        <v>3060333181332.545</v>
       </c>
       <c r="D103" t="n">
-        <v>4.540111006670417e-07</v>
+        <v>428817763208.7635</v>
       </c>
       <c r="E103" t="n">
-        <v>7.52471592842691e-07</v>
+        <v>730469552241.582</v>
       </c>
       <c r="F103" t="n">
-        <v>7.455683087164164</v>
+        <v>5.12061968061553</v>
       </c>
       <c r="G103" t="n">
-        <v>0.1888955438115281</v>
+        <v>0.4013377960382977</v>
       </c>
       <c r="H103" t="n">
-        <v>1.491136617432833</v>
+        <v>1.024123936123106</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.190571132330683</v>
+        <v>4.889892</v>
       </c>
       <c r="B104" t="n">
-        <v>1.565409290919784e-05</v>
+        <v>14475310170775.11</v>
       </c>
       <c r="C104" t="n">
-        <v>3.230962699770445e-06</v>
+        <v>3076664583252.086</v>
       </c>
       <c r="D104" t="n">
-        <v>4.486743802200532e-07</v>
+        <v>421495002016.8668</v>
       </c>
       <c r="E104" t="n">
-        <v>7.604440422584657e-07</v>
+        <v>726191561657.3838</v>
       </c>
       <c r="F104" t="n">
-        <v>5.641448811640658</v>
+        <v>5.745850174897446</v>
       </c>
       <c r="G104" t="n">
-        <v>0.3426846359293685</v>
+        <v>0.3317394610844824</v>
       </c>
       <c r="H104" t="n">
-        <v>1.128289762328132</v>
+        <v>1.149170034979489</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.199158139961929</v>
+        <v>4.899914</v>
       </c>
       <c r="B105" t="n">
-        <v>2.909931208032323e-05</v>
+        <v>26901279984725.4</v>
       </c>
       <c r="C105" t="n">
-        <v>-6.388252746669975e-07</v>
+        <v>-110301378178.6758</v>
       </c>
       <c r="D105" t="n">
-        <v>8.783491119196006e-07</v>
+        <v>829204741930.2626</v>
       </c>
       <c r="E105" t="n">
-        <v>1.34506425561005e-06</v>
+        <v>1283837000447.95</v>
       </c>
       <c r="F105" t="n">
-        <v>2.850222482858148</v>
+        <v>3.060703186171966</v>
       </c>
       <c r="G105" t="n">
-        <v>0.7230638308675225</v>
+        <v>0.6906275469420264</v>
       </c>
       <c r="H105" t="n">
-        <v>0.5700444965716296</v>
+        <v>0.6121406372343933</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.207916544951084</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="B106" t="n">
-        <v>4.178608936086427e-05</v>
+        <v>38758602899965.48</v>
       </c>
       <c r="C106" t="n">
-        <v>-6.132301376619612e-07</v>
+        <v>-335737282712.8047</v>
       </c>
       <c r="D106" t="n">
-        <v>1.104059791790168e-06</v>
+        <v>1039801951583.494</v>
       </c>
       <c r="E106" t="n">
-        <v>1.730293204703944e-06</v>
+        <v>1646222329568.197</v>
       </c>
       <c r="F106" t="n">
-        <v>2.812783975807479</v>
+        <v>2.900770032462885</v>
       </c>
       <c r="G106" t="n">
-        <v>0.7288218763097692</v>
+        <v>0.7152808908476372</v>
       </c>
       <c r="H106" t="n">
-        <v>0.5625567951614958</v>
+        <v>0.580154006492577</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.216340725092316</v>
+        <v>4.919957</v>
       </c>
       <c r="B107" t="n">
-        <v>5.325853984490898e-05</v>
+        <v>49417396099724.76</v>
       </c>
       <c r="C107" t="n">
-        <v>-2.940767478892927e-06</v>
+        <v>-2422808081392.68</v>
       </c>
       <c r="D107" t="n">
-        <v>1.431912829244729e-06</v>
+        <v>1348517488356.941</v>
       </c>
       <c r="E107" t="n">
-        <v>2.203583640445189e-06</v>
+        <v>2094115844547.647</v>
       </c>
       <c r="F107" t="n">
-        <v>1.82993612389195</v>
+        <v>2.280427596665053</v>
       </c>
       <c r="G107" t="n">
-        <v>0.8721404417753926</v>
+        <v>0.8091371982637137</v>
       </c>
       <c r="H107" t="n">
-        <v>0.3659872247783899</v>
+        <v>0.4560855193330106</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.221645473319603</v>
+        <v>4.926154</v>
       </c>
       <c r="B108" t="n">
-        <v>5.412162589007096e-05</v>
+        <v>50255117027601.28</v>
       </c>
       <c r="C108" t="n">
-        <v>4.890508022218466e-08</v>
+        <v>124590660093.4297</v>
       </c>
       <c r="D108" t="n">
-        <v>1.305726781374013e-06</v>
+        <v>1226622744216.576</v>
       </c>
       <c r="E108" t="n">
-        <v>2.064338439932983e-06</v>
+        <v>1956090516971.489</v>
       </c>
       <c r="F108" t="n">
-        <v>1.466007753133702</v>
+        <v>1.462890427761125</v>
       </c>
       <c r="G108" t="n">
-        <v>0.9169588609157404</v>
+        <v>0.9173121101338609</v>
       </c>
       <c r="H108" t="n">
-        <v>0.2932015506267405</v>
+        <v>0.292578085552225</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.225107699949367</v>
+        <v>4.930194999999999</v>
       </c>
       <c r="B109" t="n">
-        <v>5.486070151712534e-05</v>
+        <v>50871484937890.56</v>
       </c>
       <c r="C109" t="n">
-        <v>3.000890538298016e-06</v>
+        <v>2963690021797.594</v>
       </c>
       <c r="D109" t="n">
-        <v>1.416010977866239e-06</v>
+        <v>1335790561431.307</v>
       </c>
       <c r="E109" t="n">
-        <v>2.260968986020145e-06</v>
+        <v>2165101830205.156</v>
       </c>
       <c r="F109" t="n">
-        <v>3.751578109724515</v>
+        <v>3.642829725340061</v>
       </c>
       <c r="G109" t="n">
-        <v>0.5857074303846038</v>
+        <v>0.601894286965396</v>
       </c>
       <c r="H109" t="n">
-        <v>0.750315621944903</v>
+        <v>0.7285659450680122</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.230875221043007</v>
+        <v>4.936923</v>
       </c>
       <c r="B110" t="n">
-        <v>5.288118770372362e-05</v>
+        <v>49051691731195.24</v>
       </c>
       <c r="C110" t="n">
-        <v>3.031767668738316e-06</v>
+        <v>2996067436319.906</v>
       </c>
       <c r="D110" t="n">
-        <v>1.278815813042527e-06</v>
+        <v>1199081144764.366</v>
       </c>
       <c r="E110" t="n">
-        <v>2.089186292428443e-06</v>
+        <v>1977868195133.396</v>
       </c>
       <c r="F110" t="n">
-        <v>4.64014073382193</v>
+        <v>4.4326745000656</v>
       </c>
       <c r="G110" t="n">
-        <v>0.4613547651081212</v>
+        <v>0.4889415754146976</v>
       </c>
       <c r="H110" t="n">
-        <v>0.9280281467643861</v>
+        <v>0.88653490001312</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.23929940118424</v>
+        <v>4.946745</v>
       </c>
       <c r="B111" t="n">
-        <v>5.451346227125984e-05</v>
+        <v>50579940532612.28</v>
       </c>
       <c r="C111" t="n">
-        <v>2.700164224053123e-06</v>
+        <v>2632348454809.258</v>
       </c>
       <c r="D111" t="n">
-        <v>1.324962831546697e-06</v>
+        <v>1242799729832.391</v>
       </c>
       <c r="E111" t="n">
-        <v>2.14159528573686e-06</v>
+        <v>2028106874901.397</v>
       </c>
       <c r="F111" t="n">
-        <v>6.887525105539086</v>
+        <v>6.788701823737657</v>
       </c>
       <c r="G111" t="n">
-        <v>0.2291405081619888</v>
+        <v>0.2368350597242417</v>
       </c>
       <c r="H111" t="n">
-        <v>1.377505021107817</v>
+        <v>1.357740364747531</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.24231599468344</v>
+        <v>4.950269</v>
       </c>
       <c r="B112" t="n">
-        <v>5.539642131903197e-05</v>
+        <v>51261533842994.17</v>
       </c>
       <c r="C112" t="n">
-        <v>5.746065805661331e-06</v>
+        <v>5922585182637.023</v>
       </c>
       <c r="D112" t="n">
-        <v>1.428832685774297e-06</v>
+        <v>1340188510555.382</v>
       </c>
       <c r="E112" t="n">
-        <v>2.346106349830916e-06</v>
+        <v>2226151274273.163</v>
       </c>
       <c r="F112" t="n">
-        <v>8.078900855515261</v>
+        <v>6.992009287690754</v>
       </c>
       <c r="G112" t="n">
-        <v>0.1519405200776268</v>
+        <v>0.2212352660516197</v>
       </c>
       <c r="H112" t="n">
-        <v>1.615780171103052</v>
+        <v>1.398401857538151</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.24787783894759</v>
+        <v>4.956763</v>
       </c>
       <c r="B113" t="n">
-        <v>5.844966824587688e-05</v>
+        <v>54228721847726.19</v>
       </c>
       <c r="C113" t="n">
-        <v>4.269281335663265e-06</v>
+        <v>4042211750560.211</v>
       </c>
       <c r="D113" t="n">
-        <v>1.416674477338767e-06</v>
+        <v>1330053619182.962</v>
       </c>
       <c r="E113" t="n">
-        <v>2.307253318333901e-06</v>
+        <v>2190087697932.69</v>
       </c>
       <c r="F113" t="n">
-        <v>1.521572208289949</v>
+        <v>1.536196233879171</v>
       </c>
       <c r="G113" t="n">
-        <v>0.9105670420939984</v>
+        <v>0.9088553601509314</v>
       </c>
       <c r="H113" t="n">
-        <v>0.3043144416579897</v>
+        <v>0.3072392467758342</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.252257041442167</v>
+        <v>4.961869</v>
       </c>
       <c r="B114" t="n">
-        <v>6.113214948040063e-05</v>
+        <v>56645825495614.77</v>
       </c>
       <c r="C114" t="n">
-        <v>6.382640124491019e-06</v>
+        <v>6397482150667.68</v>
       </c>
       <c r="D114" t="n">
-        <v>1.460518061378912e-06</v>
+        <v>1365120604736.154</v>
       </c>
       <c r="E114" t="n">
-        <v>2.420937901722183e-06</v>
+        <v>2277719617509.187</v>
       </c>
       <c r="F114" t="n">
-        <v>3.286722255363294</v>
+        <v>2.34441616480321</v>
       </c>
       <c r="G114" t="n">
-        <v>0.6558751040220263</v>
+        <v>0.7997218447652135</v>
       </c>
       <c r="H114" t="n">
-        <v>0.6573444510726587</v>
+        <v>0.468883232960642</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.25472516339606</v>
+        <v>4.964748</v>
       </c>
       <c r="B115" t="n">
-        <v>6.532567694205565e-05</v>
+        <v>60610863646889.85</v>
       </c>
       <c r="C115" t="n">
-        <v>5.742163716653759e-06</v>
+        <v>5360120139983.938</v>
       </c>
       <c r="D115" t="n">
-        <v>1.569873300847691e-06</v>
+        <v>1473003426797.689</v>
       </c>
       <c r="E115" t="n">
-        <v>2.568646036297399e-06</v>
+        <v>2436953878967.725</v>
       </c>
       <c r="F115" t="n">
-        <v>1.747488525015525</v>
+        <v>1.91190488274993</v>
       </c>
       <c r="G115" t="n">
-        <v>0.8828635344493112</v>
+        <v>0.8611954884307483</v>
       </c>
       <c r="H115" t="n">
-        <v>0.349497705003105</v>
+        <v>0.3823809765499859</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.25739896217944</v>
+        <v>4.967875</v>
       </c>
       <c r="B116" t="n">
-        <v>6.621471415060232e-05</v>
+        <v>61338514610083.46</v>
       </c>
       <c r="C116" t="n">
-        <v>7.507272162562731e-06</v>
+        <v>7547631746309.508</v>
       </c>
       <c r="D116" t="n">
-        <v>1.597720224405925e-06</v>
+        <v>1492311653765.494</v>
       </c>
       <c r="E116" t="n">
-        <v>2.65934222730134e-06</v>
+        <v>2502157415813.359</v>
       </c>
       <c r="F116" t="n">
-        <v>4.366277768259587</v>
+        <v>3.218444037176723</v>
       </c>
       <c r="G116" t="n">
-        <v>0.497971802974391</v>
+        <v>0.666349097778911</v>
       </c>
       <c r="H116" t="n">
-        <v>0.8732555536519173</v>
+        <v>0.6436888074353446</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.259258623512755</v>
+        <v>4.970043</v>
       </c>
       <c r="B117" t="n">
-        <v>6.788158405168714e-05</v>
+        <v>62700996980712.61</v>
       </c>
       <c r="C117" t="n">
-        <v>7.361973316408833e-06</v>
+        <v>8508917823058.992</v>
       </c>
       <c r="D117" t="n">
-        <v>1.720478583144831e-06</v>
+        <v>1602965076848.508</v>
       </c>
       <c r="E117" t="n">
-        <v>2.864381239362583e-06</v>
+        <v>2676334222309.126</v>
       </c>
       <c r="F117" t="n">
-        <v>10.12656529445761</v>
+        <v>6.614303437817015</v>
       </c>
       <c r="G117" t="n">
-        <v>0.07172748272098459</v>
+        <v>0.2509409448759434</v>
       </c>
       <c r="H117" t="n">
-        <v>2.025313058891522</v>
+        <v>1.322860687563403</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.2616239070519</v>
+        <v>4.9728</v>
       </c>
       <c r="B118" t="n">
-        <v>6.623800125108906e-05</v>
+        <v>61387244396399.65</v>
       </c>
       <c r="C118" t="n">
-        <v>8.477125522968823e-06</v>
+        <v>8265354339021.82</v>
       </c>
       <c r="D118" t="n">
-        <v>1.533133373044334e-06</v>
+        <v>1432644694393.257</v>
       </c>
       <c r="E118" t="n">
-        <v>2.582164000825719e-06</v>
+        <v>2432494147953.408</v>
       </c>
       <c r="F118" t="n">
-        <v>4.393125395314839</v>
+        <v>3.646419950523414</v>
       </c>
       <c r="G118" t="n">
-        <v>0.4943089398791206</v>
+        <v>0.6013572928909166</v>
       </c>
       <c r="H118" t="n">
-        <v>0.8786250790629678</v>
+        <v>0.7292839901046829</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.263192192876769</v>
+        <v>4.974629</v>
       </c>
       <c r="B119" t="n">
-        <v>6.572642871832565e-05</v>
+        <v>60824096316198.96</v>
       </c>
       <c r="C119" t="n">
-        <v>8.04370948980926e-06</v>
+        <v>8390872545583.641</v>
       </c>
       <c r="D119" t="n">
-        <v>1.593255662153344e-06</v>
+        <v>1487654185354.793</v>
       </c>
       <c r="E119" t="n">
-        <v>2.641998632443826e-06</v>
+        <v>2480275495494.068</v>
       </c>
       <c r="F119" t="n">
-        <v>5.070712151837609</v>
+        <v>2.880244022151558</v>
       </c>
       <c r="G119" t="n">
-        <v>0.4073115290004584</v>
+        <v>0.7184423487722077</v>
       </c>
       <c r="H119" t="n">
-        <v>1.014142430367522</v>
+        <v>0.5760488044303116</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.271830619715387</v>
+        <v>4.984706</v>
       </c>
       <c r="B120" t="n">
-        <v>5.496376374671906e-05</v>
+        <v>50898786496152.97</v>
       </c>
       <c r="C120" t="n">
-        <v>5.955755999065385e-06</v>
+        <v>6026961208598.648</v>
       </c>
       <c r="D120" t="n">
-        <v>1.337242514254488e-06</v>
+        <v>1251779264059.334</v>
       </c>
       <c r="E120" t="n">
-        <v>2.219100878230742e-06</v>
+        <v>2096397212741.497</v>
       </c>
       <c r="F120" t="n">
-        <v>3.264533679161868</v>
+        <v>2.193699908018291</v>
       </c>
       <c r="G120" t="n">
-        <v>0.6592757803388667</v>
+        <v>0.8217454555719004</v>
       </c>
       <c r="H120" t="n">
-        <v>0.6529067358323737</v>
+        <v>0.4387399816036582</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.27642406890735</v>
+        <v>4.990074</v>
       </c>
       <c r="B121" t="n">
-        <v>5.374818193762483e-05</v>
+        <v>49646721886452.3</v>
       </c>
       <c r="C121" t="n">
-        <v>7.48436685150482e-06</v>
+        <v>8116088845306.57</v>
       </c>
       <c r="D121" t="n">
-        <v>1.406761735279852e-06</v>
+        <v>1313819793459.478</v>
       </c>
       <c r="E121" t="n">
-        <v>2.338875501733814e-06</v>
+        <v>2199142032455.385</v>
       </c>
       <c r="F121" t="n">
-        <v>9.541594268818178</v>
+        <v>6.16402978290853</v>
       </c>
       <c r="G121" t="n">
-        <v>0.08931609230822488</v>
+        <v>0.2905837884624535</v>
       </c>
       <c r="H121" t="n">
-        <v>1.908318853763636</v>
+        <v>1.232805956581706</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.28036620813926</v>
+        <v>4.994669</v>
       </c>
       <c r="B122" t="n">
-        <v>4.291713815530519e-05</v>
+        <v>39802470901416.46</v>
       </c>
       <c r="C122" t="n">
-        <v>5.598240522840092e-06</v>
+        <v>5124485202550.039</v>
       </c>
       <c r="D122" t="n">
-        <v>1.06548862245797e-06</v>
+        <v>1001644856446.487</v>
       </c>
       <c r="E122" t="n">
-        <v>1.76484555816765e-06</v>
+        <v>1682772202479.971</v>
       </c>
       <c r="F122" t="n">
-        <v>4.748525157628314</v>
+        <v>5.56943735091785</v>
       </c>
       <c r="G122" t="n">
-        <v>0.4473347809649255</v>
+        <v>0.350391885835112</v>
       </c>
       <c r="H122" t="n">
-        <v>0.9497050315256628</v>
+        <v>1.11388747018357</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>4.28891036643103</v>
+        <v>5.004642</v>
       </c>
       <c r="B123" t="n">
-        <v>3.427970347952398e-05</v>
+        <v>31771009334523.43</v>
       </c>
       <c r="C123" t="n">
-        <v>3.298914751599014e-06</v>
+        <v>3223340006935.113</v>
       </c>
       <c r="D123" t="n">
-        <v>8.56820373924136e-07</v>
+        <v>803450580526.6082</v>
       </c>
       <c r="E123" t="n">
-        <v>1.397829577486745e-06</v>
+        <v>1325478920227.217</v>
       </c>
       <c r="F123" t="n">
-        <v>0.7847276757514234</v>
+        <v>0.4413913314354956</v>
       </c>
       <c r="G123" t="n">
-        <v>0.9779972158431925</v>
+        <v>0.9941124940559775</v>
       </c>
       <c r="H123" t="n">
-        <v>0.1569455351502847</v>
+        <v>0.08827826628709912</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>4.293495245755098</v>
+        <v>5.00999</v>
       </c>
       <c r="B124" t="n">
-        <v>3.664136695863364e-05</v>
+        <v>33895650382230.07</v>
       </c>
       <c r="C124" t="n">
-        <v>4.536330767187428e-06</v>
+        <v>4546350387693.551</v>
       </c>
       <c r="D124" t="n">
-        <v>1.043565533742552e-06</v>
+        <v>981758513213.701</v>
       </c>
       <c r="E124" t="n">
-        <v>1.70873386154092e-06</v>
+        <v>1630314753668.587</v>
       </c>
       <c r="F124" t="n">
-        <v>3.577715403763314</v>
+        <v>2.861742280023328</v>
       </c>
       <c r="G124" t="n">
-        <v>0.6116623017781393</v>
+        <v>0.7212908755321258</v>
       </c>
       <c r="H124" t="n">
-        <v>0.7155430807526628</v>
+        <v>0.5723484560046656</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>4.297651631684394</v>
+        <v>5.014843</v>
       </c>
       <c r="B125" t="n">
-        <v>4.640440721901179e-05</v>
+        <v>42890184303774.22</v>
       </c>
       <c r="C125" t="n">
-        <v>7.874274694345832e-06</v>
+        <v>7999230949649.348</v>
       </c>
       <c r="D125" t="n">
-        <v>1.164249988906735e-06</v>
+        <v>1090100948278.026</v>
       </c>
       <c r="E125" t="n">
-        <v>1.961077048116845e-06</v>
+        <v>1858427552234.602</v>
       </c>
       <c r="F125" t="n">
-        <v>5.68892351105421</v>
+        <v>3.251398714963087</v>
       </c>
       <c r="G125" t="n">
-        <v>0.3376739968735285</v>
+        <v>0.6612903336210184</v>
       </c>
       <c r="H125" t="n">
-        <v>1.137784702210842</v>
+        <v>0.6502797429926174</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>4.300136893374075</v>
+        <v>5.017737</v>
       </c>
       <c r="B126" t="n">
-        <v>6.310641997229338e-05</v>
+        <v>58424705866325.34</v>
       </c>
       <c r="C126" t="n">
-        <v>8.958704126266772e-06</v>
+        <v>9031883795151.555</v>
       </c>
       <c r="D126" t="n">
-        <v>1.530137790094867e-06</v>
+        <v>1428537783547.294</v>
       </c>
       <c r="E126" t="n">
-        <v>2.57390037780365e-06</v>
+        <v>2420312377647.21</v>
       </c>
       <c r="F126" t="n">
-        <v>4.175773449215728</v>
+        <v>2.361678989898891</v>
       </c>
       <c r="G126" t="n">
-        <v>0.5243965597111325</v>
+        <v>0.797166864229875</v>
       </c>
       <c r="H126" t="n">
-        <v>0.8351546898431457</v>
+        <v>0.4723357979797781</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>4.300239731788821</v>
+        <v>5.017861</v>
       </c>
       <c r="B127" t="n">
-        <v>6.060939660090968e-05</v>
+        <v>56129876639444.1</v>
       </c>
       <c r="C127" t="n">
-        <v>7.0120453535539e-06</v>
+        <v>7066825912381.781</v>
       </c>
       <c r="D127" t="n">
-        <v>1.470328765479849e-06</v>
+        <v>1374990860416.603</v>
       </c>
       <c r="E127" t="n">
-        <v>2.420719626023938e-06</v>
+        <v>2281388863072.946</v>
       </c>
       <c r="F127" t="n">
-        <v>1.236536426043865</v>
+        <v>0.0452073497417606</v>
       </c>
       <c r="G127" t="n">
-        <v>0.9413245371430163</v>
+        <v>0.9999772561194989</v>
       </c>
       <c r="H127" t="n">
-        <v>0.247307285208773</v>
+        <v>0.009041469948352119</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>4.30191942589633</v>
+        <v>5.019822</v>
       </c>
       <c r="B128" t="n">
-        <v>9.810691315690851e-05</v>
+        <v>90746965815684.03</v>
       </c>
       <c r="C128" t="n">
-        <v>1.622930913229896e-05</v>
+        <v>16825177718614.27</v>
       </c>
       <c r="D128" t="n">
-        <v>2.345007114836305e-06</v>
+        <v>2185706541637.153</v>
       </c>
       <c r="E128" t="n">
-        <v>3.963601976029829e-06</v>
+        <v>3713230015859.363</v>
       </c>
       <c r="F128" t="n">
-        <v>4.175960594928533</v>
+        <v>0.4038063009935214</v>
       </c>
       <c r="G128" t="n">
-        <v>0.5243702382083001</v>
+        <v>0.9952241054445042</v>
       </c>
       <c r="H128" t="n">
-        <v>0.8351921189857066</v>
+        <v>0.08076126019870429</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>4.306187220108267</v>
+        <v>5.024805000000001</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0001799654697582121</v>
+        <v>166439332529557.9</v>
       </c>
       <c r="C129" t="n">
-        <v>2.394831703701628e-05</v>
+        <v>25665377536661.66</v>
       </c>
       <c r="D129" t="n">
-        <v>4.326126216303804e-06</v>
+        <v>4029464460254.971</v>
       </c>
       <c r="E129" t="n">
-        <v>7.167752387995151e-06</v>
+        <v>6699344710248.915</v>
       </c>
       <c r="F129" t="n">
-        <v>4.635389434299452</v>
+        <v>1.121148669653429</v>
       </c>
       <c r="G129" t="n">
-        <v>0.4619756147462758</v>
+        <v>0.9522146794351907</v>
       </c>
       <c r="H129" t="n">
-        <v>0.9270778868598905</v>
+        <v>0.2242297339306857</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>4.308783890080591</v>
+        <v>5.027826</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0001968132177370199</v>
+        <v>181929289209171</v>
       </c>
       <c r="C130" t="n">
-        <v>2.676446276348422e-05</v>
+        <v>28944384669528.61</v>
       </c>
       <c r="D130" t="n">
-        <v>4.806372637977378e-06</v>
+        <v>4479703669483.362</v>
       </c>
       <c r="E130" t="n">
-        <v>7.946845266241147e-06</v>
+        <v>7437310971256.029</v>
       </c>
       <c r="F130" t="n">
-        <v>5.128780390144485</v>
+        <v>1.322999970807511</v>
       </c>
       <c r="G130" t="n">
-        <v>0.4003668280423155</v>
+        <v>0.9325472986758734</v>
       </c>
       <c r="H130" t="n">
-        <v>1.025756078028897</v>
+        <v>0.2645999941615022</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>4.310729250092858</v>
+        <v>5.030101</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0002086749837641645</v>
+        <v>192974771297009.9</v>
       </c>
       <c r="C131" t="n">
-        <v>3.19115521937797e-05</v>
+        <v>32685214592149.88</v>
       </c>
       <c r="D131" t="n">
-        <v>5.209320698767026e-06</v>
+        <v>4873167076057.271</v>
       </c>
       <c r="E131" t="n">
-        <v>8.75933172928406e-06</v>
+        <v>8270708061016.843</v>
       </c>
       <c r="F131" t="n">
-        <v>7.180272010937203</v>
+        <v>4.830588804130433</v>
       </c>
       <c r="G131" t="n">
-        <v>0.2075747829569562</v>
+        <v>0.4369034472553008</v>
       </c>
       <c r="H131" t="n">
-        <v>1.436054402187441</v>
+        <v>0.9661177608260866</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>4.31302597468884</v>
+        <v>5.032781</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0002369348710586995</v>
+        <v>219328851721927.4</v>
       </c>
       <c r="C132" t="n">
-        <v>4.287170741264546e-05</v>
+        <v>41917554022450.62</v>
       </c>
       <c r="D132" t="n">
-        <v>5.560623066889868e-06</v>
+        <v>5197386515087.956</v>
       </c>
       <c r="E132" t="n">
-        <v>9.406245239584258e-06</v>
+        <v>8876313729621.266</v>
       </c>
       <c r="F132" t="n">
-        <v>2.077440354146182</v>
+        <v>0.5587567898754622</v>
       </c>
       <c r="G132" t="n">
-        <v>0.8383292776483211</v>
+        <v>0.9898136283696192</v>
       </c>
       <c r="H132" t="n">
-        <v>0.4154880708292364</v>
+        <v>0.1117513579750924</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>4.315699773472222</v>
+        <v>5.035899</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0002700992630753516</v>
+        <v>249983881629083.8</v>
       </c>
       <c r="C133" t="n">
-        <v>4.021072513297707e-05</v>
+        <v>41855143306140.31</v>
       </c>
       <c r="D133" t="n">
-        <v>6.253643119363315e-06</v>
+        <v>5822326157006.682</v>
       </c>
       <c r="E133" t="n">
-        <v>1.053293365912903e-05</v>
+        <v>9836579992928.967</v>
       </c>
       <c r="F133" t="n">
-        <v>3.861249403765826</v>
+        <v>0.3312593170316466</v>
       </c>
       <c r="G133" t="n">
-        <v>0.5695607431622867</v>
+        <v>0.9970135069936047</v>
       </c>
       <c r="H133" t="n">
-        <v>0.7722498807531651</v>
+        <v>0.06625186340632931</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>4.318107906350845</v>
+        <v>5.038705999999999</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0002836707881108108</v>
+        <v>262671616831190.8</v>
       </c>
       <c r="C134" t="n">
-        <v>4.745388551682687e-05</v>
+        <v>47830069359254.53</v>
       </c>
       <c r="D134" t="n">
-        <v>6.530806419021645e-06</v>
+        <v>6084753239515.896</v>
       </c>
       <c r="E134" t="n">
-        <v>1.103616513788412e-05</v>
+        <v>10327544372813.48</v>
       </c>
       <c r="F134" t="n">
-        <v>3.365247190460676</v>
+        <v>0.4029772814185655</v>
       </c>
       <c r="G134" t="n">
-        <v>0.6438681318612632</v>
+        <v>0.9952471914492497</v>
       </c>
       <c r="H134" t="n">
-        <v>0.6730494380921351</v>
+        <v>0.08059545628371309</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>4.320910253152659</v>
+        <v>5.041981</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0002751835269137551</v>
+        <v>254628858165165.6</v>
       </c>
       <c r="C135" t="n">
-        <v>5.37728106482021e-05</v>
+        <v>53844535966904.08</v>
       </c>
       <c r="D135" t="n">
-        <v>6.494476152285042e-06</v>
+        <v>6058531705195.676</v>
       </c>
       <c r="E135" t="n">
-        <v>1.106812137352429e-05</v>
+        <v>10397272578383.63</v>
       </c>
       <c r="F135" t="n">
-        <v>3.518923316209079</v>
+        <v>0.3149118817240775</v>
       </c>
       <c r="G135" t="n">
-        <v>0.6205262437834312</v>
+        <v>0.9973531879483786</v>
       </c>
       <c r="H135" t="n">
-        <v>0.7037846632418157</v>
+        <v>0.06298237634481549</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>4.323318386031281</v>
+        <v>5.044789</v>
       </c>
       <c r="B136" t="n">
-        <v>0.0002504464402057697</v>
+        <v>231720781454689.9</v>
       </c>
       <c r="C136" t="n">
-        <v>4.303428162242401e-05</v>
+        <v>44634451200508.28</v>
       </c>
       <c r="D136" t="n">
-        <v>5.897302105778627e-06</v>
+        <v>5490565536739.148</v>
       </c>
       <c r="E136" t="n">
-        <v>9.9988766740288e-06</v>
+        <v>9339467567398.844</v>
       </c>
       <c r="F136" t="n">
-        <v>4.60303536860474</v>
+        <v>0.2814819745089772</v>
       </c>
       <c r="G136" t="n">
-        <v>0.4662171159516627</v>
+        <v>0.9979769228022597</v>
       </c>
       <c r="H136" t="n">
-        <v>0.920607073720948</v>
+        <v>0.05629639490179543</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>4.327757577601127</v>
+        <v>5.049971</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0002011314475708528</v>
+        <v>185878321518052.6</v>
       </c>
       <c r="C137" t="n">
-        <v>4.35321833102629e-05</v>
+        <v>44837525824270.61</v>
       </c>
       <c r="D137" t="n">
-        <v>4.873576795733258e-06</v>
+        <v>4545136227209.901</v>
       </c>
       <c r="E137" t="n">
-        <v>8.361998213799414e-06</v>
+        <v>7851509005584.083</v>
       </c>
       <c r="F137" t="n">
-        <v>6.999720871920746</v>
+        <v>1.495191375655282</v>
       </c>
       <c r="G137" t="n">
-        <v>0.2206610678736131</v>
+        <v>0.9136240605693073</v>
       </c>
       <c r="H137" t="n">
-        <v>1.399944174384149</v>
+        <v>0.2990382751310564</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>4.331931103266214</v>
+        <v>5.054843</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0001414734777265313</v>
+        <v>130773533185386.2</v>
       </c>
       <c r="C138" t="n">
-        <v>3.08021548232366e-05</v>
+        <v>33499216945026.75</v>
       </c>
       <c r="D138" t="n">
-        <v>3.42929802169134e-06</v>
+        <v>3181922893590.85</v>
       </c>
       <c r="E138" t="n">
-        <v>5.874162249847961e-06</v>
+        <v>5438446862901.51</v>
       </c>
       <c r="F138" t="n">
-        <v>12.71401152706182</v>
+        <v>2.266598862745994</v>
       </c>
       <c r="G138" t="n">
-        <v>0.0262113846582094</v>
+        <v>0.8111598886909187</v>
       </c>
       <c r="H138" t="n">
-        <v>2.542802305412363</v>
+        <v>0.4533197725491989</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>4.340535250633251</v>
+        <v>5.064876</v>
       </c>
       <c r="B139" t="n">
-        <v>9.633394041621357e-05</v>
+        <v>89072450746098.67</v>
       </c>
       <c r="C139" t="n">
-        <v>1.819503473369164e-05</v>
+        <v>18213278529591.07</v>
       </c>
       <c r="D139" t="n">
-        <v>2.437602462016885e-06</v>
+        <v>2278334653899.169</v>
       </c>
       <c r="E139" t="n">
-        <v>4.063114252670674e-06</v>
+        <v>3836142515521.021</v>
       </c>
       <c r="F139" t="n">
-        <v>3.2798240617677</v>
+        <v>0.8050954738764852</v>
       </c>
       <c r="G139" t="n">
-        <v>0.6569319966974281</v>
+        <v>0.9767072004565027</v>
       </c>
       <c r="H139" t="n">
-        <v>0.65596481235354</v>
+        <v>0.161019094775297</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>4.344845894184665</v>
+        <v>5.069912</v>
       </c>
       <c r="B140" t="n">
-        <v>7.915496349577627e-05</v>
+        <v>73055157639811.09</v>
       </c>
       <c r="C140" t="n">
-        <v>1.726643516721033e-05</v>
+        <v>16811370729917.73</v>
       </c>
       <c r="D140" t="n">
-        <v>2.158634979262187e-06</v>
+        <v>2030237534076.251</v>
       </c>
       <c r="E140" t="n">
-        <v>3.640778802804064e-06</v>
+        <v>3490903614066.696</v>
       </c>
       <c r="F140" t="n">
-        <v>3.733935288054798</v>
+        <v>3.065744741958642</v>
       </c>
       <c r="G140" t="n">
-        <v>0.5883220854999172</v>
+        <v>0.6898504936423884</v>
       </c>
       <c r="H140" t="n">
-        <v>0.7467870576109596</v>
+        <v>0.6131489483917284</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>4.348762323812888</v>
+        <v>5.074481</v>
       </c>
       <c r="B141" t="n">
-        <v>6.401331309717953e-05</v>
+        <v>59136319613410.65</v>
       </c>
       <c r="C141" t="n">
-        <v>1.303764428463703e-05</v>
+        <v>13027426152666.23</v>
       </c>
       <c r="D141" t="n">
-        <v>1.653887590459536e-06</v>
+        <v>1548840510744.337</v>
       </c>
       <c r="E141" t="n">
-        <v>2.765078102465787e-06</v>
+        <v>2622552065408.32</v>
       </c>
       <c r="F141" t="n">
-        <v>3.599989993029772</v>
+        <v>1.156226334068071</v>
       </c>
       <c r="G141" t="n">
-        <v>0.6083147945842466</v>
+        <v>0.9490072834836647</v>
       </c>
       <c r="H141" t="n">
-        <v>0.7199979986059544</v>
+        <v>0.2312452668136142</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>4.357083665539375</v>
+        <v>5.084189</v>
       </c>
       <c r="B142" t="n">
-        <v>5.417478959608287e-05</v>
+        <v>50028298557156.62</v>
       </c>
       <c r="C142" t="n">
-        <v>1.204406667685333e-05</v>
+        <v>12230346449278.03</v>
       </c>
       <c r="D142" t="n">
-        <v>1.506669790687811e-06</v>
+        <v>1407744699465.693</v>
       </c>
       <c r="E142" t="n">
-        <v>2.52632215341997e-06</v>
+        <v>2384478712633.852</v>
       </c>
       <c r="F142" t="n">
-        <v>6.413517703307715</v>
+        <v>2.821307310664016</v>
       </c>
       <c r="G142" t="n">
-        <v>0.268034559896997</v>
+        <v>0.7275115627014699</v>
       </c>
       <c r="H142" t="n">
-        <v>1.282703540661543</v>
+        <v>0.5642614621328031</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>4.362054188918739</v>
+        <v>5.089986</v>
       </c>
       <c r="B143" t="n">
-        <v>6.0492084811831e-05</v>
+        <v>55901962367259.26</v>
       </c>
       <c r="C143" t="n">
-        <v>1.275080594871023e-05</v>
+        <v>12408890489512.25</v>
       </c>
       <c r="D143" t="n">
-        <v>1.696286163897339e-06</v>
+        <v>1591998037232.085</v>
       </c>
       <c r="E143" t="n">
-        <v>2.832643880362721e-06</v>
+        <v>2698047227083.311</v>
       </c>
       <c r="F143" t="n">
-        <v>2.918757301424289</v>
+        <v>1.990016444673186</v>
       </c>
       <c r="G143" t="n">
-        <v>0.7125095341496623</v>
+        <v>0.8505247211988215</v>
       </c>
       <c r="H143" t="n">
-        <v>0.5837514602848579</v>
+        <v>0.3980032889346372</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>4.365250749643743</v>
+        <v>5.093717</v>
       </c>
       <c r="B144" t="n">
-        <v>0.0002241072497233426</v>
+        <v>207318066184463.9</v>
       </c>
       <c r="C144" t="n">
-        <v>4.915944909109062e-05</v>
+        <v>49888781460811</v>
       </c>
       <c r="D144" t="n">
-        <v>5.514261984522029e-06</v>
+        <v>5136640568379.24</v>
       </c>
       <c r="E144" t="n">
-        <v>9.377548459720082e-06</v>
+        <v>8776544889554.818</v>
       </c>
       <c r="F144" t="n">
-        <v>6.323561423486281</v>
+        <v>1.49524359512776</v>
       </c>
       <c r="G144" t="n">
-        <v>0.2759956787073661</v>
+        <v>0.9136180488943556</v>
       </c>
       <c r="H144" t="n">
-        <v>1.264712284697256</v>
+        <v>0.299048719025552</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>4.367855989483961</v>
+        <v>5.09676</v>
       </c>
       <c r="B145" t="n">
-        <v>0.0004266304683344603</v>
+        <v>395696687424619.1</v>
       </c>
       <c r="C145" t="n">
-        <v>9.875892837518205e-05</v>
+        <v>98765300485652.44</v>
       </c>
       <c r="D145" t="n">
-        <v>9.348304799083279e-06</v>
+        <v>8674654341940.716</v>
       </c>
       <c r="E145" t="n">
-        <v>1.654006097921136e-05</v>
+        <v>15310822266348.38</v>
       </c>
       <c r="F145" t="n">
-        <v>7.685971191556646</v>
+        <v>1.722373549425866</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1744127146454597</v>
+        <v>0.8860691042448391</v>
       </c>
       <c r="H145" t="n">
-        <v>1.537194238311329</v>
+        <v>0.3444747098851731</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>4.369681371345694</v>
+        <v>5.098893</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0004743590475960229</v>
+        <v>439697189046057.9</v>
       </c>
       <c r="C146" t="n">
-        <v>0.0001111734817331194</v>
+        <v>112086546611909.1</v>
       </c>
       <c r="D146" t="n">
-        <v>1.062771643601736e-05</v>
+        <v>9866685921228.979</v>
       </c>
       <c r="E146" t="n">
-        <v>1.874162909786214e-05</v>
+        <v>17376061846378.39</v>
       </c>
       <c r="F146" t="n">
-        <v>7.478967833871025</v>
+        <v>1.052572754807565</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1873851178476332</v>
+        <v>0.9582149428278764</v>
       </c>
       <c r="H146" t="n">
-        <v>1.495793566774205</v>
+        <v>0.210514550961513</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>4.370624056814194</v>
+        <v>5.099991</v>
       </c>
       <c r="B147" t="n">
-        <v>0.0004982599422756639</v>
+        <v>461602310806570.9</v>
       </c>
       <c r="C147" t="n">
-        <v>0.0001102769234969724</v>
+        <v>113056415552080.1</v>
       </c>
       <c r="D147" t="n">
-        <v>1.132413583764125e-05</v>
+        <v>10511922367844.1</v>
       </c>
       <c r="E147" t="n">
-        <v>1.976574286886097e-05</v>
+        <v>18320769729992.78</v>
       </c>
       <c r="F147" t="n">
-        <v>7.538935354899255</v>
+        <v>0.5886868864913879</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1835433609666634</v>
+        <v>0.9885153569513607</v>
       </c>
       <c r="H147" t="n">
-        <v>1.507787070979851</v>
+        <v>0.1177373772982776</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>4.371001131001594</v>
+        <v>5.100430999999999</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0004879751143949518</v>
+        <v>452177941114396.9</v>
       </c>
       <c r="C148" t="n">
-        <v>0.0001087130361538983</v>
+        <v>112511334309678.2</v>
       </c>
       <c r="D148" t="n">
-        <v>1.108960005197077e-05</v>
+        <v>10283256103095.76</v>
       </c>
       <c r="E148" t="n">
-        <v>1.942634394817003e-05</v>
+        <v>17949424994265.11</v>
       </c>
       <c r="F148" t="n">
-        <v>9.127890760951336</v>
+        <v>1.151689712082564</v>
       </c>
       <c r="G148" t="n">
-        <v>0.104070475937962</v>
+        <v>0.9494272623516583</v>
       </c>
       <c r="H148" t="n">
-        <v>1.825578152190267</v>
+        <v>0.2303379424165128</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>4.371241087302666</v>
+        <v>5.100713</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0004869198939026139</v>
+        <v>451116156872535.8</v>
       </c>
       <c r="C149" t="n">
-        <v>0.0001007849911517141</v>
+        <v>102983848813500.3</v>
       </c>
       <c r="D149" t="n">
-        <v>1.106003218079486e-05</v>
+        <v>10268735778770.27</v>
       </c>
       <c r="E149" t="n">
-        <v>1.919695300952452e-05</v>
+        <v>17803822881114.64</v>
       </c>
       <c r="F149" t="n">
-        <v>6.580995040609855</v>
+        <v>0.682092573327106</v>
       </c>
       <c r="G149" t="n">
-        <v>0.2537127701586341</v>
+        <v>0.9839370018126449</v>
       </c>
       <c r="H149" t="n">
-        <v>1.316199008121971</v>
+        <v>0.1364185146654212</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>4.37310074863598</v>
+        <v>5.102879</v>
       </c>
       <c r="B150" t="n">
-        <v>0.0006013526401345766</v>
+        <v>557167354302830.9</v>
       </c>
       <c r="C150" t="n">
-        <v>0.0001360292270519872</v>
+        <v>136745173457121.6</v>
       </c>
       <c r="D150" t="n">
-        <v>1.345246718720736e-05</v>
+        <v>12503032660365.81</v>
       </c>
       <c r="E150" t="n">
-        <v>2.347550025496913e-05</v>
+        <v>21837261824723.86</v>
       </c>
       <c r="F150" t="n">
-        <v>6.678737432374355</v>
+        <v>1.041518079147773</v>
       </c>
       <c r="G150" t="n">
-        <v>0.245650101423395</v>
+        <v>0.9591480230211428</v>
       </c>
       <c r="H150" t="n">
-        <v>1.335747486474871</v>
+        <v>0.2083036158295547</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>4.37479758247928</v>
+        <v>5.104856</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0006278199869541277</v>
+        <v>581917872722265.8</v>
       </c>
       <c r="C151" t="n">
-        <v>0.0001288630830054755</v>
+        <v>132808960825936.9</v>
       </c>
       <c r="D151" t="n">
-        <v>1.39632324873393e-05</v>
+        <v>12946489731398.96</v>
       </c>
       <c r="E151" t="n">
-        <v>2.431256881398365e-05</v>
+        <v>22455884716425.62</v>
       </c>
       <c r="F151" t="n">
-        <v>8.126387809811598</v>
+        <v>1.23636813488575</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1494063279182321</v>
+        <v>0.9413411186481044</v>
       </c>
       <c r="H151" t="n">
-        <v>1.62527756196232</v>
+        <v>0.24727362697715</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>4.376545835529954</v>
+        <v>5.106897</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0006285871382441108</v>
+        <v>582321050654377.9</v>
       </c>
       <c r="C152" t="n">
-        <v>0.0001262988350096476</v>
+        <v>128039745158022.5</v>
       </c>
       <c r="D152" t="n">
-        <v>1.40709869231213e-05</v>
+        <v>13076413573336.21</v>
       </c>
       <c r="E152" t="n">
-        <v>2.443671023733626e-05</v>
+        <v>22724791148187.66</v>
       </c>
       <c r="F152" t="n">
-        <v>6.51437592243726</v>
+        <v>1.478080615827023</v>
       </c>
       <c r="G152" t="n">
-        <v>0.2593324380801134</v>
+        <v>0.9155853601917033</v>
       </c>
       <c r="H152" t="n">
-        <v>1.302875184487452</v>
+        <v>0.2956161231654045</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>4.378156970694299</v>
+        <v>5.108781</v>
       </c>
       <c r="B153" t="n">
-        <v>0.0006357055987174125</v>
+        <v>589672486287285.8</v>
       </c>
       <c r="C153" t="n">
-        <v>0.0001557457033359307</v>
+        <v>159556238054132.3</v>
       </c>
       <c r="D153" t="n">
-        <v>1.402839081360911e-05</v>
+        <v>13000610626310.71</v>
       </c>
       <c r="E153" t="n">
-        <v>2.495864766176841e-05</v>
+        <v>23003192426723.61</v>
       </c>
       <c r="F153" t="n">
-        <v>11.11541595996069</v>
+        <v>1.939120349778214</v>
       </c>
       <c r="G153" t="n">
-        <v>0.04913904148346805</v>
+        <v>0.8575031625526303</v>
       </c>
       <c r="H153" t="n">
-        <v>2.223083191992137</v>
+        <v>0.3878240699556429</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>4.379236774049127</v>
+        <v>5.110037</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0006444184054480942</v>
+        <v>597102964221766</v>
       </c>
       <c r="C154" t="n">
-        <v>0.0001482043763178031</v>
+        <v>146811974044880.3</v>
       </c>
       <c r="D154" t="n">
-        <v>1.432100262602363e-05</v>
+        <v>13320462678638.6</v>
       </c>
       <c r="E154" t="n">
-        <v>2.514941290875746e-05</v>
+        <v>23451621540316.59</v>
       </c>
       <c r="F154" t="n">
-        <v>8.13707859199552</v>
+        <v>3.67849372713684</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1488410139658008</v>
+        <v>0.5965676475420345</v>
       </c>
       <c r="H154" t="n">
-        <v>1.627415718399104</v>
+        <v>0.7356987454273679</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>4.379845234669704</v>
+        <v>5.11075</v>
       </c>
       <c r="B155" t="n">
-        <v>0.0006359462523207123</v>
+        <v>589431298525077.5</v>
       </c>
       <c r="C155" t="n">
-        <v>0.0001317147164444384</v>
+        <v>132713634165123</v>
       </c>
       <c r="D155" t="n">
-        <v>1.416540672889913e-05</v>
+        <v>13154411814679.1</v>
       </c>
       <c r="E155" t="n">
-        <v>2.474625686694818e-05</v>
+        <v>22962955627906.96</v>
       </c>
       <c r="F155" t="n">
-        <v>6.601959228851701</v>
+        <v>1.533766258202407</v>
       </c>
       <c r="G155" t="n">
-        <v>0.2519652579091299</v>
+        <v>0.9091406119302086</v>
       </c>
       <c r="H155" t="n">
-        <v>1.32039184577034</v>
+        <v>0.3067532516404815</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>4.382493323849399</v>
+        <v>5.113839</v>
       </c>
       <c r="B156" t="n">
-        <v>0.0006235779804285535</v>
+        <v>577979284685013.9</v>
       </c>
       <c r="C156" t="n">
-        <v>0.0001257030987821146</v>
+        <v>126870259522097.2</v>
       </c>
       <c r="D156" t="n">
-        <v>1.375751425419447e-05</v>
+        <v>12774553586818.08</v>
       </c>
       <c r="E156" t="n">
-        <v>2.395897391681849e-05</v>
+        <v>22228552794109.25</v>
       </c>
       <c r="F156" t="n">
-        <v>5.98148643927111</v>
+        <v>0.9309394337148396</v>
       </c>
       <c r="G156" t="n">
-        <v>0.3080245393807468</v>
+        <v>0.9679414702722479</v>
       </c>
       <c r="H156" t="n">
-        <v>1.196297287854222</v>
+        <v>0.1861878867429679</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>4.386743978325545</v>
+        <v>5.118804</v>
       </c>
       <c r="B157" t="n">
-        <v>0.0005207792962211723</v>
+        <v>482788380813899.5</v>
       </c>
       <c r="C157" t="n">
-        <v>0.0001122972187447368</v>
+        <v>114188733162063</v>
       </c>
       <c r="D157" t="n">
-        <v>1.13905010466629e-05</v>
+        <v>10567417385180.51</v>
       </c>
       <c r="E157" t="n">
-        <v>2.001412490978437e-05</v>
+        <v>18517742940684.76</v>
       </c>
       <c r="F157" t="n">
-        <v>7.517369793042386</v>
+        <v>0.9744287902314565</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1849169764728571</v>
+        <v>0.9646017860678882</v>
       </c>
       <c r="H157" t="n">
-        <v>1.503473958608477</v>
+        <v>0.1948857580462913</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>4.391003202669586</v>
+        <v>5.123773</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0003829154329758386</v>
+        <v>354501399253614.8</v>
       </c>
       <c r="C158" t="n">
-        <v>7.897311884191144e-05</v>
+        <v>80709165222714.78</v>
       </c>
       <c r="D158" t="n">
-        <v>8.785023948196267e-06</v>
+        <v>8169661578730.49</v>
       </c>
       <c r="E158" t="n">
-        <v>1.517987556404289e-05</v>
+        <v>14142670061287.81</v>
       </c>
       <c r="F158" t="n">
-        <v>6.915913542091721</v>
+        <v>1.418850913698965</v>
       </c>
       <c r="G158" t="n">
-        <v>0.2269694191788461</v>
+        <v>0.9222401323495056</v>
       </c>
       <c r="H158" t="n">
-        <v>1.383182708418344</v>
+        <v>0.283770182739793</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>4.395073889919927</v>
+        <v>5.128523</v>
       </c>
       <c r="B159" t="n">
-        <v>0.0002795197922945717</v>
+        <v>258863919617961.9</v>
       </c>
       <c r="C159" t="n">
-        <v>5.319224262447357e-05</v>
+        <v>53278976005761.61</v>
       </c>
       <c r="D159" t="n">
-        <v>6.314174120914733e-06</v>
+        <v>5879060758514.006</v>
       </c>
       <c r="E159" t="n">
-        <v>1.089785995875795e-05</v>
+        <v>10186646066367.36</v>
       </c>
       <c r="F159" t="n">
-        <v>4.390208656024219</v>
+        <v>0.8609122325678831</v>
       </c>
       <c r="G159" t="n">
-        <v>0.4947061242439383</v>
+        <v>0.9729866005699352</v>
       </c>
       <c r="H159" t="n">
-        <v>0.8780417312048439</v>
+        <v>0.1721824465135766</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>4.396290811161082</v>
+        <v>5.129939</v>
       </c>
       <c r="B160" t="n">
-        <v>0.0002924987358110526</v>
+        <v>270671780153418.6</v>
       </c>
       <c r="C160" t="n">
-        <v>6.913626049994149e-05</v>
+        <v>69962368095083.06</v>
       </c>
       <c r="D160" t="n">
-        <v>6.80678115359529e-06</v>
+        <v>6337937546461.31</v>
       </c>
       <c r="E160" t="n">
-        <v>1.193422083589667e-05</v>
+        <v>11160503682040.48</v>
       </c>
       <c r="F160" t="n">
-        <v>10.16331812117907</v>
+        <v>4.412090514545683</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0707377670078142</v>
+        <v>0.4917308687196569</v>
       </c>
       <c r="H160" t="n">
-        <v>2.032663624235815</v>
+        <v>0.8824181029091367</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>4.399607350036622</v>
+        <v>5.133811</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0002242774287237557</v>
+        <v>207553468762509.8</v>
       </c>
       <c r="C161" t="n">
-        <v>5.195453467761999e-05</v>
+        <v>52011772526914.27</v>
       </c>
       <c r="D161" t="n">
-        <v>5.116638521467737e-06</v>
+        <v>4766312229379.265</v>
       </c>
       <c r="E161" t="n">
-        <v>8.897335411889418e-06</v>
+        <v>8334149224308.318</v>
       </c>
       <c r="F161" t="n">
-        <v>5.238789617668317</v>
+        <v>0.3907851853923772</v>
       </c>
       <c r="G161" t="n">
-        <v>0.3874385323365687</v>
+        <v>0.9955796057356362</v>
       </c>
       <c r="H161" t="n">
-        <v>1.047757923533663</v>
+        <v>0.07815703707847543</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>4.403952273059619</v>
+        <v>5.138881</v>
       </c>
       <c r="B162" t="n">
-        <v>0.000224571981984055</v>
+        <v>207839568997758.8</v>
       </c>
       <c r="C162" t="n">
-        <v>4.602563158296332e-05</v>
+        <v>46412524360907.25</v>
       </c>
       <c r="D162" t="n">
-        <v>5.187373079119188e-06</v>
+        <v>4832974669026.729</v>
       </c>
       <c r="E162" t="n">
-        <v>8.951485726135013e-06</v>
+        <v>8382078269532.136</v>
       </c>
       <c r="F162" t="n">
-        <v>4.627139890075963</v>
+        <v>0.3945350146157984</v>
       </c>
       <c r="G162" t="n">
-        <v>0.4630548143447266</v>
+        <v>0.9954787824765731</v>
       </c>
       <c r="H162" t="n">
-        <v>0.9254279780151926</v>
+        <v>0.07890700292315968</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>4.406326126466659</v>
+        <v>5.141653</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0002163785791591971</v>
+        <v>200343384058868.1</v>
       </c>
       <c r="C163" t="n">
-        <v>4.812558631122273e-05</v>
+        <v>49673437441583.08</v>
       </c>
       <c r="D163" t="n">
-        <v>4.944083961831533e-06</v>
+        <v>4592059309153.035</v>
       </c>
       <c r="E163" t="n">
-        <v>8.599386723477728e-06</v>
+        <v>7985221515223.742</v>
       </c>
       <c r="F163" t="n">
-        <v>7.640798329502882</v>
+        <v>0.276100532231315</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1771746720923923</v>
+        <v>0.9980685595844686</v>
       </c>
       <c r="H163" t="n">
-        <v>1.528159665900577</v>
+        <v>0.055220106446263</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>4.408974215646356</v>
+        <v>5.144741000000001</v>
       </c>
       <c r="B164" t="n">
-        <v>0.0001989756280375526</v>
+        <v>184132031252879.4</v>
       </c>
       <c r="C164" t="n">
-        <v>3.819721481500113e-05</v>
+        <v>38655529898081.53</v>
       </c>
       <c r="D164" t="n">
-        <v>4.602264091379951e-06</v>
+        <v>4289591559365.588</v>
       </c>
       <c r="E164" t="n">
-        <v>7.861879099638806e-06</v>
+        <v>7367775060552.429</v>
       </c>
       <c r="F164" t="n">
-        <v>4.007407548852482</v>
+        <v>0.07913186346759681</v>
       </c>
       <c r="G164" t="n">
-        <v>0.5483499372846317</v>
+        <v>0.9999089103628924</v>
       </c>
       <c r="H164" t="n">
-        <v>0.8014815097704965</v>
+        <v>0.01582637269351936</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>4.411759422712378</v>
+        <v>5.147988</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0001849164468374692</v>
+        <v>171017602116559.2</v>
       </c>
       <c r="C165" t="n">
-        <v>3.31791931938059e-05</v>
+        <v>34643808599208.7</v>
       </c>
       <c r="D165" t="n">
-        <v>4.385103342238454e-06</v>
+        <v>4082991828517.914</v>
       </c>
       <c r="E165" t="n">
-        <v>7.427060694798688e-06</v>
+        <v>6940104509241.807</v>
       </c>
       <c r="F165" t="n">
-        <v>5.909489784569468</v>
+        <v>0.9616798003376683</v>
       </c>
       <c r="G165" t="n">
-        <v>0.3151258389961307</v>
+        <v>0.9655969677530318</v>
       </c>
       <c r="H165" t="n">
-        <v>1.181897956913894</v>
+        <v>0.1923359600675337</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>4.41349053602726</v>
+        <v>5.150005999999999</v>
       </c>
       <c r="B166" t="n">
-        <v>0.0001772881989689167</v>
+        <v>163753339189762.5</v>
       </c>
       <c r="C166" t="n">
-        <v>3.726488778208292e-05</v>
+        <v>38822220723445.91</v>
       </c>
       <c r="D166" t="n">
-        <v>4.378858358458963e-06</v>
+        <v>4086549418019.036</v>
       </c>
       <c r="E166" t="n">
-        <v>7.484269844846312e-06</v>
+        <v>7035761468184.649</v>
       </c>
       <c r="F166" t="n">
-        <v>9.177567945595698</v>
+        <v>3.522818352669407</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1021877546379976</v>
+        <v>0.6199377687276635</v>
       </c>
       <c r="H166" t="n">
-        <v>1.835513589119139</v>
+        <v>0.7045636705338815</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>4.414321813213119</v>
+        <v>5.150983</v>
       </c>
       <c r="B167" t="n">
-        <v>0.0001690779254786708</v>
+        <v>156534536133933.2</v>
       </c>
       <c r="C167" t="n">
-        <v>3.636808407503243e-05</v>
+        <v>36138413364908.39</v>
       </c>
       <c r="D167" t="n">
-        <v>3.914958934409762e-06</v>
+        <v>3646957785909.024</v>
       </c>
       <c r="E167" t="n">
-        <v>6.743470229902997e-06</v>
+        <v>6314165698356.486</v>
       </c>
       <c r="F167" t="n">
-        <v>5.333321393880965</v>
+        <v>1.669288347840967</v>
       </c>
       <c r="G167" t="n">
-        <v>0.3765690035018454</v>
+        <v>0.8927459608244963</v>
       </c>
       <c r="H167" t="n">
-        <v>1.066664278776193</v>
+        <v>0.3338576695681934</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>4.419515153157765</v>
+        <v>5.15704</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0001422437165162428</v>
+        <v>131539191518120.2</v>
       </c>
       <c r="C168" t="n">
-        <v>2.577328406013922e-05</v>
+        <v>27440385952283.87</v>
       </c>
       <c r="D168" t="n">
-        <v>3.358298929378059e-06</v>
+        <v>3121377489594.216</v>
       </c>
       <c r="E168" t="n">
-        <v>5.723884865407772e-06</v>
+        <v>5325419819176.827</v>
       </c>
       <c r="F168" t="n">
-        <v>7.802112651835706</v>
+        <v>1.536067051377256</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1674840890508047</v>
+        <v>0.9088705330443551</v>
       </c>
       <c r="H168" t="n">
-        <v>1.560422530367141</v>
+        <v>0.3072134102754511</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>4.421511932377406</v>
+        <v>5.159375</v>
       </c>
       <c r="B169" t="n">
-        <v>0.000128609894755053</v>
+        <v>119049796147388.2</v>
       </c>
       <c r="C169" t="n">
-        <v>2.603604705941498e-05</v>
+        <v>26094985229879.02</v>
       </c>
       <c r="D169" t="n">
-        <v>2.984028462864001e-06</v>
+        <v>2780770118649.158</v>
       </c>
       <c r="E169" t="n">
-        <v>5.153894664161175e-06</v>
+        <v>4828247819458.985</v>
       </c>
       <c r="F169" t="n">
-        <v>4.967234417342338</v>
+        <v>1.276119990929013</v>
       </c>
       <c r="G169" t="n">
-        <v>0.4198920361100222</v>
+        <v>0.9373696245785612</v>
       </c>
       <c r="H169" t="n">
-        <v>0.9934468834684675</v>
+        <v>0.2552239981858026</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>4.430664551289752</v>
+        <v>5.170048</v>
       </c>
       <c r="B170" t="n">
-        <v>8.211120019027338e-05</v>
+        <v>75780772431391.06</v>
       </c>
       <c r="C170" t="n">
-        <v>1.800752181743175e-05</v>
+        <v>18558440029938.49</v>
       </c>
       <c r="D170" t="n">
-        <v>2.19554383769421e-06</v>
+        <v>2052738903348.88</v>
       </c>
       <c r="E170" t="n">
-        <v>3.712449483238717e-06</v>
+        <v>3506956690379.64</v>
       </c>
       <c r="F170" t="n">
-        <v>6.520674070360228</v>
+        <v>2.063196650057276</v>
       </c>
       <c r="G170" t="n">
-        <v>0.2587968101907389</v>
+        <v>0.8403332994804018</v>
       </c>
       <c r="H170" t="n">
-        <v>1.304134814072046</v>
+        <v>0.4126393300114553</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>4.447624319854858</v>
+        <v>5.189844</v>
       </c>
       <c r="B171" t="n">
-        <v>6.055187362404291e-05</v>
+        <v>56025063866800.61</v>
       </c>
       <c r="C171" t="n">
-        <v>1.337974659237954e-05</v>
+        <v>12858219125059.2</v>
       </c>
       <c r="D171" t="n">
-        <v>1.538436014086576e-06</v>
+        <v>1438131998343.104</v>
       </c>
       <c r="E171" t="n">
-        <v>2.624876912334187e-06</v>
+        <v>2483354232030.883</v>
       </c>
       <c r="F171" t="n">
-        <v>6.07543554609636</v>
+        <v>5.226967145291078</v>
       </c>
       <c r="G171" t="n">
-        <v>0.2989477770920869</v>
+        <v>0.3888135331492825</v>
       </c>
       <c r="H171" t="n">
-        <v>1.215087109219272</v>
+        <v>1.045393429058216</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>4.464926883135782</v>
+        <v>5.210028</v>
       </c>
       <c r="B172" t="n">
-        <v>6.673380305846012e-05</v>
+        <v>61696695648171.61</v>
       </c>
       <c r="C172" t="n">
-        <v>1.596563560339445e-05</v>
+        <v>15029540189485.26</v>
       </c>
       <c r="D172" t="n">
-        <v>1.748768420225866e-06</v>
+        <v>1640029335781.497</v>
       </c>
       <c r="E172" t="n">
-        <v>2.979311287247337e-06</v>
+        <v>2840618433175.242</v>
       </c>
       <c r="F172" t="n">
-        <v>5.437268519117845</v>
+        <v>6.153444215053302</v>
       </c>
       <c r="G172" t="n">
-        <v>0.3648736576022455</v>
+        <v>0.2915732245934057</v>
       </c>
       <c r="H172" t="n">
-        <v>1.087453703823569</v>
+        <v>1.23068884301066</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>4.482066618926692</v>
+        <v>5.230028</v>
       </c>
       <c r="B173" t="n">
-        <v>8.917377106153002e-05</v>
+        <v>82521362726713.05</v>
       </c>
       <c r="C173" t="n">
-        <v>1.604723385521201e-05</v>
+        <v>15914634321274.32</v>
       </c>
       <c r="D173" t="n">
-        <v>2.544479163175304e-06</v>
+        <v>2376014001789.806</v>
       </c>
       <c r="E173" t="n">
-        <v>4.194543114288799e-06</v>
+        <v>3947596796599.711</v>
       </c>
       <c r="F173" t="n">
-        <v>3.42069492720108</v>
+        <v>1.823244776240555</v>
       </c>
       <c r="G173" t="n">
-        <v>0.6354199840983977</v>
+        <v>0.8730217439105477</v>
       </c>
       <c r="H173" t="n">
-        <v>0.6841389854402159</v>
+        <v>0.3646489552481111</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>4.490182283823687</v>
+        <v>5.239501000000001</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0001154187861987452</v>
+        <v>106875452048556.1</v>
       </c>
       <c r="C174" t="n">
-        <v>2.343086831577944e-05</v>
+        <v>23977793584202.76</v>
       </c>
       <c r="D174" t="n">
-        <v>2.889527186902648e-06</v>
+        <v>2683574511324.443</v>
       </c>
       <c r="E174" t="n">
-        <v>4.906822196330657e-06</v>
+        <v>4556695371592.787</v>
       </c>
       <c r="F174" t="n">
-        <v>6.544017489953545</v>
+        <v>1.678113015397033</v>
       </c>
       <c r="G174" t="n">
-        <v>0.2568194920681682</v>
+        <v>0.8916455272417</v>
       </c>
       <c r="H174" t="n">
-        <v>1.308803497990709</v>
+        <v>0.3356226030794066</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>4.493233156794469</v>
+        <v>5.243064</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0001271198097526713</v>
+        <v>117805816986386.5</v>
       </c>
       <c r="C175" t="n">
-        <v>2.521258246141692e-05</v>
+        <v>24020505085611.23</v>
       </c>
       <c r="D175" t="n">
-        <v>3.584994941301857e-06</v>
+        <v>3345649609213.379</v>
       </c>
       <c r="E175" t="n">
-        <v>5.914856181323484e-06</v>
+        <v>5555883546803.293</v>
       </c>
       <c r="F175" t="n">
-        <v>4.194399018073913</v>
+        <v>3.681344001648554</v>
       </c>
       <c r="G175" t="n">
-        <v>0.521780337473057</v>
+        <v>0.596142686985622</v>
       </c>
       <c r="H175" t="n">
-        <v>0.8388798036147825</v>
+        <v>0.7362688003297109</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>4.499292053396556</v>
+        <v>5.250129</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0001753159354422004</v>
+        <v>162260470074612.3</v>
       </c>
       <c r="C176" t="n">
-        <v>3.696247170005555e-05</v>
+        <v>35439063301515.52</v>
       </c>
       <c r="D176" t="n">
-        <v>5.172750912776002e-06</v>
+        <v>4840026817609.244</v>
       </c>
       <c r="E176" t="n">
-        <v>8.483672265355427e-06</v>
+        <v>8017202395471.628</v>
       </c>
       <c r="F176" t="n">
-        <v>3.353353494125021</v>
+        <v>2.798509004289451</v>
       </c>
       <c r="G176" t="n">
-        <v>0.6456837134695083</v>
+        <v>0.7310155619518888</v>
       </c>
       <c r="H176" t="n">
-        <v>0.6706706988250042</v>
+        <v>0.5597018008578901</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>4.507699093801998</v>
+        <v>5.25994</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0002619005846335759</v>
+        <v>242431133034367</v>
       </c>
       <c r="C177" t="n">
-        <v>5.366602265817849e-05</v>
+        <v>52864494096229</v>
       </c>
       <c r="D177" t="n">
-        <v>7.004294225219164e-06</v>
+        <v>6533655416029.795</v>
       </c>
       <c r="E177" t="n">
-        <v>1.16831647498764e-05</v>
+        <v>10967741851231.1</v>
       </c>
       <c r="F177" t="n">
-        <v>4.028939462521276</v>
+        <v>1.888582088655603</v>
       </c>
       <c r="G177" t="n">
-        <v>0.5452569471526053</v>
+        <v>0.8643370630026311</v>
       </c>
       <c r="H177" t="n">
-        <v>0.8057878925042552</v>
+        <v>0.3777164177311206</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>4.512069726428679</v>
+        <v>5.26504</v>
       </c>
       <c r="B178" t="n">
-        <v>0.0003112621966616535</v>
+        <v>287990856399434.8</v>
       </c>
       <c r="C178" t="n">
-        <v>5.900409543316317e-05</v>
+        <v>58807223776677.84</v>
       </c>
       <c r="D178" t="n">
-        <v>8.612502162804489e-06</v>
+        <v>8040387794719.862</v>
       </c>
       <c r="E178" t="n">
-        <v>1.421749491990476e-05</v>
+        <v>13363226838351.83</v>
       </c>
       <c r="F178" t="n">
-        <v>5.715522648442303</v>
+        <v>3.575965310397029</v>
       </c>
       <c r="G178" t="n">
-        <v>0.3348910764487921</v>
+        <v>0.6119255699418124</v>
       </c>
       <c r="H178" t="n">
-        <v>1.143104529688461</v>
+        <v>0.7151930620794057</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>4.516303241169035</v>
+        <v>5.269983</v>
       </c>
       <c r="B179" t="n">
-        <v>0.0003812752810635608</v>
+        <v>352839205007717.1</v>
       </c>
       <c r="C179" t="n">
-        <v>8.247589977625715e-05</v>
+        <v>82931388412341.62</v>
       </c>
       <c r="D179" t="n">
-        <v>1.00252384202025e-05</v>
+        <v>9336743803019.76</v>
       </c>
       <c r="E179" t="n">
-        <v>1.695288987617607e-05</v>
+        <v>15852037488895.58</v>
       </c>
       <c r="F179" t="n">
-        <v>5.028821149031629</v>
+        <v>1.329601093508999</v>
       </c>
       <c r="G179" t="n">
-        <v>0.4123729571623617</v>
+        <v>0.9318564758598564</v>
       </c>
       <c r="H179" t="n">
-        <v>1.005764229806326</v>
+        <v>0.2659202187017999</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>4.520571035380971</v>
+        <v>5.27496</v>
       </c>
       <c r="B180" t="n">
-        <v>0.0005131058657223901</v>
+        <v>475012472362247.1</v>
       </c>
       <c r="C180" t="n">
-        <v>0.000138867099124408</v>
+        <v>140806151547614</v>
       </c>
       <c r="D180" t="n">
-        <v>1.273391675465917e-05</v>
+        <v>11837057587164.76</v>
       </c>
       <c r="E180" t="n">
-        <v>2.240511027518817e-05</v>
+        <v>20858206765282.76</v>
       </c>
       <c r="F180" t="n">
-        <v>10.35257996977864</v>
+        <v>3.190831066358441</v>
       </c>
       <c r="G180" t="n">
-        <v>0.06583964905056185</v>
+        <v>0.6705922647059895</v>
       </c>
       <c r="H180" t="n">
-        <v>2.070515993955728</v>
+        <v>0.6381662132716882</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>4.520622454588343</v>
+        <v>5.275024</v>
       </c>
       <c r="B181" t="n">
-        <v>0.0005040803783561956</v>
+        <v>467209402264311.2</v>
       </c>
       <c r="C181" t="n">
-        <v>0.0001320905664111677</v>
+        <v>130248823473931.4</v>
       </c>
       <c r="D181" t="n">
-        <v>1.15080962399566e-05</v>
+        <v>10697396285858.25</v>
       </c>
       <c r="E181" t="n">
-        <v>2.019715600338556e-05</v>
+        <v>18801185560961.06</v>
       </c>
       <c r="F181" t="n">
-        <v>5.837985188460321</v>
+        <v>0.6195146991161915</v>
       </c>
       <c r="G181" t="n">
-        <v>0.3223042809480567</v>
+        <v>0.9870923279449093</v>
       </c>
       <c r="H181" t="n">
-        <v>1.167597037692064</v>
+        <v>0.1239029398232383</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>4.524727421310266</v>
+        <v>5.279812000000001</v>
       </c>
       <c r="B182" t="n">
-        <v>0.0007630451460646181</v>
+        <v>706157781760851.2</v>
       </c>
       <c r="C182" t="n">
-        <v>0.0001693136550257572</v>
+        <v>170908200597215.7</v>
       </c>
       <c r="D182" t="n">
-        <v>1.853788069047697e-05</v>
+        <v>17261243360255.86</v>
       </c>
       <c r="E182" t="n">
-        <v>3.189844534729682e-05</v>
+        <v>29825640633476.2</v>
       </c>
       <c r="F182" t="n">
-        <v>5.573130272420128</v>
+        <v>0.9081119069670762</v>
       </c>
       <c r="G182" t="n">
-        <v>0.3499935009025067</v>
+        <v>0.9696315855809593</v>
       </c>
       <c r="H182" t="n">
-        <v>1.114626054484026</v>
+        <v>0.1816223813934152</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>4.529132333408531</v>
+        <v>5.284953</v>
       </c>
       <c r="B183" t="n">
-        <v>0.0009792085096289485</v>
+        <v>906297997733437.1</v>
       </c>
       <c r="C183" t="n">
-        <v>0.0001970203424254581</v>
+        <v>205875206031459.1</v>
       </c>
       <c r="D183" t="n">
-        <v>2.362971010094832e-05</v>
+        <v>21948111503154.38</v>
       </c>
       <c r="E183" t="n">
-        <v>4.073817573554793e-05</v>
+        <v>37830023970004.11</v>
       </c>
       <c r="F183" t="n">
-        <v>11.75020774100635</v>
+        <v>5.523036855037241</v>
       </c>
       <c r="G183" t="n">
-        <v>0.03837554155775649</v>
+        <v>0.355426418339729</v>
       </c>
       <c r="H183" t="n">
-        <v>2.350041548201269</v>
+        <v>1.104607371007448</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>4.533597234582063</v>
+        <v>5.290161</v>
       </c>
       <c r="B184" t="n">
-        <v>0.001280411529740756</v>
+        <v>1187101937005902</v>
       </c>
       <c r="C184" t="n">
-        <v>0.000264669298285426</v>
+        <v>260013536089968.9</v>
       </c>
       <c r="D184" t="n">
-        <v>2.831982777582837e-05</v>
+        <v>26330591903731.23</v>
       </c>
       <c r="E184" t="n">
-        <v>4.975615968000658e-05</v>
+        <v>46334612732717.48</v>
       </c>
       <c r="F184" t="n">
-        <v>9.805160709383546</v>
+        <v>6.610321351993099</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08094796485678735</v>
+        <v>0.2512709981846382</v>
       </c>
       <c r="H184" t="n">
-        <v>1.961032141876709</v>
+        <v>1.32206427039862</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>4.535979657856999</v>
+        <v>5.292942</v>
       </c>
       <c r="B185" t="n">
-        <v>0.001496678104824153</v>
+        <v>1388523083411934</v>
       </c>
       <c r="C185" t="n">
-        <v>0.0003995156084578379</v>
+        <v>395261533334945.8</v>
       </c>
       <c r="D185" t="n">
-        <v>3.256701681505846e-05</v>
+        <v>30233984921333.32</v>
       </c>
       <c r="E185" t="n">
-        <v>5.822981943008646e-05</v>
+        <v>53960392314891.12</v>
       </c>
       <c r="F185" t="n">
-        <v>7.265614864445987</v>
+        <v>0.6838242595294458</v>
       </c>
       <c r="G185" t="n">
-        <v>0.2016237476630998</v>
+        <v>0.9838446284303813</v>
       </c>
       <c r="H185" t="n">
-        <v>1.453122972889197</v>
+        <v>0.1367648519058892</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>4.540033205371549</v>
+        <v>5.297674</v>
       </c>
       <c r="B186" t="n">
-        <v>0.001457577445896527</v>
+        <v>1353267134070666</v>
       </c>
       <c r="C186" t="n">
-        <v>0.0003252488138718139</v>
+        <v>328479084347723.8</v>
       </c>
       <c r="D186" t="n">
-        <v>3.092145890793698e-05</v>
+        <v>28627056115602.63</v>
       </c>
       <c r="E186" t="n">
-        <v>5.520204452517119e-05</v>
+        <v>50722690462703.45</v>
       </c>
       <c r="F186" t="n">
-        <v>12.65498376910438</v>
+        <v>5.433197004140487</v>
       </c>
       <c r="G186" t="n">
-        <v>0.02683563665551809</v>
+        <v>0.3653266868805954</v>
       </c>
       <c r="H186" t="n">
-        <v>2.530996753820876</v>
+        <v>1.086639400828097</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>4.541790028290118</v>
+        <v>5.299721</v>
       </c>
       <c r="B187" t="n">
-        <v>0.001431590145847084</v>
+        <v>1328887032697271</v>
       </c>
       <c r="C187" t="n">
-        <v>0.0003449231914082198</v>
+        <v>345705295311893</v>
       </c>
       <c r="D187" t="n">
-        <v>3.069530960763418e-05</v>
+        <v>28447302820639.68</v>
       </c>
       <c r="E187" t="n">
-        <v>5.452369553031769e-05</v>
+        <v>50251722037462.73</v>
       </c>
       <c r="F187" t="n">
-        <v>7.779496727735982</v>
+        <v>0.4756503978509284</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1688140090827927</v>
+        <v>0.9929877646477174</v>
       </c>
       <c r="H187" t="n">
-        <v>1.555899345547196</v>
+        <v>0.09513007957018568</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>4.54406961315031</v>
+        <v>5.302376000000001</v>
       </c>
       <c r="B188" t="n">
-        <v>0.001349132298396453</v>
+        <v>1251766744125095</v>
       </c>
       <c r="C188" t="n">
-        <v>0.0003006148709177185</v>
+        <v>306026272114789.4</v>
       </c>
       <c r="D188" t="n">
-        <v>2.9259411388321e-05</v>
+        <v>27106048850093.97</v>
       </c>
       <c r="E188" t="n">
-        <v>5.191561965341232e-05</v>
+        <v>47808957880537.73</v>
       </c>
       <c r="F188" t="n">
-        <v>12.52861499672362</v>
+        <v>5.083710863686017</v>
       </c>
       <c r="G188" t="n">
-        <v>0.02822023867669874</v>
+        <v>0.4057497323371849</v>
       </c>
       <c r="H188" t="n">
-        <v>2.505722999344724</v>
+        <v>1.016742172737203</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>4.54908298586915</v>
+        <v>5.308233</v>
       </c>
       <c r="B189" t="n">
-        <v>0.001171849507962125</v>
+        <v>1088334485984629</v>
       </c>
       <c r="C189" t="n">
-        <v>0.0002736795024913781</v>
+        <v>274016563200475.3</v>
       </c>
       <c r="D189" t="n">
-        <v>2.46146554272646e-05</v>
+        <v>22792930004828.3</v>
       </c>
       <c r="E189" t="n">
-        <v>4.420065707346739e-05</v>
+        <v>40623056107703.4</v>
       </c>
       <c r="F189" t="n">
-        <v>11.03990092596358</v>
+        <v>3.875406660491552</v>
       </c>
       <c r="G189" t="n">
-        <v>0.05059457991631661</v>
+        <v>0.5674903358926523</v>
       </c>
       <c r="H189" t="n">
-        <v>2.207980185192715</v>
+        <v>0.7750813320983105</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>4.553067974440538</v>
+        <v>5.312876</v>
       </c>
       <c r="B190" t="n">
-        <v>0.001114045629841155</v>
+        <v>1034315839663096</v>
       </c>
       <c r="C190" t="n">
-        <v>0.0002661032833628018</v>
+        <v>266671323649658.6</v>
       </c>
       <c r="D190" t="n">
-        <v>2.358752523486564e-05</v>
+        <v>21854644714869.24</v>
       </c>
       <c r="E190" t="n">
-        <v>4.240823677824108e-05</v>
+        <v>39046269411587.07</v>
       </c>
       <c r="F190" t="n">
-        <v>13.27790922192128</v>
+        <v>6.008160602191393</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0209090855624512</v>
+        <v>0.3054256661676328</v>
       </c>
       <c r="H190" t="n">
-        <v>2.655581844384256</v>
+        <v>1.201632120438278</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>4.557044393144028</v>
+        <v>5.317521</v>
       </c>
       <c r="B191" t="n">
-        <v>0.0009553741209153603</v>
+        <v>887182123083938.9</v>
       </c>
       <c r="C191" t="n">
-        <v>0.000238443197090146</v>
+        <v>240061956166007.8</v>
       </c>
       <c r="D191" t="n">
-        <v>2.027073480745248e-05</v>
+        <v>18776380218455.85</v>
       </c>
       <c r="E191" t="n">
-        <v>3.656547478173141e-05</v>
+        <v>33623441999989.2</v>
       </c>
       <c r="F191" t="n">
-        <v>14.25359440633957</v>
+        <v>5.80075643877018</v>
       </c>
       <c r="G191" t="n">
-        <v>0.0140763152268274</v>
+        <v>0.326091508097366</v>
       </c>
       <c r="H191" t="n">
-        <v>2.850718881267914</v>
+        <v>1.160151287754036</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>4.561577853260723</v>
+        <v>5.322808999999999</v>
       </c>
       <c r="B192" t="n">
-        <v>0.0007597650355808409</v>
+        <v>705325565750876</v>
       </c>
       <c r="C192" t="n">
-        <v>0.0001967686445613764</v>
+        <v>196353400465176.3</v>
       </c>
       <c r="D192" t="n">
-        <v>1.618211755818622e-05</v>
+        <v>15003688185398.71</v>
       </c>
       <c r="E192" t="n">
-        <v>2.916279224980825e-05</v>
+        <v>26903468700132.73</v>
       </c>
       <c r="F192" t="n">
-        <v>12.79559133943199</v>
+        <v>5.046953026418577</v>
       </c>
       <c r="G192" t="n">
-        <v>0.02537148263831953</v>
+        <v>0.4101769141630826</v>
       </c>
       <c r="H192" t="n">
-        <v>2.559118267886398</v>
+        <v>1.009390605283715</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>4.56575137892581</v>
+        <v>5.327683</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0006408187193375071</v>
+        <v>594189271629656</v>
       </c>
       <c r="C193" t="n">
-        <v>0.0001512101513502905</v>
+        <v>149102265330210</v>
       </c>
       <c r="D193" t="n">
-        <v>1.385078567844846e-05</v>
+        <v>12869589958882.88</v>
       </c>
       <c r="E193" t="n">
-        <v>2.465664944431437e-05</v>
+        <v>22921386676203.55</v>
       </c>
       <c r="F193" t="n">
-        <v>9.824163274453486</v>
+        <v>5.124388015931082</v>
       </c>
       <c r="G193" t="n">
-        <v>0.08037359984811848</v>
+        <v>0.4008892322504699</v>
       </c>
       <c r="H193" t="n">
-        <v>1.964832654890697</v>
+        <v>1.024877603186216</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>4.570207710231447</v>
+        <v>5.33288</v>
       </c>
       <c r="B194" t="n">
-        <v>0.0004697096762260209</v>
+        <v>435012175857678.8</v>
       </c>
       <c r="C194" t="n">
-        <v>0.0001281388290366396</v>
+        <v>127383230487416.7</v>
       </c>
       <c r="D194" t="n">
-        <v>1.050482982785888e-05</v>
+        <v>9771634677559.025</v>
       </c>
       <c r="E194" t="n">
-        <v>1.860317154612863e-05</v>
+        <v>17364493930298.34</v>
       </c>
       <c r="F194" t="n">
-        <v>6.922790957129925</v>
+        <v>0.5520229213505893</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2264460670477385</v>
+        <v>0.9900943972483528</v>
       </c>
       <c r="H194" t="n">
-        <v>1.384558191425985</v>
+        <v>0.1104045842701179</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>4.570233419835134</v>
+        <v>5.332912</v>
       </c>
       <c r="B195" t="n">
-        <v>0.0004872115355994636</v>
+        <v>451826152438555.2</v>
       </c>
       <c r="C195" t="n">
-        <v>0.0001186822828810946</v>
+        <v>120546531968362.9</v>
       </c>
       <c r="D195" t="n">
-        <v>1.061156946200952e-05</v>
+        <v>9842544268555.127</v>
       </c>
       <c r="E195" t="n">
-        <v>1.898178312470856e-05</v>
+        <v>17540561992920.59</v>
       </c>
       <c r="F195" t="n">
-        <v>11.90074038576309</v>
+        <v>3.766338054971408</v>
       </c>
       <c r="G195" t="n">
-        <v>0.03617347230243718</v>
+        <v>0.583523559155102</v>
       </c>
       <c r="H195" t="n">
-        <v>2.380148077152618</v>
+        <v>0.7532676109942816</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>4.574141279595461</v>
+        <v>5.337469</v>
       </c>
       <c r="B196" t="n">
-        <v>0.000328362512130552</v>
+        <v>304149587135532.8</v>
       </c>
       <c r="C196" t="n">
-        <v>7.391925051520868e-05</v>
+        <v>74061226985901.62</v>
       </c>
       <c r="D196" t="n">
-        <v>7.297477267085411e-06</v>
+        <v>6788394506454.169</v>
       </c>
       <c r="E196" t="n">
-        <v>1.289181609692689e-05</v>
+        <v>12023565165115.98</v>
       </c>
       <c r="F196" t="n">
-        <v>10.34132153110649</v>
+        <v>5.268908823208764</v>
       </c>
       <c r="G196" t="n">
-        <v>0.06612192507985241</v>
+        <v>0.3839512289526467</v>
       </c>
       <c r="H196" t="n">
-        <v>2.068264306221297</v>
+        <v>1.053781764641753</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>4.578657599976365</v>
+        <v>5.342735</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0002007442298034332</v>
+        <v>185575063180075.3</v>
       </c>
       <c r="C197" t="n">
-        <v>4.151620843001493e-05</v>
+        <v>42528206516093.94</v>
       </c>
       <c r="D197" t="n">
-        <v>4.788615029825645e-06</v>
+        <v>4467398784721.729</v>
       </c>
       <c r="E197" t="n">
-        <v>8.165497320099101e-06</v>
+        <v>7672373467172.532</v>
       </c>
       <c r="F197" t="n">
-        <v>5.625154574293457</v>
+        <v>0.7451456638159774</v>
       </c>
       <c r="G197" t="n">
-        <v>0.3444172884727019</v>
+        <v>0.9803994140861679</v>
       </c>
       <c r="H197" t="n">
-        <v>1.125030914858691</v>
+        <v>0.1490291327631955</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>4.578820427466379</v>
+        <v>5.342928</v>
       </c>
       <c r="B198" t="n">
-        <v>0.000203647798427275</v>
+        <v>188447333382841.9</v>
       </c>
       <c r="C198" t="n">
-        <v>4.054178213778996e-05</v>
+        <v>40023747843840.44</v>
       </c>
       <c r="D198" t="n">
-        <v>4.707465213579814e-06</v>
+        <v>4396741255263.459</v>
       </c>
       <c r="E198" t="n">
-        <v>8.112613250154169e-06</v>
+        <v>7647496923645.555</v>
       </c>
       <c r="F198" t="n">
-        <v>4.166755949410344</v>
+        <v>1.748392402784133</v>
       </c>
       <c r="G198" t="n">
-        <v>0.5256656655998951</v>
+        <v>0.8827476225517199</v>
       </c>
       <c r="H198" t="n">
-        <v>0.8333511898820689</v>
+        <v>0.3496784805568267</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>4.582256944492457</v>
+        <v>5.346943</v>
       </c>
       <c r="B199" t="n">
-        <v>0.0001524158644392351</v>
+        <v>140917351437057.8</v>
       </c>
       <c r="C199" t="n">
-        <v>2.402406852515911e-05</v>
+        <v>24741611712679.97</v>
       </c>
       <c r="D199" t="n">
-        <v>3.686134483406535e-06</v>
+        <v>3447425229365.735</v>
       </c>
       <c r="E199" t="n">
-        <v>6.154928770273574e-06</v>
+        <v>5809530531167.967</v>
       </c>
       <c r="F199" t="n">
-        <v>4.330893836248348</v>
+        <v>1.430861651196856</v>
       </c>
       <c r="G199" t="n">
-        <v>0.5028228145053653</v>
+        <v>0.9209078068585486</v>
       </c>
       <c r="H199" t="n">
-        <v>0.8661787672496697</v>
+        <v>0.2861723302393712</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>4.583388167054657</v>
+        <v>5.348261</v>
       </c>
       <c r="B200" t="n">
-        <v>0.0001459810787927431</v>
+        <v>135042276158179.9</v>
       </c>
       <c r="C200" t="n">
-        <v>2.836610237319284e-05</v>
+        <v>27434328827691.55</v>
       </c>
       <c r="D200" t="n">
-        <v>3.424594172577715e-06</v>
+        <v>3209262705949.407</v>
       </c>
       <c r="E200" t="n">
-        <v>5.887114737801371e-06</v>
+        <v>5594660606935.398</v>
       </c>
       <c r="F200" t="n">
-        <v>4.319250028393961</v>
+        <v>3.47823581381415</v>
       </c>
       <c r="G200" t="n">
-        <v>0.5044249390255773</v>
+        <v>0.6266833558223311</v>
       </c>
       <c r="H200" t="n">
-        <v>0.8638500056787922</v>
+        <v>0.6956471627628299</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>4.583662402827311</v>
+        <v>5.348582</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0001358686492306399</v>
+        <v>125672370113652.4</v>
       </c>
       <c r="C201" t="n">
-        <v>2.456904581028021e-05</v>
+        <v>24673062054504.85</v>
       </c>
       <c r="D201" t="n">
-        <v>3.203041833055136e-06</v>
+        <v>2993663793623.782</v>
       </c>
       <c r="E201" t="n">
-        <v>5.418349200514425e-06</v>
+        <v>5111723081041.758</v>
       </c>
       <c r="F201" t="n">
-        <v>3.714651904320304</v>
+        <v>0.9766511633644762</v>
       </c>
       <c r="G201" t="n">
-        <v>0.5911850580049516</v>
+        <v>0.9644269473807056</v>
       </c>
       <c r="H201" t="n">
-        <v>0.7429303808640608</v>
+        <v>0.1953302326728952</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>4.586636146987034</v>
+        <v>5.352053</v>
       </c>
       <c r="B202" t="n">
-        <v>0.0002294203824155667</v>
+        <v>212086311340527.9</v>
       </c>
       <c r="C202" t="n">
-        <v>4.540355109065508e-05</v>
+        <v>47335786120306.38</v>
       </c>
       <c r="D202" t="n">
-        <v>5.483604664063386e-06</v>
+        <v>5110035260443.895</v>
       </c>
       <c r="E202" t="n">
-        <v>9.381223683082152e-06</v>
+        <v>8786829344996.19</v>
       </c>
       <c r="F202" t="n">
-        <v>6.749922947288985</v>
+        <v>1.152135109687604</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2399130311097221</v>
+        <v>0.9493860970529489</v>
       </c>
       <c r="H202" t="n">
-        <v>1.349984589457797</v>
+        <v>0.2304270219375208</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>4.58796447651083</v>
+        <v>5.353596</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0001777588728919595</v>
+        <v>164726590612637.2</v>
       </c>
       <c r="C203" t="n">
-        <v>3.935518056869508e-05</v>
+        <v>39015288235305.88</v>
       </c>
       <c r="D203" t="n">
-        <v>3.925909582399118e-06</v>
+        <v>3650959751487.938</v>
       </c>
       <c r="E203" t="n">
-        <v>6.894146657492165e-06</v>
+        <v>6425462245458.829</v>
       </c>
       <c r="F203" t="n">
-        <v>7.690952258347423</v>
+        <v>3.404373504902061</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1741104814652841</v>
+        <v>0.6379039140357239</v>
       </c>
       <c r="H203" t="n">
-        <v>1.538190451669485</v>
+        <v>0.6808747009804123</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>4.591649519705875</v>
+        <v>5.357905000000001</v>
       </c>
       <c r="B204" t="n">
-        <v>0.0002799699031295538</v>
+        <v>258990748196958.7</v>
       </c>
       <c r="C204" t="n">
-        <v>5.593068614408777e-05</v>
+        <v>56489052440554.06</v>
       </c>
       <c r="D204" t="n">
-        <v>6.612556526570438e-06</v>
+        <v>6167966461162.224</v>
       </c>
       <c r="E204" t="n">
-        <v>1.136345580211854e-05</v>
+        <v>10672053356611.49</v>
       </c>
       <c r="F204" t="n">
-        <v>4.876521254564725</v>
+        <v>1.092090091118329</v>
       </c>
       <c r="G204" t="n">
-        <v>0.4311349692544402</v>
+        <v>0.9548014249582754</v>
       </c>
       <c r="H204" t="n">
-        <v>0.975304250912945</v>
+        <v>0.2184180182236657</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>4.593303504209699</v>
+        <v>5.359834999999999</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0002654383468845253</v>
+        <v>245564829772385.1</v>
       </c>
       <c r="C205" t="n">
-        <v>5.346734170033569e-05</v>
+        <v>53730845603579.47</v>
       </c>
       <c r="D205" t="n">
-        <v>6.267471209483174e-06</v>
+        <v>5847288059488.87</v>
       </c>
       <c r="E205" t="n">
-        <v>1.075398815043959e-05</v>
+        <v>10106351031912.57</v>
       </c>
       <c r="F205" t="n">
-        <v>4.487484610364632</v>
+        <v>0.9439870715592232</v>
       </c>
       <c r="G205" t="n">
-        <v>0.481559698788541</v>
+        <v>0.966955910438887</v>
       </c>
       <c r="H205" t="n">
-        <v>0.8974969220729264</v>
+        <v>0.1887974143118447</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>4.595068896996162</v>
+        <v>5.361894</v>
       </c>
       <c r="B206" t="n">
-        <v>0.000254566023535616</v>
+        <v>235465522262570.4</v>
       </c>
       <c r="C206" t="n">
-        <v>5.487345162560253e-05</v>
+        <v>55028642837037.55</v>
       </c>
       <c r="D206" t="n">
-        <v>6.066128087931819e-06</v>
+        <v>5658280039966.449</v>
       </c>
       <c r="E206" t="n">
-        <v>1.039444843174405e-05</v>
+        <v>9767407469661.941</v>
       </c>
       <c r="F206" t="n">
-        <v>5.950847483410152</v>
+        <v>2.093321351682841</v>
       </c>
       <c r="G206" t="n">
-        <v>0.3110310968897946</v>
+        <v>0.8360874170257575</v>
       </c>
       <c r="H206" t="n">
-        <v>1.19016949668203</v>
+        <v>0.4186642703365682</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>4.596757160971567</v>
+        <v>5.363857</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0002520899916363307</v>
+        <v>233192423825636.2</v>
       </c>
       <c r="C207" t="n">
-        <v>5.822521266960302e-05</v>
+        <v>57538614418392.33</v>
       </c>
       <c r="D207" t="n">
-        <v>5.966916373197537e-06</v>
+        <v>5568232531376.994</v>
       </c>
       <c r="E207" t="n">
-        <v>1.030244285001911e-05</v>
+        <v>9698919935259.705</v>
       </c>
       <c r="F207" t="n">
-        <v>6.441278931883081</v>
+        <v>3.184534663934747</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2656158209984595</v>
+        <v>0.6715603136287087</v>
       </c>
       <c r="H207" t="n">
-        <v>1.288255786376616</v>
+        <v>0.6369069327869494</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>4.598633962040672</v>
+        <v>5.366045</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0002461840503136468</v>
+        <v>227665875961958.1</v>
       </c>
       <c r="C208" t="n">
-        <v>4.776438578622085e-05</v>
+        <v>49316869572721.59</v>
       </c>
       <c r="D208" t="n">
-        <v>5.91995493065244e-06</v>
+        <v>5518068566179.176</v>
       </c>
       <c r="E208" t="n">
-        <v>1.011373853308484e-05</v>
+        <v>9477003578775.709</v>
       </c>
       <c r="F208" t="n">
-        <v>5.249908360969433</v>
+        <v>0.4618163398987856</v>
       </c>
       <c r="G208" t="n">
-        <v>0.3861485434810797</v>
+        <v>0.9934547945167597</v>
       </c>
       <c r="H208" t="n">
-        <v>1.049981672193887</v>
+        <v>0.09236326797975712</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>4.600339365751868</v>
+        <v>5.368041000000001</v>
       </c>
       <c r="B209" t="n">
-        <v>0.0002326277729590772</v>
+        <v>215438004745131.7</v>
       </c>
       <c r="C209" t="n">
-        <v>4.67419387638202e-05</v>
+        <v>47515538480729.33</v>
       </c>
       <c r="D209" t="n">
-        <v>5.238322834443801e-06</v>
+        <v>4869947001126.593</v>
       </c>
       <c r="E209" t="n">
-        <v>9.025445421829565e-06</v>
+        <v>8403694599035.651</v>
       </c>
       <c r="F209" t="n">
-        <v>5.747813137824778</v>
+        <v>0.6019317862894894</v>
       </c>
       <c r="G209" t="n">
-        <v>0.3315362558063977</v>
+        <v>0.9879146242662766</v>
       </c>
       <c r="H209" t="n">
-        <v>1.149562627564956</v>
+        <v>0.1203863572578979</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>4.601719114483036</v>
+        <v>5.369651</v>
       </c>
       <c r="B210" t="n">
-        <v>0.0002368490595054481</v>
+        <v>219152954139983.2</v>
       </c>
       <c r="C210" t="n">
-        <v>4.412803623187173e-05</v>
+        <v>44996241398013.83</v>
       </c>
       <c r="D210" t="n">
-        <v>5.613398998308387e-06</v>
+        <v>5230269314718.294</v>
       </c>
       <c r="E210" t="n">
-        <v>9.601578013448291e-06</v>
+        <v>8993311861566.941</v>
       </c>
       <c r="F210" t="n">
-        <v>4.326628321168593</v>
+        <v>0.4229077821800903</v>
       </c>
       <c r="G210" t="n">
-        <v>0.5034093944000669</v>
+        <v>0.9946750816094047</v>
       </c>
       <c r="H210" t="n">
-        <v>0.8653256642337187</v>
+        <v>0.08458155643601806</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>4.606132596449195</v>
+        <v>5.374804</v>
       </c>
       <c r="B211" t="n">
-        <v>0.0001395349119129253</v>
+        <v>129171699591315.1</v>
       </c>
       <c r="C211" t="n">
-        <v>3.20071124989558e-05</v>
+        <v>32112300101123.55</v>
       </c>
       <c r="D211" t="n">
-        <v>3.184854060426755e-06</v>
+        <v>2964684732337.349</v>
       </c>
       <c r="E211" t="n">
-        <v>5.549084308721158e-06</v>
+        <v>5187872205968.118</v>
       </c>
       <c r="F211" t="n">
-        <v>6.702056493984461</v>
+        <v>1.659105691357912</v>
       </c>
       <c r="G211" t="n">
-        <v>0.243758294161466</v>
+        <v>0.8940109316479773</v>
       </c>
       <c r="H211" t="n">
-        <v>1.340411298796892</v>
+        <v>0.3318211382715824</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>4.610666056565891</v>
+        <v>5.380088</v>
       </c>
       <c r="B212" t="n">
-        <v>6.124726611681148e-05</v>
+        <v>56466562916852.08</v>
       </c>
       <c r="C212" t="n">
-        <v>1.14774602554286e-05</v>
+        <v>12158851220576.22</v>
       </c>
       <c r="D212" t="n">
-        <v>1.666223671651897e-06</v>
+        <v>1562148610824.386</v>
       </c>
       <c r="E212" t="n">
-        <v>2.779256606390315e-06</v>
+        <v>2638704449666.592</v>
       </c>
       <c r="F212" t="n">
-        <v>4.85578456861003</v>
+        <v>0.6942719370980264</v>
       </c>
       <c r="G212" t="n">
-        <v>0.4337329438731714</v>
+        <v>0.9832815650275792</v>
       </c>
       <c r="H212" t="n">
-        <v>0.971156913722006</v>
+        <v>0.1388543874196053</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>4.613091329180303</v>
+        <v>5.382924</v>
       </c>
       <c r="B213" t="n">
-        <v>3.909679294048478e-05</v>
+        <v>36121941471624.57</v>
       </c>
       <c r="C213" t="n">
-        <v>3.410774103916567e-06</v>
+        <v>3713036512780.672</v>
       </c>
       <c r="D213" t="n">
-        <v>1.179380921303991e-06</v>
+        <v>1115878080034.483</v>
       </c>
       <c r="E213" t="n">
-        <v>1.874517411509417e-06</v>
+        <v>1806253852462.157</v>
       </c>
       <c r="F213" t="n">
-        <v>2.138870527660959</v>
+        <v>1.21467696587821</v>
       </c>
       <c r="G213" t="n">
-        <v>0.8296151409652588</v>
+        <v>0.9434615823782315</v>
       </c>
       <c r="H213" t="n">
-        <v>0.4277741055321919</v>
+        <v>0.2429353931756419</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>4.613451263631914</v>
+        <v>5.383343</v>
       </c>
       <c r="B214" t="n">
-        <v>5.529582532342416e-05</v>
+        <v>51030525346599.51</v>
       </c>
       <c r="C214" t="n">
-        <v>1.078755356011709e-05</v>
+        <v>11085232147651.9</v>
       </c>
       <c r="D214" t="n">
-        <v>1.419450232588372e-06</v>
+        <v>1331162654359.113</v>
       </c>
       <c r="E214" t="n">
-        <v>2.402563396340663e-06</v>
+        <v>2285628810274.873</v>
       </c>
       <c r="F214" t="n">
-        <v>5.092975923490347</v>
+        <v>1.691370563544187</v>
       </c>
       <c r="G214" t="n">
-        <v>0.4046390703623677</v>
+        <v>0.8899851230564862</v>
       </c>
       <c r="H214" t="n">
-        <v>1.018595184698069</v>
+        <v>0.3382741127088374</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>4.613896896762476</v>
+        <v>5.383858999999999</v>
       </c>
       <c r="B215" t="n">
-        <v>3.461865680530686e-05</v>
+        <v>31900565943111.28</v>
       </c>
       <c r="C215" t="n">
-        <v>4.372513863452472e-06</v>
+        <v>4985394542509.734</v>
       </c>
       <c r="D215" t="n">
-        <v>1.005389383243919e-06</v>
+        <v>945977806774.7601</v>
       </c>
       <c r="E215" t="n">
-        <v>1.647245191793884e-06</v>
+        <v>1572552938068.276</v>
       </c>
       <c r="F215" t="n">
-        <v>5.942313270777177</v>
+        <v>2.969210422862612</v>
       </c>
       <c r="G215" t="n">
-        <v>0.3118726271040714</v>
+        <v>0.7047328573857647</v>
       </c>
       <c r="H215" t="n">
-        <v>1.188462654155436</v>
+        <v>0.5938420845725225</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>4.615696569020522</v>
+        <v>5.385955</v>
       </c>
       <c r="B216" t="n">
-        <v>2.693363227444642e-05</v>
+        <v>24908284079693.27</v>
       </c>
       <c r="C216" t="n">
-        <v>3.426833295236103e-06</v>
+        <v>3305875892448.061</v>
       </c>
       <c r="D216" t="n">
-        <v>8.517279084964474e-07</v>
+        <v>805961355785.4855</v>
       </c>
       <c r="E216" t="n">
-        <v>1.394050248240839e-06</v>
+        <v>1349786174379.946</v>
       </c>
       <c r="F216" t="n">
-        <v>1.362622426641198</v>
+        <v>1.39613520200148</v>
       </c>
       <c r="G216" t="n">
-        <v>0.9283578963427791</v>
+        <v>0.9247355729431119</v>
       </c>
       <c r="H216" t="n">
-        <v>0.2725244853282397</v>
+        <v>0.279227040400296</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>4.619038817499749</v>
+        <v>5.389858</v>
       </c>
       <c r="B217" t="n">
-        <v>2.316200466380847e-05</v>
+        <v>21437255282168.5</v>
       </c>
       <c r="C217" t="n">
-        <v>1.214287307085799e-06</v>
+        <v>1291084668302.98</v>
       </c>
       <c r="D217" t="n">
-        <v>7.365783691677232e-07</v>
+        <v>705198606218.2545</v>
       </c>
       <c r="E217" t="n">
-        <v>1.134855866709534e-06</v>
+        <v>1115877272129.704</v>
       </c>
       <c r="F217" t="n">
-        <v>1.71916828850157</v>
+        <v>1.522763918522733</v>
       </c>
       <c r="G217" t="n">
-        <v>0.8864760870502003</v>
+        <v>0.9104280088095468</v>
       </c>
       <c r="H217" t="n">
-        <v>0.3438336577003141</v>
+        <v>0.3045527837045466</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>4.621798314962087</v>
+        <v>5.393084</v>
       </c>
       <c r="B218" t="n">
-        <v>2.18441583367648e-05</v>
+        <v>20240299173404.43</v>
       </c>
       <c r="C218" t="n">
-        <v>1.158854023691423e-06</v>
+        <v>1210647692466.578</v>
       </c>
       <c r="D218" t="n">
-        <v>7.276371823152538e-07</v>
+        <v>687671205868.1837</v>
       </c>
       <c r="E218" t="n">
-        <v>1.173253745711078e-06</v>
+        <v>1131234441848.717</v>
       </c>
       <c r="F218" t="n">
-        <v>9.413675865658403</v>
+        <v>9.260274254784413</v>
       </c>
       <c r="G218" t="n">
-        <v>0.09365878543706789</v>
+        <v>0.09912229067899962</v>
       </c>
       <c r="H218" t="n">
-        <v>1.882735173131681</v>
+        <v>1.852054850956883</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>4.630650988498092</v>
+        <v>5.403415</v>
       </c>
       <c r="B219" t="n">
-        <v>2.139859197739726e-05</v>
+        <v>19800879123144.61</v>
       </c>
       <c r="C219" t="n">
-        <v>1.379411002426535e-06</v>
+        <v>1442286846673.084</v>
       </c>
       <c r="D219" t="n">
-        <v>7.323770479702912e-07</v>
+        <v>698214555240.265</v>
       </c>
       <c r="E219" t="n">
-        <v>1.178006353329692e-06</v>
+        <v>1152017289358.968</v>
       </c>
       <c r="F219" t="n">
-        <v>8.281293405146963</v>
+        <v>8.106790172020467</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1413992439750966</v>
+        <v>0.150447586267114</v>
       </c>
       <c r="H219" t="n">
-        <v>1.656258681029393</v>
+        <v>1.621358034404093</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>4.639795037542543</v>
+        <v>5.414078</v>
       </c>
       <c r="B220" t="n">
-        <v>2.572800696925341e-05</v>
+        <v>23887642083566.64</v>
       </c>
       <c r="C220" t="n">
-        <v>1.192836674669615e-06</v>
+        <v>1009539619057.949</v>
       </c>
       <c r="D220" t="n">
-        <v>8.393537758782718e-07</v>
+        <v>800366977297.2714</v>
       </c>
       <c r="E220" t="n">
-        <v>1.320708791475881e-06</v>
+        <v>1291144993702.321</v>
       </c>
       <c r="F220" t="n">
-        <v>1.890227689894441</v>
+        <v>2.090855057083579</v>
       </c>
       <c r="G220" t="n">
-        <v>0.8641160988139731</v>
+        <v>0.8364360853827973</v>
       </c>
       <c r="H220" t="n">
-        <v>0.3780455379788883</v>
+        <v>0.4181710114167158</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>4.64860486173907</v>
+        <v>5.424364</v>
       </c>
       <c r="B221" t="n">
-        <v>2.592430541681539e-05</v>
+        <v>23929523849998</v>
       </c>
       <c r="C221" t="n">
-        <v>3.128370382351574e-06</v>
+        <v>3200825271720.109</v>
       </c>
       <c r="D221" t="n">
-        <v>8.61606964984365e-07</v>
+        <v>818328223081.2979</v>
       </c>
       <c r="E221" t="n">
-        <v>1.381767619742156e-06</v>
+        <v>1345236075851.36</v>
       </c>
       <c r="F221" t="n">
-        <v>1.411930702748606</v>
+        <v>0.8953313433708693</v>
       </c>
       <c r="G221" t="n">
-        <v>0.9230037467583543</v>
+        <v>0.9705587136505316</v>
       </c>
       <c r="H221" t="n">
-        <v>0.2823861405497212</v>
+        <v>0.1790662686741739</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>4.658074565763548</v>
+        <v>5.435405</v>
       </c>
       <c r="B222" t="n">
-        <v>2.894673111643238e-05</v>
+        <v>26726821124705.23</v>
       </c>
       <c r="C222" t="n">
-        <v>5.054746292084597e-06</v>
+        <v>4742410818713.848</v>
       </c>
       <c r="D222" t="n">
-        <v>8.221461220038421e-07</v>
+        <v>779088908846.4304</v>
       </c>
       <c r="E222" t="n">
-        <v>1.352308633001685e-06</v>
+        <v>1318863857445.667</v>
       </c>
       <c r="F222" t="n">
-        <v>1.931920154762403</v>
+        <v>3.005879706432455</v>
       </c>
       <c r="G222" t="n">
-        <v>0.8584827347787756</v>
+        <v>0.6990793016714187</v>
       </c>
       <c r="H222" t="n">
-        <v>0.3863840309524806</v>
+        <v>0.601175941286491</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>4.661373964903298</v>
+        <v>5.439261</v>
       </c>
       <c r="B223" t="n">
-        <v>3.332664615901324e-05</v>
+        <v>30812168560836.43</v>
       </c>
       <c r="C223" t="n">
-        <v>4.678103190139015e-06</v>
+        <v>4472352007547.352</v>
       </c>
       <c r="D223" t="n">
-        <v>9.551727531859808e-07</v>
+        <v>904279880465.9337</v>
       </c>
       <c r="E223" t="n">
-        <v>1.562197621261025e-06</v>
+        <v>1514835802240.627</v>
       </c>
       <c r="F223" t="n">
-        <v>1.286807462709415</v>
+        <v>1.511290511173977</v>
       </c>
       <c r="G223" t="n">
-        <v>0.936283309026524</v>
+        <v>0.9117632263355565</v>
       </c>
       <c r="H223" t="n">
-        <v>0.2573614925418829</v>
+        <v>0.3022581022347954</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p2/a2/p2_a2Fit.xlsx
+++ b/legendre_out/DATA/p2/a2/p2_a2Fit.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H223"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -405,5774 +405,5722 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3.996021</v>
+        <v>3.434374559103622</v>
       </c>
       <c r="B2" t="n">
-        <v>7585493039781.103</v>
+        <v>8.664247278506286e-06</v>
       </c>
       <c r="C2" t="n">
-        <v>1369520302772.136</v>
+        <v>1.564283623696789e-06</v>
       </c>
       <c r="D2" t="n">
-        <v>224416333298.5092</v>
+        <v>2.563312092921039e-07</v>
       </c>
       <c r="E2" t="n">
-        <v>367741240280.0684</v>
+        <v>4.200387532018739e-07</v>
       </c>
       <c r="F2" t="n">
-        <v>13.94412761536575</v>
+        <v>13.94412763209592</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01596824715989604</v>
+        <v>0.01596824705126667</v>
       </c>
       <c r="H2" t="n">
-        <v>2.788825523073151</v>
+        <v>2.788825526419184</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>4.000967</v>
+        <v>3.43865949305135</v>
       </c>
       <c r="B3" t="n">
-        <v>11549650931821.5</v>
+        <v>1.319215916978925e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>1016291355562.106</v>
+        <v>1.160820973911753e-06</v>
       </c>
       <c r="D3" t="n">
-        <v>342980652984.8369</v>
+        <v>3.917568934552353e-07</v>
       </c>
       <c r="E3" t="n">
-        <v>542066492944.3048</v>
+        <v>6.19155288870367e-07</v>
       </c>
       <c r="F3" t="n">
-        <v>16.09654734739471</v>
+        <v>16.09654722169186</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006573765122918285</v>
+        <v>0.006573765467992281</v>
       </c>
       <c r="H3" t="n">
-        <v>3.219309469478943</v>
+        <v>3.219309444338371</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4.00294</v>
+        <v>3.440287767951486</v>
       </c>
       <c r="B4" t="n">
-        <v>13785799545795.35</v>
+        <v>1.574631675562183e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>1742217803284.271</v>
+        <v>1.989983475487459e-06</v>
       </c>
       <c r="D4" t="n">
-        <v>387309443415.6152</v>
+        <v>4.423898046256708e-07</v>
       </c>
       <c r="E4" t="n">
-        <v>613953206060.318</v>
+        <v>7.012652124292928e-07</v>
       </c>
       <c r="F4" t="n">
-        <v>19.93396042724375</v>
+        <v>19.93396037771256</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001285896600945782</v>
+        <v>0.001285896628453434</v>
       </c>
       <c r="H4" t="n">
-        <v>3.986792085448751</v>
+        <v>3.986792075542511</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4.006972</v>
+        <v>3.443801413788623</v>
       </c>
       <c r="B5" t="n">
-        <v>19957946216029.91</v>
+        <v>2.27962217097655e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>664568799010.4297</v>
+        <v>7.590789896947296e-07</v>
       </c>
       <c r="D5" t="n">
-        <v>530297102355.7722</v>
+        <v>6.057121397546892e-07</v>
       </c>
       <c r="E5" t="n">
-        <v>838139979876.9357</v>
+        <v>9.573342164700886e-07</v>
       </c>
       <c r="F5" t="n">
-        <v>4.491462657941051</v>
+        <v>4.49146282353494</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4810265172596995</v>
+        <v>0.4810264950723165</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8982925315882102</v>
+        <v>0.898292564706988</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4.009086</v>
+        <v>3.445601086046668</v>
       </c>
       <c r="B6" t="n">
-        <v>21076085534615.56</v>
+        <v>2.407337475921413e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>-469129644489.1562</v>
+        <v>-5.358458878860059e-07</v>
       </c>
       <c r="D6" t="n">
-        <v>586529796597.4963</v>
+        <v>6.699418431585312e-07</v>
       </c>
       <c r="E6" t="n">
-        <v>900377950795.4089</v>
+        <v>1.02842322310636e-06</v>
       </c>
       <c r="F6" t="n">
-        <v>10.08759142163688</v>
+        <v>10.08759125508727</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07279108592856871</v>
+        <v>0.07279109050493757</v>
       </c>
       <c r="H6" t="n">
-        <v>2.017518284327376</v>
+        <v>2.017518251017454</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>4.010032</v>
+        <v>3.446372374157259</v>
       </c>
       <c r="B7" t="n">
-        <v>21527619228188.83</v>
+        <v>2.458912233844321e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>719086113943.1758</v>
+        <v>8.213493287184426e-07</v>
       </c>
       <c r="D7" t="n">
-        <v>597912891981.7338</v>
+        <v>6.8294376120507e-07</v>
       </c>
       <c r="E7" t="n">
-        <v>943670990005.1829</v>
+        <v>1.07787308681205e-06</v>
       </c>
       <c r="F7" t="n">
-        <v>2.835826363849695</v>
+        <v>2.835826333266473</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7252787074045141</v>
+        <v>0.7252787121088642</v>
       </c>
       <c r="H7" t="n">
-        <v>0.567165272769939</v>
+        <v>0.5671652666532946</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>4.01507</v>
+        <v>3.450743006783942</v>
       </c>
       <c r="B8" t="n">
-        <v>24418052216553.77</v>
+        <v>2.789061189839906e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>664910319623.6016</v>
+        <v>7.594690538051492e-07</v>
       </c>
       <c r="D8" t="n">
-        <v>615907108412.5529</v>
+        <v>7.03496983954351e-07</v>
       </c>
       <c r="E8" t="n">
-        <v>968755824423.3208</v>
+        <v>1.10652530609202e-06</v>
       </c>
       <c r="F8" t="n">
-        <v>7.751931763601892</v>
+        <v>7.751931731708939</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1704474968317453</v>
+        <v>0.1704474987297083</v>
       </c>
       <c r="H8" t="n">
-        <v>1.550386352720378</v>
+        <v>1.550386346341788</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>4.019108</v>
+        <v>3.454170953942123</v>
       </c>
       <c r="B9" t="n">
-        <v>24130583773148.82</v>
+        <v>2.756226176284944e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>-158732086871.5625</v>
+        <v>-1.813058367898843e-07</v>
       </c>
       <c r="D9" t="n">
-        <v>595912469906.5944</v>
+        <v>6.806588524829094e-07</v>
       </c>
       <c r="E9" t="n">
-        <v>935692129688.4376</v>
+        <v>1.068759530110595e-06</v>
       </c>
       <c r="F9" t="n">
-        <v>2.760228756292485</v>
+        <v>2.760228680329422</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7368924233516464</v>
+        <v>0.7368924350045145</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5520457512584971</v>
+        <v>0.5520457360658844</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>4.019916</v>
+        <v>3.454856543373759</v>
       </c>
       <c r="B10" t="n">
-        <v>22068104912761.87</v>
+        <v>2.520647200995809e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>18456237242.36328</v>
+        <v>2.108094206553854e-08</v>
       </c>
       <c r="D10" t="n">
-        <v>593432966705.6805</v>
+        <v>6.778267326126996e-07</v>
       </c>
       <c r="E10" t="n">
-        <v>934918104261.2463</v>
+        <v>1.067875429765952e-06</v>
       </c>
       <c r="F10" t="n">
-        <v>6.822232926609327</v>
+        <v>6.82223293141683</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2342003301201825</v>
+        <v>0.2342003297441986</v>
       </c>
       <c r="H10" t="n">
-        <v>1.364446585321865</v>
+        <v>1.364446586283366</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>4.025044</v>
+        <v>3.459227176000442</v>
       </c>
       <c r="B11" t="n">
-        <v>21673295934570.81</v>
+        <v>2.475551611834681e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>-420140214861.4141</v>
+        <v>-4.79889547572118e-07</v>
       </c>
       <c r="D11" t="n">
-        <v>585748479134.7316</v>
+        <v>6.690494128470855e-07</v>
       </c>
       <c r="E11" t="n">
-        <v>900685102391.4139</v>
+        <v>1.028774055580705e-06</v>
       </c>
       <c r="F11" t="n">
-        <v>8.176010707821755</v>
+        <v>8.176010653577743</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1467983962210113</v>
+        <v>0.146798399049501</v>
       </c>
       <c r="H11" t="n">
-        <v>1.635202141564351</v>
+        <v>1.635202130715549</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>4.029979</v>
+        <v>3.463512109948169</v>
       </c>
       <c r="B12" t="n">
-        <v>18764272672823.29</v>
+        <v>2.143279251962684e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>-279527340682.1211</v>
+        <v>-3.192797252667346e-07</v>
       </c>
       <c r="D12" t="n">
-        <v>499544102512.3737</v>
+        <v>5.705856695542333e-07</v>
       </c>
       <c r="E12" t="n">
-        <v>780544169382.8563</v>
+        <v>8.915475439007104e-07</v>
       </c>
       <c r="F12" t="n">
-        <v>5.360017009296688</v>
+        <v>5.360016945065917</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3735397250199775</v>
+        <v>0.3735397322871974</v>
       </c>
       <c r="H12" t="n">
-        <v>1.072003401859338</v>
+        <v>1.072003389013183</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>4.035141</v>
+        <v>3.467882742574851</v>
       </c>
       <c r="B13" t="n">
-        <v>14228679677940.42</v>
+        <v>1.625218011625025e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>306470156173.7383</v>
+        <v>3.500541132829566e-07</v>
       </c>
       <c r="D13" t="n">
-        <v>400600806732.6965</v>
+        <v>4.575713702236427e-07</v>
       </c>
       <c r="E13" t="n">
-        <v>627022290875.7762</v>
+        <v>7.161928885361524e-07</v>
       </c>
       <c r="F13" t="n">
-        <v>20.11933432791686</v>
+        <v>20.11933460185086</v>
       </c>
       <c r="G13" t="n">
-        <v>0.001186898106297362</v>
+        <v>0.001186897965693516</v>
       </c>
       <c r="H13" t="n">
-        <v>4.023866865583372</v>
+        <v>4.023866920370173</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>4.269958</v>
+        <v>3.669188939439092</v>
       </c>
       <c r="B14" t="n">
-        <v>8240846607744.486</v>
+        <v>9.412800515388261e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>155867921911.9561</v>
+        <v>1.780343293814792e-07</v>
       </c>
       <c r="D14" t="n">
-        <v>273980842863.0107</v>
+        <v>3.129444267712773e-07</v>
       </c>
       <c r="E14" t="n">
-        <v>433092444793.4725</v>
+        <v>4.946837356464839e-07</v>
       </c>
       <c r="F14" t="n">
-        <v>2.227608799471579</v>
+        <v>2.227608831309271</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8168381799383577</v>
+        <v>0.8168381753169993</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4455217598943159</v>
+        <v>0.4455217662618541</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>4.290051</v>
+        <v>3.686414373908955</v>
       </c>
       <c r="B15" t="n">
-        <v>11674416926767.26</v>
+        <v>1.333466849741059e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>330730557637.25</v>
+        <v>3.777646860323956e-07</v>
       </c>
       <c r="D15" t="n">
-        <v>360297372248.4633</v>
+        <v>4.115362715185783e-07</v>
       </c>
       <c r="E15" t="n">
-        <v>563542988237.6606</v>
+        <v>6.43686016317825e-07</v>
       </c>
       <c r="F15" t="n">
-        <v>2.151387415108164</v>
+        <v>2.151387256527149</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8278259544288968</v>
+        <v>0.827825977124937</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4302774830216327</v>
+        <v>0.4302774513054297</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>4.291116000000001</v>
+        <v>3.687271360698501</v>
       </c>
       <c r="B16" t="n">
-        <v>16063445255982.04</v>
+        <v>1.834787285624655e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>3156155904726.287</v>
+        <v>3.605001677309216e-06</v>
       </c>
       <c r="D16" t="n">
-        <v>474348996500.9319</v>
+        <v>5.41807498017932e-07</v>
       </c>
       <c r="E16" t="n">
-        <v>792241899404.2887</v>
+        <v>9.049088421409954e-07</v>
       </c>
       <c r="F16" t="n">
-        <v>2.610017807083909</v>
+        <v>2.610017723927902</v>
       </c>
       <c r="G16" t="n">
-        <v>0.759842602701288</v>
+        <v>0.7598426153454333</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5220035614167818</v>
+        <v>0.5220035447855803</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>4.293189</v>
+        <v>3.689071032956547</v>
       </c>
       <c r="B17" t="n">
-        <v>18866020961200.47</v>
+        <v>2.154901071201101e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>3763529485208.918</v>
+        <v>4.29875155277902e-06</v>
       </c>
       <c r="D17" t="n">
-        <v>540177172540.9076</v>
+        <v>6.169972839637386e-07</v>
       </c>
       <c r="E17" t="n">
-        <v>905743147727.9771</v>
+        <v>1.034551421226465e-06</v>
       </c>
       <c r="F17" t="n">
-        <v>6.826741573517791</v>
+        <v>6.826741449860661</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2338479417912939</v>
+        <v>0.2338479514500255</v>
       </c>
       <c r="H17" t="n">
-        <v>1.365348314703558</v>
+        <v>1.365348289972132</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>4.294196</v>
+        <v>3.689928019746092</v>
       </c>
       <c r="B18" t="n">
-        <v>22204728399145.34</v>
+        <v>2.536252507404389e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>4880675188367.482</v>
+        <v>5.574769692920976e-06</v>
       </c>
       <c r="D18" t="n">
-        <v>620289930632.2777</v>
+        <v>7.085031010358693e-07</v>
       </c>
       <c r="E18" t="n">
-        <v>1046262146417.922</v>
+        <v>1.19505401994371e-06</v>
       </c>
       <c r="F18" t="n">
-        <v>14.11013157506467</v>
+        <v>14.11013157601103</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01492477414789422</v>
+        <v>0.01492477414213759</v>
       </c>
       <c r="H18" t="n">
-        <v>2.822026315012933</v>
+        <v>2.822026315202207</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>4.295147</v>
+        <v>3.690699307856684</v>
       </c>
       <c r="B19" t="n">
-        <v>26752803698068.56</v>
+        <v>3.055739492357083e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>6160603931071.41</v>
+        <v>7.0367207003632e-06</v>
       </c>
       <c r="D19" t="n">
-        <v>712299168778.6525</v>
+        <v>8.135972308834331e-07</v>
       </c>
       <c r="E19" t="n">
-        <v>1208461164798.662</v>
+        <v>1.38031981552618e-06</v>
       </c>
       <c r="F19" t="n">
-        <v>2.079938167787261</v>
+        <v>2.079938211114588</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8379771893988368</v>
+        <v>0.8379771832897892</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4159876335574522</v>
+        <v>0.4159876422229176</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>4.296155000000001</v>
+        <v>3.691641993325183</v>
       </c>
       <c r="B20" t="n">
-        <v>29673457444894.81</v>
+        <v>3.389340303078284e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>7931995767060.643</v>
+        <v>9.060027157727711e-06</v>
       </c>
       <c r="D20" t="n">
-        <v>798779757747.8169</v>
+        <v>9.123764664335193e-07</v>
       </c>
       <c r="E20" t="n">
-        <v>1349512178111.969</v>
+        <v>1.54143008872975e-06</v>
       </c>
       <c r="F20" t="n">
-        <v>6.143513151767888</v>
+        <v>6.143513095888061</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2925039272039875</v>
+        <v>0.2925039324474982</v>
       </c>
       <c r="H20" t="n">
-        <v>1.228702630353578</v>
+        <v>1.228702619177612</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>4.297219999999999</v>
+        <v>3.692498980114729</v>
       </c>
       <c r="B21" t="n">
-        <v>45524932053838.75</v>
+        <v>5.199916029727853e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>10519418706314.3</v>
+        <v>1.201541472784712e-05</v>
       </c>
       <c r="D21" t="n">
-        <v>1160662995831.165</v>
+        <v>1.325724134239901e-06</v>
       </c>
       <c r="E21" t="n">
-        <v>1986388127091.541</v>
+        <v>2.268877952675585e-06</v>
       </c>
       <c r="F21" t="n">
-        <v>2.12254374108426</v>
+        <v>2.122543758760416</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8319421421176396</v>
+        <v>0.8319421396025289</v>
       </c>
       <c r="H21" t="n">
-        <v>0.4245087482168519</v>
+        <v>0.4245087517520832</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>4.298083999999999</v>
+        <v>3.693270268225319</v>
       </c>
       <c r="B22" t="n">
-        <v>130733634516781.7</v>
+        <v>0.0001493256315339884</v>
       </c>
       <c r="C22" t="n">
-        <v>45003413961814.18</v>
+        <v>5.140347549087188e-05</v>
       </c>
       <c r="D22" t="n">
-        <v>3169153311479.333</v>
+        <v>3.619847490522658e-06</v>
       </c>
       <c r="E22" t="n">
-        <v>5666874265375.806</v>
+        <v>6.47277634558444e-06</v>
       </c>
       <c r="F22" t="n">
-        <v>1.207391880861028</v>
+        <v>1.207391942520446</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9441662509874618</v>
+        <v>0.9441662450393543</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2414783761722055</v>
+        <v>0.2414783885040891</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>4.299093</v>
+        <v>3.694127255014865</v>
       </c>
       <c r="B23" t="n">
-        <v>205333105690711.6</v>
+        <v>0.0002345341023605184</v>
       </c>
       <c r="C23" t="n">
-        <v>72416425369761.08</v>
+        <v>8.271496843236938e-05</v>
       </c>
       <c r="D23" t="n">
-        <v>4911382997956.303</v>
+        <v>5.609844551783536e-06</v>
       </c>
       <c r="E23" t="n">
-        <v>8748089002680.22</v>
+        <v>9.992179284701734e-06</v>
       </c>
       <c r="F23" t="n">
-        <v>3.532460606850477</v>
+        <v>3.532460612106107</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6184817186729332</v>
+        <v>0.6184817178795818</v>
       </c>
       <c r="H23" t="n">
-        <v>0.7064921213700954</v>
+        <v>0.7064921224212214</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>4.301051999999999</v>
+        <v>3.695841228593956</v>
       </c>
       <c r="B24" t="n">
-        <v>306555651877493.8</v>
+        <v>0.0003501517906347162</v>
       </c>
       <c r="C24" t="n">
-        <v>92088401356720.8</v>
+        <v>0.0001051845513843293</v>
       </c>
       <c r="D24" t="n">
-        <v>7248683117447.48</v>
+        <v>8.27953866572928e-06</v>
       </c>
       <c r="E24" t="n">
-        <v>12675821343566.94</v>
+        <v>1.447848544369853e-05</v>
       </c>
       <c r="F24" t="n">
-        <v>2.983145405554504</v>
+        <v>2.983145411671698</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7025844622452704</v>
+        <v>0.7025844613021419</v>
       </c>
       <c r="H24" t="n">
-        <v>0.5966290811109007</v>
+        <v>0.5966290823343395</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>4.303098</v>
+        <v>3.697555202173048</v>
       </c>
       <c r="B25" t="n">
-        <v>311777914699906.2</v>
+        <v>0.0003561167261261804</v>
       </c>
       <c r="C25" t="n">
-        <v>99693405541879.73</v>
+        <v>0.0001138710846001003</v>
       </c>
       <c r="D25" t="n">
-        <v>7160940584596.698</v>
+        <v>8.179318025126815e-06</v>
       </c>
       <c r="E25" t="n">
-        <v>12723827778345.37</v>
+        <v>1.453331899953107e-05</v>
       </c>
       <c r="F25" t="n">
-        <v>2.657103444541597</v>
+        <v>2.657103463139385</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7526710475961818</v>
+        <v>0.752671044759046</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5314206889083194</v>
+        <v>0.5314206926278771</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>4.305231</v>
+        <v>3.699354874431093</v>
       </c>
       <c r="B26" t="n">
-        <v>289523456653454.8</v>
+        <v>0.0003306973992561655</v>
       </c>
       <c r="C26" t="n">
-        <v>84218991329347.56</v>
+        <v>9.619601044813777e-05</v>
       </c>
       <c r="D26" t="n">
-        <v>6804422715108.848</v>
+        <v>7.772098748895889e-06</v>
       </c>
       <c r="E26" t="n">
-        <v>11919033464814.23</v>
+        <v>1.361407263555997e-05</v>
       </c>
       <c r="F26" t="n">
-        <v>4.220771440583025</v>
+        <v>4.220771444121854</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5180878257058416</v>
+        <v>0.5180878252112949</v>
       </c>
       <c r="H26" t="n">
-        <v>0.8441542881166051</v>
+        <v>0.8441542888243708</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>4.30725</v>
+        <v>3.701068848010184</v>
       </c>
       <c r="B27" t="n">
-        <v>275616386813438</v>
+        <v>0.0003148125660661934</v>
       </c>
       <c r="C27" t="n">
-        <v>86484775249930.86</v>
+        <v>9.878401740183329e-05</v>
       </c>
       <c r="D27" t="n">
-        <v>6631059880716.703</v>
+        <v>7.574081493168671e-06</v>
       </c>
       <c r="E27" t="n">
-        <v>11688899151831.46</v>
+        <v>1.335121027181613e-05</v>
       </c>
       <c r="F27" t="n">
-        <v>4.000856566519746</v>
+        <v>4.000856600377209</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5492926330114524</v>
+        <v>0.5492926281373153</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8001713133039491</v>
+        <v>0.8001713200754418</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>4.309297</v>
+        <v>3.70286852026823</v>
       </c>
       <c r="B28" t="n">
-        <v>276414181113733.8</v>
+        <v>0.0003157238168915628</v>
       </c>
       <c r="C28" t="n">
-        <v>80420523738473.45</v>
+        <v>9.185735194533763e-05</v>
       </c>
       <c r="D28" t="n">
-        <v>6652058367085.521</v>
+        <v>7.598066240945416e-06</v>
       </c>
       <c r="E28" t="n">
-        <v>11612311921666.88</v>
+        <v>1.326373137564472e-05</v>
       </c>
       <c r="F28" t="n">
-        <v>3.464033215742671</v>
+        <v>3.464033234437423</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6288367129063528</v>
+        <v>0.6288367100705482</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6928066431485342</v>
+        <v>0.6928066468874845</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>4.309961</v>
+        <v>3.703468411020912</v>
       </c>
       <c r="B29" t="n">
-        <v>280672654259520.3</v>
+        <v>0.0003205878994117404</v>
       </c>
       <c r="C29" t="n">
-        <v>78366132104853.36</v>
+        <v>8.951079947209218e-05</v>
       </c>
       <c r="D29" t="n">
-        <v>6621016043155.074</v>
+        <v>7.562609300290936e-06</v>
       </c>
       <c r="E29" t="n">
-        <v>11531377439951.75</v>
+        <v>1.317128696175293e-05</v>
       </c>
       <c r="F29" t="n">
-        <v>2.886600158105756</v>
+        <v>2.886600123070234</v>
       </c>
       <c r="G29" t="n">
-        <v>0.7174634967597785</v>
+        <v>0.7174635021556313</v>
       </c>
       <c r="H29" t="n">
-        <v>0.5773200316211511</v>
+        <v>0.5773200246140469</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>4.311172</v>
+        <v>3.704496795168366</v>
       </c>
       <c r="B30" t="n">
-        <v>271030130521007.9</v>
+        <v>0.0003095740852128879</v>
       </c>
       <c r="C30" t="n">
-        <v>76385151228667.14</v>
+        <v>8.724809796530894e-05</v>
       </c>
       <c r="D30" t="n">
-        <v>6420231262176.621</v>
+        <v>7.333270349563983e-06</v>
       </c>
       <c r="E30" t="n">
-        <v>11210422451754.02</v>
+        <v>1.280468806455096e-05</v>
       </c>
       <c r="F30" t="n">
-        <v>4.966855978375124</v>
+        <v>4.966855938326406</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4199385252665946</v>
+        <v>0.419938530186545</v>
       </c>
       <c r="H30" t="n">
-        <v>0.9933711956750247</v>
+        <v>0.9933711876652811</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>4.313105999999999</v>
+        <v>3.706125070068503</v>
       </c>
       <c r="B31" t="n">
-        <v>273449578690354.5</v>
+        <v>0.0003123376099193717</v>
       </c>
       <c r="C31" t="n">
-        <v>85129459897297.98</v>
+        <v>9.72359594084994e-05</v>
       </c>
       <c r="D31" t="n">
-        <v>6474492779079.496</v>
+        <v>7.395248551696374e-06</v>
       </c>
       <c r="E31" t="n">
-        <v>11399471193800.08</v>
+        <v>1.302062195153549e-05</v>
       </c>
       <c r="F31" t="n">
-        <v>3.265800402733683</v>
+        <v>3.265800351343873</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6590815546139334</v>
+        <v>0.6590815624932895</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6531600805467367</v>
+        <v>0.6531600702687747</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>4.315126</v>
+        <v>3.707839043647593</v>
       </c>
       <c r="B32" t="n">
-        <v>272003811176948.4</v>
+        <v>0.0003106862360392154</v>
       </c>
       <c r="C32" t="n">
-        <v>92316233736609.81</v>
+        <v>0.0001054447840380608</v>
       </c>
       <c r="D32" t="n">
-        <v>6500794996832.602</v>
+        <v>7.425291284882631e-06</v>
       </c>
       <c r="E32" t="n">
-        <v>11513040073135.09</v>
+        <v>1.315034179245916e-05</v>
       </c>
       <c r="F32" t="n">
-        <v>4.887693022012815</v>
+        <v>4.887692937355922</v>
       </c>
       <c r="G32" t="n">
-        <v>0.429739611714946</v>
+        <v>0.4297396222772329</v>
       </c>
       <c r="H32" t="n">
-        <v>0.977538604402563</v>
+        <v>0.9775385874711844</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>4.317204</v>
+        <v>3.709638715905639</v>
       </c>
       <c r="B33" t="n">
-        <v>265370121855959</v>
+        <v>0.0003031091512029449</v>
       </c>
       <c r="C33" t="n">
-        <v>78678226406858.08</v>
+        <v>8.986727738961661e-05</v>
       </c>
       <c r="D33" t="n">
-        <v>6257283821110.199</v>
+        <v>7.147149706968444e-06</v>
       </c>
       <c r="E33" t="n">
-        <v>11025483987042.78</v>
+        <v>1.259344898060036e-05</v>
       </c>
       <c r="F33" t="n">
-        <v>3.332438666150023</v>
+        <v>3.332438700768234</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6488791170659822</v>
+        <v>0.6488791117741408</v>
       </c>
       <c r="H33" t="n">
-        <v>0.6664877332300045</v>
+        <v>0.6664877401536468</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>4.319168</v>
+        <v>3.71135268948473</v>
       </c>
       <c r="B34" t="n">
-        <v>258777407763606.8</v>
+        <v>0.0002955788683935973</v>
       </c>
       <c r="C34" t="n">
-        <v>77513245068787.45</v>
+        <v>8.853662129394075e-05</v>
       </c>
       <c r="D34" t="n">
-        <v>6260971326981.812</v>
+        <v>7.151361622775703e-06</v>
       </c>
       <c r="E34" t="n">
-        <v>10998665776069.22</v>
+        <v>1.256281688607188e-05</v>
       </c>
       <c r="F34" t="n">
-        <v>2.147380930199452</v>
+        <v>2.147380921821429</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8283991336874934</v>
+        <v>0.8283991348856019</v>
       </c>
       <c r="H34" t="n">
-        <v>0.4294761860398905</v>
+        <v>0.4294761843642859</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>4.32116</v>
+        <v>3.713066663063821</v>
       </c>
       <c r="B35" t="n">
-        <v>240384334557493.9</v>
+        <v>0.0002745700649680516</v>
       </c>
       <c r="C35" t="n">
-        <v>75800397279923.81</v>
+        <v>8.658018404593249e-05</v>
       </c>
       <c r="D35" t="n">
-        <v>5717105705065.565</v>
+        <v>6.530151333971926e-06</v>
       </c>
       <c r="E35" t="n">
-        <v>10072609607173.69</v>
+        <v>1.150506365633891e-05</v>
       </c>
       <c r="F35" t="n">
-        <v>5.441928949006709</v>
+        <v>5.441929000003212</v>
       </c>
       <c r="G35" t="n">
-        <v>0.3643556081380313</v>
+        <v>0.3643556024722658</v>
       </c>
       <c r="H35" t="n">
-        <v>1.088385789801342</v>
+        <v>1.088385800000642</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>4.32298</v>
+        <v>3.714609239285003</v>
       </c>
       <c r="B36" t="n">
-        <v>218821073305897</v>
+        <v>0.000249940231766741</v>
       </c>
       <c r="C36" t="n">
-        <v>70635439848398.02</v>
+        <v>8.068070406637434e-05</v>
       </c>
       <c r="D36" t="n">
-        <v>5180676342803.709</v>
+        <v>5.917434845238605e-06</v>
       </c>
       <c r="E36" t="n">
-        <v>9158017036758.938</v>
+        <v>1.046040430995382e-05</v>
       </c>
       <c r="F36" t="n">
-        <v>6.183677139949422</v>
+        <v>6.183677277416589</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2887544571607459</v>
+        <v>0.2887544443937253</v>
       </c>
       <c r="H36" t="n">
-        <v>1.236735427989884</v>
+        <v>1.236735455483318</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>4.325205</v>
+        <v>3.716494610222004</v>
       </c>
       <c r="B37" t="n">
-        <v>177348949546413.1</v>
+        <v>0.000202570240799258</v>
       </c>
       <c r="C37" t="n">
-        <v>56470959727070.7</v>
+        <v>6.45018533124874e-05</v>
       </c>
       <c r="D37" t="n">
-        <v>4164500804926.409</v>
+        <v>4.756746133014528e-06</v>
       </c>
       <c r="E37" t="n">
-        <v>7340251223214.965</v>
+        <v>8.384128930276438e-06</v>
       </c>
       <c r="F37" t="n">
-        <v>3.804918694773687</v>
+        <v>3.804918679877979</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5778307854846167</v>
+        <v>0.5778307876781308</v>
       </c>
       <c r="H37" t="n">
-        <v>0.7609837389547374</v>
+        <v>0.7609837359755958</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>4.327112000000001</v>
+        <v>3.718122885122139</v>
       </c>
       <c r="B38" t="n">
-        <v>141714570049934.5</v>
+        <v>0.0001618681966940322</v>
       </c>
       <c r="C38" t="n">
-        <v>39543009355508.98</v>
+        <v>4.516653152884428e-05</v>
       </c>
       <c r="D38" t="n">
-        <v>3326467423030.495</v>
+        <v>3.799533684392221e-06</v>
       </c>
       <c r="E38" t="n">
-        <v>5809076589125.504</v>
+        <v>6.635201664130778e-06</v>
       </c>
       <c r="F38" t="n">
-        <v>2.969624475982518</v>
+        <v>2.969624481457925</v>
       </c>
       <c r="G38" t="n">
-        <v>0.704669023548804</v>
+        <v>0.7046690227046694</v>
       </c>
       <c r="H38" t="n">
-        <v>0.5939248951965036</v>
+        <v>0.5939248962915851</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>4.329078</v>
+        <v>3.719836858701231</v>
       </c>
       <c r="B39" t="n">
-        <v>95488979955299.75</v>
+        <v>0.0001090687356416565</v>
       </c>
       <c r="C39" t="n">
-        <v>31298214961094.67</v>
+        <v>3.574922179683457e-05</v>
       </c>
       <c r="D39" t="n">
-        <v>2257202008806.777</v>
+        <v>2.578205036260863e-06</v>
       </c>
       <c r="E39" t="n">
-        <v>4000560242822.104</v>
+        <v>4.569491133231973e-06</v>
       </c>
       <c r="F39" t="n">
-        <v>4.731423251441687</v>
+        <v>4.731423422828195</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4495287212484468</v>
+        <v>0.4495286992274165</v>
       </c>
       <c r="H39" t="n">
-        <v>0.9462846502883373</v>
+        <v>0.946284684565639</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>4.330119</v>
+        <v>3.720693845490776</v>
       </c>
       <c r="B40" t="n">
-        <v>135168612866781.7</v>
+        <v>0.0001543913205017484</v>
       </c>
       <c r="C40" t="n">
-        <v>40213738802712.46</v>
+        <v>4.593264697354845e-05</v>
       </c>
       <c r="D40" t="n">
-        <v>3242297329236.087</v>
+        <v>3.703393523734567e-06</v>
       </c>
       <c r="E40" t="n">
-        <v>5691550119861.354</v>
+        <v>6.50096141825437e-06</v>
       </c>
       <c r="F40" t="n">
-        <v>1.847422068826189</v>
+        <v>1.847422009506526</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8698285322748676</v>
+        <v>0.869828540139421</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3694844137652378</v>
+        <v>0.3694844019013052</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>4.331189</v>
+        <v>3.721636530959276</v>
       </c>
       <c r="B41" t="n">
-        <v>67371957361631.64</v>
+        <v>7.695311234005205e-05</v>
       </c>
       <c r="C41" t="n">
-        <v>21878091463470.32</v>
+        <v>2.498943615683847e-05</v>
       </c>
       <c r="D41" t="n">
-        <v>1647035930393.073</v>
+        <v>1.881265528837236e-06</v>
       </c>
       <c r="E41" t="n">
-        <v>2897602301607.478</v>
+        <v>3.309678450239218e-06</v>
       </c>
       <c r="F41" t="n">
-        <v>3.584834504947098</v>
+        <v>3.584834439549565</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6105917531524337</v>
+        <v>0.6105917629838689</v>
       </c>
       <c r="H41" t="n">
-        <v>0.7169669009894195</v>
+        <v>0.7169668879099129</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>4.333242</v>
+        <v>3.723350504538367</v>
       </c>
       <c r="B42" t="n">
-        <v>45924863270628.62</v>
+        <v>5.245596685435774e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>10159583826107.02</v>
+        <v>1.160440672026619e-05</v>
       </c>
       <c r="D42" t="n">
-        <v>1146404251761.148</v>
+        <v>1.309437614469444e-06</v>
       </c>
       <c r="E42" t="n">
-        <v>1958058612592.854</v>
+        <v>2.236519618713144e-06</v>
       </c>
       <c r="F42" t="n">
-        <v>1.730027404110499</v>
+        <v>1.730027386361443</v>
       </c>
       <c r="G42" t="n">
-        <v>0.885095313120692</v>
+        <v>0.8850953153820686</v>
       </c>
       <c r="H42" t="n">
-        <v>0.3460054808220999</v>
+        <v>0.3460054772722885</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>4.335151000000001</v>
+        <v>3.725064478117458</v>
       </c>
       <c r="B43" t="n">
-        <v>34894462604393.52</v>
+        <v>3.98569019814242e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>7737069394903.848</v>
+        <v>8.837379717926166e-06</v>
       </c>
       <c r="D43" t="n">
-        <v>883302222218.1779</v>
+        <v>1.00891910816529e-06</v>
       </c>
       <c r="E43" t="n">
-        <v>1494695232833.826</v>
+        <v>1.707260031893269e-06</v>
       </c>
       <c r="F43" t="n">
-        <v>5.729735677117205</v>
+        <v>5.729735584672158</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3334112330667613</v>
+        <v>0.3334112426757586</v>
       </c>
       <c r="H43" t="n">
-        <v>1.145947135423441</v>
+        <v>1.145947116934432</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>4.340042</v>
+        <v>3.729178014707276</v>
       </c>
       <c r="B44" t="n">
-        <v>21300948600562.94</v>
+        <v>2.433021624308644e-05</v>
       </c>
       <c r="C44" t="n">
-        <v>3784867973218.479</v>
+        <v>4.323124657744589e-06</v>
       </c>
       <c r="D44" t="n">
-        <v>584539558438.688</v>
+        <v>6.676685687739833e-07</v>
       </c>
       <c r="E44" t="n">
-        <v>981402391820.7451</v>
+        <v>1.1209703779303e-06</v>
       </c>
       <c r="F44" t="n">
-        <v>4.790701658472811</v>
+        <v>4.79070168041269</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4419536356563729</v>
+        <v>0.4419536328681082</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9581403316945621</v>
+        <v>0.958140336082538</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>4.344876999999999</v>
+        <v>3.73337724997605</v>
       </c>
       <c r="B45" t="n">
-        <v>18769297636400.39</v>
+        <v>2.143853207549628e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>1829997346594.346</v>
+        <v>2.090246386357824e-06</v>
       </c>
       <c r="D45" t="n">
-        <v>543910918838.0872</v>
+        <v>6.212620158975432e-07</v>
       </c>
       <c r="E45" t="n">
-        <v>878889200290.4453</v>
+        <v>1.003878498704664e-06</v>
       </c>
       <c r="F45" t="n">
-        <v>10.11875323885378</v>
+        <v>10.1187533250495</v>
       </c>
       <c r="G45" t="n">
-        <v>0.07193950849357861</v>
+        <v>0.0719395061509379</v>
       </c>
       <c r="H45" t="n">
-        <v>2.023750647770755</v>
+        <v>2.0237506650099</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>4.349976</v>
+        <v>3.737747882602732</v>
       </c>
       <c r="B46" t="n">
-        <v>17914174371646.49</v>
+        <v>2.046179933622971e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>432222938813.3105</v>
+        <v>4.936905684480098e-07</v>
       </c>
       <c r="D46" t="n">
-        <v>510956176607.6508</v>
+        <v>5.836206879948087e-07</v>
       </c>
       <c r="E46" t="n">
-        <v>800825472629.6503</v>
+        <v>9.147131099044765e-07</v>
       </c>
       <c r="F46" t="n">
-        <v>3.677821252904772</v>
+        <v>3.67782124549009</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5966679261249999</v>
+        <v>0.5966679272307029</v>
       </c>
       <c r="H46" t="n">
-        <v>0.7355642505809543</v>
+        <v>0.735564249098018</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>4.370053</v>
+        <v>3.754973317072596</v>
       </c>
       <c r="B47" t="n">
-        <v>19645765825989.54</v>
+        <v>2.243964525905628e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>-567142558541.0645</v>
+        <v>-6.477975073834547e-07</v>
       </c>
       <c r="D47" t="n">
-        <v>537580225059.4378</v>
+        <v>6.140310161437445e-07</v>
       </c>
       <c r="E47" t="n">
-        <v>832361851219.2594</v>
+        <v>9.507343650268878e-07</v>
       </c>
       <c r="F47" t="n">
-        <v>4.198773998352915</v>
+        <v>4.198774010871037</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5211668128789881</v>
+        <v>0.5211668111240593</v>
       </c>
       <c r="H47" t="n">
-        <v>0.839754799670583</v>
+        <v>0.8397548021742074</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>4.390148</v>
+        <v>3.772113052863507</v>
       </c>
       <c r="B48" t="n">
-        <v>25316920282697.02</v>
+        <v>2.891731050571235e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>-1357408637838.902</v>
+        <v>-1.550449546030101e-06</v>
       </c>
       <c r="D48" t="n">
-        <v>669546104889.9362</v>
+        <v>7.6476413485364e-07</v>
       </c>
       <c r="E48" t="n">
-        <v>1060678219274.423</v>
+        <v>1.211520244862998e-06</v>
       </c>
       <c r="F48" t="n">
-        <v>3.509613510717761</v>
+        <v>3.509613400946262</v>
       </c>
       <c r="G48" t="n">
-        <v>0.621933483034442</v>
+        <v>0.6219334996327744</v>
       </c>
       <c r="H48" t="n">
-        <v>0.7019227021435522</v>
+        <v>0.7019226801892524</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>4.410025</v>
+        <v>3.789167089975462</v>
       </c>
       <c r="B49" t="n">
-        <v>34722081815936.77</v>
+        <v>3.966000643577311e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>-2326469867019.848</v>
+        <v>-2.657323678589734e-06</v>
       </c>
       <c r="D49" t="n">
-        <v>889468568248.8402</v>
+        <v>1.015962386964472e-06</v>
       </c>
       <c r="E49" t="n">
-        <v>1385796291232.685</v>
+        <v>1.582874268053654e-06</v>
       </c>
       <c r="F49" t="n">
-        <v>4.446500288844306</v>
+        <v>4.446500365858004</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4870732680865422</v>
+        <v>0.487073257691195</v>
       </c>
       <c r="H49" t="n">
-        <v>0.8893000577688612</v>
+        <v>0.8893000731716008</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>4.420244</v>
+        <v>3.797908355228826</v>
       </c>
       <c r="B50" t="n">
-        <v>50163603411401.48</v>
+        <v>5.729751011808561e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>-2081312621021.75</v>
+        <v>-2.377301880184893e-06</v>
       </c>
       <c r="D50" t="n">
-        <v>1257706922026.994</v>
+        <v>1.436568949504702e-06</v>
       </c>
       <c r="E50" t="n">
-        <v>1967057073318.118</v>
+        <v>2.246797775258316e-06</v>
       </c>
       <c r="F50" t="n">
-        <v>5.40505508046486</v>
+        <v>5.405055070887832</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3684692802068937</v>
+        <v>0.3684692812797137</v>
       </c>
       <c r="H50" t="n">
-        <v>1.081011016092972</v>
+        <v>1.081011014177566</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>4.430182</v>
+        <v>3.806478223124282</v>
       </c>
       <c r="B51" t="n">
-        <v>62902979532807.73</v>
+        <v>7.184858865117597e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>-3309806143366.023</v>
+        <v>-3.780502964069449e-06</v>
       </c>
       <c r="D51" t="n">
-        <v>1519918992651.737</v>
+        <v>1.736070934427552e-06</v>
       </c>
       <c r="E51" t="n">
-        <v>2368074006966.287</v>
+        <v>2.704844450993213e-06</v>
       </c>
       <c r="F51" t="n">
-        <v>1.968243100060085</v>
+        <v>1.96824314050837</v>
       </c>
       <c r="G51" t="n">
-        <v>0.8535215372164635</v>
+        <v>0.8535215316649875</v>
       </c>
       <c r="H51" t="n">
-        <v>0.3936486200120169</v>
+        <v>0.3936486281016739</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>4.440043</v>
+        <v>3.814876693661827</v>
       </c>
       <c r="B52" t="n">
-        <v>118540290545157.9</v>
+        <v>0.0001353982375586029</v>
       </c>
       <c r="C52" t="n">
-        <v>-9704667942745.828</v>
+        <v>-1.108479596110314e-05</v>
       </c>
       <c r="D52" t="n">
-        <v>2978880502293.146</v>
+        <v>3.402515451200998e-06</v>
       </c>
       <c r="E52" t="n">
-        <v>4610627227945.911</v>
+        <v>5.266317454808428e-06</v>
       </c>
       <c r="F52" t="n">
-        <v>3.193057422751036</v>
+        <v>3.193057751897027</v>
       </c>
       <c r="G52" t="n">
-        <v>0.6702500138492485</v>
+        <v>0.670249963252354</v>
       </c>
       <c r="H52" t="n">
-        <v>0.6386114845502072</v>
+        <v>0.6386115503794054</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>4.449945</v>
+        <v>3.823360862878328</v>
       </c>
       <c r="B53" t="n">
-        <v>185569110470525.1</v>
+        <v>0.0002119594141825129</v>
       </c>
       <c r="C53" t="n">
-        <v>-22308769410819.19</v>
+        <v>-2.548136234636184e-05</v>
       </c>
       <c r="D53" t="n">
-        <v>4540325479269.697</v>
+        <v>5.186017896870148e-06</v>
       </c>
       <c r="E53" t="n">
-        <v>6887827528821.776</v>
+        <v>7.867364794131982e-06</v>
       </c>
       <c r="F53" t="n">
-        <v>1.172349010121974</v>
+        <v>1.172349031477037</v>
       </c>
       <c r="G53" t="n">
-        <v>0.947502436818134</v>
+        <v>0.9475024348122643</v>
       </c>
       <c r="H53" t="n">
-        <v>0.2344698020243948</v>
+        <v>0.2344698062954074</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>4.454988</v>
+        <v>3.82773149550501</v>
       </c>
       <c r="B54" t="n">
-        <v>435453810128798.1</v>
+        <v>0.0004973809175826027</v>
       </c>
       <c r="C54" t="n">
-        <v>-52614869316539.25</v>
+        <v>-6.009737758095425e-05</v>
       </c>
       <c r="D54" t="n">
-        <v>10852483409275.54</v>
+        <v>1.239584550196235e-05</v>
       </c>
       <c r="E54" t="n">
-        <v>16505943285653.39</v>
+        <v>1.885329976089189e-05</v>
       </c>
       <c r="F54" t="n">
-        <v>0.5853005812908606</v>
+        <v>0.5853005525603558</v>
       </c>
       <c r="G54" t="n">
-        <v>0.9886663653179723</v>
+        <v>0.9886663665947171</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1170601162581721</v>
+        <v>0.1170601105120712</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>4.460121</v>
+        <v>3.832102128131692</v>
       </c>
       <c r="B55" t="n">
-        <v>651634016199492.2</v>
+        <v>0.0007443047171281286</v>
       </c>
       <c r="C55" t="n">
-        <v>-60560122498323.5</v>
+        <v>-6.917254768692733e-05</v>
       </c>
       <c r="D55" t="n">
-        <v>15790215623771.08</v>
+        <v>1.803578646528413e-05</v>
       </c>
       <c r="E55" t="n">
-        <v>24332105868520.73</v>
+        <v>2.779244286690968e-05</v>
       </c>
       <c r="F55" t="n">
-        <v>3.406627088106478</v>
+        <v>3.406627069863093</v>
       </c>
       <c r="G55" t="n">
-        <v>0.6375607997606503</v>
+        <v>0.6375608025380696</v>
       </c>
       <c r="H55" t="n">
-        <v>0.6813254176212956</v>
+        <v>0.6813254139726187</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>4.469957</v>
+        <v>3.840586297348192</v>
       </c>
       <c r="B56" t="n">
-        <v>687414899321165.8</v>
+        <v>0.0007851740997885811</v>
       </c>
       <c r="C56" t="n">
-        <v>-84622073047013.12</v>
+        <v>-9.665641509170805e-05</v>
       </c>
       <c r="D56" t="n">
-        <v>16403868260459.67</v>
+        <v>1.873670836090308e-05</v>
       </c>
       <c r="E56" t="n">
-        <v>25014770966841.62</v>
+        <v>2.857219168300825e-05</v>
       </c>
       <c r="F56" t="n">
-        <v>4.78831376570147</v>
+        <v>4.788313756695452</v>
       </c>
       <c r="G56" t="n">
-        <v>0.4422571726014888</v>
+        <v>0.4422571737465443</v>
       </c>
       <c r="H56" t="n">
-        <v>0.9576627531402939</v>
+        <v>0.9576627513390903</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>4.477981</v>
+        <v>3.847442191664556</v>
       </c>
       <c r="B57" t="n">
-        <v>507151610826900.2</v>
+        <v>0.0005792750635633713</v>
       </c>
       <c r="C57" t="n">
-        <v>-54964937317025.75</v>
+        <v>-6.27816552183501e-05</v>
       </c>
       <c r="D57" t="n">
-        <v>12375992313150.2</v>
+        <v>1.413601688433767e-05</v>
       </c>
       <c r="E57" t="n">
-        <v>18994955896416.75</v>
+        <v>2.169628184626348e-05</v>
       </c>
       <c r="F57" t="n">
-        <v>3.236861526138697</v>
+        <v>3.236861480112737</v>
       </c>
       <c r="G57" t="n">
-        <v>0.6635211416346397</v>
+        <v>0.6635211486994791</v>
       </c>
       <c r="H57" t="n">
-        <v>0.6473723052277394</v>
+        <v>0.6473722960225474</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>4.486129</v>
+        <v>3.854383784659876</v>
       </c>
       <c r="B58" t="n">
-        <v>239795521834659.2</v>
+        <v>0.0002738975154179079</v>
       </c>
       <c r="C58" t="n">
-        <v>-23213553756203.09</v>
+        <v>-2.651481821074758e-05</v>
       </c>
       <c r="D58" t="n">
-        <v>5930664231321.534</v>
+        <v>6.774080628689516e-06</v>
       </c>
       <c r="E58" t="n">
-        <v>9043960285653.361</v>
+        <v>1.033012724897068e-05</v>
       </c>
       <c r="F58" t="n">
-        <v>4.689418489954057</v>
+        <v>4.689418550557033</v>
       </c>
       <c r="G58" t="n">
-        <v>0.4549464954541261</v>
+        <v>0.454946487607789</v>
       </c>
       <c r="H58" t="n">
-        <v>0.9378836979908114</v>
+        <v>0.9378837101114066</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>4.488189</v>
+        <v>3.856183456917921</v>
       </c>
       <c r="B59" t="n">
-        <v>176794271830592.9</v>
+        <v>0.0002019366808834981</v>
       </c>
       <c r="C59" t="n">
-        <v>-17285037788669.88</v>
+        <v>-1.974319126514781e-05</v>
       </c>
       <c r="D59" t="n">
-        <v>4420731675620.798</v>
+        <v>5.049416329070281e-06</v>
       </c>
       <c r="E59" t="n">
-        <v>6762078604552.597</v>
+        <v>7.723732764620979e-06</v>
       </c>
       <c r="F59" t="n">
-        <v>2.37215220936723</v>
+        <v>2.372152071945889</v>
       </c>
       <c r="G59" t="n">
-        <v>0.7956138569717928</v>
+        <v>0.7956138773633556</v>
       </c>
       <c r="H59" t="n">
-        <v>0.4744304418734459</v>
+        <v>0.4744304143891777</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>4.490073000000001</v>
+        <v>3.857811731818057</v>
       </c>
       <c r="B60" t="n">
-        <v>236396128305783.9</v>
+        <v>0.0002700146844970852</v>
       </c>
       <c r="C60" t="n">
-        <v>-29662461486493.16</v>
+        <v>-3.38808434236995e-05</v>
       </c>
       <c r="D60" t="n">
-        <v>5770577833441.512</v>
+        <v>6.59122788884989e-06</v>
       </c>
       <c r="E60" t="n">
-        <v>8781328502783.963</v>
+        <v>1.00301458615588e-05</v>
       </c>
       <c r="F60" t="n">
-        <v>3.687520342678056</v>
+        <v>3.687520464155877</v>
       </c>
       <c r="G60" t="n">
-        <v>0.5952222128777496</v>
+        <v>0.5952221947788331</v>
       </c>
       <c r="H60" t="n">
-        <v>0.7375040685356111</v>
+        <v>0.7375040928311755</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>4.492223</v>
+        <v>3.859611404076103</v>
       </c>
       <c r="B61" t="n">
-        <v>91273749079629.94</v>
+        <v>0.0001042540447564562</v>
       </c>
       <c r="C61" t="n">
-        <v>-5567298389606.766</v>
+        <v>-6.359039354607204e-06</v>
       </c>
       <c r="D61" t="n">
-        <v>2319659016692.191</v>
+        <v>2.64954423113351e-06</v>
       </c>
       <c r="E61" t="n">
-        <v>3609676337327.545</v>
+        <v>4.123018533373484e-06</v>
       </c>
       <c r="F61" t="n">
-        <v>4.587539560028036</v>
+        <v>4.587539373611665</v>
       </c>
       <c r="G61" t="n">
-        <v>0.4682570583693022</v>
+        <v>0.4682570829430295</v>
       </c>
       <c r="H61" t="n">
-        <v>0.9175079120056072</v>
+        <v>0.917507874722333</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>4.494992</v>
+        <v>3.86201096708683</v>
       </c>
       <c r="B62" t="n">
-        <v>61014126584082.91</v>
+        <v>6.969111661669001e-05</v>
       </c>
       <c r="C62" t="n">
-        <v>-783231985250.1094</v>
+        <v>-8.946175986610503e-07</v>
       </c>
       <c r="D62" t="n">
-        <v>1516116162899.526</v>
+        <v>1.731727294159901e-06</v>
       </c>
       <c r="E62" t="n">
-        <v>2400752945370.222</v>
+        <v>2.742170754489924e-06</v>
       </c>
       <c r="F62" t="n">
-        <v>4.469237606561377</v>
+        <v>4.469237557873249</v>
       </c>
       <c r="G62" t="n">
-        <v>0.484009861876565</v>
+        <v>0.4840098684241243</v>
       </c>
       <c r="H62" t="n">
-        <v>0.8938475213122754</v>
+        <v>0.8938475115746497</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>4.499972000000001</v>
+        <v>3.866295901034558</v>
       </c>
       <c r="B63" t="n">
-        <v>34550774887587.69</v>
+        <v>3.946433746980095e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>3001303710375.785</v>
+        <v>3.428127532839461e-06</v>
       </c>
       <c r="D63" t="n">
-        <v>907344115867.6257</v>
+        <v>1.036380067020702e-06</v>
       </c>
       <c r="E63" t="n">
-        <v>1472451971217.373</v>
+        <v>1.681853494989707e-06</v>
       </c>
       <c r="F63" t="n">
-        <v>3.846824135039238</v>
+        <v>3.846824150592263</v>
       </c>
       <c r="G63" t="n">
-        <v>0.5716737101847167</v>
+        <v>0.5716737079047426</v>
       </c>
       <c r="H63" t="n">
-        <v>0.7693648270078477</v>
+        <v>0.7693648301184526</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>4.510205</v>
+        <v>3.875037166287922</v>
       </c>
       <c r="B64" t="n">
-        <v>26099112127224.2</v>
+        <v>2.981074004934195e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>2776335696559.242</v>
+        <v>3.171166193197531e-06</v>
       </c>
       <c r="D64" t="n">
-        <v>691787493593.5184</v>
+        <v>7.901685321354417e-07</v>
       </c>
       <c r="E64" t="n">
-        <v>1141239351521.259</v>
+        <v>1.303538197798442e-06</v>
       </c>
       <c r="F64" t="n">
-        <v>3.282714102951897</v>
+        <v>3.28271400901179</v>
       </c>
       <c r="G64" t="n">
-        <v>0.6564891666682664</v>
+        <v>0.6564891810614593</v>
       </c>
       <c r="H64" t="n">
-        <v>0.6565428205903794</v>
+        <v>0.656542801802358</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>4.512183</v>
+        <v>3.876751139867013</v>
       </c>
       <c r="B65" t="n">
-        <v>58712035474950.38</v>
+        <v>6.70616386935338e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>16698033743476.71</v>
+        <v>1.907270793125486e-05</v>
       </c>
       <c r="D65" t="n">
-        <v>1484640112163.856</v>
+        <v>1.695774945813665e-06</v>
       </c>
       <c r="E65" t="n">
-        <v>2602314136441.422</v>
+        <v>2.972396526900242e-06</v>
       </c>
       <c r="F65" t="n">
-        <v>2.227643332407325</v>
+        <v>2.227643323307421</v>
       </c>
       <c r="G65" t="n">
-        <v>0.8168331673401544</v>
+        <v>0.816833168661047</v>
       </c>
       <c r="H65" t="n">
-        <v>0.4455286664814651</v>
+        <v>0.4455286646614843</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>4.515076000000001</v>
+        <v>3.879236401556695</v>
       </c>
       <c r="B66" t="n">
-        <v>172634464657125</v>
+        <v>0.0001971852960465272</v>
       </c>
       <c r="C66" t="n">
-        <v>48826648884375.72</v>
+        <v>5.577042365974128e-05</v>
       </c>
       <c r="D66" t="n">
-        <v>4206830171350.905</v>
+        <v>4.805095295465738e-06</v>
       </c>
       <c r="E66" t="n">
-        <v>7322611076101.899</v>
+        <v>8.363980135968075e-06</v>
       </c>
       <c r="F66" t="n">
-        <v>5.128272271948069</v>
+        <v>5.128272260421479</v>
       </c>
       <c r="G66" t="n">
-        <v>0.4004272364099652</v>
+        <v>0.4004272377803933</v>
       </c>
       <c r="H66" t="n">
-        <v>1.025654454389614</v>
+        <v>1.025654452084296</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>4.520067</v>
+        <v>3.883521335504422</v>
       </c>
       <c r="B67" t="n">
-        <v>302748171184771.1</v>
+        <v>0.0003458028375611417</v>
       </c>
       <c r="C67" t="n">
-        <v>72466302223680.47</v>
+        <v>8.277193840023047e-05</v>
       </c>
       <c r="D67" t="n">
-        <v>7116621579342.614</v>
+        <v>8.12869628166947e-06</v>
       </c>
       <c r="E67" t="n">
-        <v>12375657637535.97</v>
+        <v>1.413563460340508e-05</v>
       </c>
       <c r="F67" t="n">
-        <v>2.125528766047025</v>
+        <v>2.125528766670119</v>
       </c>
       <c r="G67" t="n">
-        <v>0.8315172770673078</v>
+        <v>0.8315172769785943</v>
       </c>
       <c r="H67" t="n">
-        <v>0.425105753209405</v>
+        <v>0.4251057533340237</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>4.525238</v>
+        <v>3.887891968131104</v>
       </c>
       <c r="B68" t="n">
-        <v>548820970787523.7</v>
+        <v>0.0006268703397131254</v>
       </c>
       <c r="C68" t="n">
-        <v>110481370418602.7</v>
+        <v>0.0001261932358785905</v>
       </c>
       <c r="D68" t="n">
-        <v>12946768221803.09</v>
+        <v>1.478796443742397e-05</v>
       </c>
       <c r="E68" t="n">
-        <v>22083716672309.43</v>
+        <v>2.522430395291772e-05</v>
       </c>
       <c r="F68" t="n">
-        <v>4.716561849224813</v>
+        <v>4.716561796262464</v>
       </c>
       <c r="G68" t="n">
-        <v>0.4514408200151268</v>
+        <v>0.451440826838607</v>
       </c>
       <c r="H68" t="n">
-        <v>0.9433123698449626</v>
+        <v>0.9433123592524929</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>4.529406</v>
+        <v>3.891491312647195</v>
       </c>
       <c r="B69" t="n">
-        <v>550369104897913.4</v>
+        <v>0.0006286386387176521</v>
       </c>
       <c r="C69" t="n">
-        <v>118672026531873.2</v>
+        <v>0.0001355487081778715</v>
       </c>
       <c r="D69" t="n">
-        <v>12453345693834.27</v>
+        <v>1.422437091081331e-05</v>
       </c>
       <c r="E69" t="n">
-        <v>21485341911775.27</v>
+        <v>2.454083263722276e-05</v>
       </c>
       <c r="F69" t="n">
-        <v>2.128788218111326</v>
+        <v>2.128788173169039</v>
       </c>
       <c r="G69" t="n">
-        <v>0.8310530541985537</v>
+        <v>0.8310530606015339</v>
       </c>
       <c r="H69" t="n">
-        <v>0.4257576436222651</v>
+        <v>0.4257576346338078</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>4.535056</v>
+        <v>3.896376137347605</v>
       </c>
       <c r="B70" t="n">
-        <v>956195333374485</v>
+        <v>0.001092178554364772</v>
       </c>
       <c r="C70" t="n">
-        <v>175638205681695.1</v>
+        <v>0.0002006162098637388</v>
       </c>
       <c r="D70" t="n">
-        <v>21950806786025.68</v>
+        <v>2.507249257150721e-05</v>
       </c>
       <c r="E70" t="n">
-        <v>37466627725227.73</v>
+        <v>4.279486192322164e-05</v>
       </c>
       <c r="F70" t="n">
-        <v>1.643063170559358</v>
+        <v>1.643063048190478</v>
       </c>
       <c r="G70" t="n">
-        <v>0.8959933035400335</v>
+        <v>0.8959933186114664</v>
       </c>
       <c r="H70" t="n">
-        <v>0.3286126341118716</v>
+        <v>0.3286126096380955</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>4.540236</v>
+        <v>3.900746769974288</v>
       </c>
       <c r="B71" t="n">
-        <v>1059918255879134</v>
+        <v>0.001210652202830639</v>
       </c>
       <c r="C71" t="n">
-        <v>172466186138259.1</v>
+        <v>0.0001969930899861764</v>
       </c>
       <c r="D71" t="n">
-        <v>25113836618796.45</v>
+        <v>2.868534574327324e-05</v>
       </c>
       <c r="E71" t="n">
-        <v>42305982635722.19</v>
+        <v>4.832243504816508e-05</v>
       </c>
       <c r="F71" t="n">
-        <v>3.115594959052385</v>
+        <v>3.11559504867897</v>
       </c>
       <c r="G71" t="n">
-        <v>0.6821698554784623</v>
+        <v>0.682169841674801</v>
       </c>
       <c r="H71" t="n">
-        <v>0.623118991810477</v>
+        <v>0.6231190097357939</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>4.549804</v>
+        <v>3.908973843153924</v>
       </c>
       <c r="B72" t="n">
-        <v>1369320679639348</v>
+        <v>0.00156405561228967</v>
       </c>
       <c r="C72" t="n">
-        <v>83515027843449.88</v>
+        <v>9.539193579317842e-05</v>
       </c>
       <c r="D72" t="n">
-        <v>29431269797183.2</v>
+        <v>3.36167731964527e-05</v>
       </c>
       <c r="E72" t="n">
-        <v>48291046415900.85</v>
+        <v>5.515865153295986e-05</v>
       </c>
       <c r="F72" t="n">
-        <v>1.329274214197149</v>
+        <v>1.329274258450261</v>
       </c>
       <c r="G72" t="n">
-        <v>0.9318907522035946</v>
+        <v>0.9318907475637197</v>
       </c>
       <c r="H72" t="n">
-        <v>0.2658548428394299</v>
+        <v>0.2658548516900522</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>4.560183</v>
+        <v>3.917886505765197</v>
       </c>
       <c r="B73" t="n">
-        <v>2076034398949510</v>
+        <v>0.002371273072102534</v>
       </c>
       <c r="C73" t="n">
-        <v>-46840340773347.25</v>
+        <v>-5.35016381693976e-05</v>
       </c>
       <c r="D73" t="n">
-        <v>46226530250770.2</v>
+        <v>5.280053470451698e-05</v>
       </c>
       <c r="E73" t="n">
-        <v>73557497700727.7</v>
+        <v>8.401831566302543e-05</v>
       </c>
       <c r="F73" t="n">
-        <v>4.238772204197784</v>
+        <v>4.238772121625423</v>
       </c>
       <c r="G73" t="n">
-        <v>0.5155755256921142</v>
+        <v>0.5155755372013355</v>
       </c>
       <c r="H73" t="n">
-        <v>0.8477544408395568</v>
+        <v>0.8477544243250845</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>4.570129</v>
+        <v>3.926370674981698</v>
       </c>
       <c r="B74" t="n">
-        <v>1916454486596276</v>
+        <v>0.002188998851760987</v>
       </c>
       <c r="C74" t="n">
-        <v>-86102766391097</v>
+        <v>-9.834768172733966e-05</v>
       </c>
       <c r="D74" t="n">
-        <v>43131494422425.77</v>
+        <v>4.926534518330482e-05</v>
       </c>
       <c r="E74" t="n">
-        <v>68105487494240</v>
+        <v>7.779095984687207e-05</v>
       </c>
       <c r="F74" t="n">
-        <v>3.943426690683028</v>
+        <v>3.943426647843076</v>
       </c>
       <c r="G74" t="n">
-        <v>0.5575896007288879</v>
+        <v>0.5575896069396404</v>
       </c>
       <c r="H74" t="n">
-        <v>0.7886853381366056</v>
+        <v>0.7886853295686151</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>4.580025</v>
+        <v>3.934854844198199</v>
       </c>
       <c r="B75" t="n">
-        <v>975483395180227.1</v>
+        <v>0.001114209624610891</v>
       </c>
       <c r="C75" t="n">
-        <v>-40122203441391.88</v>
+        <v>-4.58280957766681e-05</v>
       </c>
       <c r="D75" t="n">
-        <v>23361517497328.45</v>
+        <v>2.668382440354024e-05</v>
       </c>
       <c r="E75" t="n">
-        <v>36633033658997.59</v>
+        <v>4.18427200898371e-05</v>
       </c>
       <c r="F75" t="n">
-        <v>4.800656568043453</v>
+        <v>4.800656308927333</v>
       </c>
       <c r="G75" t="n">
-        <v>0.4406896773089055</v>
+        <v>0.4406897101777839</v>
       </c>
       <c r="H75" t="n">
-        <v>0.9601313136086906</v>
+        <v>0.9601312617854665</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>4.590082</v>
+        <v>3.943510410772608</v>
       </c>
       <c r="B76" t="n">
-        <v>523158091322786.9</v>
+        <v>0.0005975578704322149</v>
       </c>
       <c r="C76" t="n">
-        <v>-25242452029536.25</v>
+        <v>-2.883225212315884e-05</v>
       </c>
       <c r="D76" t="n">
-        <v>12439647115640.61</v>
+        <v>1.420872422459746e-05</v>
       </c>
       <c r="E76" t="n">
-        <v>19517396905719.22</v>
+        <v>2.229302067087545e-05</v>
       </c>
       <c r="F76" t="n">
-        <v>1.295441743119721</v>
+        <v>1.295441732690894</v>
       </c>
       <c r="G76" t="n">
-        <v>0.9354000208300223</v>
+        <v>0.9354000218999378</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2590883486239441</v>
+        <v>0.2590883465381789</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>4.600268</v>
+        <v>3.952251676025972</v>
       </c>
       <c r="B77" t="n">
-        <v>422112113820575.4</v>
+        <v>0.0004821418612688468</v>
       </c>
       <c r="C77" t="n">
-        <v>54911328248596.31</v>
+        <v>6.272042186615339e-05</v>
       </c>
       <c r="D77" t="n">
-        <v>10059448805976.96</v>
+        <v>1.149003122915011e-05</v>
       </c>
       <c r="E77" t="n">
-        <v>16743150975019.9</v>
+        <v>1.912424142288257e-05</v>
       </c>
       <c r="F77" t="n">
-        <v>2.792797444033007</v>
+        <v>2.792797442453385</v>
       </c>
       <c r="G77" t="n">
-        <v>0.7318929667950443</v>
+        <v>0.731892967037679</v>
       </c>
       <c r="H77" t="n">
-        <v>0.5585594888066014</v>
+        <v>0.5585594884906769</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>4.609989</v>
+        <v>3.960564447884564</v>
       </c>
       <c r="B78" t="n">
-        <v>953278469754098.2</v>
+        <v>0.001088846873853519</v>
       </c>
       <c r="C78" t="n">
-        <v>210437376552096.9</v>
+        <v>0.0002403642652386334</v>
       </c>
       <c r="D78" t="n">
-        <v>21442356738394.42</v>
+        <v>2.449173441295759e-05</v>
       </c>
       <c r="E78" t="n">
-        <v>37033527080999.2</v>
+        <v>4.230016881125978e-05</v>
       </c>
       <c r="F78" t="n">
-        <v>2.443371029218431</v>
+        <v>2.443371140440327</v>
       </c>
       <c r="G78" t="n">
-        <v>0.7849983030124581</v>
+        <v>0.7849982863633121</v>
       </c>
       <c r="H78" t="n">
-        <v>0.4886742058436861</v>
+        <v>0.4886742280880654</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>4.620227</v>
+        <v>3.969305713137928</v>
       </c>
       <c r="B79" t="n">
-        <v>1070811528792134</v>
+        <v>0.001223094639048</v>
       </c>
       <c r="C79" t="n">
-        <v>261435803031530.1</v>
+        <v>0.0002986153216694737</v>
       </c>
       <c r="D79" t="n">
-        <v>24729993475682.14</v>
+        <v>2.824691518540784e-05</v>
       </c>
       <c r="E79" t="n">
-        <v>42831526837126.45</v>
+        <v>4.892271836685425e-05</v>
       </c>
       <c r="F79" t="n">
-        <v>3.431964135048245</v>
+        <v>3.43196404921538</v>
       </c>
       <c r="G79" t="n">
-        <v>0.6337063913911531</v>
+        <v>0.633706404438283</v>
       </c>
       <c r="H79" t="n">
-        <v>0.686392827009649</v>
+        <v>0.686392809843076</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>4.629939</v>
+        <v>3.977618484996519</v>
       </c>
       <c r="B80" t="n">
-        <v>776796662666442.8</v>
+        <v>0.0008872670947922737</v>
       </c>
       <c r="C80" t="n">
-        <v>220206201416564.4</v>
+        <v>0.0002515223437460703</v>
       </c>
       <c r="D80" t="n">
-        <v>17454450583026.72</v>
+        <v>1.993669694152308e-05</v>
       </c>
       <c r="E80" t="n">
-        <v>30604942698771.35</v>
+        <v>3.495735741791301e-05</v>
       </c>
       <c r="F80" t="n">
-        <v>1.135439069482212</v>
+        <v>1.135439050392002</v>
       </c>
       <c r="G80" t="n">
-        <v>0.9509191155858728</v>
+        <v>0.9509191173268288</v>
       </c>
       <c r="H80" t="n">
-        <v>0.2270878138964424</v>
+        <v>0.2270878100784004</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>4.635173</v>
+        <v>3.982160514981111</v>
       </c>
       <c r="B81" t="n">
-        <v>411450022166360.9</v>
+        <v>0.0004699634833501503</v>
       </c>
       <c r="C81" t="n">
-        <v>87583780142367.66</v>
+        <v>0.000100039315161967</v>
       </c>
       <c r="D81" t="n">
-        <v>9729621373591.576</v>
+        <v>1.111329811481229e-05</v>
       </c>
       <c r="E81" t="n">
-        <v>16542330625230.77</v>
+        <v>1.88948618510045e-05</v>
       </c>
       <c r="F81" t="n">
-        <v>2.992974213348316</v>
+        <v>2.992974233854051</v>
       </c>
       <c r="G81" t="n">
-        <v>0.7010690724946849</v>
+        <v>0.701069069333117</v>
       </c>
       <c r="H81" t="n">
-        <v>0.5985948426696632</v>
+        <v>0.5985948467708101</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>4.639959999999999</v>
+        <v>3.986274051570929</v>
       </c>
       <c r="B82" t="n">
-        <v>242706065226495.8</v>
+        <v>0.0002772219754459356</v>
       </c>
       <c r="C82" t="n">
-        <v>42076417116672.44</v>
+        <v>4.80602225736794e-05</v>
       </c>
       <c r="D82" t="n">
-        <v>5895811890760.587</v>
+        <v>6.734271837406314e-06</v>
       </c>
       <c r="E82" t="n">
-        <v>9856726807592.709</v>
+        <v>1.125847958019128e-05</v>
       </c>
       <c r="F82" t="n">
-        <v>2.938395993258696</v>
+        <v>2.938396038243424</v>
       </c>
       <c r="G82" t="n">
-        <v>0.7094829503686428</v>
+        <v>0.7094829434351061</v>
       </c>
       <c r="H82" t="n">
-        <v>0.5876791986517392</v>
+        <v>0.5876792076486849</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>4.649962</v>
+        <v>3.994843919466384</v>
       </c>
       <c r="B83" t="n">
-        <v>202410754203363.5</v>
+        <v>0.0002311961550640694</v>
       </c>
       <c r="C83" t="n">
-        <v>18817945585077.75</v>
+        <v>2.149409833304889e-05</v>
       </c>
       <c r="D83" t="n">
-        <v>4998549551511.864</v>
+        <v>5.709407304570544e-06</v>
       </c>
       <c r="E83" t="n">
-        <v>8233599649585.811</v>
+        <v>9.404522945946666e-06</v>
       </c>
       <c r="F83" t="n">
-        <v>4.278201742801238</v>
+        <v>4.278201842800009</v>
       </c>
       <c r="G83" t="n">
-        <v>0.5100956200419386</v>
+        <v>0.5100956061847333</v>
       </c>
       <c r="H83" t="n">
-        <v>0.8556403485602475</v>
+        <v>0.8556403685600019</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>4.670119000000001</v>
+        <v>4.012069353936249</v>
       </c>
       <c r="B84" t="n">
-        <v>105388598372697.1</v>
+        <v>0.0001203762061346624</v>
       </c>
       <c r="C84" t="n">
-        <v>11191167265079.2</v>
+        <v>1.278269463111817e-05</v>
       </c>
       <c r="D84" t="n">
-        <v>2641992982688.919</v>
+        <v>3.017718213020281e-06</v>
       </c>
       <c r="E84" t="n">
-        <v>4298119834771.542</v>
+        <v>4.90936750926286e-06</v>
       </c>
       <c r="F84" t="n">
-        <v>0.7895221111023611</v>
+        <v>0.7895221076657807</v>
       </c>
       <c r="G84" t="n">
-        <v>0.9776968368445274</v>
+        <v>0.97769683706056</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1579044222204722</v>
+        <v>0.1579044215331561</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.680153</v>
+        <v>4.020724920510658</v>
       </c>
       <c r="B85" t="n">
-        <v>55429971225844.67</v>
+        <v>6.331282286091608e-05</v>
       </c>
       <c r="C85" t="n">
-        <v>6710924159631.898</v>
+        <v>7.665303472211297e-06</v>
       </c>
       <c r="D85" t="n">
-        <v>1485620184277.09</v>
+        <v>1.696894396667884e-06</v>
       </c>
       <c r="E85" t="n">
-        <v>2417878123345.79</v>
+        <v>2.761731351076568e-06</v>
       </c>
       <c r="F85" t="n">
-        <v>4.11679916733833</v>
+        <v>4.116799172366723</v>
       </c>
       <c r="G85" t="n">
-        <v>0.532725341480464</v>
+        <v>0.5327253407674372</v>
       </c>
       <c r="H85" t="n">
-        <v>0.8233598334676661</v>
+        <v>0.8233598344733446</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.689928</v>
+        <v>4.02903769236925</v>
       </c>
       <c r="B86" t="n">
-        <v>42493391691368.62</v>
+        <v>4.853649607000778e-05</v>
       </c>
       <c r="C86" t="n">
-        <v>5645456069736.117</v>
+        <v>6.448312218913568e-06</v>
       </c>
       <c r="D86" t="n">
-        <v>1139208502797.241</v>
+        <v>1.301218537625635e-06</v>
       </c>
       <c r="E86" t="n">
-        <v>1877299001309.672</v>
+        <v>2.144274955191656e-06</v>
       </c>
       <c r="F86" t="n">
-        <v>5.225126724594396</v>
+        <v>5.225126693388339</v>
       </c>
       <c r="G86" t="n">
-        <v>0.3890278933745321</v>
+        <v>0.3890278970099246</v>
       </c>
       <c r="H86" t="n">
-        <v>1.045025344918879</v>
+        <v>1.045025338677668</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.71002</v>
+        <v>4.046263126839114</v>
       </c>
       <c r="B87" t="n">
-        <v>34106733463558.21</v>
+        <v>3.895714764604389e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>4315384679943.332</v>
+        <v>4.929087668798849e-06</v>
       </c>
       <c r="D87" t="n">
-        <v>870971216523.7125</v>
+        <v>9.948344757618147e-07</v>
       </c>
       <c r="E87" t="n">
-        <v>1452072264568.718</v>
+        <v>1.658575532797383e-06</v>
       </c>
       <c r="F87" t="n">
-        <v>0.8439085268324604</v>
+        <v>0.8439085568833065</v>
       </c>
       <c r="G87" t="n">
-        <v>0.9741485960142092</v>
+        <v>0.9741485939826187</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1687817053664921</v>
+        <v>0.1687817113766613</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.730004</v>
+        <v>4.063402862630025</v>
       </c>
       <c r="B88" t="n">
-        <v>31491128782167.26</v>
+        <v>3.596957050399937e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>5508078332056.988</v>
+        <v>6.291397614738428e-06</v>
       </c>
       <c r="D88" t="n">
-        <v>864710901765.5515</v>
+        <v>9.876838630597432e-07</v>
       </c>
       <c r="E88" t="n">
-        <v>1432857965745.202</v>
+        <v>1.63662871497139e-06</v>
       </c>
       <c r="F88" t="n">
-        <v>1.317588157316454</v>
+        <v>1.317588119029567</v>
       </c>
       <c r="G88" t="n">
-        <v>0.9331115066024905</v>
+        <v>0.93311151058721</v>
       </c>
       <c r="H88" t="n">
-        <v>0.2635176314632908</v>
+        <v>0.2635176238059135</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.749999</v>
+        <v>4.080542598420934</v>
       </c>
       <c r="B89" t="n">
-        <v>42814624856535.86</v>
+        <v>4.890341272614254e-05</v>
       </c>
       <c r="C89" t="n">
-        <v>5976525812078.012</v>
+        <v>6.826464285082818e-06</v>
       </c>
       <c r="D89" t="n">
-        <v>1181790783563.715</v>
+        <v>1.349856564704904e-06</v>
       </c>
       <c r="E89" t="n">
-        <v>1945684390613.955</v>
+        <v>2.222385622917052e-06</v>
       </c>
       <c r="F89" t="n">
-        <v>2.589395688548584</v>
+        <v>2.589395646406978</v>
       </c>
       <c r="G89" t="n">
-        <v>0.762975800567874</v>
+        <v>0.7629758069654786</v>
       </c>
       <c r="H89" t="n">
-        <v>0.5178791377097169</v>
+        <v>0.5178791292813956</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.755179</v>
+        <v>4.084998929726572</v>
       </c>
       <c r="B90" t="n">
-        <v>77069183989000.98</v>
+        <v>8.802940877877635e-05</v>
       </c>
       <c r="C90" t="n">
-        <v>10389603709364.71</v>
+        <v>1.186713853916458e-05</v>
       </c>
       <c r="D90" t="n">
-        <v>2097499017820.399</v>
+        <v>2.395790234793519e-06</v>
       </c>
       <c r="E90" t="n">
-        <v>3443114143107.147</v>
+        <v>3.932769060356258e-06</v>
       </c>
       <c r="F90" t="n">
-        <v>2.674792813524524</v>
+        <v>2.674792945673878</v>
       </c>
       <c r="G90" t="n">
-        <v>0.7499709824594936</v>
+        <v>0.7499709622774471</v>
       </c>
       <c r="H90" t="n">
-        <v>0.5349585627049048</v>
+        <v>0.5349585891347757</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.758876</v>
+        <v>4.08816978084789</v>
       </c>
       <c r="B91" t="n">
-        <v>86877929701738.48</v>
+        <v>9.923308370558867e-05</v>
       </c>
       <c r="C91" t="n">
-        <v>8602344045078.977</v>
+        <v>9.825707552408124e-06</v>
       </c>
       <c r="D91" t="n">
-        <v>2312043465779.816</v>
+        <v>2.640845650589294e-06</v>
       </c>
       <c r="E91" t="n">
-        <v>3720938535659.306</v>
+        <v>4.250103638503338e-06</v>
       </c>
       <c r="F91" t="n">
-        <v>1.941081101971668</v>
+        <v>1.941081162461479</v>
       </c>
       <c r="G91" t="n">
-        <v>0.8572360708506614</v>
+        <v>0.8572360626085942</v>
       </c>
       <c r="H91" t="n">
-        <v>0.3882162203943337</v>
+        <v>0.3882162324922959</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.770038</v>
+        <v>4.097682334211846</v>
       </c>
       <c r="B92" t="n">
-        <v>106472529691190</v>
+        <v>0.0001216142866234235</v>
       </c>
       <c r="C92" t="n">
-        <v>14969394547613.19</v>
+        <v>1.709823423124232e-05</v>
       </c>
       <c r="D92" t="n">
-        <v>2761389396416.376</v>
+        <v>3.154094326699387e-06</v>
       </c>
       <c r="E92" t="n">
-        <v>4564626130398.073</v>
+        <v>5.213774413881128e-06</v>
       </c>
       <c r="F92" t="n">
-        <v>2.226933880376832</v>
+        <v>2.226933968453508</v>
       </c>
       <c r="G92" t="n">
-        <v>0.8169361412047693</v>
+        <v>0.816936128421611</v>
       </c>
       <c r="H92" t="n">
-        <v>0.4453867760753664</v>
+        <v>0.4453867936907016</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.775016</v>
+        <v>4.101967268159573</v>
       </c>
       <c r="B93" t="n">
-        <v>160896409479537.3</v>
+        <v>0.0001837779390975756</v>
       </c>
       <c r="C93" t="n">
-        <v>23905920220063.25</v>
+        <v>2.730564838119887e-05</v>
       </c>
       <c r="D93" t="n">
-        <v>4010319494587.646</v>
+        <v>4.580638273046211e-06</v>
       </c>
       <c r="E93" t="n">
-        <v>6677595746648.697</v>
+        <v>7.627235355132012e-06</v>
       </c>
       <c r="F93" t="n">
-        <v>1.546337509068247</v>
+        <v>1.546337639228298</v>
       </c>
       <c r="G93" t="n">
-        <v>0.907661329330043</v>
+        <v>0.9076613139683158</v>
       </c>
       <c r="H93" t="n">
-        <v>0.3092675018136494</v>
+        <v>0.3092675278456595</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.780179</v>
+        <v>4.106423599465209</v>
       </c>
       <c r="B94" t="n">
-        <v>337386980070313.6</v>
+        <v>0.0003853677286659953</v>
       </c>
       <c r="C94" t="n">
-        <v>75531540535064</v>
+        <v>8.627309268210637e-05</v>
       </c>
       <c r="D94" t="n">
-        <v>8191743609698.797</v>
+        <v>9.356714435139088e-06</v>
       </c>
       <c r="E94" t="n">
-        <v>13832834849578.9</v>
+        <v>1.580004107318714e-05</v>
       </c>
       <c r="F94" t="n">
-        <v>5.671211961195192</v>
+        <v>5.67121195223692</v>
       </c>
       <c r="G94" t="n">
-        <v>0.339536790159943</v>
+        <v>0.3395367911040875</v>
       </c>
       <c r="H94" t="n">
-        <v>1.134242392239039</v>
+        <v>1.134242390447384</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.790118</v>
+        <v>4.114907768681709</v>
       </c>
       <c r="B95" t="n">
-        <v>425958194438808.7</v>
+        <v>0.0004865349037156601</v>
       </c>
       <c r="C95" t="n">
-        <v>99181599843974.5</v>
+        <v>0.0001132864934031791</v>
       </c>
       <c r="D95" t="n">
-        <v>9834436073569.525</v>
+        <v>1.123301879576741e-05</v>
       </c>
       <c r="E95" t="n">
-        <v>17095348230728.01</v>
+        <v>1.952652563818993e-05</v>
       </c>
       <c r="F95" t="n">
-        <v>2.47284735426136</v>
+        <v>2.472847310145266</v>
       </c>
       <c r="G95" t="n">
-        <v>0.7805786460409283</v>
+        <v>0.780578652666294</v>
       </c>
       <c r="H95" t="n">
-        <v>0.494569470852272</v>
+        <v>0.4945694620290532</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.799915</v>
+        <v>4.123306239219255</v>
       </c>
       <c r="B96" t="n">
-        <v>351294852190468.7</v>
+        <v>0.0004012534781126119</v>
       </c>
       <c r="C96" t="n">
-        <v>70842421447254.38</v>
+        <v>8.091712076068139e-05</v>
       </c>
       <c r="D96" t="n">
-        <v>8106082419783.982</v>
+        <v>9.258871128872833e-06</v>
       </c>
       <c r="E96" t="n">
-        <v>13903717098388.63</v>
+        <v>1.588100369460861e-05</v>
       </c>
       <c r="F96" t="n">
-        <v>1.436221408629889</v>
+        <v>1.436221365022809</v>
       </c>
       <c r="G96" t="n">
-        <v>0.9203104146519434</v>
+        <v>0.9203104195194483</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2872442817259779</v>
+        <v>0.2872442730045618</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.810027</v>
+        <v>4.131961805793665</v>
       </c>
       <c r="B97" t="n">
-        <v>169734965292295.7</v>
+        <v>0.0001938734506852897</v>
       </c>
       <c r="C97" t="n">
-        <v>39901976255133.53</v>
+        <v>4.557654816701269e-05</v>
       </c>
       <c r="D97" t="n">
-        <v>4309734805378.38</v>
+        <v>4.922634282672004e-06</v>
       </c>
       <c r="E97" t="n">
-        <v>7472895449095.022</v>
+        <v>8.535636867498832e-06</v>
       </c>
       <c r="F97" t="n">
-        <v>2.422398910945935</v>
+        <v>2.422398975071233</v>
       </c>
       <c r="G97" t="n">
-        <v>0.7881338788185042</v>
+        <v>0.7881338692428277</v>
       </c>
       <c r="H97" t="n">
-        <v>0.4844797821891869</v>
+        <v>0.4844797950142467</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.81216</v>
+        <v>4.133847176730665</v>
       </c>
       <c r="B98" t="n">
-        <v>80931132408066.69</v>
+        <v>9.244057570415427e-05</v>
       </c>
       <c r="C98" t="n">
-        <v>19773661489865.48</v>
+        <v>2.258572933564596e-05</v>
       </c>
       <c r="D98" t="n">
-        <v>2206177995533.204</v>
+        <v>2.519924754164871e-06</v>
       </c>
       <c r="E98" t="n">
-        <v>3772377100394.047</v>
+        <v>4.308857426256411e-06</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3864919571546307</v>
+        <v>0.3864919613720044</v>
       </c>
       <c r="G98" t="n">
-        <v>0.9956934995920783</v>
+        <v>0.9956934994810034</v>
       </c>
       <c r="H98" t="n">
-        <v>0.07729839143092614</v>
+        <v>0.07729839227440088</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.81527</v>
+        <v>4.136503835778257</v>
       </c>
       <c r="B99" t="n">
-        <v>50428355791684.77</v>
+        <v>5.759991369123583e-05</v>
       </c>
       <c r="C99" t="n">
-        <v>12939230338629.65</v>
+        <v>1.477935456685582e-05</v>
       </c>
       <c r="D99" t="n">
-        <v>1408085629819.186</v>
+        <v>1.608333436110711e-06</v>
       </c>
       <c r="E99" t="n">
-        <v>2428613522494.86</v>
+        <v>2.773993461869758e-06</v>
       </c>
       <c r="F99" t="n">
-        <v>1.388821728724163</v>
+        <v>1.388821716174594</v>
       </c>
       <c r="G99" t="n">
-        <v>0.9255321392600426</v>
+        <v>0.9255321406240244</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2777643457448326</v>
+        <v>0.2777643432349187</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.820058</v>
+        <v>4.140617372368075</v>
       </c>
       <c r="B100" t="n">
-        <v>27386348895151.21</v>
+        <v>3.128103837747763e-05</v>
       </c>
       <c r="C100" t="n">
-        <v>6414237965533.988</v>
+        <v>7.326424734914534e-06</v>
       </c>
       <c r="D100" t="n">
-        <v>803929215051.2976</v>
+        <v>9.18258243745814e-07</v>
       </c>
       <c r="E100" t="n">
-        <v>1350213295175.44</v>
+        <v>1.542230915425272e-06</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9889437185033915</v>
+        <v>0.9889436798037359</v>
       </c>
       <c r="G100" t="n">
-        <v>0.9634525998646938</v>
+        <v>0.9634526029514823</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1977887437006783</v>
+        <v>0.1977887359607472</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.829886</v>
+        <v>4.149015842905621</v>
       </c>
       <c r="B101" t="n">
-        <v>17821025573580.78</v>
+        <v>2.035540359232878e-05</v>
       </c>
       <c r="C101" t="n">
-        <v>2194494335110.15</v>
+        <v>2.506579559049233e-06</v>
       </c>
       <c r="D101" t="n">
-        <v>517721116448.4822</v>
+        <v>5.913476877433284e-07</v>
       </c>
       <c r="E101" t="n">
-        <v>853763363122.9524</v>
+        <v>9.751794439435071e-07</v>
       </c>
       <c r="F101" t="n">
-        <v>2.324508578988906</v>
+        <v>2.324508552817131</v>
       </c>
       <c r="G101" t="n">
-        <v>0.8026606028264177</v>
+        <v>0.802660606684381</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4649017157977812</v>
+        <v>0.4649017105634263</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.85003</v>
+        <v>4.166241277375486</v>
       </c>
       <c r="B102" t="n">
-        <v>12406016436393.5</v>
+        <v>1.417031081700806e-05</v>
       </c>
       <c r="C102" t="n">
-        <v>2267683118959.1</v>
+        <v>2.590176693196819e-06</v>
       </c>
       <c r="D102" t="n">
-        <v>413630034513.3762</v>
+        <v>4.724535218687589e-07</v>
       </c>
       <c r="E102" t="n">
-        <v>689269232291.5898</v>
+        <v>7.872921425845896e-07</v>
       </c>
       <c r="F102" t="n">
-        <v>5.226368631784059</v>
+        <v>5.226368448897539</v>
       </c>
       <c r="G102" t="n">
-        <v>0.3888832348882396</v>
+        <v>0.3888832561882124</v>
       </c>
       <c r="H102" t="n">
-        <v>1.045273726356812</v>
+        <v>1.045273689779508</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.866293</v>
+        <v>4.180210162045077</v>
       </c>
       <c r="B103" t="n">
-        <v>11978350782505.32</v>
+        <v>1.368182562781699e-05</v>
       </c>
       <c r="C103" t="n">
-        <v>3060333181332.545</v>
+        <v>3.495551761008852e-06</v>
       </c>
       <c r="D103" t="n">
-        <v>428817763208.7635</v>
+        <v>4.898011396917921e-07</v>
       </c>
       <c r="E103" t="n">
-        <v>730469552241.582</v>
+        <v>8.343516757839831e-07</v>
       </c>
       <c r="F103" t="n">
-        <v>5.12061968061553</v>
+        <v>5.120619663766197</v>
       </c>
       <c r="G103" t="n">
-        <v>0.4013377960382977</v>
+        <v>0.4013377980447405</v>
       </c>
       <c r="H103" t="n">
-        <v>1.024123936123106</v>
+        <v>1.024123932753239</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.889892</v>
+        <v>4.200435050278351</v>
       </c>
       <c r="B104" t="n">
-        <v>14475310170775.11</v>
+        <v>1.653388462467721e-05</v>
       </c>
       <c r="C104" t="n">
-        <v>3076664583252.086</v>
+        <v>3.514205688165136e-06</v>
       </c>
       <c r="D104" t="n">
-        <v>421495002016.8668</v>
+        <v>4.814369878905339e-07</v>
       </c>
       <c r="E104" t="n">
-        <v>726191561657.3838</v>
+        <v>8.29465299359812e-07</v>
       </c>
       <c r="F104" t="n">
-        <v>5.745850174897446</v>
+        <v>5.745850044794787</v>
       </c>
       <c r="G104" t="n">
-        <v>0.3317394610844824</v>
+        <v>0.3317394745558255</v>
       </c>
       <c r="H104" t="n">
-        <v>1.149170034979489</v>
+        <v>1.149170008958957</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.899914</v>
+        <v>4.209004918173807</v>
       </c>
       <c r="B105" t="n">
-        <v>26901279984725.4</v>
+        <v>3.072698643901926e-05</v>
       </c>
       <c r="C105" t="n">
-        <v>-110301378178.6758</v>
+        <v>-1.259876498492468e-07</v>
       </c>
       <c r="D105" t="n">
-        <v>829204741930.2626</v>
+        <v>9.471282735574099e-07</v>
       </c>
       <c r="E105" t="n">
-        <v>1283837000447.95</v>
+        <v>1.466415059971045e-06</v>
       </c>
       <c r="F105" t="n">
-        <v>3.060703186171966</v>
+        <v>3.060703147677797</v>
       </c>
       <c r="G105" t="n">
-        <v>0.6906275469420264</v>
+        <v>0.6906275528752721</v>
       </c>
       <c r="H105" t="n">
-        <v>0.6121406372343933</v>
+        <v>0.6121406295355594</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.910130000000001</v>
+        <v>4.21774618342717</v>
       </c>
       <c r="B106" t="n">
-        <v>38758602899965.48</v>
+        <v>4.427057251065168e-05</v>
       </c>
       <c r="C106" t="n">
-        <v>-335737282712.8047</v>
+        <v>-3.834834462149991e-07</v>
       </c>
       <c r="D106" t="n">
-        <v>1039801951583.494</v>
+        <v>1.187675103259336e-06</v>
       </c>
       <c r="E106" t="n">
-        <v>1646222329568.197</v>
+        <v>1.880336224087854e-06</v>
       </c>
       <c r="F106" t="n">
-        <v>2.900770032462885</v>
+        <v>2.900770033463354</v>
       </c>
       <c r="G106" t="n">
-        <v>0.7152808908476372</v>
+        <v>0.7152808906935139</v>
       </c>
       <c r="H106" t="n">
-        <v>0.580154006492577</v>
+        <v>0.5801540066926708</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.919957</v>
+        <v>4.226230352643671</v>
       </c>
       <c r="B107" t="n">
-        <v>49417396099724.76</v>
+        <v>5.644518257746202e-05</v>
       </c>
       <c r="C107" t="n">
-        <v>-2422808081392.68</v>
+        <v>-2.767362444681705e-06</v>
       </c>
       <c r="D107" t="n">
-        <v>1348517488356.941</v>
+        <v>1.540293941902099e-06</v>
       </c>
       <c r="E107" t="n">
-        <v>2094115844547.647</v>
+        <v>2.391925931831049e-06</v>
       </c>
       <c r="F107" t="n">
-        <v>2.280427596665053</v>
+        <v>2.280427622139216</v>
       </c>
       <c r="G107" t="n">
-        <v>0.8091371982637137</v>
+        <v>0.8091371945335782</v>
       </c>
       <c r="H107" t="n">
-        <v>0.4560855193330106</v>
+        <v>0.4560855244278431</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.926154</v>
+        <v>4.231543670738853</v>
       </c>
       <c r="B108" t="n">
-        <v>50255117027601.28</v>
+        <v>5.740203815586278e-05</v>
       </c>
       <c r="C108" t="n">
-        <v>124590660093.4297</v>
+        <v>1.42309034967558e-07</v>
       </c>
       <c r="D108" t="n">
-        <v>1226622744216.576</v>
+        <v>1.401064204924879e-06</v>
       </c>
       <c r="E108" t="n">
-        <v>1956090516971.489</v>
+        <v>2.234271636104826e-06</v>
       </c>
       <c r="F108" t="n">
-        <v>1.462890427761125</v>
+        <v>1.46289042811864</v>
       </c>
       <c r="G108" t="n">
-        <v>0.9173121101338609</v>
+        <v>0.9173121100933811</v>
       </c>
       <c r="H108" t="n">
-        <v>0.292578085552225</v>
+        <v>0.2925780856237281</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.930194999999999</v>
+        <v>4.234971617897036</v>
       </c>
       <c r="B109" t="n">
-        <v>50871484937890.56</v>
+        <v>5.810606147302193e-05</v>
       </c>
       <c r="C109" t="n">
-        <v>2963690021797.594</v>
+        <v>3.385164677703293e-06</v>
       </c>
       <c r="D109" t="n">
-        <v>1335790561431.307</v>
+        <v>1.525757081443692e-06</v>
       </c>
       <c r="E109" t="n">
-        <v>2165101830205.156</v>
+        <v>2.473007031524231e-06</v>
       </c>
       <c r="F109" t="n">
-        <v>3.642829725340061</v>
+        <v>3.642829744063731</v>
       </c>
       <c r="G109" t="n">
-        <v>0.601894286965396</v>
+        <v>0.6018942841644311</v>
       </c>
       <c r="H109" t="n">
-        <v>0.7285659450680122</v>
+        <v>0.7285659488127462</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.936923</v>
+        <v>4.24071342938699</v>
       </c>
       <c r="B110" t="n">
-        <v>49051691731195.24</v>
+        <v>5.602747035863335e-05</v>
       </c>
       <c r="C110" t="n">
-        <v>2996067436319.906</v>
+        <v>3.422146565671643e-06</v>
       </c>
       <c r="D110" t="n">
-        <v>1199081144764.366</v>
+        <v>1.369605836597042e-06</v>
       </c>
       <c r="E110" t="n">
-        <v>1977868195133.396</v>
+        <v>2.259146376163246e-06</v>
       </c>
       <c r="F110" t="n">
-        <v>4.4326745000656</v>
+        <v>4.432674484256346</v>
       </c>
       <c r="G110" t="n">
-        <v>0.4889415754146976</v>
+        <v>0.4889415775534275</v>
       </c>
       <c r="H110" t="n">
-        <v>0.88653490001312</v>
+        <v>0.8865348968512692</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.946745</v>
+        <v>4.249111899924536</v>
       </c>
       <c r="B111" t="n">
-        <v>50579940532612.28</v>
+        <v>5.777305570673578e-05</v>
       </c>
       <c r="C111" t="n">
-        <v>2632348454809.258</v>
+        <v>3.006702093006879e-06</v>
       </c>
       <c r="D111" t="n">
-        <v>1242799729832.391</v>
+        <v>1.419541764732915e-06</v>
       </c>
       <c r="E111" t="n">
-        <v>2028106874901.397</v>
+        <v>2.316529640104723e-06</v>
       </c>
       <c r="F111" t="n">
-        <v>6.788701823737657</v>
+        <v>6.788701907761042</v>
       </c>
       <c r="G111" t="n">
-        <v>0.2368350597242417</v>
+        <v>0.2368350530910701</v>
       </c>
       <c r="H111" t="n">
-        <v>1.357740364747531</v>
+        <v>1.357740381552208</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.950269</v>
+        <v>4.2521970523669</v>
       </c>
       <c r="B112" t="n">
-        <v>51261533842994.17</v>
+        <v>5.855158032652693e-05</v>
       </c>
       <c r="C112" t="n">
-        <v>5922585182637.023</v>
+        <v>6.76485259321786e-06</v>
       </c>
       <c r="D112" t="n">
-        <v>1340188510555.382</v>
+        <v>1.530780477638473e-06</v>
       </c>
       <c r="E112" t="n">
-        <v>2226151274273.163</v>
+        <v>2.542738490731484e-06</v>
       </c>
       <c r="F112" t="n">
-        <v>6.992009287690754</v>
+        <v>6.992009285045632</v>
       </c>
       <c r="G112" t="n">
-        <v>0.2212352660516197</v>
+        <v>0.2212352662487902</v>
       </c>
       <c r="H112" t="n">
-        <v>1.398401857538151</v>
+        <v>1.398401857009126</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.956763</v>
+        <v>4.257767466498946</v>
       </c>
       <c r="B113" t="n">
-        <v>54228721847726.19</v>
+        <v>6.194074044461578e-05</v>
       </c>
       <c r="C113" t="n">
-        <v>4042211750560.211</v>
+        <v>4.617066001778919e-06</v>
       </c>
       <c r="D113" t="n">
-        <v>1330053619182.962</v>
+        <v>1.519204272915456e-06</v>
       </c>
       <c r="E113" t="n">
-        <v>2190087697932.69</v>
+        <v>2.501546209282411e-06</v>
       </c>
       <c r="F113" t="n">
-        <v>1.536196233879171</v>
+        <v>1.536196230902917</v>
       </c>
       <c r="G113" t="n">
-        <v>0.9088553601509314</v>
+        <v>0.9088553605005125</v>
       </c>
       <c r="H113" t="n">
-        <v>0.3072392467758342</v>
+        <v>0.3072392461805835</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.961869</v>
+        <v>4.262138099125628</v>
       </c>
       <c r="B114" t="n">
-        <v>56645825495614.77</v>
+        <v>6.470158718274529e-05</v>
       </c>
       <c r="C114" t="n">
-        <v>6397482150667.68</v>
+        <v>7.307286029638149e-06</v>
       </c>
       <c r="D114" t="n">
-        <v>1365120604736.154</v>
+        <v>1.559258232883928e-06</v>
       </c>
       <c r="E114" t="n">
-        <v>2277719617509.187</v>
+        <v>2.601640509914382e-06</v>
       </c>
       <c r="F114" t="n">
-        <v>2.34441616480321</v>
+        <v>2.344416164903196</v>
       </c>
       <c r="G114" t="n">
-        <v>0.7997218447652135</v>
+        <v>0.7997218447504327</v>
       </c>
       <c r="H114" t="n">
-        <v>0.468883232960642</v>
+        <v>0.4688832329806392</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.964748</v>
+        <v>4.264537662136355</v>
       </c>
       <c r="B115" t="n">
-        <v>60610863646889.85</v>
+        <v>6.92305045247905e-05</v>
       </c>
       <c r="C115" t="n">
-        <v>5360120139983.938</v>
+        <v>6.122397875352904e-06</v>
       </c>
       <c r="D115" t="n">
-        <v>1473003426797.689</v>
+        <v>1.68248337466381e-06</v>
       </c>
       <c r="E115" t="n">
-        <v>2436953878967.725</v>
+        <v>2.783519923581229e-06</v>
       </c>
       <c r="F115" t="n">
-        <v>1.91190488274993</v>
+        <v>1.911904875819703</v>
       </c>
       <c r="G115" t="n">
-        <v>0.8611954884307483</v>
+        <v>0.8611954893673842</v>
       </c>
       <c r="H115" t="n">
-        <v>0.3823809765499859</v>
+        <v>0.3823809751639406</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.967875</v>
+        <v>4.267280019862901</v>
       </c>
       <c r="B116" t="n">
-        <v>61338514610083.46</v>
+        <v>7.006163676854541e-05</v>
       </c>
       <c r="C116" t="n">
-        <v>7547631746309.508</v>
+        <v>8.621001613836524e-06</v>
       </c>
       <c r="D116" t="n">
-        <v>1492311653765.494</v>
+        <v>1.704537477790539e-06</v>
       </c>
       <c r="E116" t="n">
-        <v>2502157415813.359</v>
+        <v>2.857996236990344e-06</v>
       </c>
       <c r="F116" t="n">
-        <v>3.218444037176723</v>
+        <v>3.218444047387574</v>
       </c>
       <c r="G116" t="n">
-        <v>0.666349097778911</v>
+        <v>0.6663490962105593</v>
       </c>
       <c r="H116" t="n">
-        <v>0.6436888074353446</v>
+        <v>0.6436888094775148</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.970043</v>
+        <v>4.269079692120946</v>
       </c>
       <c r="B117" t="n">
-        <v>62700996980712.61</v>
+        <v>7.161788159522128e-05</v>
       </c>
       <c r="C117" t="n">
-        <v>8508917823058.992</v>
+        <v>9.718994882582551e-06</v>
       </c>
       <c r="D117" t="n">
-        <v>1602965076848.508</v>
+        <v>1.830927234621136e-06</v>
       </c>
       <c r="E117" t="n">
-        <v>2676334222309.126</v>
+        <v>3.056943216042145e-06</v>
       </c>
       <c r="F117" t="n">
-        <v>6.614303437817015</v>
+        <v>6.614303428263419</v>
       </c>
       <c r="G117" t="n">
-        <v>0.2509409448759434</v>
+        <v>0.2509409456673584</v>
       </c>
       <c r="H117" t="n">
-        <v>1.322860687563403</v>
+        <v>1.322860685652684</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.9728</v>
+        <v>4.271479255131674</v>
       </c>
       <c r="B118" t="n">
-        <v>61387244396399.65</v>
+        <v>7.011729656340897e-05</v>
       </c>
       <c r="C118" t="n">
-        <v>8265354339021.82</v>
+        <v>9.440793539555509e-06</v>
       </c>
       <c r="D118" t="n">
-        <v>1432644694393.257</v>
+        <v>1.63638511351152e-06</v>
       </c>
       <c r="E118" t="n">
-        <v>2432494147953.408</v>
+        <v>2.778425961680698e-06</v>
       </c>
       <c r="F118" t="n">
-        <v>3.646419950523414</v>
+        <v>3.646419926908077</v>
       </c>
       <c r="G118" t="n">
-        <v>0.6013572928909166</v>
+        <v>0.6013572964225283</v>
       </c>
       <c r="H118" t="n">
-        <v>0.7292839901046829</v>
+        <v>0.7292839853816154</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.974629</v>
+        <v>4.273021831352856</v>
       </c>
       <c r="B119" t="n">
-        <v>60824096316198.96</v>
+        <v>6.947406160178066e-05</v>
       </c>
       <c r="C119" t="n">
-        <v>8390872545583.641</v>
+        <v>9.584162059666192e-06</v>
       </c>
       <c r="D119" t="n">
-        <v>1487654185354.793</v>
+        <v>1.699217657240631e-06</v>
       </c>
       <c r="E119" t="n">
-        <v>2480275495494.068</v>
+        <v>2.833002427791881e-06</v>
       </c>
       <c r="F119" t="n">
-        <v>2.880244022151558</v>
+        <v>2.88024401487427</v>
       </c>
       <c r="G119" t="n">
-        <v>0.7184423487722077</v>
+        <v>0.7184423498928453</v>
       </c>
       <c r="H119" t="n">
-        <v>0.5760488044303116</v>
+        <v>0.5760488029748541</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.984706</v>
+        <v>4.281677397927266</v>
       </c>
       <c r="B120" t="n">
-        <v>50898786496152.97</v>
+        <v>5.813724566647584e-05</v>
       </c>
       <c r="C120" t="n">
-        <v>6026961208598.648</v>
+        <v>6.88407224727895e-06</v>
       </c>
       <c r="D120" t="n">
-        <v>1251779264059.334</v>
+        <v>1.429798303117264e-06</v>
       </c>
       <c r="E120" t="n">
-        <v>2096397212741.497</v>
+        <v>2.394531738843634e-06</v>
       </c>
       <c r="F120" t="n">
-        <v>2.193699908018291</v>
+        <v>2.193699916751732</v>
       </c>
       <c r="G120" t="n">
-        <v>0.8217454555719004</v>
+        <v>0.821745454311861</v>
       </c>
       <c r="H120" t="n">
-        <v>0.4387399816036582</v>
+        <v>0.4387399833503464</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.990074</v>
+        <v>4.286305126590811</v>
       </c>
       <c r="B121" t="n">
-        <v>49646721886452.3</v>
+        <v>5.670712142679334e-05</v>
       </c>
       <c r="C121" t="n">
-        <v>8116088845306.57</v>
+        <v>9.270300595437848e-06</v>
       </c>
       <c r="D121" t="n">
-        <v>1313819793459.478</v>
+        <v>1.500661791029241e-06</v>
       </c>
       <c r="E121" t="n">
-        <v>2199142032455.385</v>
+        <v>2.511888187700011e-06</v>
       </c>
       <c r="F121" t="n">
-        <v>6.16402978290853</v>
+        <v>6.164029768455164</v>
       </c>
       <c r="G121" t="n">
-        <v>0.2905837884624535</v>
+        <v>0.2905837898115802</v>
       </c>
       <c r="H121" t="n">
-        <v>1.232805956581706</v>
+        <v>1.232805953691033</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.994669</v>
+        <v>4.29024726582272</v>
       </c>
       <c r="B122" t="n">
-        <v>39802470901416.46</v>
+        <v>4.546289190480585e-05</v>
       </c>
       <c r="C122" t="n">
-        <v>5124485202550.039</v>
+        <v>5.853252605100055e-06</v>
       </c>
       <c r="D122" t="n">
-        <v>1001644856446.487</v>
+        <v>1.144091580723421e-06</v>
       </c>
       <c r="E122" t="n">
-        <v>1682772202479.971</v>
+        <v>1.92208395630283e-06</v>
       </c>
       <c r="F122" t="n">
-        <v>5.56943735091785</v>
+        <v>5.569437243311738</v>
       </c>
       <c r="G122" t="n">
-        <v>0.350391885835112</v>
+        <v>0.3503918974483886</v>
       </c>
       <c r="H122" t="n">
-        <v>1.11388747018357</v>
+        <v>1.113887448662348</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>5.004642</v>
+        <v>4.298731435039221</v>
       </c>
       <c r="B123" t="n">
-        <v>31771009334523.43</v>
+        <v>3.628925365918557e-05</v>
       </c>
       <c r="C123" t="n">
-        <v>3223340006935.113</v>
+        <v>3.681740270928647e-06</v>
       </c>
       <c r="D123" t="n">
-        <v>803450580526.6082</v>
+        <v>9.177115413707351e-07</v>
       </c>
       <c r="E123" t="n">
-        <v>1325478920227.217</v>
+        <v>1.513978995401896e-06</v>
       </c>
       <c r="F123" t="n">
-        <v>0.4413913314354956</v>
+        <v>0.4413913409226783</v>
       </c>
       <c r="G123" t="n">
-        <v>0.9941124940559775</v>
+        <v>0.9941124937592793</v>
       </c>
       <c r="H123" t="n">
-        <v>0.08827826628709912</v>
+        <v>0.08827826818453567</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>5.00999</v>
+        <v>4.303359163702766</v>
       </c>
       <c r="B124" t="n">
-        <v>33895650382230.07</v>
+        <v>3.871604586021887e-05</v>
       </c>
       <c r="C124" t="n">
-        <v>4546350387693.551</v>
+        <v>5.192899620293184e-06</v>
       </c>
       <c r="D124" t="n">
-        <v>981758513213.701</v>
+        <v>1.12137714409305e-06</v>
       </c>
       <c r="E124" t="n">
-        <v>1630314753668.587</v>
+        <v>1.862166386729179e-06</v>
       </c>
       <c r="F124" t="n">
-        <v>2.861742280023328</v>
+        <v>2.861742220815518</v>
       </c>
       <c r="G124" t="n">
-        <v>0.7212908755321258</v>
+        <v>0.7212908846458135</v>
       </c>
       <c r="H124" t="n">
-        <v>0.5723484560046656</v>
+        <v>0.5723484441631037</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>5.014843</v>
+        <v>4.307472700292585</v>
       </c>
       <c r="B125" t="n">
-        <v>42890184303774.22</v>
+        <v>4.898971767431222e-05</v>
       </c>
       <c r="C125" t="n">
-        <v>7999230949649.348</v>
+        <v>9.136824071434309e-06</v>
       </c>
       <c r="D125" t="n">
-        <v>1090100948278.026</v>
+        <v>1.24512726016e-06</v>
       </c>
       <c r="E125" t="n">
-        <v>1858427552234.602</v>
+        <v>2.122719745840838e-06</v>
       </c>
       <c r="F125" t="n">
-        <v>3.251398714963087</v>
+        <v>3.251398685078564</v>
       </c>
       <c r="G125" t="n">
-        <v>0.6612903336210184</v>
+        <v>0.6612903382056899</v>
       </c>
       <c r="H125" t="n">
-        <v>0.6502797429926174</v>
+        <v>0.6502797370157127</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>5.017737</v>
+        <v>4.309957961982268</v>
       </c>
       <c r="B126" t="n">
-        <v>58424705866325.34</v>
+        <v>6.673344711708668e-05</v>
       </c>
       <c r="C126" t="n">
-        <v>9031883795151.555</v>
+        <v>1.031633331970265e-05</v>
       </c>
       <c r="D126" t="n">
-        <v>1428537783547.294</v>
+        <v>1.631694147453583e-06</v>
       </c>
       <c r="E126" t="n">
-        <v>2420312377647.21</v>
+        <v>2.764511787689951e-06</v>
       </c>
       <c r="F126" t="n">
-        <v>2.361678989898891</v>
+        <v>2.361679018174728</v>
       </c>
       <c r="G126" t="n">
-        <v>0.797166864229875</v>
+        <v>0.7971668600399764</v>
       </c>
       <c r="H126" t="n">
-        <v>0.4723357979797781</v>
+        <v>0.4723358036349456</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>5.017861</v>
+        <v>4.310129359340176</v>
       </c>
       <c r="B127" t="n">
-        <v>56129876639444.1</v>
+        <v>6.411226379950111e-05</v>
       </c>
       <c r="C127" t="n">
-        <v>7066825912381.781</v>
+        <v>8.071819054358961e-06</v>
       </c>
       <c r="D127" t="n">
-        <v>1374990860416.603</v>
+        <v>1.570532166183078e-06</v>
       </c>
       <c r="E127" t="n">
-        <v>2281388863072.946</v>
+        <v>2.605831569441462e-06</v>
       </c>
       <c r="F127" t="n">
-        <v>0.0452073497417606</v>
+        <v>0.04520735054471079</v>
       </c>
       <c r="G127" t="n">
-        <v>0.9999772561194989</v>
+        <v>0.9999772561184955</v>
       </c>
       <c r="H127" t="n">
-        <v>0.009041469948352119</v>
+        <v>0.009041470108942158</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>5.019822</v>
+        <v>4.311757634240313</v>
       </c>
       <c r="B128" t="n">
-        <v>90746965815684.03</v>
+        <v>0.0001036523462887526</v>
       </c>
       <c r="C128" t="n">
-        <v>16825177718614.27</v>
+        <v>1.921793319582663e-05</v>
       </c>
       <c r="D128" t="n">
-        <v>2185706541637.153</v>
+        <v>2.496541998436673e-06</v>
       </c>
       <c r="E128" t="n">
-        <v>3713230015859.363</v>
+        <v>4.241298868848015e-06</v>
       </c>
       <c r="F128" t="n">
-        <v>0.4038063009935214</v>
+        <v>0.4038062801137275</v>
       </c>
       <c r="G128" t="n">
-        <v>0.9952241054445042</v>
+        <v>0.9952241060267271</v>
       </c>
       <c r="H128" t="n">
-        <v>0.08076126019870429</v>
+        <v>0.0807612560227455</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>5.024805000000001</v>
+        <v>4.31604256818804</v>
       </c>
       <c r="B129" t="n">
-        <v>166439332529557.9</v>
+        <v>0.0001901091368968006</v>
       </c>
       <c r="C129" t="n">
-        <v>25665377536661.66</v>
+        <v>2.931532274944787e-05</v>
       </c>
       <c r="D129" t="n">
-        <v>4029464460254.971</v>
+        <v>4.602505897270592e-06</v>
       </c>
       <c r="E129" t="n">
-        <v>6699344710248.915</v>
+        <v>7.652077305733521e-06</v>
       </c>
       <c r="F129" t="n">
-        <v>1.121148669653429</v>
+        <v>1.121148589308058</v>
       </c>
       <c r="G129" t="n">
-        <v>0.9522146794351907</v>
+        <v>0.9522146866760502</v>
       </c>
       <c r="H129" t="n">
-        <v>0.2242297339306857</v>
+        <v>0.2242297178616117</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>5.027826</v>
+        <v>4.318613528556677</v>
       </c>
       <c r="B130" t="n">
-        <v>181929289209171</v>
+        <v>0.0002078019637912005</v>
       </c>
       <c r="C130" t="n">
-        <v>28944384669528.61</v>
+        <v>3.306064685906581e-05</v>
       </c>
       <c r="D130" t="n">
-        <v>4479703669483.362</v>
+        <v>5.116774887707655e-06</v>
       </c>
       <c r="E130" t="n">
-        <v>7437310971256.029</v>
+        <v>8.494991825077153e-06</v>
       </c>
       <c r="F130" t="n">
-        <v>1.322999970807511</v>
+        <v>1.322999960388105</v>
       </c>
       <c r="G130" t="n">
-        <v>0.9325472986758734</v>
+        <v>0.9325472997640158</v>
       </c>
       <c r="H130" t="n">
-        <v>0.2645999941615022</v>
+        <v>0.2645999920776211</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>5.030101</v>
+        <v>4.320584598172632</v>
       </c>
       <c r="B131" t="n">
-        <v>192974771297009.9</v>
+        <v>0.0002204182546527018</v>
       </c>
       <c r="C131" t="n">
-        <v>32685214592149.88</v>
+        <v>3.733347053793499e-05</v>
       </c>
       <c r="D131" t="n">
-        <v>4873167076057.271</v>
+        <v>5.56619383204193e-06</v>
       </c>
       <c r="E131" t="n">
-        <v>8270708061016.843</v>
+        <v>9.446908640096138e-06</v>
       </c>
       <c r="F131" t="n">
-        <v>4.830588804130433</v>
+        <v>4.830588942140014</v>
       </c>
       <c r="G131" t="n">
-        <v>0.4369034472553008</v>
+        <v>0.4369034298472917</v>
       </c>
       <c r="H131" t="n">
-        <v>0.9661177608260866</v>
+        <v>0.9661177884280028</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>5.032781</v>
+        <v>4.322898462504404</v>
       </c>
       <c r="B132" t="n">
-        <v>219328851721927.4</v>
+        <v>0.0002505202228355619</v>
       </c>
       <c r="C132" t="n">
-        <v>41917554022450.62</v>
+        <v>4.787876698730093e-05</v>
       </c>
       <c r="D132" t="n">
-        <v>5197386515087.956</v>
+        <v>5.936521420712462e-06</v>
       </c>
       <c r="E132" t="n">
-        <v>8876313729621.266</v>
+        <v>1.013863919946886e-05</v>
       </c>
       <c r="F132" t="n">
-        <v>0.5587567898754622</v>
+        <v>0.558756769101684</v>
       </c>
       <c r="G132" t="n">
-        <v>0.9898136283696192</v>
+        <v>0.9898136292422006</v>
       </c>
       <c r="H132" t="n">
-        <v>0.1117513579750924</v>
+        <v>0.1117513538203368</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>5.035899</v>
+        <v>4.325555121551995</v>
       </c>
       <c r="B133" t="n">
-        <v>249983881629083.8</v>
+        <v>0.0002855347904801552</v>
       </c>
       <c r="C133" t="n">
-        <v>41855143306140.31</v>
+        <v>4.780748072867022e-05</v>
       </c>
       <c r="D133" t="n">
-        <v>5822326157006.682</v>
+        <v>6.650335479268405e-06</v>
       </c>
       <c r="E133" t="n">
-        <v>9836579992928.967</v>
+        <v>1.123546760947079e-05</v>
       </c>
       <c r="F133" t="n">
-        <v>0.3312593170316466</v>
+        <v>0.3312593127508917</v>
       </c>
       <c r="G133" t="n">
-        <v>0.9970135069936047</v>
+        <v>0.9970135070855711</v>
       </c>
       <c r="H133" t="n">
-        <v>0.06625186340632931</v>
+        <v>0.06625186255017834</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>5.038705999999999</v>
+        <v>4.327954684562723</v>
       </c>
       <c r="B134" t="n">
-        <v>262671616831190.8</v>
+        <v>0.0003000268841471748</v>
       </c>
       <c r="C134" t="n">
-        <v>47830069359254.53</v>
+        <v>5.463211742550456e-05</v>
       </c>
       <c r="D134" t="n">
-        <v>6084753239515.896</v>
+        <v>6.950083063292869e-06</v>
       </c>
       <c r="E134" t="n">
-        <v>10327544372813.48</v>
+        <v>1.179625342140341e-05</v>
       </c>
       <c r="F134" t="n">
-        <v>0.4029772814185655</v>
+        <v>0.4029772760305148</v>
       </c>
       <c r="G134" t="n">
-        <v>0.9952471914492497</v>
+        <v>0.9952471915990925</v>
       </c>
       <c r="H134" t="n">
-        <v>0.08059545628371309</v>
+        <v>0.08059545520610295</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>5.041981</v>
+        <v>4.330782740968223</v>
       </c>
       <c r="B135" t="n">
-        <v>254628858165165.6</v>
+        <v>0.0002908403422234676</v>
       </c>
       <c r="C135" t="n">
-        <v>53844535966904.08</v>
+        <v>6.150191845736137e-05</v>
       </c>
       <c r="D135" t="n">
-        <v>6058531705195.676</v>
+        <v>6.920132496047446e-06</v>
       </c>
       <c r="E135" t="n">
-        <v>10397272578383.63</v>
+        <v>1.18758978638572e-05</v>
       </c>
       <c r="F135" t="n">
-        <v>0.3149118817240775</v>
+        <v>0.3149118702086025</v>
       </c>
       <c r="G135" t="n">
-        <v>0.9973531879483786</v>
+        <v>0.9973531881795702</v>
       </c>
       <c r="H135" t="n">
-        <v>0.06298237634481549</v>
+        <v>0.0629823740417205</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>5.044789</v>
+        <v>4.33318230397895</v>
       </c>
       <c r="B136" t="n">
-        <v>231720781454689.9</v>
+        <v>0.000264674443616496</v>
       </c>
       <c r="C136" t="n">
-        <v>44634451200508.28</v>
+        <v>5.098204165834754e-05</v>
       </c>
       <c r="D136" t="n">
-        <v>5490565536739.148</v>
+        <v>6.271394268875245e-06</v>
       </c>
       <c r="E136" t="n">
-        <v>9339467567398.844</v>
+        <v>1.06676594652485e-05</v>
       </c>
       <c r="F136" t="n">
-        <v>0.2814819745089772</v>
+        <v>0.2814819633285142</v>
       </c>
       <c r="G136" t="n">
-        <v>0.9979769228022597</v>
+        <v>0.9979769229951461</v>
       </c>
       <c r="H136" t="n">
-        <v>0.05629639490179543</v>
+        <v>0.05629639266570283</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>5.049971</v>
+        <v>4.337638635284587</v>
       </c>
       <c r="B137" t="n">
-        <v>185878321518052.6</v>
+        <v>0.0002123125987158059</v>
       </c>
       <c r="C137" t="n">
-        <v>44837525824270.61</v>
+        <v>5.121399609029877e-05</v>
       </c>
       <c r="D137" t="n">
-        <v>4545136227209.901</v>
+        <v>5.191512797099136e-06</v>
       </c>
       <c r="E137" t="n">
-        <v>7851509005584.083</v>
+        <v>8.968094106441038e-06</v>
       </c>
       <c r="F137" t="n">
-        <v>1.495191375655282</v>
+        <v>1.495191439928213</v>
       </c>
       <c r="G137" t="n">
-        <v>0.9136240605693073</v>
+        <v>0.9136240531700962</v>
       </c>
       <c r="H137" t="n">
-        <v>0.2990382751310564</v>
+        <v>0.2990382879856427</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>5.054843</v>
+        <v>4.341752171874406</v>
       </c>
       <c r="B138" t="n">
-        <v>130773533185386.2</v>
+        <v>0.0001493712041460198</v>
       </c>
       <c r="C138" t="n">
-        <v>33499216945026.75</v>
+        <v>3.826323445172893e-05</v>
       </c>
       <c r="D138" t="n">
-        <v>3181922893590.85</v>
+        <v>3.634433069314775e-06</v>
       </c>
       <c r="E138" t="n">
-        <v>5438446862901.51</v>
+        <v>6.211863639643075e-06</v>
       </c>
       <c r="F138" t="n">
-        <v>2.266598862745994</v>
+        <v>2.266598801660772</v>
       </c>
       <c r="G138" t="n">
-        <v>0.8111598886909187</v>
+        <v>0.811159897615776</v>
       </c>
       <c r="H138" t="n">
-        <v>0.4533197725491989</v>
+        <v>0.4533197603321543</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>5.064876</v>
+        <v>4.350407738448815</v>
       </c>
       <c r="B139" t="n">
-        <v>89072450746098.67</v>
+        <v>0.0001017396938215572</v>
       </c>
       <c r="C139" t="n">
-        <v>18213278529591.07</v>
+        <v>2.080344025884657e-05</v>
       </c>
       <c r="D139" t="n">
-        <v>2278334653899.169</v>
+        <v>2.602343014159219e-06</v>
       </c>
       <c r="E139" t="n">
-        <v>3836142515521.021</v>
+        <v>4.38169110007668e-06</v>
       </c>
       <c r="F139" t="n">
-        <v>0.8050954738764852</v>
+        <v>0.8050954657402865</v>
       </c>
       <c r="G139" t="n">
-        <v>0.9767072004565027</v>
+        <v>0.976707200979088</v>
       </c>
       <c r="H139" t="n">
-        <v>0.161019094775297</v>
+        <v>0.1610190931480573</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>5.069912</v>
+        <v>4.354692672396543</v>
       </c>
       <c r="B140" t="n">
-        <v>73055157639811.09</v>
+        <v>8.344453646032183e-05</v>
       </c>
       <c r="C140" t="n">
-        <v>16811370729917.73</v>
+        <v>1.920216291132836e-05</v>
       </c>
       <c r="D140" t="n">
-        <v>2030237534076.251</v>
+        <v>2.318963306924233e-06</v>
       </c>
       <c r="E140" t="n">
-        <v>3490903614066.696</v>
+        <v>3.987354805653653e-06</v>
       </c>
       <c r="F140" t="n">
-        <v>3.065744741958642</v>
+        <v>3.065744805093187</v>
       </c>
       <c r="G140" t="n">
-        <v>0.6898504936423884</v>
+        <v>0.6898504839117385</v>
       </c>
       <c r="H140" t="n">
-        <v>0.6131489483917284</v>
+        <v>0.6131489610186375</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>5.074481</v>
+        <v>4.358634811628452</v>
       </c>
       <c r="B141" t="n">
-        <v>59136319613410.65</v>
+        <v>6.754626145199865e-05</v>
       </c>
       <c r="C141" t="n">
-        <v>13027426152666.23</v>
+        <v>1.488009295012056e-05</v>
       </c>
       <c r="D141" t="n">
-        <v>1548840510744.337</v>
+        <v>1.769105463143267e-06</v>
       </c>
       <c r="E141" t="n">
-        <v>2622552065408.32</v>
+        <v>2.995512548710132e-06</v>
       </c>
       <c r="F141" t="n">
-        <v>1.156226334068071</v>
+        <v>1.156226335700942</v>
       </c>
       <c r="G141" t="n">
-        <v>0.9490072834836647</v>
+        <v>0.9490072833322272</v>
       </c>
       <c r="H141" t="n">
-        <v>0.2312452668136142</v>
+        <v>0.2312452671401885</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>5.084189</v>
+        <v>4.366947583487043</v>
       </c>
       <c r="B142" t="n">
-        <v>50028298557156.62</v>
+        <v>5.714296318322652e-05</v>
       </c>
       <c r="C142" t="n">
-        <v>12230346449278.03</v>
+        <v>1.396965831127318e-05</v>
       </c>
       <c r="D142" t="n">
-        <v>1407744699465.693</v>
+        <v>1.607944020267939e-06</v>
       </c>
       <c r="E142" t="n">
-        <v>2384478712633.852</v>
+        <v>2.723582115591985e-06</v>
       </c>
       <c r="F142" t="n">
-        <v>2.821307310664016</v>
+        <v>2.821307312359351</v>
       </c>
       <c r="G142" t="n">
-        <v>0.7275115627014699</v>
+        <v>0.7275115624408062</v>
       </c>
       <c r="H142" t="n">
-        <v>0.5642614621328031</v>
+        <v>0.5642614624718701</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>5.089986</v>
+        <v>4.371918106866407</v>
       </c>
       <c r="B143" t="n">
-        <v>55901962367259.26</v>
+        <v>6.385193717309378e-05</v>
       </c>
       <c r="C143" t="n">
-        <v>12408890489512.25</v>
+        <v>1.417359361882036e-05</v>
       </c>
       <c r="D143" t="n">
-        <v>1591998037232.085</v>
+        <v>1.818400542550093e-06</v>
       </c>
       <c r="E143" t="n">
-        <v>2698047227083.311</v>
+        <v>3.081744088358606e-06</v>
       </c>
       <c r="F143" t="n">
-        <v>1.990016444673186</v>
+        <v>1.990016447212049</v>
       </c>
       <c r="G143" t="n">
-        <v>0.8505247211988215</v>
+        <v>0.8505247208484034</v>
       </c>
       <c r="H143" t="n">
-        <v>0.3980032889346372</v>
+        <v>0.3980032894424099</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>5.093717</v>
+        <v>4.375088957987725</v>
       </c>
       <c r="B144" t="n">
-        <v>207318066184463.9</v>
+        <v>0.0002368013496420959</v>
       </c>
       <c r="C144" t="n">
-        <v>49888781460811</v>
+        <v>5.698360508250916e-05</v>
       </c>
       <c r="D144" t="n">
-        <v>5136640568379.24</v>
+        <v>5.867136622751802e-06</v>
       </c>
       <c r="E144" t="n">
-        <v>8776544889554.818</v>
+        <v>1.002468194762988e-05</v>
       </c>
       <c r="F144" t="n">
-        <v>1.49524359512776</v>
+        <v>1.495243612627519</v>
       </c>
       <c r="G144" t="n">
-        <v>0.9136180488943556</v>
+        <v>0.9136180468797002</v>
       </c>
       <c r="H144" t="n">
-        <v>0.299048719025552</v>
+        <v>0.2990487225255037</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>5.09676</v>
+        <v>4.377745617035317</v>
       </c>
       <c r="B145" t="n">
-        <v>395696687424619.1</v>
+        <v>0.0004519698227656953</v>
       </c>
       <c r="C145" t="n">
-        <v>98765300485652.44</v>
+        <v>0.0001128109911087883</v>
       </c>
       <c r="D145" t="n">
-        <v>8674654341940.716</v>
+        <v>9.908301257504954e-06</v>
       </c>
       <c r="E145" t="n">
-        <v>15310822266348.38</v>
+        <v>1.748821723107181e-05</v>
       </c>
       <c r="F145" t="n">
-        <v>1.722373549425866</v>
+        <v>1.722373557977851</v>
       </c>
       <c r="G145" t="n">
-        <v>0.8860691042448391</v>
+        <v>0.8860691031583182</v>
       </c>
       <c r="H145" t="n">
-        <v>0.3444747098851731</v>
+        <v>0.3444747115955701</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>5.098893</v>
+        <v>4.379545289293363</v>
       </c>
       <c r="B146" t="n">
-        <v>439697189046057.9</v>
+        <v>0.0005022277593418847</v>
       </c>
       <c r="C146" t="n">
-        <v>112086546611909.1</v>
+        <v>0.0001280266885218092</v>
       </c>
       <c r="D146" t="n">
-        <v>9866685921228.979</v>
+        <v>1.126985499041122e-05</v>
       </c>
       <c r="E146" t="n">
-        <v>17376061846378.39</v>
+        <v>1.984716032341148e-05</v>
       </c>
       <c r="F146" t="n">
-        <v>1.052572754807565</v>
+        <v>1.052572734250026</v>
       </c>
       <c r="G146" t="n">
-        <v>0.9582149428278764</v>
+        <v>0.9582149445719903</v>
       </c>
       <c r="H146" t="n">
-        <v>0.210514550961513</v>
+        <v>0.2105145468500053</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>5.099991</v>
+        <v>4.380487974761863</v>
       </c>
       <c r="B147" t="n">
-        <v>461602310806570.9</v>
+        <v>0.0005272480697431566</v>
       </c>
       <c r="C147" t="n">
-        <v>113056415552080.1</v>
+        <v>0.0001291344856643421</v>
       </c>
       <c r="D147" t="n">
-        <v>10511922367844.1</v>
+        <v>1.200685232057453e-05</v>
       </c>
       <c r="E147" t="n">
-        <v>18320769729992.78</v>
+        <v>2.092621774835373e-05</v>
       </c>
       <c r="F147" t="n">
-        <v>0.5886868864913879</v>
+        <v>0.588686867231293</v>
       </c>
       <c r="G147" t="n">
-        <v>0.9885153569513607</v>
+        <v>0.9885153578132313</v>
       </c>
       <c r="H147" t="n">
-        <v>0.1177373772982776</v>
+        <v>0.1177373734462586</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>5.100430999999999</v>
+        <v>4.380830769477681</v>
       </c>
       <c r="B148" t="n">
-        <v>452177941114396.9</v>
+        <v>0.0005164834340261558</v>
       </c>
       <c r="C148" t="n">
-        <v>112511334309678.2</v>
+        <v>0.0001285118866173652</v>
       </c>
       <c r="D148" t="n">
-        <v>10283256103095.76</v>
+        <v>1.174566678670212e-05</v>
       </c>
       <c r="E148" t="n">
-        <v>17949424994265.11</v>
+        <v>2.050206305974775e-05</v>
       </c>
       <c r="F148" t="n">
-        <v>1.151689712082564</v>
+        <v>1.151689739381607</v>
       </c>
       <c r="G148" t="n">
-        <v>0.9494272623516583</v>
+        <v>0.9494272598290301</v>
       </c>
       <c r="H148" t="n">
-        <v>0.2303379424165128</v>
+        <v>0.2303379478763214</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>5.100713</v>
+        <v>4.381087865514544</v>
       </c>
       <c r="B149" t="n">
-        <v>451116156872535.8</v>
+        <v>0.0005152706506016663</v>
       </c>
       <c r="C149" t="n">
-        <v>102983848813500.3</v>
+        <v>0.0001176294706052955</v>
       </c>
       <c r="D149" t="n">
-        <v>10268735778770.27</v>
+        <v>1.172908149702587e-05</v>
       </c>
       <c r="E149" t="n">
-        <v>17803822881114.64</v>
+        <v>2.033575445541159e-05</v>
       </c>
       <c r="F149" t="n">
-        <v>0.682092573327106</v>
+        <v>0.6820925416863549</v>
       </c>
       <c r="G149" t="n">
-        <v>0.9839370018126449</v>
+        <v>0.9839370034979791</v>
       </c>
       <c r="H149" t="n">
-        <v>0.1364185146654212</v>
+        <v>0.136418508337271</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>5.102879</v>
+        <v>4.382973236451544</v>
       </c>
       <c r="B150" t="n">
-        <v>557167354302830.9</v>
+        <v>0.0006364036858704872</v>
       </c>
       <c r="C150" t="n">
-        <v>136745173457121.6</v>
+        <v>0.0001561920879050293</v>
       </c>
       <c r="D150" t="n">
-        <v>12503032660365.81</v>
+        <v>1.428112399388017e-05</v>
       </c>
       <c r="E150" t="n">
-        <v>21837261824723.86</v>
+        <v>2.494280005653784e-05</v>
       </c>
       <c r="F150" t="n">
-        <v>1.041518079147773</v>
+        <v>1.041518075820125</v>
       </c>
       <c r="G150" t="n">
-        <v>0.9591480230211428</v>
+        <v>0.9591480233005667</v>
       </c>
       <c r="H150" t="n">
-        <v>0.2083036158295547</v>
+        <v>0.2083036151640249</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>5.104856</v>
+        <v>4.384687210030635</v>
       </c>
       <c r="B151" t="n">
-        <v>581917872722265.8</v>
+        <v>0.000664674045126335</v>
       </c>
       <c r="C151" t="n">
-        <v>132808960825936.9</v>
+        <v>0.0001516960959258304</v>
       </c>
       <c r="D151" t="n">
-        <v>12946489731398.96</v>
+        <v>1.478764634037258e-05</v>
       </c>
       <c r="E151" t="n">
-        <v>22455884716425.62</v>
+        <v>2.564939905171922e-05</v>
       </c>
       <c r="F151" t="n">
-        <v>1.23636813488575</v>
+        <v>1.236368135265126</v>
       </c>
       <c r="G151" t="n">
-        <v>0.9413411186481044</v>
+        <v>0.9413411186107273</v>
       </c>
       <c r="H151" t="n">
-        <v>0.24727362697715</v>
+        <v>0.2472736270530251</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>5.106897</v>
+        <v>4.386401183609727</v>
       </c>
       <c r="B152" t="n">
-        <v>582321050654377.9</v>
+        <v>0.0006651345599648112</v>
       </c>
       <c r="C152" t="n">
-        <v>128039745158022.5</v>
+        <v>0.0001462486364470924</v>
       </c>
       <c r="D152" t="n">
-        <v>13076413573336.21</v>
+        <v>1.493604701681395e-05</v>
       </c>
       <c r="E152" t="n">
-        <v>22724791148187.66</v>
+        <v>2.595654741734706e-05</v>
       </c>
       <c r="F152" t="n">
-        <v>1.478080615827023</v>
+        <v>1.478080601690089</v>
       </c>
       <c r="G152" t="n">
-        <v>0.9155853601917033</v>
+        <v>0.9155853618050589</v>
       </c>
       <c r="H152" t="n">
-        <v>0.2956161231654045</v>
+        <v>0.2956161203380178</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>5.108781</v>
+        <v>4.388029458509863</v>
       </c>
       <c r="B153" t="n">
-        <v>589672486287285.8</v>
+        <v>0.0006735314640426197</v>
       </c>
       <c r="C153" t="n">
-        <v>159556238054132.3</v>
+        <v>0.0001822471780002359</v>
       </c>
       <c r="D153" t="n">
-        <v>13000610626310.71</v>
+        <v>1.484946392237481e-05</v>
       </c>
       <c r="E153" t="n">
-        <v>23003192426723.61</v>
+        <v>2.627454093148446e-05</v>
       </c>
       <c r="F153" t="n">
-        <v>1.939120349778214</v>
+        <v>1.939120348229848</v>
       </c>
       <c r="G153" t="n">
-        <v>0.8575031625526303</v>
+        <v>0.8575031627634907</v>
       </c>
       <c r="H153" t="n">
-        <v>0.3878240699556429</v>
+        <v>0.3878240696459695</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>5.110037</v>
+        <v>4.389057842657317</v>
       </c>
       <c r="B154" t="n">
-        <v>597102964221766</v>
+        <v>0.0006820186510001175</v>
       </c>
       <c r="C154" t="n">
-        <v>146811974044880.3</v>
+        <v>0.0001676905168002503</v>
       </c>
       <c r="D154" t="n">
-        <v>13320462678638.6</v>
+        <v>1.521480302520162e-05</v>
       </c>
       <c r="E154" t="n">
-        <v>23451621540316.59</v>
+        <v>2.67867423905716e-05</v>
       </c>
       <c r="F154" t="n">
-        <v>3.67849372713684</v>
+        <v>3.678493744285603</v>
       </c>
       <c r="G154" t="n">
-        <v>0.5965676475420345</v>
+        <v>0.59656764498491</v>
       </c>
       <c r="H154" t="n">
-        <v>0.7356987454273679</v>
+        <v>0.7356987488571206</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>5.11075</v>
+        <v>4.389743432088954</v>
       </c>
       <c r="B155" t="n">
-        <v>589431298525077.5</v>
+        <v>0.0006732559761577079</v>
       </c>
       <c r="C155" t="n">
-        <v>132713634165123</v>
+        <v>0.0001515872121158431</v>
       </c>
       <c r="D155" t="n">
-        <v>13154411814679.1</v>
+        <v>1.502513760171919e-05</v>
       </c>
       <c r="E155" t="n">
-        <v>22962955627906.96</v>
+        <v>2.622858193477693e-05</v>
       </c>
       <c r="F155" t="n">
-        <v>1.533766258202407</v>
+        <v>1.533766264813907</v>
       </c>
       <c r="G155" t="n">
-        <v>0.9091406119302086</v>
+        <v>0.9091406111545431</v>
       </c>
       <c r="H155" t="n">
-        <v>0.3067532516404815</v>
+        <v>0.3067532529627814</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>5.113839</v>
+        <v>4.392314392457591</v>
       </c>
       <c r="B156" t="n">
-        <v>577979284685013.9</v>
+        <v>0.0006601753394083904</v>
       </c>
       <c r="C156" t="n">
-        <v>126870259522097.2</v>
+        <v>0.0001449128353112543</v>
       </c>
       <c r="D156" t="n">
-        <v>12774553586818.08</v>
+        <v>1.459125866928768e-05</v>
       </c>
       <c r="E156" t="n">
-        <v>22228552794109.25</v>
+        <v>2.538973760254524e-05</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9309394337148396</v>
+        <v>0.9309394277802153</v>
       </c>
       <c r="G156" t="n">
-        <v>0.9679414702722479</v>
+        <v>0.9679414707173024</v>
       </c>
       <c r="H156" t="n">
-        <v>0.1861878867429679</v>
+        <v>0.1861878855560431</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>5.118804</v>
+        <v>4.396599326405318</v>
       </c>
       <c r="B157" t="n">
-        <v>482788380813899.5</v>
+        <v>0.000551447070271869</v>
       </c>
       <c r="C157" t="n">
-        <v>114188733162063</v>
+        <v>0.0001304278330704439</v>
       </c>
       <c r="D157" t="n">
-        <v>10567417385180.51</v>
+        <v>1.207023944154276e-05</v>
       </c>
       <c r="E157" t="n">
-        <v>18517742940684.76</v>
+        <v>2.115120307646517e-05</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9744287902314565</v>
+        <v>0.9744287814173241</v>
       </c>
       <c r="G157" t="n">
-        <v>0.9646017860678882</v>
+        <v>0.9646017867605144</v>
       </c>
       <c r="H157" t="n">
-        <v>0.1948857580462913</v>
+        <v>0.1948857562834648</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>5.123773</v>
+        <v>4.400884260353045</v>
       </c>
       <c r="B158" t="n">
-        <v>354501399253614.8</v>
+        <v>0.0004049160372459251</v>
       </c>
       <c r="C158" t="n">
-        <v>80709165222714.78</v>
+        <v>9.218704225078751e-05</v>
       </c>
       <c r="D158" t="n">
-        <v>8169661578730.49</v>
+        <v>9.331492055254389e-06</v>
       </c>
       <c r="E158" t="n">
-        <v>14142670061287.81</v>
+        <v>1.615393882721587e-05</v>
       </c>
       <c r="F158" t="n">
-        <v>1.418850913698965</v>
+        <v>1.418850935429006</v>
       </c>
       <c r="G158" t="n">
-        <v>0.9222401323495056</v>
+        <v>0.9222401299470524</v>
       </c>
       <c r="H158" t="n">
-        <v>0.283770182739793</v>
+        <v>0.2837701870858013</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>5.128523</v>
+        <v>4.404912098263909</v>
       </c>
       <c r="B159" t="n">
-        <v>258863919617961.9</v>
+        <v>0.0002956776834468055</v>
       </c>
       <c r="C159" t="n">
-        <v>53278976005761.61</v>
+        <v>6.085592886108374e-05</v>
       </c>
       <c r="D159" t="n">
-        <v>5879060758514.006</v>
+        <v>6.715138477846681e-06</v>
       </c>
       <c r="E159" t="n">
-        <v>10186646066367.36</v>
+        <v>1.163531756290491e-05</v>
       </c>
       <c r="F159" t="n">
-        <v>0.8609122325678831</v>
+        <v>0.8609122227509547</v>
       </c>
       <c r="G159" t="n">
-        <v>0.9729866005699352</v>
+        <v>0.9729866012479794</v>
       </c>
       <c r="H159" t="n">
-        <v>0.1721824465135766</v>
+        <v>0.1721824445501909</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>5.129939</v>
+        <v>4.406111879769273</v>
       </c>
       <c r="B160" t="n">
-        <v>270671780153418.6</v>
+        <v>0.0003091647732906566</v>
       </c>
       <c r="C160" t="n">
-        <v>69962368095083.06</v>
+        <v>7.991191261787111e-05</v>
       </c>
       <c r="D160" t="n">
-        <v>6337937546461.31</v>
+        <v>7.239273421631177e-06</v>
       </c>
       <c r="E160" t="n">
-        <v>11160503682040.48</v>
+        <v>1.274767021426515e-05</v>
       </c>
       <c r="F160" t="n">
-        <v>4.412090514545683</v>
+        <v>4.412090462737025</v>
       </c>
       <c r="G160" t="n">
-        <v>0.4917308687196569</v>
+        <v>0.4917308757517482</v>
       </c>
       <c r="H160" t="n">
-        <v>0.8824181029091367</v>
+        <v>0.882418092547405</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>5.133811</v>
+        <v>4.4094541282485</v>
       </c>
       <c r="B161" t="n">
-        <v>207553468762509.8</v>
+        <v>0.000237070229659241</v>
       </c>
       <c r="C161" t="n">
-        <v>52011772526914.27</v>
+        <v>5.940851244241527e-05</v>
       </c>
       <c r="D161" t="n">
-        <v>4766312229379.265</v>
+        <v>5.444142852048221e-06</v>
       </c>
       <c r="E161" t="n">
-        <v>8334149224308.318</v>
+        <v>9.519371945154133e-06</v>
       </c>
       <c r="F161" t="n">
-        <v>0.3907851853923772</v>
+        <v>0.3907851856680401</v>
       </c>
       <c r="G161" t="n">
-        <v>0.9955796057356362</v>
+        <v>0.9955796057282705</v>
       </c>
       <c r="H161" t="n">
-        <v>0.07815703707847543</v>
+        <v>0.07815703713360803</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>5.138881</v>
+        <v>4.413824760875183</v>
       </c>
       <c r="B162" t="n">
-        <v>207839568997758.8</v>
+        <v>0.0002373970170109808</v>
       </c>
       <c r="C162" t="n">
-        <v>46412524360907.25</v>
+        <v>5.301297921299273e-05</v>
       </c>
       <c r="D162" t="n">
-        <v>4832974669026.729</v>
+        <v>5.520285551537552e-06</v>
       </c>
       <c r="E162" t="n">
-        <v>8382078269532.136</v>
+        <v>9.574117125252912e-06</v>
       </c>
       <c r="F162" t="n">
-        <v>0.3945350146157984</v>
+        <v>0.3945349980196798</v>
       </c>
       <c r="G162" t="n">
-        <v>0.9954787824765731</v>
+        <v>0.9954787829255783</v>
       </c>
       <c r="H162" t="n">
-        <v>0.07890700292315968</v>
+        <v>0.07890699960393596</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>5.141653</v>
+        <v>4.41622432388591</v>
       </c>
       <c r="B163" t="n">
-        <v>200343384058868.1</v>
+        <v>0.0002288347784761179</v>
       </c>
       <c r="C163" t="n">
-        <v>49673437441583.08</v>
+        <v>5.673763614682179e-05</v>
       </c>
       <c r="D163" t="n">
-        <v>4592059309153.035</v>
+        <v>5.2451089396802e-06</v>
       </c>
       <c r="E163" t="n">
-        <v>7985221515223.742</v>
+        <v>9.120822250620851e-06</v>
       </c>
       <c r="F163" t="n">
-        <v>0.276100532231315</v>
+        <v>0.2761005411022199</v>
       </c>
       <c r="G163" t="n">
-        <v>0.9980685595844686</v>
+        <v>0.9980685594353942</v>
       </c>
       <c r="H163" t="n">
-        <v>0.055220106446263</v>
+        <v>0.05522010822044399</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>5.144741000000001</v>
+        <v>4.418795284254546</v>
       </c>
       <c r="B164" t="n">
-        <v>184132031252879.4</v>
+        <v>0.0002103179637935034</v>
       </c>
       <c r="C164" t="n">
-        <v>38655529898081.53</v>
+        <v>4.415284151969421e-05</v>
       </c>
       <c r="D164" t="n">
-        <v>4289591559365.588</v>
+        <v>4.899626406418956e-06</v>
       </c>
       <c r="E164" t="n">
-        <v>7367775060552.429</v>
+        <v>8.41556701634496e-06</v>
       </c>
       <c r="F164" t="n">
-        <v>0.07913186346759681</v>
+        <v>0.07913186854383271</v>
       </c>
       <c r="G164" t="n">
-        <v>0.9999089103628924</v>
+        <v>0.9999089103484489</v>
       </c>
       <c r="H164" t="n">
-        <v>0.01582637269351936</v>
+        <v>0.01582637370876654</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>5.147988</v>
+        <v>4.421623340660047</v>
       </c>
       <c r="B165" t="n">
-        <v>171017602116559.2</v>
+        <v>0.0001953384949193156</v>
       </c>
       <c r="C165" t="n">
-        <v>34643808599208.7</v>
+        <v>3.957060175243543e-05</v>
       </c>
       <c r="D165" t="n">
-        <v>4082991828517.914</v>
+        <v>4.663645543866291e-06</v>
       </c>
       <c r="E165" t="n">
-        <v>6940104509241.807</v>
+        <v>7.927076231523571e-06</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9616798003376683</v>
+        <v>0.9616798163582581</v>
       </c>
       <c r="G165" t="n">
-        <v>0.9655969677530318</v>
+        <v>0.9655969665108449</v>
       </c>
       <c r="H165" t="n">
-        <v>0.1923359600675337</v>
+        <v>0.1923359632716516</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>5.150005999999999</v>
+        <v>4.423337314239138</v>
       </c>
       <c r="B166" t="n">
-        <v>163753339189762.5</v>
+        <v>0.0001870411608514363</v>
       </c>
       <c r="C166" t="n">
-        <v>38822220723445.91</v>
+        <v>4.434323757783702e-05</v>
       </c>
       <c r="D166" t="n">
-        <v>4086549418019.036</v>
+        <v>4.667709065900983e-06</v>
       </c>
       <c r="E166" t="n">
-        <v>7035761468184.649</v>
+        <v>8.036336829686441e-06</v>
       </c>
       <c r="F166" t="n">
-        <v>3.522818352669407</v>
+        <v>3.522818478928429</v>
       </c>
       <c r="G166" t="n">
-        <v>0.6199377687276635</v>
+        <v>0.6199377496547815</v>
       </c>
       <c r="H166" t="n">
-        <v>0.7045636705338815</v>
+        <v>0.7045636957856858</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>5.150983</v>
+        <v>4.424194301028683</v>
       </c>
       <c r="B167" t="n">
-        <v>156534536133933.2</v>
+        <v>0.0001787957515424849</v>
       </c>
       <c r="C167" t="n">
-        <v>36138413364908.39</v>
+        <v>4.127775837001608e-05</v>
       </c>
       <c r="D167" t="n">
-        <v>3646957785909.024</v>
+        <v>4.16560187377217e-06</v>
       </c>
       <c r="E167" t="n">
-        <v>6314165698356.486</v>
+        <v>7.212120900580418e-06</v>
       </c>
       <c r="F167" t="n">
-        <v>1.669288347840967</v>
+        <v>1.669288272492317</v>
       </c>
       <c r="G167" t="n">
-        <v>0.8927459608244963</v>
+        <v>0.8927459702040024</v>
       </c>
       <c r="H167" t="n">
-        <v>0.3338576695681934</v>
+        <v>0.3338576544984634</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>5.15704</v>
+        <v>4.429336221765956</v>
       </c>
       <c r="B168" t="n">
-        <v>131539191518120.2</v>
+        <v>0.0001502457487415607</v>
       </c>
       <c r="C168" t="n">
-        <v>27440385952283.87</v>
+        <v>3.134276012738562e-05</v>
       </c>
       <c r="D168" t="n">
-        <v>3121377489594.216</v>
+        <v>3.565277334463078e-06</v>
       </c>
       <c r="E168" t="n">
-        <v>5325419819176.827</v>
+        <v>6.082762704977347e-06</v>
       </c>
       <c r="F168" t="n">
-        <v>1.536067051377256</v>
+        <v>1.536067089536245</v>
       </c>
       <c r="G168" t="n">
-        <v>0.9088705330443551</v>
+        <v>0.9088705285625991</v>
       </c>
       <c r="H168" t="n">
-        <v>0.3072134102754511</v>
+        <v>0.307213417907249</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>5.159375</v>
+        <v>4.431392990060865</v>
       </c>
       <c r="B169" t="n">
-        <v>119049796147388.2</v>
+        <v>0.0001359802015166561</v>
       </c>
       <c r="C169" t="n">
-        <v>26094985229879.02</v>
+        <v>2.980602626999481e-05</v>
       </c>
       <c r="D169" t="n">
-        <v>2780770118649.158</v>
+        <v>3.176231233704982e-06</v>
       </c>
       <c r="E169" t="n">
-        <v>4828247819458.985</v>
+        <v>5.514886480405975e-06</v>
       </c>
       <c r="F169" t="n">
-        <v>1.276119990929013</v>
+        <v>1.276119989693591</v>
       </c>
       <c r="G169" t="n">
-        <v>0.9373696245785612</v>
+        <v>0.9373696247036837</v>
       </c>
       <c r="H169" t="n">
-        <v>0.2552239981858026</v>
+        <v>0.2552239979387183</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>5.170048</v>
+        <v>4.440477050030048</v>
       </c>
       <c r="B170" t="n">
-        <v>75780772431391.06</v>
+        <v>8.655776854727559e-05</v>
       </c>
       <c r="C170" t="n">
-        <v>18558440029938.49</v>
+        <v>2.119768769577605e-05</v>
       </c>
       <c r="D170" t="n">
-        <v>2052738903348.88</v>
+        <v>2.344664659080374e-06</v>
       </c>
       <c r="E170" t="n">
-        <v>3506956690379.64</v>
+        <v>4.005690835589367e-06</v>
       </c>
       <c r="F170" t="n">
-        <v>2.063196650057276</v>
+        <v>2.063196635356522</v>
       </c>
       <c r="G170" t="n">
-        <v>0.8403332994804018</v>
+        <v>0.8403333015454106</v>
       </c>
       <c r="H170" t="n">
-        <v>0.4126393300114553</v>
+        <v>0.4126393270713044</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>5.189844</v>
+        <v>4.457445388463049</v>
       </c>
       <c r="B171" t="n">
-        <v>56025063866800.61</v>
+        <v>6.399254531280394e-05</v>
       </c>
       <c r="C171" t="n">
-        <v>12858219125059.2</v>
+        <v>1.468682251638215e-05</v>
       </c>
       <c r="D171" t="n">
-        <v>1438131998343.104</v>
+        <v>1.642652782834495e-06</v>
       </c>
       <c r="E171" t="n">
-        <v>2483354232030.883</v>
+        <v>2.836519001981918e-06</v>
       </c>
       <c r="F171" t="n">
-        <v>5.226967145291078</v>
+        <v>5.226967131873558</v>
       </c>
       <c r="G171" t="n">
-        <v>0.3888135331492825</v>
+        <v>0.3888135347117618</v>
       </c>
       <c r="H171" t="n">
-        <v>1.045393429058216</v>
+        <v>1.045393426374712</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>5.210028</v>
+        <v>4.474756521611869</v>
       </c>
       <c r="B172" t="n">
-        <v>61696695648171.61</v>
+        <v>7.047075575411643e-05</v>
       </c>
       <c r="C172" t="n">
-        <v>15029540189485.26</v>
+        <v>1.716693323878378e-05</v>
       </c>
       <c r="D172" t="n">
-        <v>1640029335781.497</v>
+        <v>1.873262507367413e-06</v>
       </c>
       <c r="E172" t="n">
-        <v>2840618433175.242</v>
+        <v>3.244590747078681e-06</v>
       </c>
       <c r="F172" t="n">
-        <v>6.153444215053302</v>
+        <v>6.153444158468037</v>
       </c>
       <c r="G172" t="n">
-        <v>0.2915732245934057</v>
+        <v>0.2915732298896267</v>
       </c>
       <c r="H172" t="n">
-        <v>1.23068884301066</v>
+        <v>1.230688831693608</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>5.230028</v>
+        <v>4.491896257402779</v>
       </c>
       <c r="B173" t="n">
-        <v>82521362726713.05</v>
+        <v>9.42569571017476e-05</v>
       </c>
       <c r="C173" t="n">
-        <v>15914634321274.32</v>
+        <v>1.817789906098636e-05</v>
       </c>
       <c r="D173" t="n">
-        <v>2376014001789.806</v>
+        <v>2.713913615876208e-06</v>
       </c>
       <c r="E173" t="n">
-        <v>3947596796599.711</v>
+        <v>4.508995607463057e-06</v>
       </c>
       <c r="F173" t="n">
-        <v>1.823244776240555</v>
+        <v>1.823244763143361</v>
       </c>
       <c r="G173" t="n">
-        <v>0.8730217439105477</v>
+        <v>0.8730217456336933</v>
       </c>
       <c r="H173" t="n">
-        <v>0.3646489552481111</v>
+        <v>0.3646489526286721</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>5.239501000000001</v>
+        <v>4.500037631903461</v>
       </c>
       <c r="B174" t="n">
-        <v>106875452048556.1</v>
+        <v>0.000122074509915897</v>
       </c>
       <c r="C174" t="n">
-        <v>23977793584202.76</v>
+        <v>2.738774304708095e-05</v>
       </c>
       <c r="D174" t="n">
-        <v>2683574511324.443</v>
+        <v>3.065213166834501e-06</v>
       </c>
       <c r="E174" t="n">
-        <v>4556695371592.787</v>
+        <v>5.204715797213095e-06</v>
       </c>
       <c r="F174" t="n">
-        <v>1.678113015397033</v>
+        <v>1.678113032025207</v>
       </c>
       <c r="G174" t="n">
-        <v>0.8916455272417</v>
+        <v>0.8916455251645513</v>
       </c>
       <c r="H174" t="n">
-        <v>0.3356226030794066</v>
+        <v>0.3356226064050415</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>5.243064</v>
+        <v>4.503122784345824</v>
       </c>
       <c r="B175" t="n">
-        <v>117805816986386.5</v>
+        <v>0.0001345593124315542</v>
       </c>
       <c r="C175" t="n">
-        <v>24020505085611.23</v>
+        <v>2.743652877589422e-05</v>
       </c>
       <c r="D175" t="n">
-        <v>3345649609213.379</v>
+        <v>3.821443822843598e-06</v>
       </c>
       <c r="E175" t="n">
-        <v>5555883546803.293</v>
+        <v>6.346001328110779e-06</v>
       </c>
       <c r="F175" t="n">
-        <v>3.681344001648554</v>
+        <v>3.681343818363119</v>
       </c>
       <c r="G175" t="n">
-        <v>0.596142686985622</v>
+        <v>0.5961427143088923</v>
       </c>
       <c r="H175" t="n">
-        <v>0.7362688003297109</v>
+        <v>0.7362687636726238</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>5.250129</v>
+        <v>4.509121691872643</v>
       </c>
       <c r="B176" t="n">
-        <v>162260470074612.3</v>
+        <v>0.0001853359864670952</v>
       </c>
       <c r="C176" t="n">
-        <v>35439063301515.52</v>
+        <v>4.047895180923312e-05</v>
       </c>
       <c r="D176" t="n">
-        <v>4840026817609.244</v>
+        <v>5.528340595134102e-06</v>
       </c>
       <c r="E176" t="n">
-        <v>8017202395471.628</v>
+        <v>9.157351214864912e-06</v>
       </c>
       <c r="F176" t="n">
-        <v>2.798509004289451</v>
+        <v>2.798509133863872</v>
       </c>
       <c r="G176" t="n">
-        <v>0.7310155619518888</v>
+        <v>0.7310155420447134</v>
       </c>
       <c r="H176" t="n">
-        <v>0.5597018008578901</v>
+        <v>0.5597018267727744</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>5.25994</v>
+        <v>4.517520162410189</v>
       </c>
       <c r="B177" t="n">
-        <v>242431133034367</v>
+        <v>0.0002769079441880783</v>
       </c>
       <c r="C177" t="n">
-        <v>52864494096229</v>
+        <v>6.038250226413574e-05</v>
       </c>
       <c r="D177" t="n">
-        <v>6533655416029.795</v>
+        <v>7.462824876213205e-06</v>
       </c>
       <c r="E177" t="n">
-        <v>10967741851231.1</v>
+        <v>1.252749518280634e-05</v>
       </c>
       <c r="F177" t="n">
-        <v>1.888582088655603</v>
+        <v>1.888581995979486</v>
       </c>
       <c r="G177" t="n">
-        <v>0.8643370630026311</v>
+        <v>0.8643370754437674</v>
       </c>
       <c r="H177" t="n">
-        <v>0.3777164177311206</v>
+        <v>0.3777163991958971</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>5.26504</v>
+        <v>4.521890795036872</v>
       </c>
       <c r="B178" t="n">
-        <v>287990856399434.8</v>
+        <v>0.0003289468438537425</v>
       </c>
       <c r="C178" t="n">
-        <v>58807223776677.84</v>
+        <v>6.717036368732767e-05</v>
       </c>
       <c r="D178" t="n">
-        <v>8040387794719.862</v>
+        <v>9.183833886431125e-06</v>
       </c>
       <c r="E178" t="n">
-        <v>13363226838351.83</v>
+        <v>1.526364880187406e-05</v>
       </c>
       <c r="F178" t="n">
-        <v>3.575965310397029</v>
+        <v>3.575965325184757</v>
       </c>
       <c r="G178" t="n">
-        <v>0.6119255699418124</v>
+        <v>0.6119255677171239</v>
       </c>
       <c r="H178" t="n">
-        <v>0.7151930620794057</v>
+        <v>0.7151930650369513</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>5.269983</v>
+        <v>4.526175728984599</v>
       </c>
       <c r="B179" t="n">
-        <v>352839205007717.1</v>
+        <v>0.0004030174575755357</v>
       </c>
       <c r="C179" t="n">
-        <v>82931388412341.62</v>
+        <v>9.472529392511207e-05</v>
       </c>
       <c r="D179" t="n">
-        <v>9336743803019.76</v>
+        <v>1.066454832148462e-05</v>
       </c>
       <c r="E179" t="n">
-        <v>15852037488895.58</v>
+        <v>1.810640018598121e-05</v>
       </c>
       <c r="F179" t="n">
-        <v>1.329601093508999</v>
+        <v>1.329601061332853</v>
       </c>
       <c r="G179" t="n">
-        <v>0.9318564758598564</v>
+        <v>0.9318564792341717</v>
       </c>
       <c r="H179" t="n">
-        <v>0.2659202187017999</v>
+        <v>0.2659202122665707</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>5.27496</v>
+        <v>4.530460662932327</v>
       </c>
       <c r="B180" t="n">
-        <v>475012472362247.1</v>
+        <v>0.0005376850243618465</v>
       </c>
       <c r="C180" t="n">
-        <v>140806151547614</v>
+        <v>0.0001542258558663355</v>
       </c>
       <c r="D180" t="n">
-        <v>11837057587164.76</v>
+        <v>9.065148029990023e-06</v>
       </c>
       <c r="E180" t="n">
-        <v>20858206765282.76</v>
+        <v>1.595103567741764e-05</v>
       </c>
       <c r="F180" t="n">
-        <v>3.190831066358441</v>
+        <v>4.290623790974166</v>
       </c>
       <c r="G180" t="n">
-        <v>0.6705922647059895</v>
+        <v>0.9776028780231989</v>
       </c>
       <c r="H180" t="n">
-        <v>0.6381662132716882</v>
+        <v>0.3575519825811805</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>5.275024</v>
+        <v>4.534574199522145</v>
       </c>
       <c r="B181" t="n">
-        <v>467209402264311.2</v>
+        <v>0.000806582459797437</v>
       </c>
       <c r="C181" t="n">
-        <v>130248823473931.4</v>
+        <v>0.000195213533973556</v>
       </c>
       <c r="D181" t="n">
-        <v>10697396285858.25</v>
+        <v>1.971601318013359e-05</v>
       </c>
       <c r="E181" t="n">
-        <v>18801185560961.06</v>
+        <v>3.406722861457462e-05</v>
       </c>
       <c r="F181" t="n">
-        <v>0.6195146991161915</v>
+        <v>0.9081118292062693</v>
       </c>
       <c r="G181" t="n">
-        <v>0.9870923279449093</v>
+        <v>0.9696315912637886</v>
       </c>
       <c r="H181" t="n">
-        <v>0.1239029398232383</v>
+        <v>0.1816223658412539</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>5.279812000000001</v>
+        <v>4.539030530827781</v>
       </c>
       <c r="B182" t="n">
-        <v>706157781760851.2</v>
+        <v>0.001035185178127096</v>
       </c>
       <c r="C182" t="n">
-        <v>170908200597215.7</v>
+        <v>0.0002351532946148939</v>
       </c>
       <c r="D182" t="n">
-        <v>17261243360255.86</v>
+        <v>2.506941398064236e-05</v>
       </c>
       <c r="E182" t="n">
-        <v>29825640633476.2</v>
+        <v>4.320993774805743e-05</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9081119069670762</v>
+        <v>5.523036745470279</v>
       </c>
       <c r="G182" t="n">
-        <v>0.9696315855809593</v>
+        <v>0.3554264302912489</v>
       </c>
       <c r="H182" t="n">
-        <v>0.1816223813934152</v>
+        <v>1.104607349094056</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>5.284953</v>
+        <v>4.543486862133419</v>
       </c>
       <c r="B183" t="n">
-        <v>906297997733437.1</v>
+        <v>0.001355923032710257</v>
       </c>
       <c r="C183" t="n">
-        <v>205875206031459.1</v>
+        <v>0.0002969907885894213</v>
       </c>
       <c r="D183" t="n">
-        <v>21948111503154.38</v>
+        <v>3.007513921906042e-05</v>
       </c>
       <c r="E183" t="n">
-        <v>37830023970004.11</v>
+        <v>5.292398793259543e-05</v>
       </c>
       <c r="F183" t="n">
-        <v>5.523036855037241</v>
+        <v>6.610321513557004</v>
       </c>
       <c r="G183" t="n">
-        <v>0.355426418339729</v>
+        <v>0.2512709847862066</v>
       </c>
       <c r="H183" t="n">
-        <v>1.104607371007448</v>
+        <v>1.322064302711401</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>5.290161</v>
+        <v>4.545800726465191</v>
       </c>
       <c r="B184" t="n">
-        <v>1187101937005902</v>
+        <v>0.001585988844027495</v>
       </c>
       <c r="C184" t="n">
-        <v>260013536089968.9</v>
+        <v>0.0004514727808814912</v>
       </c>
       <c r="D184" t="n">
-        <v>26330591903731.23</v>
+        <v>3.453364468793219e-05</v>
       </c>
       <c r="E184" t="n">
-        <v>46334612732717.48</v>
+        <v>6.163425102771072e-05</v>
       </c>
       <c r="F184" t="n">
-        <v>6.610321351993099</v>
+        <v>0.6838242500566366</v>
       </c>
       <c r="G184" t="n">
-        <v>0.2512709981846382</v>
+        <v>0.9838446289364318</v>
       </c>
       <c r="H184" t="n">
-        <v>1.32206427039862</v>
+        <v>0.1367648500113273</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>5.292942</v>
+        <v>4.549914263055009</v>
       </c>
       <c r="B185" t="n">
-        <v>1388523083411934</v>
+        <v>0.001545719046113382</v>
       </c>
       <c r="C185" t="n">
-        <v>395261533334945.8</v>
+        <v>0.0003751930169858729</v>
       </c>
       <c r="D185" t="n">
-        <v>30233984921333.32</v>
+        <v>3.269819005081443e-05</v>
       </c>
       <c r="E185" t="n">
-        <v>53960392314891.12</v>
+        <v>5.79361065435724e-05</v>
       </c>
       <c r="F185" t="n">
-        <v>0.6838242595294458</v>
+        <v>5.4331972384093</v>
       </c>
       <c r="G185" t="n">
-        <v>0.9838446284303813</v>
+        <v>0.3653266608020891</v>
       </c>
       <c r="H185" t="n">
-        <v>0.1367648519058892</v>
+        <v>1.08663944768186</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>5.297674</v>
+        <v>4.551628236634101</v>
       </c>
       <c r="B186" t="n">
-        <v>1353267134070666</v>
+        <v>0.001517871784526788</v>
       </c>
       <c r="C186" t="n">
-        <v>328479084347723.8</v>
+        <v>0.0003948690153100824</v>
       </c>
       <c r="D186" t="n">
-        <v>28627056115602.63</v>
+        <v>3.249287351493308e-05</v>
       </c>
       <c r="E186" t="n">
-        <v>50722690462703.45</v>
+        <v>5.739816029147015e-05</v>
       </c>
       <c r="F186" t="n">
-        <v>5.433197004140487</v>
+        <v>0.4756504156515884</v>
       </c>
       <c r="G186" t="n">
-        <v>0.3653266868805954</v>
+        <v>0.9929877640355496</v>
       </c>
       <c r="H186" t="n">
-        <v>1.086639400828097</v>
+        <v>0.09513008313031769</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>5.299721</v>
+        <v>4.553942100965873</v>
       </c>
       <c r="B187" t="n">
-        <v>1328887032697271</v>
+        <v>0.001429784003021576</v>
       </c>
       <c r="C187" t="n">
-        <v>345705295311893</v>
+        <v>0.0003495471270984289</v>
       </c>
       <c r="D187" t="n">
-        <v>28447302820639.68</v>
+        <v>3.096087606270679e-05</v>
       </c>
       <c r="E187" t="n">
-        <v>50251722037462.73</v>
+        <v>5.460800379232673e-05</v>
       </c>
       <c r="F187" t="n">
-        <v>0.4756503978509284</v>
+        <v>5.083710731143</v>
       </c>
       <c r="G187" t="n">
-        <v>0.9929877646477174</v>
+        <v>0.4057497482410674</v>
       </c>
       <c r="H187" t="n">
-        <v>0.09513007957018568</v>
+        <v>1.0167421462286</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>5.302376000000001</v>
+        <v>4.558912624345237</v>
       </c>
       <c r="B188" t="n">
-        <v>1251766744125095</v>
+        <v>0.001243109585960793</v>
       </c>
       <c r="C188" t="n">
-        <v>306026272114789.4</v>
+        <v>0.0003129852254916287</v>
       </c>
       <c r="D188" t="n">
-        <v>27106048850093.97</v>
+        <v>2.603437649737588e-05</v>
       </c>
       <c r="E188" t="n">
-        <v>47808957880537.73</v>
+        <v>4.640017483295629e-05</v>
       </c>
       <c r="F188" t="n">
-        <v>5.083710863686017</v>
+        <v>3.875406796858251</v>
       </c>
       <c r="G188" t="n">
-        <v>0.4057497323371849</v>
+        <v>0.5674903159657775</v>
       </c>
       <c r="H188" t="n">
-        <v>1.016742172737203</v>
+        <v>0.7750813593716501</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>5.308233</v>
+        <v>4.562940462256101</v>
       </c>
       <c r="B189" t="n">
-        <v>1088334485984629</v>
+        <v>0.001181408795016022</v>
       </c>
       <c r="C189" t="n">
-        <v>274016563200475.3</v>
+        <v>0.0003045954031131405</v>
       </c>
       <c r="D189" t="n">
-        <v>22792930004828.3</v>
+        <v>2.496265502458943e-05</v>
       </c>
       <c r="E189" t="n">
-        <v>40623056107703.4</v>
+        <v>4.459914887094086e-05</v>
       </c>
       <c r="F189" t="n">
-        <v>3.875406660491552</v>
+        <v>6.008160477882887</v>
       </c>
       <c r="G189" t="n">
-        <v>0.5674903358926523</v>
+        <v>0.3054256782387221</v>
       </c>
       <c r="H189" t="n">
-        <v>0.7750813320983105</v>
+        <v>1.201632095576577</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>5.312876</v>
+        <v>4.56688260148801</v>
       </c>
       <c r="B190" t="n">
-        <v>1034315839663096</v>
+        <v>0.001013350781011509</v>
       </c>
       <c r="C190" t="n">
-        <v>266671323649658.6</v>
+        <v>0.0002742018421098305</v>
       </c>
       <c r="D190" t="n">
-        <v>21854644714869.24</v>
+        <v>2.144662189905456e-05</v>
       </c>
       <c r="E190" t="n">
-        <v>39046269411587.07</v>
+        <v>3.840512597499871e-05</v>
       </c>
       <c r="F190" t="n">
-        <v>6.008160602191393</v>
+        <v>5.800756354351148</v>
       </c>
       <c r="G190" t="n">
-        <v>0.3054256661676328</v>
+        <v>0.3260915167239316</v>
       </c>
       <c r="H190" t="n">
-        <v>1.201632120438278</v>
+        <v>1.16015127087023</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>5.317521</v>
+        <v>4.571424631472602</v>
       </c>
       <c r="B191" t="n">
-        <v>887182123083938.9</v>
+        <v>0.0008056318925539045</v>
       </c>
       <c r="C191" t="n">
-        <v>240061956166007.8</v>
+        <v>0.0002242773686166997</v>
       </c>
       <c r="D191" t="n">
-        <v>18776380218455.85</v>
+        <v>1.713740475641505e-05</v>
       </c>
       <c r="E191" t="n">
-        <v>33623441999989.2</v>
+        <v>3.072948643100196e-05</v>
       </c>
       <c r="F191" t="n">
-        <v>5.80075643877018</v>
+        <v>5.046953180880205</v>
       </c>
       <c r="G191" t="n">
-        <v>0.326091508097366</v>
+        <v>0.4101768954897695</v>
       </c>
       <c r="H191" t="n">
-        <v>1.160151287754036</v>
+        <v>1.009390636176041</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>5.322808999999999</v>
+        <v>4.575623866741375</v>
       </c>
       <c r="B192" t="n">
-        <v>705325565750876</v>
+        <v>0.0006786905942501549</v>
       </c>
       <c r="C192" t="n">
-        <v>196353400465176.3</v>
+        <v>0.0001703065164418723</v>
       </c>
       <c r="D192" t="n">
-        <v>15003688185398.71</v>
+        <v>1.469981044323346e-05</v>
       </c>
       <c r="E192" t="n">
-        <v>26903468700132.73</v>
+        <v>2.618110136317353e-05</v>
       </c>
       <c r="F192" t="n">
-        <v>5.046953026418577</v>
+        <v>5.124387991224214</v>
       </c>
       <c r="G192" t="n">
-        <v>0.4101769141630826</v>
+        <v>0.4008892351903035</v>
       </c>
       <c r="H192" t="n">
-        <v>1.009390605283715</v>
+        <v>1.024877598244843</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>5.327683</v>
+        <v>4.580080198047011</v>
       </c>
       <c r="B193" t="n">
-        <v>594189271629656</v>
+        <v>0.0005064083947628538</v>
       </c>
       <c r="C193" t="n">
-        <v>149102265330210</v>
+        <v>0.000141699265601223</v>
       </c>
       <c r="D193" t="n">
-        <v>12869589958882.88</v>
+        <v>7.920620359504411e-06</v>
       </c>
       <c r="E193" t="n">
-        <v>22921386676203.55</v>
+        <v>1.4095173292578e-05</v>
       </c>
       <c r="F193" t="n">
-        <v>5.124388015931082</v>
+        <v>5.789209672853168</v>
       </c>
       <c r="G193" t="n">
-        <v>0.4008892322504699</v>
+        <v>0.9263326174461367</v>
       </c>
       <c r="H193" t="n">
-        <v>1.024877603186216</v>
+        <v>0.4824341394044307</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>5.33288</v>
+        <v>4.58402233727892</v>
       </c>
       <c r="B194" t="n">
-        <v>435012175857678.8</v>
+        <v>0.0003474035527496078</v>
       </c>
       <c r="C194" t="n">
-        <v>127383230487416.7</v>
+        <v>8.459368176670984e-05</v>
       </c>
       <c r="D194" t="n">
-        <v>9771634677559.025</v>
+        <v>7.75379112555937e-06</v>
       </c>
       <c r="E194" t="n">
-        <v>17364493930298.34</v>
+        <v>1.373347008061323e-05</v>
       </c>
       <c r="F194" t="n">
-        <v>0.5520229213505893</v>
+        <v>5.268908736059396</v>
       </c>
       <c r="G194" t="n">
-        <v>0.9900943972483528</v>
+        <v>0.3839512390104951</v>
       </c>
       <c r="H194" t="n">
-        <v>0.1104045842701179</v>
+        <v>1.053781747211879</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>5.332912</v>
+        <v>4.588478668584557</v>
       </c>
       <c r="B195" t="n">
-        <v>451826152438555.2</v>
+        <v>0.0002119662128927965</v>
       </c>
       <c r="C195" t="n">
-        <v>120546531968362.9</v>
+        <v>4.857626201019668e-05</v>
       </c>
       <c r="D195" t="n">
-        <v>9842544268555.127</v>
+        <v>5.102720094240539e-06</v>
       </c>
       <c r="E195" t="n">
-        <v>17540561992920.59</v>
+        <v>8.76348321359174e-06</v>
       </c>
       <c r="F195" t="n">
-        <v>3.766338054971408</v>
+        <v>0.7451456701204079</v>
       </c>
       <c r="G195" t="n">
-        <v>0.583523559155102</v>
+        <v>0.9803994137146412</v>
       </c>
       <c r="H195" t="n">
-        <v>0.7532676109942816</v>
+        <v>0.1490291340240816</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>5.337469</v>
+        <v>4.588650065942466</v>
       </c>
       <c r="B196" t="n">
-        <v>304149587135532.8</v>
+        <v>0.0002152469571510225</v>
       </c>
       <c r="C196" t="n">
-        <v>74061226985901.62</v>
+        <v>4.571563695253117e-05</v>
       </c>
       <c r="D196" t="n">
-        <v>6788394506454.169</v>
+        <v>5.022014158736567e-06</v>
       </c>
       <c r="E196" t="n">
-        <v>12023565165115.98</v>
+        <v>8.735068903984142e-06</v>
       </c>
       <c r="F196" t="n">
-        <v>5.268908823208764</v>
+        <v>1.748392414454453</v>
       </c>
       <c r="G196" t="n">
-        <v>0.3839512289526467</v>
+        <v>0.8827476210548938</v>
       </c>
       <c r="H196" t="n">
-        <v>1.053781764641753</v>
+        <v>0.3496784828908907</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>5.342735</v>
+        <v>4.592078013100648</v>
       </c>
       <c r="B197" t="n">
-        <v>185575063180075.3</v>
+        <v>0.0001609576030819696</v>
       </c>
       <c r="C197" t="n">
-        <v>42528206516093.94</v>
+        <v>2.826018584750526e-05</v>
       </c>
       <c r="D197" t="n">
-        <v>4467398784721.729</v>
+        <v>3.937693237638948e-06</v>
       </c>
       <c r="E197" t="n">
-        <v>7672373467172.532</v>
+        <v>6.635720168886266e-06</v>
       </c>
       <c r="F197" t="n">
-        <v>0.7451456638159774</v>
+        <v>1.430861687387221</v>
       </c>
       <c r="G197" t="n">
-        <v>0.9803994140861679</v>
+        <v>0.9209078028307237</v>
       </c>
       <c r="H197" t="n">
-        <v>0.1490291327631955</v>
+        <v>0.2861723374774441</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>5.342928</v>
+        <v>4.593277794606012</v>
       </c>
       <c r="B198" t="n">
-        <v>188447333382841.9</v>
+        <v>0.0001542470168341615</v>
       </c>
       <c r="C198" t="n">
-        <v>40023747843840.44</v>
+        <v>3.133584201906278e-05</v>
       </c>
       <c r="D198" t="n">
-        <v>4396741255263.459</v>
+        <v>3.665660954772273e-06</v>
       </c>
       <c r="E198" t="n">
-        <v>7647496923645.555</v>
+        <v>6.390292980458875e-06</v>
       </c>
       <c r="F198" t="n">
-        <v>1.748392402784133</v>
+        <v>3.47823573285614</v>
       </c>
       <c r="G198" t="n">
-        <v>0.8827476225517199</v>
+        <v>0.6266833680910114</v>
       </c>
       <c r="H198" t="n">
-        <v>0.3496784805568267</v>
+        <v>0.6956471465712281</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>5.346943</v>
+        <v>4.593534890642876</v>
       </c>
       <c r="B199" t="n">
-        <v>140917351437057.8</v>
+        <v>0.0001435445904202146</v>
       </c>
       <c r="C199" t="n">
-        <v>24741611712679.97</v>
+        <v>2.818188723489019e-05</v>
       </c>
       <c r="D199" t="n">
-        <v>3447425229365.735</v>
+        <v>3.419401115647496e-06</v>
       </c>
       <c r="E199" t="n">
-        <v>5809530531167.967</v>
+        <v>5.838675553667129e-06</v>
       </c>
       <c r="F199" t="n">
-        <v>1.430861651196856</v>
+        <v>0.9766511351035738</v>
       </c>
       <c r="G199" t="n">
-        <v>0.9209078068585486</v>
+        <v>0.9644269496066121</v>
       </c>
       <c r="H199" t="n">
-        <v>0.2861723302393712</v>
+        <v>0.1953302270207148</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>5.348261</v>
+        <v>4.596534344406285</v>
       </c>
       <c r="B200" t="n">
-        <v>135042276158179.9</v>
+        <v>0.0002422477004068312</v>
       </c>
       <c r="C200" t="n">
-        <v>27434328827691.55</v>
+        <v>5.40675412500446e-05</v>
       </c>
       <c r="D200" t="n">
-        <v>3209262705949.407</v>
+        <v>5.836747705201408e-06</v>
       </c>
       <c r="E200" t="n">
-        <v>5594660606935.398</v>
+        <v>1.003642898942781e-05</v>
       </c>
       <c r="F200" t="n">
-        <v>3.47823581381415</v>
+        <v>1.152135097073123</v>
       </c>
       <c r="G200" t="n">
-        <v>0.6266833558223311</v>
+        <v>0.9493860982190343</v>
       </c>
       <c r="H200" t="n">
-        <v>0.6956471627628299</v>
+        <v>0.2304270194146246</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>5.348582</v>
+        <v>4.597819824590603</v>
       </c>
       <c r="B201" t="n">
-        <v>125672370113652.4</v>
+        <v>0.0001881528210443837</v>
       </c>
       <c r="C201" t="n">
-        <v>24673062054504.85</v>
+        <v>4.456376178452622e-05</v>
       </c>
       <c r="D201" t="n">
-        <v>2993663793623.782</v>
+        <v>4.17017297463218e-06</v>
       </c>
       <c r="E201" t="n">
-        <v>5111723081041.758</v>
+        <v>7.339245246973092e-06</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9766511633644762</v>
+        <v>3.404373473772796</v>
       </c>
       <c r="G201" t="n">
-        <v>0.9644269473807056</v>
+        <v>0.6379039187755584</v>
       </c>
       <c r="H201" t="n">
-        <v>0.1953302326728952</v>
+        <v>0.6808746947545592</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>5.352053</v>
+        <v>4.601504867785649</v>
       </c>
       <c r="B202" t="n">
-        <v>212086311340527.9</v>
+        <v>0.0002958225487166737</v>
       </c>
       <c r="C202" t="n">
-        <v>47335786120306.38</v>
+        <v>6.452251893188042e-05</v>
       </c>
       <c r="D202" t="n">
-        <v>5110035260443.895</v>
+        <v>7.045130261051645e-06</v>
       </c>
       <c r="E202" t="n">
-        <v>8786829344996.19</v>
+        <v>1.218975598117619e-05</v>
       </c>
       <c r="F202" t="n">
-        <v>1.152135109687604</v>
+        <v>1.092090145220609</v>
       </c>
       <c r="G202" t="n">
-        <v>0.9493860970529489</v>
+        <v>0.9548014202022108</v>
       </c>
       <c r="H202" t="n">
-        <v>0.2304270219375208</v>
+        <v>0.2184180290441217</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>5.353596</v>
+        <v>4.603133142685785</v>
       </c>
       <c r="B203" t="n">
-        <v>164726590612637.2</v>
+        <v>0.0002804872926494807</v>
       </c>
       <c r="C203" t="n">
-        <v>39015288235305.88</v>
+        <v>6.137205994398185e-05</v>
       </c>
       <c r="D203" t="n">
-        <v>3650959751487.938</v>
+        <v>6.678847293498862e-06</v>
       </c>
       <c r="E203" t="n">
-        <v>6425462245458.829</v>
+        <v>1.154360356030923e-05</v>
       </c>
       <c r="F203" t="n">
-        <v>3.404373504902061</v>
+        <v>0.9439870580780235</v>
       </c>
       <c r="G203" t="n">
-        <v>0.6379039140357239</v>
+        <v>0.9669559114644969</v>
       </c>
       <c r="H203" t="n">
-        <v>0.6808747009804123</v>
+        <v>0.1887974116156047</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>5.357905000000001</v>
+        <v>4.604932814943831</v>
       </c>
       <c r="B204" t="n">
-        <v>258990748196958.7</v>
+        <v>0.0002689517343394608</v>
       </c>
       <c r="C204" t="n">
-        <v>56489052440554.06</v>
+        <v>6.28544204633304e-05</v>
       </c>
       <c r="D204" t="n">
-        <v>6167966461162.224</v>
+        <v>6.462959917118344e-06</v>
       </c>
       <c r="E204" t="n">
-        <v>10672053356611.49</v>
+        <v>1.115645787511022e-05</v>
       </c>
       <c r="F204" t="n">
-        <v>1.092090091118329</v>
+        <v>2.09332134011759</v>
       </c>
       <c r="G204" t="n">
-        <v>0.9548014249582754</v>
+        <v>0.8360874186612131</v>
       </c>
       <c r="H204" t="n">
-        <v>0.2184180182236657</v>
+        <v>0.418664268023518</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>5.359834999999999</v>
+        <v>4.606646788522922</v>
       </c>
       <c r="B205" t="n">
-        <v>245564829772385.1</v>
+        <v>0.0002663553723089043</v>
       </c>
       <c r="C205" t="n">
-        <v>53730845603579.47</v>
+        <v>6.572134210060094e-05</v>
       </c>
       <c r="D205" t="n">
-        <v>5847288059488.87</v>
+        <v>6.360106489289573e-06</v>
       </c>
       <c r="E205" t="n">
-        <v>10106351031912.57</v>
+        <v>1.107823053236528e-05</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9439870715592232</v>
+        <v>3.184534711390093</v>
       </c>
       <c r="G205" t="n">
-        <v>0.966955910438887</v>
+        <v>0.6715603063319499</v>
       </c>
       <c r="H205" t="n">
-        <v>0.1887974143118447</v>
+        <v>0.6369069422780186</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>5.361894</v>
+        <v>4.608446460780968</v>
       </c>
       <c r="B206" t="n">
-        <v>235465522262570.4</v>
+        <v>0.0002600428786159582</v>
       </c>
       <c r="C206" t="n">
-        <v>55028642837037.55</v>
+        <v>5.633035973026565e-05</v>
       </c>
       <c r="D206" t="n">
-        <v>5658280039966.449</v>
+        <v>6.302808570249329e-06</v>
       </c>
       <c r="E206" t="n">
-        <v>9767407469661.941</v>
+        <v>1.082475483135633e-05</v>
       </c>
       <c r="F206" t="n">
-        <v>2.093321351682841</v>
+        <v>0.4618163347268053</v>
       </c>
       <c r="G206" t="n">
-        <v>0.8360874170257575</v>
+        <v>0.9934547946881032</v>
       </c>
       <c r="H206" t="n">
-        <v>0.4186642703365682</v>
+        <v>0.09236326694536105</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>5.363857</v>
+        <v>4.610160434360059</v>
       </c>
       <c r="B207" t="n">
-        <v>233192423825636.2</v>
+        <v>0.0002460760475431181</v>
       </c>
       <c r="C207" t="n">
-        <v>57538614418392.33</v>
+        <v>5.427285645048478e-05</v>
       </c>
       <c r="D207" t="n">
-        <v>5568232531376.994</v>
+        <v>5.562515814505339e-06</v>
       </c>
       <c r="E207" t="n">
-        <v>9698919935259.705</v>
+        <v>9.598807554752797e-06</v>
       </c>
       <c r="F207" t="n">
-        <v>3.184534663934747</v>
+        <v>0.6019317723970654</v>
       </c>
       <c r="G207" t="n">
-        <v>0.6715603136287087</v>
+        <v>0.9879146249048046</v>
       </c>
       <c r="H207" t="n">
-        <v>0.6369069327869494</v>
+        <v>0.1203863544794131</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>5.366045</v>
+        <v>4.611617311902286</v>
       </c>
       <c r="B208" t="n">
-        <v>227665875961958.1</v>
+        <v>0.0002503193102176727</v>
       </c>
       <c r="C208" t="n">
-        <v>49316869572721.59</v>
+        <v>5.139528278564617e-05</v>
       </c>
       <c r="D208" t="n">
-        <v>5518068566179.176</v>
+        <v>5.974080579303612e-06</v>
       </c>
       <c r="E208" t="n">
-        <v>9477003578775.709</v>
+        <v>1.027227596526611e-05</v>
       </c>
       <c r="F208" t="n">
-        <v>0.4618163398987856</v>
+        <v>0.4229077590322027</v>
       </c>
       <c r="G208" t="n">
-        <v>0.9934547945167597</v>
+        <v>0.9946750822946331</v>
       </c>
       <c r="H208" t="n">
-        <v>0.09236326797975712</v>
+        <v>0.08458155180644054</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>5.368041000000001</v>
+        <v>4.615987944528968</v>
       </c>
       <c r="B209" t="n">
-        <v>215438004745131.7</v>
+        <v>0.0001475415689144009</v>
       </c>
       <c r="C209" t="n">
-        <v>47515538480729.33</v>
+        <v>3.667908042185005e-05</v>
       </c>
       <c r="D209" t="n">
-        <v>4869947001126.593</v>
+        <v>3.386300861999112e-06</v>
       </c>
       <c r="E209" t="n">
-        <v>8403694599035.651</v>
+        <v>5.925654057029192e-06</v>
       </c>
       <c r="F209" t="n">
-        <v>0.6019317862894894</v>
+        <v>1.659105711512071</v>
       </c>
       <c r="G209" t="n">
-        <v>0.9879146242662766</v>
+        <v>0.8940109291493911</v>
       </c>
       <c r="H209" t="n">
-        <v>0.1203863572578979</v>
+        <v>0.3318211423024142</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>5.369651</v>
+        <v>4.620529974513559</v>
       </c>
       <c r="B210" t="n">
-        <v>219152954139983.2</v>
+        <v>6.449683114842896e-05</v>
       </c>
       <c r="C210" t="n">
-        <v>44996241398013.83</v>
+        <v>1.388799554350742e-05</v>
       </c>
       <c r="D210" t="n">
-        <v>5230269314718.294</v>
+        <v>1.784306145410982e-06</v>
       </c>
       <c r="E210" t="n">
-        <v>8993311861566.941</v>
+        <v>3.013962008712253e-06</v>
       </c>
       <c r="F210" t="n">
-        <v>0.4229077821800903</v>
+        <v>0.6942719442162627</v>
       </c>
       <c r="G210" t="n">
-        <v>0.9946750816094047</v>
+        <v>0.9832815646405922</v>
       </c>
       <c r="H210" t="n">
-        <v>0.08458155643601806</v>
+        <v>0.1388543888432525</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>5.374804</v>
+        <v>4.622929537524286</v>
       </c>
       <c r="B211" t="n">
-        <v>129171699591315.1</v>
+        <v>4.125894406968329e-05</v>
       </c>
       <c r="C211" t="n">
-        <v>32112300101123.55</v>
+        <v>4.241077842610561e-06</v>
       </c>
       <c r="D211" t="n">
-        <v>2964684732337.349</v>
+        <v>1.274570230543017e-06</v>
       </c>
       <c r="E211" t="n">
-        <v>5187872205968.118</v>
+        <v>2.063126278239457e-06</v>
       </c>
       <c r="F211" t="n">
-        <v>1.659105691357912</v>
+        <v>1.214676959412561</v>
       </c>
       <c r="G211" t="n">
-        <v>0.8940109316479773</v>
+        <v>0.9434615830053192</v>
       </c>
       <c r="H211" t="n">
-        <v>0.3318211382715824</v>
+        <v>0.2429353918825123</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>5.380088</v>
+        <v>4.623272332240105</v>
       </c>
       <c r="B212" t="n">
-        <v>56466562916852.08</v>
+        <v>5.828771944653501e-05</v>
       </c>
       <c r="C212" t="n">
-        <v>12158851220576.22</v>
+        <v>1.266169408384729e-05</v>
       </c>
       <c r="D212" t="n">
-        <v>1562148610824.386</v>
+        <v>1.520471028564545e-06</v>
       </c>
       <c r="E212" t="n">
-        <v>2638704449666.592</v>
+        <v>2.610674493335662e-06</v>
       </c>
       <c r="F212" t="n">
-        <v>0.6942719370980264</v>
+        <v>1.691370583471141</v>
       </c>
       <c r="G212" t="n">
-        <v>0.9832815650275792</v>
+        <v>0.8899851205543473</v>
       </c>
       <c r="H212" t="n">
-        <v>0.1388543874196053</v>
+        <v>0.3382741166942283</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>5.382924</v>
+        <v>4.623786524313832</v>
       </c>
       <c r="B213" t="n">
-        <v>36121941471624.57</v>
+        <v>3.643723489527561e-05</v>
       </c>
       <c r="C213" t="n">
-        <v>3713036512780.672</v>
+        <v>5.694381448793304e-06</v>
       </c>
       <c r="D213" t="n">
-        <v>1115878080034.483</v>
+        <v>1.080507963556074e-06</v>
       </c>
       <c r="E213" t="n">
-        <v>1806253852462.157</v>
+        <v>1.796190101737579e-06</v>
       </c>
       <c r="F213" t="n">
-        <v>1.21467696587821</v>
+        <v>2.969210473824899</v>
       </c>
       <c r="G213" t="n">
-        <v>0.9434615823782315</v>
+        <v>0.7047328495290076</v>
       </c>
       <c r="H213" t="n">
-        <v>0.2429353931756419</v>
+        <v>0.5938420947649798</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>5.383343</v>
+        <v>4.625586196571877</v>
       </c>
       <c r="B214" t="n">
-        <v>51030525346599.51</v>
+        <v>2.845056100948526e-05</v>
       </c>
       <c r="C214" t="n">
-        <v>11085232147651.9</v>
+        <v>3.776013760562042e-06</v>
       </c>
       <c r="D214" t="n">
-        <v>1331162654359.113</v>
+        <v>9.205793796046829e-07</v>
       </c>
       <c r="E214" t="n">
-        <v>2285628810274.873</v>
+        <v>1.541743051794927e-06</v>
       </c>
       <c r="F214" t="n">
-        <v>1.691370563544187</v>
+        <v>1.396135178320474</v>
       </c>
       <c r="G214" t="n">
-        <v>0.8899851230564862</v>
+        <v>0.9247355755278306</v>
       </c>
       <c r="H214" t="n">
-        <v>0.3382741127088374</v>
+        <v>0.2792270356640948</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>5.383858999999999</v>
+        <v>4.628928445051105</v>
       </c>
       <c r="B215" t="n">
-        <v>31900565943111.28</v>
+        <v>2.448590749074157e-05</v>
       </c>
       <c r="C215" t="n">
-        <v>4985394542509.734</v>
+        <v>1.474693400213854e-06</v>
       </c>
       <c r="D215" t="n">
-        <v>945977806774.7601</v>
+        <v>8.054868774994768e-07</v>
       </c>
       <c r="E215" t="n">
-        <v>1572552938068.276</v>
+        <v>1.274569306717687e-06</v>
       </c>
       <c r="F215" t="n">
-        <v>2.969210422862612</v>
+        <v>1.522763895743389</v>
       </c>
       <c r="G215" t="n">
-        <v>0.7047328573857647</v>
+        <v>0.9104280114679135</v>
       </c>
       <c r="H215" t="n">
-        <v>0.5938420845725225</v>
+        <v>0.3045527791486778</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>5.385955</v>
+        <v>4.631670802777651</v>
       </c>
       <c r="B216" t="n">
-        <v>24908284079693.27</v>
+        <v>2.31187288904761e-05</v>
       </c>
       <c r="C216" t="n">
-        <v>3305875892448.061</v>
+        <v>1.382817270660931e-06</v>
       </c>
       <c r="D216" t="n">
-        <v>805961355785.4855</v>
+        <v>7.854668572144482e-07</v>
       </c>
       <c r="E216" t="n">
-        <v>1349786174379.946</v>
+        <v>1.292110465758136e-06</v>
       </c>
       <c r="F216" t="n">
-        <v>1.39613520200148</v>
+        <v>9.260274253287498</v>
       </c>
       <c r="G216" t="n">
-        <v>0.9247355729431119</v>
+        <v>0.0991222907337112</v>
       </c>
       <c r="H216" t="n">
-        <v>0.279227040400296</v>
+        <v>1.8520548506575</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>5.389858</v>
+        <v>4.64049776670997</v>
       </c>
       <c r="B217" t="n">
-        <v>21437255282168.5</v>
+        <v>2.261681765190337e-05</v>
       </c>
       <c r="C217" t="n">
-        <v>1291084668302.98</v>
+        <v>1.647398513741449e-06</v>
       </c>
       <c r="D217" t="n">
-        <v>705198606218.2545</v>
+        <v>7.975096055825859e-07</v>
       </c>
       <c r="E217" t="n">
-        <v>1115877272129.704</v>
+        <v>1.315848899056282e-06</v>
       </c>
       <c r="F217" t="n">
-        <v>1.522763918522733</v>
+        <v>8.10679028834247</v>
       </c>
       <c r="G217" t="n">
-        <v>0.9104280088095468</v>
+        <v>0.1504475800676101</v>
       </c>
       <c r="H217" t="n">
-        <v>0.3045527837045466</v>
+        <v>1.621358057668494</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>5.393084</v>
+        <v>4.649667525358106</v>
       </c>
       <c r="B218" t="n">
-        <v>20240299173404.43</v>
+        <v>2.72847706574661e-05</v>
       </c>
       <c r="C218" t="n">
-        <v>1210647692466.578</v>
+        <v>1.153109040829155e-06</v>
       </c>
       <c r="D218" t="n">
-        <v>687671205868.1837</v>
+        <v>9.141894095778032e-07</v>
       </c>
       <c r="E218" t="n">
-        <v>1131234441848.717</v>
+        <v>1.474762344114619e-06</v>
       </c>
       <c r="F218" t="n">
-        <v>9.260274254784413</v>
+        <v>2.090855053490979</v>
       </c>
       <c r="G218" t="n">
-        <v>0.09912229067899962</v>
+        <v>0.8364360858905593</v>
       </c>
       <c r="H218" t="n">
-        <v>1.852054850956883</v>
+        <v>0.4181710106981957</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>5.403415</v>
+        <v>4.658494489290425</v>
       </c>
       <c r="B219" t="n">
-        <v>19800879123144.61</v>
+        <v>2.733260854752396e-05</v>
       </c>
       <c r="C219" t="n">
-        <v>1442286846673.084</v>
+        <v>3.656023598987887e-06</v>
       </c>
       <c r="D219" t="n">
-        <v>698214555240.265</v>
+        <v>9.347049751512093e-07</v>
       </c>
       <c r="E219" t="n">
-        <v>1152017289358.968</v>
+        <v>1.536545872365456e-06</v>
       </c>
       <c r="F219" t="n">
-        <v>8.106790172020467</v>
+        <v>0.8953313389123959</v>
       </c>
       <c r="G219" t="n">
-        <v>0.150447586267114</v>
+        <v>0.9705587139715515</v>
       </c>
       <c r="H219" t="n">
-        <v>1.621358034404093</v>
+        <v>0.1790662677824792</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>5.414078</v>
+        <v>4.667921343975426</v>
       </c>
       <c r="B220" t="n">
-        <v>23887642083566.64</v>
+        <v>3.052771729446931e-05</v>
       </c>
       <c r="C220" t="n">
-        <v>1009539619057.949</v>
+        <v>5.416842376157463e-06</v>
       </c>
       <c r="D220" t="n">
-        <v>800366977297.2714</v>
+        <v>8.898853278335407e-07</v>
       </c>
       <c r="E220" t="n">
-        <v>1291144993702.321</v>
+        <v>1.50642318633501e-06</v>
       </c>
       <c r="F220" t="n">
-        <v>2.090855057083579</v>
+        <v>3.005879725566149</v>
       </c>
       <c r="G220" t="n">
-        <v>0.8364360853827973</v>
+        <v>0.699079298721388</v>
       </c>
       <c r="H220" t="n">
-        <v>0.4181710114167158</v>
+        <v>0.6011759451132298</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>5.424364</v>
+        <v>4.671263592454653</v>
       </c>
       <c r="B221" t="n">
-        <v>23929523849998</v>
+        <v>3.51940534649829e-05</v>
       </c>
       <c r="C221" t="n">
-        <v>3200825271720.109</v>
+        <v>5.108377735488592e-06</v>
       </c>
       <c r="D221" t="n">
-        <v>818328223081.2979</v>
+        <v>1.032880057586341e-06</v>
       </c>
       <c r="E221" t="n">
-        <v>1345236075851.36</v>
+        <v>1.730264848908439e-06</v>
       </c>
       <c r="F221" t="n">
-        <v>0.8953313433708693</v>
+        <v>1.5112904894343</v>
       </c>
       <c r="G221" t="n">
-        <v>0.9705587136505316</v>
+        <v>0.9117632288584055</v>
       </c>
       <c r="H221" t="n">
-        <v>0.1790662686741739</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>5.435405</v>
-      </c>
-      <c r="B222" t="n">
-        <v>26726821124705.23</v>
-      </c>
-      <c r="C222" t="n">
-        <v>4742410818713.848</v>
-      </c>
-      <c r="D222" t="n">
-        <v>779088908846.4304</v>
-      </c>
-      <c r="E222" t="n">
-        <v>1318863857445.667</v>
-      </c>
-      <c r="F222" t="n">
-        <v>3.005879706432455</v>
-      </c>
-      <c r="G222" t="n">
-        <v>0.6990793016714187</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0.601175941286491</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>5.439261</v>
-      </c>
-      <c r="B223" t="n">
-        <v>30812168560836.43</v>
-      </c>
-      <c r="C223" t="n">
-        <v>4472352007547.352</v>
-      </c>
-      <c r="D223" t="n">
-        <v>904279880465.9337</v>
-      </c>
-      <c r="E223" t="n">
-        <v>1514835802240.627</v>
-      </c>
-      <c r="F223" t="n">
-        <v>1.511290511173977</v>
-      </c>
-      <c r="G223" t="n">
-        <v>0.9117632263355565</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0.3022581022347954</v>
+        <v>0.30225809788686</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p2/a2/p2_a2Fit.xlsx
+++ b/legendre_out/DATA/p2/a2/p2_a2Fit.xlsx
@@ -408,25 +408,25 @@
         <v>3.434374559103622</v>
       </c>
       <c r="B2" t="n">
-        <v>8.664247278506286e-06</v>
+        <v>8.676958056690387e-06</v>
       </c>
       <c r="C2" t="n">
-        <v>1.564283623696789e-06</v>
+        <v>1.574986832005211e-06</v>
       </c>
       <c r="D2" t="n">
-        <v>2.563312092921039e-07</v>
+        <v>2.65793240857016e-07</v>
       </c>
       <c r="E2" t="n">
-        <v>4.200387532018739e-07</v>
+        <v>4.428282014596531e-07</v>
       </c>
       <c r="F2" t="n">
-        <v>13.94412763209592</v>
+        <v>2.514758393815446</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01596824705126667</v>
+        <v>0.7742708059773636</v>
       </c>
       <c r="H2" t="n">
-        <v>2.788825526419184</v>
+        <v>0.5029516787630892</v>
       </c>
     </row>
     <row r="3">
@@ -434,25 +434,25 @@
         <v>3.43865949305135</v>
       </c>
       <c r="B3" t="n">
-        <v>1.319215916978925e-05</v>
+        <v>1.319908050150938e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>1.160820973911753e-06</v>
+        <v>1.876213814933944e-06</v>
       </c>
       <c r="D3" t="n">
-        <v>3.917568934552353e-07</v>
+        <v>3.886983212467352e-07</v>
       </c>
       <c r="E3" t="n">
-        <v>6.19155288870367e-07</v>
+        <v>6.252784204490344e-07</v>
       </c>
       <c r="F3" t="n">
-        <v>16.09654722169186</v>
+        <v>17.20168648883643</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006573765467992281</v>
+        <v>0.004132757894624503</v>
       </c>
       <c r="H3" t="n">
-        <v>3.219309444338371</v>
+        <v>3.440337297767286</v>
       </c>
     </row>
     <row r="4">
@@ -460,25 +460,25 @@
         <v>3.440287767951486</v>
       </c>
       <c r="B4" t="n">
-        <v>1.574631675562183e-05</v>
+        <v>1.545266285991955e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>1.989983475487459e-06</v>
+        <v>8.491428989264072e-07</v>
       </c>
       <c r="D4" t="n">
-        <v>4.423898046256708e-07</v>
+        <v>4.41089750232476e-07</v>
       </c>
       <c r="E4" t="n">
-        <v>7.012652124292928e-07</v>
+        <v>6.82701549839636e-07</v>
       </c>
       <c r="F4" t="n">
-        <v>19.93396037771256</v>
+        <v>22.08034178354072</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001285896628453434</v>
+        <v>0.0005055010968381792</v>
       </c>
       <c r="H4" t="n">
-        <v>3.986792075542511</v>
+        <v>4.416068356708145</v>
       </c>
     </row>
     <row r="5">
@@ -486,25 +486,25 @@
         <v>3.443801413788623</v>
       </c>
       <c r="B5" t="n">
-        <v>2.27962217097655e-05</v>
+        <v>2.261768637904978e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>7.590789896947296e-07</v>
+        <v>2.696407781448022e-07</v>
       </c>
       <c r="D5" t="n">
-        <v>6.057121397546892e-07</v>
+        <v>6.073262366720585e-07</v>
       </c>
       <c r="E5" t="n">
-        <v>9.573342164700886e-07</v>
+        <v>9.577941082268269e-07</v>
       </c>
       <c r="F5" t="n">
-        <v>4.49146282353494</v>
+        <v>4.405824350078108</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4810264950723165</v>
+        <v>0.4925818137001267</v>
       </c>
       <c r="H5" t="n">
-        <v>0.898292564706988</v>
+        <v>0.8811648700156216</v>
       </c>
     </row>
     <row r="6">
@@ -512,25 +512,25 @@
         <v>3.445601086046668</v>
       </c>
       <c r="B6" t="n">
-        <v>2.407337475921413e-05</v>
+        <v>2.437897236259734e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>-5.358458878860059e-07</v>
+        <v>-1.193596054677753e-06</v>
       </c>
       <c r="D6" t="n">
-        <v>6.699418431585312e-07</v>
+        <v>6.769901172210897e-07</v>
       </c>
       <c r="E6" t="n">
-        <v>1.02842322310636e-06</v>
+        <v>1.030971429615629e-06</v>
       </c>
       <c r="F6" t="n">
-        <v>10.08759125508727</v>
+        <v>6.999733580838905</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07279109050493757</v>
+        <v>0.220660122621594</v>
       </c>
       <c r="H6" t="n">
-        <v>2.017518251017454</v>
+        <v>1.399946716167781</v>
       </c>
     </row>
     <row r="7">
@@ -538,25 +538,25 @@
         <v>3.446372374157259</v>
       </c>
       <c r="B7" t="n">
-        <v>2.458912233844321e-05</v>
+        <v>2.494612040800126e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>8.213493287184426e-07</v>
+        <v>1.210802816379219e-06</v>
       </c>
       <c r="D7" t="n">
-        <v>6.8294376120507e-07</v>
+        <v>6.871952822039904e-07</v>
       </c>
       <c r="E7" t="n">
-        <v>1.07787308681205e-06</v>
+        <v>1.095564670224795e-06</v>
       </c>
       <c r="F7" t="n">
-        <v>2.835826333266473</v>
+        <v>6.704242877402256</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7252787121088642</v>
+        <v>0.2435815426826275</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5671652666532946</v>
+        <v>1.340848575480451</v>
       </c>
     </row>
     <row r="8">
@@ -564,25 +564,25 @@
         <v>3.450743006783942</v>
       </c>
       <c r="B8" t="n">
-        <v>2.789061189839906e-05</v>
+        <v>2.754123043792089e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>7.594690538051492e-07</v>
+        <v>-5.973465536132544e-07</v>
       </c>
       <c r="D8" t="n">
-        <v>7.03496983954351e-07</v>
+        <v>7.005717253067359e-07</v>
       </c>
       <c r="E8" t="n">
-        <v>1.10652530609202e-06</v>
+        <v>1.078150532169359e-06</v>
       </c>
       <c r="F8" t="n">
-        <v>7.751931731708939</v>
+        <v>7.379980690583371</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1704474987297083</v>
+        <v>0.1938793203340485</v>
       </c>
       <c r="H8" t="n">
-        <v>1.550386346341788</v>
+        <v>1.475996138116674</v>
       </c>
     </row>
     <row r="9">
@@ -590,25 +590,25 @@
         <v>3.454170953942123</v>
       </c>
       <c r="B9" t="n">
-        <v>2.756226176284944e-05</v>
+        <v>2.747841456974042e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.813058367898843e-07</v>
+        <v>-2.277758393272375e-07</v>
       </c>
       <c r="D9" t="n">
-        <v>6.806588524829094e-07</v>
+        <v>6.795644420634152e-07</v>
       </c>
       <c r="E9" t="n">
-        <v>1.068759530110595e-06</v>
+        <v>1.069216021326625e-06</v>
       </c>
       <c r="F9" t="n">
-        <v>2.760228680329422</v>
+        <v>2.605026201917849</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7368924350045145</v>
+        <v>0.7606014505439365</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5520457360658844</v>
+        <v>0.5210052403835699</v>
       </c>
     </row>
     <row r="10">
@@ -616,25 +616,25 @@
         <v>3.454856543373759</v>
       </c>
       <c r="B10" t="n">
-        <v>2.520647200995809e-05</v>
+        <v>2.550146529968195e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>2.108094206553854e-08</v>
+        <v>-3.052557484561224e-07</v>
       </c>
       <c r="D10" t="n">
-        <v>6.778267326126996e-07</v>
+        <v>6.876869584792558e-07</v>
       </c>
       <c r="E10" t="n">
-        <v>1.067875429765952e-06</v>
+        <v>1.08533196669409e-06</v>
       </c>
       <c r="F10" t="n">
-        <v>6.82223293141683</v>
+        <v>3.971105633967327</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2342003297441986</v>
+        <v>0.5535835111592525</v>
       </c>
       <c r="H10" t="n">
-        <v>1.364446586283366</v>
+        <v>0.7942211267934655</v>
       </c>
     </row>
     <row r="11">
@@ -642,25 +642,25 @@
         <v>3.459227176000442</v>
       </c>
       <c r="B11" t="n">
-        <v>2.475551611834681e-05</v>
+        <v>2.535563057529167e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>-4.79889547572118e-07</v>
+        <v>-1.220051053446195e-06</v>
       </c>
       <c r="D11" t="n">
-        <v>6.690494128470855e-07</v>
+        <v>6.852991117032268e-07</v>
       </c>
       <c r="E11" t="n">
-        <v>1.028774055580705e-06</v>
+        <v>1.047041484457121e-06</v>
       </c>
       <c r="F11" t="n">
-        <v>8.176010653577743</v>
+        <v>5.298575924831939</v>
       </c>
       <c r="G11" t="n">
-        <v>0.146798399049501</v>
+        <v>0.380538308302707</v>
       </c>
       <c r="H11" t="n">
-        <v>1.635202130715549</v>
+        <v>1.059715184966388</v>
       </c>
     </row>
     <row r="12">
@@ -668,25 +668,25 @@
         <v>3.463512109948169</v>
       </c>
       <c r="B12" t="n">
-        <v>2.143279251962684e-05</v>
+        <v>2.1585480236849e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>-3.192797252667346e-07</v>
+        <v>-5.567539512635355e-07</v>
       </c>
       <c r="D12" t="n">
-        <v>5.705856695542333e-07</v>
+        <v>5.716091521139213e-07</v>
       </c>
       <c r="E12" t="n">
-        <v>8.915475439007104e-07</v>
+        <v>8.934815730652405e-07</v>
       </c>
       <c r="F12" t="n">
-        <v>5.360016945065917</v>
+        <v>2.721942342376717</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3735397322871974</v>
+        <v>0.7427604622735738</v>
       </c>
       <c r="H12" t="n">
-        <v>1.072003389013183</v>
+        <v>0.5443884684753434</v>
       </c>
     </row>
     <row r="13">
@@ -694,25 +694,25 @@
         <v>3.467882742574851</v>
       </c>
       <c r="B13" t="n">
-        <v>1.625218011625025e-05</v>
+        <v>1.678011353849022e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>3.500541132829566e-07</v>
+        <v>-3.827133656440955e-07</v>
       </c>
       <c r="D13" t="n">
-        <v>4.575713702236427e-07</v>
+        <v>4.705019531277212e-07</v>
       </c>
       <c r="E13" t="n">
-        <v>7.161928885361524e-07</v>
+        <v>7.2587435628453e-07</v>
       </c>
       <c r="F13" t="n">
-        <v>20.11933460185086</v>
+        <v>15.04018217228243</v>
       </c>
       <c r="G13" t="n">
-        <v>0.001186897965693516</v>
+        <v>0.01019201847698493</v>
       </c>
       <c r="H13" t="n">
-        <v>4.023866920370173</v>
+        <v>3.008036434456486</v>
       </c>
     </row>
     <row r="14">
@@ -720,25 +720,25 @@
         <v>3.669188939439092</v>
       </c>
       <c r="B14" t="n">
-        <v>9.412800515388261e-06</v>
+        <v>9.056578401702655e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>1.780343293814792e-07</v>
+        <v>1.722926522594708e-07</v>
       </c>
       <c r="D14" t="n">
-        <v>3.129444267712773e-07</v>
+        <v>2.986587937820929e-07</v>
       </c>
       <c r="E14" t="n">
-        <v>4.946837356464839e-07</v>
+        <v>4.751439130091884e-07</v>
       </c>
       <c r="F14" t="n">
-        <v>2.227608831309271</v>
+        <v>3.326836006772225</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8168381753169993</v>
+        <v>0.649735675101311</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4455217662618541</v>
+        <v>0.6653672013544449</v>
       </c>
     </row>
     <row r="15">
@@ -746,25 +746,25 @@
         <v>3.686414373908955</v>
       </c>
       <c r="B15" t="n">
-        <v>1.333466849741059e-05</v>
+        <v>1.351299072002267e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>3.777646860323956e-07</v>
+        <v>4.22888979460939e-07</v>
       </c>
       <c r="D15" t="n">
-        <v>4.115362715185783e-07</v>
+        <v>4.075823429548511e-07</v>
       </c>
       <c r="E15" t="n">
-        <v>6.43686016317825e-07</v>
+        <v>6.470105487089925e-07</v>
       </c>
       <c r="F15" t="n">
-        <v>2.151387256527149</v>
+        <v>1.359646140726371</v>
       </c>
       <c r="G15" t="n">
-        <v>0.827825977124937</v>
+        <v>0.9286761316002025</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4302774513054297</v>
+        <v>0.2719292281452741</v>
       </c>
     </row>
     <row r="16">
@@ -772,25 +772,25 @@
         <v>3.687271360698501</v>
       </c>
       <c r="B16" t="n">
-        <v>1.834787285624655e-05</v>
+        <v>1.8422324152805e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>3.605001677309216e-06</v>
+        <v>3.949813425093281e-06</v>
       </c>
       <c r="D16" t="n">
-        <v>5.41807498017932e-07</v>
+        <v>5.459721244960241e-07</v>
       </c>
       <c r="E16" t="n">
-        <v>9.049088421409954e-07</v>
+        <v>9.160893721635677e-07</v>
       </c>
       <c r="F16" t="n">
-        <v>2.610017723927902</v>
+        <v>1.965624657445368</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7598426153454333</v>
+        <v>0.853880791709356</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5220035447855803</v>
+        <v>0.3931249314890737</v>
       </c>
     </row>
     <row r="17">
@@ -798,25 +798,25 @@
         <v>3.689071032956547</v>
       </c>
       <c r="B17" t="n">
-        <v>2.154901071201101e-05</v>
+        <v>2.200246340796716e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>4.29875155277902e-06</v>
+        <v>4.309950849559593e-06</v>
       </c>
       <c r="D17" t="n">
-        <v>6.169972839637386e-07</v>
+        <v>6.242219839937502e-07</v>
       </c>
       <c r="E17" t="n">
-        <v>1.034551421226465e-06</v>
+        <v>1.047445742325608e-06</v>
       </c>
       <c r="F17" t="n">
-        <v>6.826741449860661</v>
+        <v>2.574513208802637</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2338479514500255</v>
+        <v>0.7652337895324623</v>
       </c>
       <c r="H17" t="n">
-        <v>1.365348289972132</v>
+        <v>0.5149026417605275</v>
       </c>
     </row>
     <row r="18">
@@ -824,25 +824,25 @@
         <v>3.689928019746092</v>
       </c>
       <c r="B18" t="n">
-        <v>2.536252507404389e-05</v>
+        <v>2.494669096640212e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>5.574769692920976e-06</v>
+        <v>6.133121018355549e-06</v>
       </c>
       <c r="D18" t="n">
-        <v>7.085031010358693e-07</v>
+        <v>6.949220040099541e-07</v>
       </c>
       <c r="E18" t="n">
-        <v>1.19505401994371e-06</v>
+        <v>1.174092573921238e-06</v>
       </c>
       <c r="F18" t="n">
-        <v>14.11013157601103</v>
+        <v>7.940418941459055</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01492477414213759</v>
+        <v>0.1595499698883749</v>
       </c>
       <c r="H18" t="n">
-        <v>2.822026315202207</v>
+        <v>1.588083788291811</v>
       </c>
     </row>
     <row r="19">
@@ -850,25 +850,25 @@
         <v>3.690699307856684</v>
       </c>
       <c r="B19" t="n">
-        <v>3.055739492357083e-05</v>
+        <v>3.095645507635786e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>7.0367207003632e-06</v>
+        <v>7.159636789179842e-06</v>
       </c>
       <c r="D19" t="n">
-        <v>8.135972308834331e-07</v>
+        <v>8.234215267921765e-07</v>
       </c>
       <c r="E19" t="n">
-        <v>1.38031981552618e-06</v>
+        <v>1.411956643794956e-06</v>
       </c>
       <c r="F19" t="n">
-        <v>2.079938211114588</v>
+        <v>2.808386836083074</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8379771832897892</v>
+        <v>0.7294977154271848</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4159876422229176</v>
+        <v>0.5616773672166149</v>
       </c>
     </row>
     <row r="20">
@@ -876,25 +876,25 @@
         <v>3.691641993325183</v>
       </c>
       <c r="B20" t="n">
-        <v>3.389340303078284e-05</v>
+        <v>3.397575551313108e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>9.060027157727711e-06</v>
+        <v>1.013683944631891e-05</v>
       </c>
       <c r="D20" t="n">
-        <v>9.123764664335193e-07</v>
+        <v>9.168567959816956e-07</v>
       </c>
       <c r="E20" t="n">
-        <v>1.54143008872975e-06</v>
+        <v>1.567480138159902e-06</v>
       </c>
       <c r="F20" t="n">
-        <v>6.143513095888061</v>
+        <v>4.922465974031595</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2925039324474982</v>
+        <v>0.4254157237801658</v>
       </c>
       <c r="H20" t="n">
-        <v>1.228702619177612</v>
+        <v>0.9844931948063189</v>
       </c>
     </row>
     <row r="21">
@@ -902,25 +902,25 @@
         <v>3.692498980114729</v>
       </c>
       <c r="B21" t="n">
-        <v>5.199916029727853e-05</v>
+        <v>5.232134414289667e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>1.201541472784712e-05</v>
+        <v>1.380683156210815e-05</v>
       </c>
       <c r="D21" t="n">
-        <v>1.325724134239901e-06</v>
+        <v>1.328572445721869e-06</v>
       </c>
       <c r="E21" t="n">
-        <v>2.268877952675585e-06</v>
+        <v>2.30264094437452e-06</v>
       </c>
       <c r="F21" t="n">
-        <v>2.122543758760416</v>
+        <v>4.145561435393088</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8319421396025289</v>
+        <v>0.5286548417930558</v>
       </c>
       <c r="H21" t="n">
-        <v>0.4245087517520832</v>
+        <v>0.8291122870786175</v>
       </c>
     </row>
     <row r="22">
@@ -928,25 +928,25 @@
         <v>3.693270268225319</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0001493256315339884</v>
+        <v>0.0001494829845790327</v>
       </c>
       <c r="C22" t="n">
-        <v>5.140347549087188e-05</v>
+        <v>5.161530190686301e-05</v>
       </c>
       <c r="D22" t="n">
-        <v>3.619847490522658e-06</v>
+        <v>3.62398775967739e-06</v>
       </c>
       <c r="E22" t="n">
-        <v>6.47277634558444e-06</v>
+        <v>6.493313803460478e-06</v>
       </c>
       <c r="F22" t="n">
-        <v>1.207391942520446</v>
+        <v>1.899340239719869</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9441662450393543</v>
+        <v>0.8628905780666558</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2414783885040891</v>
+        <v>0.3798680479439738</v>
       </c>
     </row>
     <row r="23">
@@ -954,25 +954,25 @@
         <v>3.694127255014865</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0002345341023605184</v>
+        <v>0.000235905595450817</v>
       </c>
       <c r="C23" t="n">
-        <v>8.271496843236938e-05</v>
+        <v>8.253027425380929e-05</v>
       </c>
       <c r="D23" t="n">
-        <v>5.609844551783536e-06</v>
+        <v>5.637446888660722e-06</v>
       </c>
       <c r="E23" t="n">
-        <v>9.992179284701734e-06</v>
+        <v>1.003123732546902e-05</v>
       </c>
       <c r="F23" t="n">
-        <v>3.532460612106107</v>
+        <v>3.386834770176177</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6184817178795818</v>
+        <v>0.6405757874371758</v>
       </c>
       <c r="H23" t="n">
-        <v>0.7064921224212214</v>
+        <v>0.6773669540352355</v>
       </c>
     </row>
     <row r="24">
@@ -980,25 +980,25 @@
         <v>3.695841228593956</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0003501517906347162</v>
+        <v>0.0003515659517085381</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0001051845513843293</v>
+        <v>0.0001017927557534986</v>
       </c>
       <c r="D24" t="n">
-        <v>8.27953866572928e-06</v>
+        <v>8.307596547428543e-06</v>
       </c>
       <c r="E24" t="n">
-        <v>1.447848544369853e-05</v>
+        <v>1.451107176908768e-05</v>
       </c>
       <c r="F24" t="n">
-        <v>2.983145411671698</v>
+        <v>2.495168176027269</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7025844613021419</v>
+        <v>0.7772225769944441</v>
       </c>
       <c r="H24" t="n">
-        <v>0.5966290823343395</v>
+        <v>0.4990336352054537</v>
       </c>
     </row>
     <row r="25">
@@ -1006,25 +1006,25 @@
         <v>3.697555202173048</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0003561167261261804</v>
+        <v>0.000355293205458917</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0001138710846001003</v>
+        <v>0.0001130386570638378</v>
       </c>
       <c r="D25" t="n">
-        <v>8.179318025126815e-06</v>
+        <v>8.171682676604757e-06</v>
       </c>
       <c r="E25" t="n">
-        <v>1.453331899953107e-05</v>
+        <v>1.450940375765169e-05</v>
       </c>
       <c r="F25" t="n">
-        <v>2.657103463139385</v>
+        <v>2.420548936431373</v>
       </c>
       <c r="G25" t="n">
-        <v>0.752671044759046</v>
+        <v>0.7884101005574438</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5314206926278771</v>
+        <v>0.4841097872862746</v>
       </c>
     </row>
     <row r="26">
@@ -1032,25 +1032,25 @@
         <v>3.699354874431093</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0003306973992561655</v>
+        <v>0.000331314387783266</v>
       </c>
       <c r="C26" t="n">
-        <v>9.619601044813777e-05</v>
+        <v>9.575427181323886e-05</v>
       </c>
       <c r="D26" t="n">
-        <v>7.772098748895889e-06</v>
+        <v>7.801708013411695e-06</v>
       </c>
       <c r="E26" t="n">
-        <v>1.361407263555997e-05</v>
+        <v>1.368366755607479e-05</v>
       </c>
       <c r="F26" t="n">
-        <v>4.220771444121854</v>
+        <v>3.738784986104018</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5180878252112949</v>
+        <v>0.5876029077063248</v>
       </c>
       <c r="H26" t="n">
-        <v>0.8441542888243708</v>
+        <v>0.7477569972208036</v>
       </c>
     </row>
     <row r="27">
@@ -1058,25 +1058,25 @@
         <v>3.701068848010184</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0003148125660661934</v>
+        <v>0.0003150902158239802</v>
       </c>
       <c r="C27" t="n">
-        <v>9.878401740183329e-05</v>
+        <v>9.895437143303488e-05</v>
       </c>
       <c r="D27" t="n">
-        <v>7.574081493168671e-06</v>
+        <v>7.567226958200221e-06</v>
       </c>
       <c r="E27" t="n">
-        <v>1.335121027181613e-05</v>
+        <v>1.333523131899833e-05</v>
       </c>
       <c r="F27" t="n">
-        <v>4.000856600377209</v>
+        <v>3.509010621151241</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5492926281373153</v>
+        <v>0.6220246467736613</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8001713200754418</v>
+        <v>0.7018021242302481</v>
       </c>
     </row>
     <row r="28">
@@ -1084,25 +1084,25 @@
         <v>3.70286852026823</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0003157238168915628</v>
+        <v>0.0003151506527892818</v>
       </c>
       <c r="C28" t="n">
-        <v>9.185735194533763e-05</v>
+        <v>9.441775651958758e-05</v>
       </c>
       <c r="D28" t="n">
-        <v>7.598066240945416e-06</v>
+        <v>7.581465756304106e-06</v>
       </c>
       <c r="E28" t="n">
-        <v>1.326373137564472e-05</v>
+        <v>1.326237088609256e-05</v>
       </c>
       <c r="F28" t="n">
-        <v>3.464033234437423</v>
+        <v>3.159981023122883</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6288367100705482</v>
+        <v>0.6753369813191054</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6928066468874845</v>
+        <v>0.6319962046245766</v>
       </c>
     </row>
     <row r="29">
@@ -1110,25 +1110,25 @@
         <v>3.703468411020912</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0003205878994117404</v>
+        <v>0.00032185833939234</v>
       </c>
       <c r="C29" t="n">
-        <v>8.951079947209218e-05</v>
+        <v>8.867770551835346e-05</v>
       </c>
       <c r="D29" t="n">
-        <v>7.562609300290936e-06</v>
+        <v>7.59219816678e-06</v>
       </c>
       <c r="E29" t="n">
-        <v>1.317128696175293e-05</v>
+        <v>1.322719767398621e-05</v>
       </c>
       <c r="F29" t="n">
-        <v>2.886600123070234</v>
+        <v>2.627162457836631</v>
       </c>
       <c r="G29" t="n">
-        <v>0.7174635021556313</v>
+        <v>0.7572340597832414</v>
       </c>
       <c r="H29" t="n">
-        <v>0.5773200246140469</v>
+        <v>0.5254324915673263</v>
       </c>
     </row>
     <row r="30">
@@ -1136,25 +1136,25 @@
         <v>3.704496795168366</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0003095740852128879</v>
+        <v>0.0003091810868936329</v>
       </c>
       <c r="C30" t="n">
-        <v>8.724809796530894e-05</v>
+        <v>8.592199425361106e-05</v>
       </c>
       <c r="D30" t="n">
-        <v>7.333270349563983e-06</v>
+        <v>7.328594605935464e-06</v>
       </c>
       <c r="E30" t="n">
-        <v>1.280468806455096e-05</v>
+        <v>1.274557486380858e-05</v>
       </c>
       <c r="F30" t="n">
-        <v>4.966855938326406</v>
+        <v>3.898260135951727</v>
       </c>
       <c r="G30" t="n">
-        <v>0.419938530186545</v>
+        <v>0.5641551580944842</v>
       </c>
       <c r="H30" t="n">
-        <v>0.9933711876652811</v>
+        <v>0.7796520271903453</v>
       </c>
     </row>
     <row r="31">
@@ -1162,25 +1162,25 @@
         <v>3.706125070068503</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0003123376099193717</v>
+        <v>0.0003119772735740884</v>
       </c>
       <c r="C31" t="n">
-        <v>9.72359594084994e-05</v>
+        <v>9.9458955757114e-05</v>
       </c>
       <c r="D31" t="n">
-        <v>7.395248551696374e-06</v>
+        <v>7.391747630703965e-06</v>
       </c>
       <c r="E31" t="n">
-        <v>1.302062195153549e-05</v>
+        <v>1.304632725278753e-05</v>
       </c>
       <c r="F31" t="n">
-        <v>3.265800351343873</v>
+        <v>2.612480819643245</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6590815624932895</v>
+        <v>0.7594680591376647</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6531600702687747</v>
+        <v>0.5224961639286489</v>
       </c>
     </row>
     <row r="32">
@@ -1188,25 +1188,25 @@
         <v>3.707839043647593</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0003106862360392154</v>
+        <v>0.0003092968001898526</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0001054447840380608</v>
+        <v>0.0001066717126801703</v>
       </c>
       <c r="D32" t="n">
-        <v>7.425291284882631e-06</v>
+        <v>7.383283223440107e-06</v>
       </c>
       <c r="E32" t="n">
-        <v>1.315034179245916e-05</v>
+        <v>1.308134718996476e-05</v>
       </c>
       <c r="F32" t="n">
-        <v>4.887692937355922</v>
+        <v>5.042948711998147</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4297396222772329</v>
+        <v>0.4106612038567978</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9775385874711844</v>
+        <v>1.008589742399629</v>
       </c>
     </row>
     <row r="33">
@@ -1214,25 +1214,25 @@
         <v>3.709638715905639</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0003031091512029449</v>
+        <v>0.0003039788454544803</v>
       </c>
       <c r="C33" t="n">
-        <v>8.986727738961661e-05</v>
+        <v>8.9481405181075e-05</v>
       </c>
       <c r="D33" t="n">
-        <v>7.147149706968444e-06</v>
+        <v>7.163665684212418e-06</v>
       </c>
       <c r="E33" t="n">
-        <v>1.259344898060036e-05</v>
+        <v>1.260830916819072e-05</v>
       </c>
       <c r="F33" t="n">
-        <v>3.332438700768234</v>
+        <v>2.698805157568608</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6488791117741408</v>
+        <v>0.746301177252802</v>
       </c>
       <c r="H33" t="n">
-        <v>0.6664877401536468</v>
+        <v>0.5397610315137216</v>
       </c>
     </row>
     <row r="34">
@@ -1240,25 +1240,25 @@
         <v>3.71135268948473</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0002955788683935973</v>
+        <v>0.0002940849711371756</v>
       </c>
       <c r="C34" t="n">
-        <v>8.853662129394075e-05</v>
+        <v>9.179391624710121e-05</v>
       </c>
       <c r="D34" t="n">
-        <v>7.151361622775703e-06</v>
+        <v>7.103701922168971e-06</v>
       </c>
       <c r="E34" t="n">
-        <v>1.256281688607188e-05</v>
+        <v>1.250034327561784e-05</v>
       </c>
       <c r="F34" t="n">
-        <v>2.147380921821429</v>
+        <v>2.196133656643894</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8283991348856019</v>
+        <v>0.8213942418577052</v>
       </c>
       <c r="H34" t="n">
-        <v>0.4294761843642859</v>
+        <v>0.4392267313287787</v>
       </c>
     </row>
     <row r="35">
@@ -1266,25 +1266,25 @@
         <v>3.713066663063821</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0002745700649680516</v>
+        <v>0.0002752187509430452</v>
       </c>
       <c r="C35" t="n">
-        <v>8.658018404593249e-05</v>
+        <v>8.354687231067853e-05</v>
       </c>
       <c r="D35" t="n">
-        <v>6.530151333971926e-06</v>
+        <v>6.538730097048261e-06</v>
       </c>
       <c r="E35" t="n">
-        <v>1.150506365633891e-05</v>
+        <v>1.149192809868432e-05</v>
       </c>
       <c r="F35" t="n">
-        <v>5.441929000003212</v>
+        <v>4.566651780344898</v>
       </c>
       <c r="G35" t="n">
-        <v>0.3643556024722658</v>
+        <v>0.4710154888747526</v>
       </c>
       <c r="H35" t="n">
-        <v>1.088385800000642</v>
+        <v>0.9133303560689796</v>
       </c>
     </row>
     <row r="36">
@@ -1292,25 +1292,25 @@
         <v>3.714609239285003</v>
       </c>
       <c r="B36" t="n">
-        <v>0.000249940231766741</v>
+        <v>0.0002503928763686801</v>
       </c>
       <c r="C36" t="n">
-        <v>8.068070406637434e-05</v>
+        <v>7.668230409327805e-05</v>
       </c>
       <c r="D36" t="n">
-        <v>5.917434845238605e-06</v>
+        <v>5.93272177766963e-06</v>
       </c>
       <c r="E36" t="n">
-        <v>1.046040430995382e-05</v>
+        <v>1.04527911759977e-05</v>
       </c>
       <c r="F36" t="n">
-        <v>6.183677277416589</v>
+        <v>5.191357358905199</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2887544443937253</v>
+        <v>0.3929760361477194</v>
       </c>
       <c r="H36" t="n">
-        <v>1.236735455483318</v>
+        <v>1.03827147178104</v>
       </c>
     </row>
     <row r="37">
@@ -1318,25 +1318,25 @@
         <v>3.716494610222004</v>
       </c>
       <c r="B37" t="n">
-        <v>0.000202570240799258</v>
+        <v>0.0002017783432673744</v>
       </c>
       <c r="C37" t="n">
-        <v>6.45018533124874e-05</v>
+        <v>6.524885185753646e-05</v>
       </c>
       <c r="D37" t="n">
-        <v>4.756746133014528e-06</v>
+        <v>4.735950795803204e-06</v>
       </c>
       <c r="E37" t="n">
-        <v>8.384128930276438e-06</v>
+        <v>8.348894986756806e-06</v>
       </c>
       <c r="F37" t="n">
-        <v>3.804918679877979</v>
+        <v>3.613584908230364</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5778307876781308</v>
+        <v>0.6062747397851953</v>
       </c>
       <c r="H37" t="n">
-        <v>0.7609837359755958</v>
+        <v>0.7227169816460728</v>
       </c>
     </row>
     <row r="38">
@@ -1344,25 +1344,25 @@
         <v>3.718122885122139</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0001618681966940322</v>
+        <v>0.000162031058757197</v>
       </c>
       <c r="C38" t="n">
-        <v>4.516653152884428e-05</v>
+        <v>4.56083940837736e-05</v>
       </c>
       <c r="D38" t="n">
-        <v>3.799533684392221e-06</v>
+        <v>3.807561464373887e-06</v>
       </c>
       <c r="E38" t="n">
-        <v>6.635201664130778e-06</v>
+        <v>6.656199059786452e-06</v>
       </c>
       <c r="F38" t="n">
-        <v>2.969624481457925</v>
+        <v>2.658511176299389</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7046690227046694</v>
+        <v>0.7524562851090308</v>
       </c>
       <c r="H38" t="n">
-        <v>0.5939248962915851</v>
+        <v>0.5317022352598778</v>
       </c>
     </row>
     <row r="39">
@@ -1370,25 +1370,25 @@
         <v>3.719836858701231</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0001090687356416565</v>
+        <v>0.0001100833491912207</v>
       </c>
       <c r="C39" t="n">
-        <v>3.574922179683457e-05</v>
+        <v>3.624640658002567e-05</v>
       </c>
       <c r="D39" t="n">
-        <v>2.578205036260863e-06</v>
+        <v>2.599772547341676e-06</v>
       </c>
       <c r="E39" t="n">
-        <v>4.569491133231973e-06</v>
+        <v>4.612976707400919e-06</v>
       </c>
       <c r="F39" t="n">
-        <v>4.731423422828195</v>
+        <v>4.119861334068118</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4495286992274165</v>
+        <v>0.5322912159405193</v>
       </c>
       <c r="H39" t="n">
-        <v>0.946284684565639</v>
+        <v>0.8239722668136237</v>
       </c>
     </row>
     <row r="40">
@@ -1396,25 +1396,25 @@
         <v>3.720693845490776</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0001543913205017484</v>
+        <v>0.0001555391065387225</v>
       </c>
       <c r="C40" t="n">
-        <v>4.593264697354845e-05</v>
+        <v>4.449704869778555e-05</v>
       </c>
       <c r="D40" t="n">
-        <v>3.703393523734567e-06</v>
+        <v>3.725838370119889e-06</v>
       </c>
       <c r="E40" t="n">
-        <v>6.50096141825437e-06</v>
+        <v>6.530966912445711e-06</v>
       </c>
       <c r="F40" t="n">
-        <v>1.847422009506526</v>
+        <v>1.581589789520504</v>
       </c>
       <c r="G40" t="n">
-        <v>0.869828540139421</v>
+        <v>0.9034666712348218</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3694844019013052</v>
+        <v>0.3163179579041007</v>
       </c>
     </row>
     <row r="41">
@@ -1422,25 +1422,25 @@
         <v>3.721636530959276</v>
       </c>
       <c r="B41" t="n">
-        <v>7.695311234005205e-05</v>
+        <v>7.774934991524637e-05</v>
       </c>
       <c r="C41" t="n">
-        <v>2.498943615683847e-05</v>
+        <v>2.34438036846815e-05</v>
       </c>
       <c r="D41" t="n">
-        <v>1.881265528837236e-06</v>
+        <v>1.899536217456959e-06</v>
       </c>
       <c r="E41" t="n">
-        <v>3.309678450239218e-06</v>
+        <v>3.326612132417312e-06</v>
       </c>
       <c r="F41" t="n">
-        <v>3.584834439549565</v>
+        <v>1.818161642656123</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6105917629838689</v>
+        <v>0.8736899620022387</v>
       </c>
       <c r="H41" t="n">
-        <v>0.7169668879099129</v>
+        <v>0.3636323285312246</v>
       </c>
     </row>
     <row r="42">
@@ -1448,25 +1448,25 @@
         <v>3.723350504538367</v>
       </c>
       <c r="B42" t="n">
-        <v>5.245596685435774e-05</v>
+        <v>5.224979877474527e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>1.160440672026619e-05</v>
+        <v>1.138466505397199e-05</v>
       </c>
       <c r="D42" t="n">
-        <v>1.309437614469444e-06</v>
+        <v>1.310004704701588e-06</v>
       </c>
       <c r="E42" t="n">
-        <v>2.236519618713144e-06</v>
+        <v>2.230641570306807e-06</v>
       </c>
       <c r="F42" t="n">
-        <v>1.730027386361443</v>
+        <v>1.830439834468895</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8850953153820686</v>
+        <v>0.8720740226492331</v>
       </c>
       <c r="H42" t="n">
-        <v>0.3460054772722885</v>
+        <v>0.3660879668937789</v>
       </c>
     </row>
     <row r="43">
@@ -1474,25 +1474,25 @@
         <v>3.725064478117458</v>
       </c>
       <c r="B43" t="n">
-        <v>3.98569019814242e-05</v>
+        <v>3.99027483606153e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>8.837379717926166e-06</v>
+        <v>8.828724556301808e-06</v>
       </c>
       <c r="D43" t="n">
-        <v>1.00891910816529e-06</v>
+        <v>1.011090379704919e-06</v>
       </c>
       <c r="E43" t="n">
-        <v>1.707260031893269e-06</v>
+        <v>1.717359844336105e-06</v>
       </c>
       <c r="F43" t="n">
-        <v>5.729735584672158</v>
+        <v>2.849347296345443</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3334112426757586</v>
+        <v>0.723198505133688</v>
       </c>
       <c r="H43" t="n">
-        <v>1.145947116934432</v>
+        <v>0.5698694592690885</v>
       </c>
     </row>
     <row r="44">
@@ -1500,25 +1500,25 @@
         <v>3.729178014707276</v>
       </c>
       <c r="B44" t="n">
-        <v>2.433021624308644e-05</v>
+        <v>2.409754952928436e-05</v>
       </c>
       <c r="C44" t="n">
-        <v>4.323124657744589e-06</v>
+        <v>4.686115117244346e-06</v>
       </c>
       <c r="D44" t="n">
-        <v>6.676685687739833e-07</v>
+        <v>6.667099614675685e-07</v>
       </c>
       <c r="E44" t="n">
-        <v>1.1209703779303e-06</v>
+        <v>1.121205532265477e-06</v>
       </c>
       <c r="F44" t="n">
-        <v>4.79070168041269</v>
+        <v>2.16256267921113</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4419536328681082</v>
+        <v>0.8262248027850381</v>
       </c>
       <c r="H44" t="n">
-        <v>0.958140336082538</v>
+        <v>0.432512535842226</v>
       </c>
     </row>
     <row r="45">
@@ -1526,25 +1526,25 @@
         <v>3.73337724997605</v>
       </c>
       <c r="B45" t="n">
-        <v>2.143853207549628e-05</v>
+        <v>2.12427577284247e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>2.090246386357824e-06</v>
+        <v>2.014471734889703e-06</v>
       </c>
       <c r="D45" t="n">
-        <v>6.212620158975432e-07</v>
+        <v>6.160058943379625e-07</v>
       </c>
       <c r="E45" t="n">
-        <v>1.003878498704664e-06</v>
+        <v>9.854292412324457e-07</v>
       </c>
       <c r="F45" t="n">
-        <v>10.1187533250495</v>
+        <v>10.57484398384203</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0719395061509379</v>
+        <v>0.06049250488297573</v>
       </c>
       <c r="H45" t="n">
-        <v>2.0237506650099</v>
+        <v>2.114968796768407</v>
       </c>
     </row>
     <row r="46">
@@ -1552,25 +1552,25 @@
         <v>3.737747882602732</v>
       </c>
       <c r="B46" t="n">
-        <v>2.046179933622971e-05</v>
+        <v>2.002572671197003e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>4.936905684480098e-07</v>
+        <v>6.292465017403524e-07</v>
       </c>
       <c r="D46" t="n">
-        <v>5.836206879948087e-07</v>
+        <v>5.719604543569405e-07</v>
       </c>
       <c r="E46" t="n">
-        <v>9.147131099044765e-07</v>
+        <v>8.986401799160765e-07</v>
       </c>
       <c r="F46" t="n">
-        <v>3.67782124549009</v>
+        <v>2.776761261016206</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5966679272307029</v>
+        <v>0.7343554198197736</v>
       </c>
       <c r="H46" t="n">
-        <v>0.735564249098018</v>
+        <v>0.5553522522032412</v>
       </c>
     </row>
     <row r="47">
@@ -1578,25 +1578,25 @@
         <v>3.754973317072596</v>
       </c>
       <c r="B47" t="n">
-        <v>2.243964525905628e-05</v>
+        <v>2.185645855446731e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>-6.477975073834547e-07</v>
+        <v>-3.535514351593739e-07</v>
       </c>
       <c r="D47" t="n">
-        <v>6.140310161437445e-07</v>
+        <v>6.058932928961545e-07</v>
       </c>
       <c r="E47" t="n">
-        <v>9.507343650268878e-07</v>
+        <v>9.423251161079567e-07</v>
       </c>
       <c r="F47" t="n">
-        <v>4.198774010871037</v>
+        <v>5.678462975833781</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5211668111240593</v>
+        <v>0.3387732314356555</v>
       </c>
       <c r="H47" t="n">
-        <v>0.8397548021742074</v>
+        <v>1.135692595166756</v>
       </c>
     </row>
     <row r="48">
@@ -1604,25 +1604,25 @@
         <v>3.772113052863507</v>
       </c>
       <c r="B48" t="n">
-        <v>2.891731050571235e-05</v>
+        <v>2.898096692890009e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>-1.550449546030101e-06</v>
+        <v>-2.056598456353059e-06</v>
       </c>
       <c r="D48" t="n">
-        <v>7.6476413485364e-07</v>
+        <v>7.698078104102303e-07</v>
       </c>
       <c r="E48" t="n">
-        <v>1.211520244862998e-06</v>
+        <v>1.202335483750807e-06</v>
       </c>
       <c r="F48" t="n">
-        <v>3.509613400946262</v>
+        <v>1.910331181414455</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6219334996327744</v>
+        <v>0.8614081300972606</v>
       </c>
       <c r="H48" t="n">
-        <v>0.7019226801892524</v>
+        <v>0.3820662362828909</v>
       </c>
     </row>
     <row r="49">
@@ -1630,25 +1630,25 @@
         <v>3.789167089975462</v>
       </c>
       <c r="B49" t="n">
-        <v>3.966000643577311e-05</v>
+        <v>3.900183675288866e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>-2.657323678589734e-06</v>
+        <v>-1.766006824219198e-06</v>
       </c>
       <c r="D49" t="n">
-        <v>1.015962386964472e-06</v>
+        <v>1.005390259638332e-06</v>
       </c>
       <c r="E49" t="n">
-        <v>1.582874268053654e-06</v>
+        <v>1.57847010669296e-06</v>
       </c>
       <c r="F49" t="n">
-        <v>4.446500365858004</v>
+        <v>5.203879148835067</v>
       </c>
       <c r="G49" t="n">
-        <v>0.487073257691195</v>
+        <v>0.3915087551298649</v>
       </c>
       <c r="H49" t="n">
-        <v>0.8893000731716008</v>
+        <v>1.040775829767013</v>
       </c>
     </row>
     <row r="50">
@@ -1656,25 +1656,25 @@
         <v>3.797908355228826</v>
       </c>
       <c r="B50" t="n">
-        <v>5.729751011808561e-05</v>
+        <v>5.728074326723492e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>-2.377301880184893e-06</v>
+        <v>-2.950087400618702e-06</v>
       </c>
       <c r="D50" t="n">
-        <v>1.436568949504702e-06</v>
+        <v>1.437172018362035e-06</v>
       </c>
       <c r="E50" t="n">
-        <v>2.246797775258316e-06</v>
+        <v>2.229513621908086e-06</v>
       </c>
       <c r="F50" t="n">
-        <v>5.405055070887832</v>
+        <v>4.992885052987559</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3684692812797137</v>
+        <v>0.4167491236103643</v>
       </c>
       <c r="H50" t="n">
-        <v>1.081011014177566</v>
+        <v>0.9985770105975119</v>
       </c>
     </row>
     <row r="51">
@@ -1682,25 +1682,25 @@
         <v>3.806478223124282</v>
       </c>
       <c r="B51" t="n">
-        <v>7.184858865117597e-05</v>
+        <v>7.137762679956637e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>-3.780502964069449e-06</v>
+        <v>-3.891436644216397e-06</v>
       </c>
       <c r="D51" t="n">
-        <v>1.736070934427552e-06</v>
+        <v>1.727292465626976e-06</v>
       </c>
       <c r="E51" t="n">
-        <v>2.704844450993213e-06</v>
+        <v>2.680450532097157e-06</v>
       </c>
       <c r="F51" t="n">
-        <v>1.96824314050837</v>
+        <v>2.438643204647187</v>
       </c>
       <c r="G51" t="n">
-        <v>0.8535215316649875</v>
+        <v>0.7857058343430584</v>
       </c>
       <c r="H51" t="n">
-        <v>0.3936486281016739</v>
+        <v>0.4877286409294374</v>
       </c>
     </row>
     <row r="52">
@@ -1708,25 +1708,25 @@
         <v>3.814876693661827</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0001353982375586029</v>
+        <v>0.0001362738131160392</v>
       </c>
       <c r="C52" t="n">
-        <v>-1.108479596110314e-05</v>
+        <v>-1.19098461798316e-05</v>
       </c>
       <c r="D52" t="n">
-        <v>3.402515451200998e-06</v>
+        <v>3.420025157002882e-06</v>
       </c>
       <c r="E52" t="n">
-        <v>5.266317454808428e-06</v>
+        <v>5.275835302595392e-06</v>
       </c>
       <c r="F52" t="n">
-        <v>3.193057751897027</v>
+        <v>3.183088114176543</v>
       </c>
       <c r="G52" t="n">
-        <v>0.670249963252354</v>
+        <v>0.6717827405351622</v>
       </c>
       <c r="H52" t="n">
-        <v>0.6386115503794054</v>
+        <v>0.6366176228353086</v>
       </c>
     </row>
     <row r="53">
@@ -1734,25 +1734,25 @@
         <v>3.823360862878328</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0002119594141825129</v>
+        <v>0.0002122838044129812</v>
       </c>
       <c r="C53" t="n">
-        <v>-2.548136234636184e-05</v>
+        <v>-2.496311213559687e-05</v>
       </c>
       <c r="D53" t="n">
-        <v>5.186017896870148e-06</v>
+        <v>5.190625903458666e-06</v>
       </c>
       <c r="E53" t="n">
-        <v>7.867364794131982e-06</v>
+        <v>7.88582472636253e-06</v>
       </c>
       <c r="F53" t="n">
-        <v>1.172349031477037</v>
+        <v>0.6956096557001921</v>
       </c>
       <c r="G53" t="n">
-        <v>0.9475024348122643</v>
+        <v>0.9832087584191227</v>
       </c>
       <c r="H53" t="n">
-        <v>0.2344698062954074</v>
+        <v>0.1391219311400384</v>
       </c>
     </row>
     <row r="54">
@@ -1760,25 +1760,25 @@
         <v>3.82773149550501</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0004973809175826027</v>
+        <v>0.0004987573545750757</v>
       </c>
       <c r="C54" t="n">
-        <v>-6.009737758095425e-05</v>
+        <v>-5.875244617864456e-05</v>
       </c>
       <c r="D54" t="n">
-        <v>1.239584550196235e-05</v>
+        <v>1.24165972786854e-05</v>
       </c>
       <c r="E54" t="n">
-        <v>1.885329976089189e-05</v>
+        <v>1.892429161688018e-05</v>
       </c>
       <c r="F54" t="n">
-        <v>0.5853005525603558</v>
+        <v>0.4887208226958105</v>
       </c>
       <c r="G54" t="n">
-        <v>0.9886663665947171</v>
+        <v>0.992530470401224</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1170601105120712</v>
+        <v>0.0977441645391621</v>
       </c>
     </row>
     <row r="55">
@@ -1786,25 +1786,25 @@
         <v>3.832102128131692</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0007443047171281286</v>
+        <v>0.0007445890796154835</v>
       </c>
       <c r="C55" t="n">
-        <v>-6.917254768692733e-05</v>
+        <v>-6.544261158142426e-05</v>
       </c>
       <c r="D55" t="n">
-        <v>1.803578646528413e-05</v>
+        <v>1.80378658942342e-05</v>
       </c>
       <c r="E55" t="n">
-        <v>2.779244286690968e-05</v>
+        <v>2.78682518192633e-05</v>
       </c>
       <c r="F55" t="n">
-        <v>3.406627069863093</v>
+        <v>3.475841685313686</v>
       </c>
       <c r="G55" t="n">
-        <v>0.6375608025380696</v>
+        <v>0.627046200853532</v>
       </c>
       <c r="H55" t="n">
-        <v>0.6813254139726187</v>
+        <v>0.6951683370627372</v>
       </c>
     </row>
     <row r="56">
@@ -1812,25 +1812,25 @@
         <v>3.840586297348192</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0007851740997885811</v>
+        <v>0.0007863038996349193</v>
       </c>
       <c r="C56" t="n">
-        <v>-9.665641509170805e-05</v>
+        <v>-0.0001029017116171132</v>
       </c>
       <c r="D56" t="n">
-        <v>1.873670836090308e-05</v>
+        <v>1.876622166238529e-05</v>
       </c>
       <c r="E56" t="n">
-        <v>2.857219168300825e-05</v>
+        <v>2.853748418526474e-05</v>
       </c>
       <c r="F56" t="n">
-        <v>4.788313756695452</v>
+        <v>4.513942801783521</v>
       </c>
       <c r="G56" t="n">
-        <v>0.4422571737465443</v>
+        <v>0.4780201092917584</v>
       </c>
       <c r="H56" t="n">
-        <v>0.9576627513390903</v>
+        <v>0.9027885603567041</v>
       </c>
     </row>
     <row r="57">
@@ -1838,25 +1838,25 @@
         <v>3.847442191664556</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0005792750635633713</v>
+        <v>0.000579934540598445</v>
       </c>
       <c r="C57" t="n">
-        <v>-6.27816552183501e-05</v>
+        <v>-6.492368413406108e-05</v>
       </c>
       <c r="D57" t="n">
-        <v>1.413601688433767e-05</v>
+        <v>1.415096546163015e-05</v>
       </c>
       <c r="E57" t="n">
-        <v>2.169628184626348e-05</v>
+        <v>2.171519232543196e-05</v>
       </c>
       <c r="F57" t="n">
-        <v>3.236861480112737</v>
+        <v>3.315238295885658</v>
       </c>
       <c r="G57" t="n">
-        <v>0.6635211486994791</v>
+        <v>0.6515095268089324</v>
       </c>
       <c r="H57" t="n">
-        <v>0.6473722960225474</v>
+        <v>0.6630476591771316</v>
       </c>
     </row>
     <row r="58">
@@ -1864,25 +1864,25 @@
         <v>3.854383784659876</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0002738975154179079</v>
+        <v>0.0002741482133046725</v>
       </c>
       <c r="C58" t="n">
-        <v>-2.651481821074758e-05</v>
+        <v>-2.618524916727418e-05</v>
       </c>
       <c r="D58" t="n">
-        <v>6.774080628689516e-06</v>
+        <v>6.778110679637098e-06</v>
       </c>
       <c r="E58" t="n">
-        <v>1.033012724897068e-05</v>
+        <v>1.033611214692238e-05</v>
       </c>
       <c r="F58" t="n">
-        <v>4.689418550557033</v>
+        <v>3.667243899276174</v>
       </c>
       <c r="G58" t="n">
-        <v>0.454946487607789</v>
+        <v>0.5982460234949749</v>
       </c>
       <c r="H58" t="n">
-        <v>0.9378837101114066</v>
+        <v>0.7334487798552347</v>
       </c>
     </row>
     <row r="59">
@@ -1890,25 +1890,25 @@
         <v>3.856183456917921</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0002019366808834981</v>
+        <v>0.0002039938105434613</v>
       </c>
       <c r="C59" t="n">
-        <v>-1.974319126514781e-05</v>
+        <v>-2.229921761908596e-05</v>
       </c>
       <c r="D59" t="n">
-        <v>5.049416329070281e-06</v>
+        <v>5.103731385053742e-06</v>
       </c>
       <c r="E59" t="n">
-        <v>7.723732764620979e-06</v>
+        <v>7.79437039186526e-06</v>
       </c>
       <c r="F59" t="n">
-        <v>2.372152071945889</v>
+        <v>1.672512237560803</v>
       </c>
       <c r="G59" t="n">
-        <v>0.7956138773633556</v>
+        <v>0.8923443889097487</v>
       </c>
       <c r="H59" t="n">
-        <v>0.4744304143891777</v>
+        <v>0.3345024475121606</v>
       </c>
     </row>
     <row r="60">
@@ -1916,25 +1916,25 @@
         <v>3.857811731818057</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0002700146844970852</v>
+        <v>0.0002702650568822427</v>
       </c>
       <c r="C60" t="n">
-        <v>-3.38808434236995e-05</v>
+        <v>-3.085215335264129e-05</v>
       </c>
       <c r="D60" t="n">
-        <v>6.59122788884989e-06</v>
+        <v>6.592973984116574e-06</v>
       </c>
       <c r="E60" t="n">
-        <v>1.00301458615588e-05</v>
+        <v>1.008915687291689e-05</v>
       </c>
       <c r="F60" t="n">
-        <v>3.687520464155877</v>
+        <v>4.249703826337581</v>
       </c>
       <c r="G60" t="n">
-        <v>0.5952221947788331</v>
+        <v>0.5140530572105194</v>
       </c>
       <c r="H60" t="n">
-        <v>0.7375040928311755</v>
+        <v>0.8499407652675162</v>
       </c>
     </row>
     <row r="61">
@@ -1942,25 +1942,25 @@
         <v>3.859611404076103</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0001042540447564562</v>
+        <v>0.0001035599145352955</v>
       </c>
       <c r="C61" t="n">
-        <v>-6.359039354607204e-06</v>
+        <v>-5.587015272311382e-06</v>
       </c>
       <c r="D61" t="n">
-        <v>2.64954423113351e-06</v>
+        <v>2.633620340062428e-06</v>
       </c>
       <c r="E61" t="n">
-        <v>4.123018533373484e-06</v>
+        <v>4.113916158225271e-06</v>
       </c>
       <c r="F61" t="n">
-        <v>4.587539373611665</v>
+        <v>5.233532675414848</v>
       </c>
       <c r="G61" t="n">
-        <v>0.4682570829430295</v>
+        <v>0.3880495075228902</v>
       </c>
       <c r="H61" t="n">
-        <v>0.917507874722333</v>
+        <v>1.04670653508297</v>
       </c>
     </row>
     <row r="62">
@@ -1968,25 +1968,25 @@
         <v>3.86201096708683</v>
       </c>
       <c r="B62" t="n">
-        <v>6.969111661669001e-05</v>
+        <v>6.935038949002422e-05</v>
       </c>
       <c r="C62" t="n">
-        <v>-8.946175986610503e-07</v>
+        <v>-7.429428752662876e-07</v>
       </c>
       <c r="D62" t="n">
-        <v>1.731727294159901e-06</v>
+        <v>1.728943231284057e-06</v>
       </c>
       <c r="E62" t="n">
-        <v>2.742170754489924e-06</v>
+        <v>2.745399447981808e-06</v>
       </c>
       <c r="F62" t="n">
-        <v>4.469237557873249</v>
+        <v>4.389988959133593</v>
       </c>
       <c r="G62" t="n">
-        <v>0.4840098684241243</v>
+        <v>0.4947360487038164</v>
       </c>
       <c r="H62" t="n">
-        <v>0.8938475115746497</v>
+        <v>0.8779977918267186</v>
       </c>
     </row>
     <row r="63">
@@ -1994,25 +1994,25 @@
         <v>3.866295901034558</v>
       </c>
       <c r="B63" t="n">
-        <v>3.946433746980095e-05</v>
+        <v>3.929020770560362e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>3.428127532839461e-06</v>
+        <v>2.99396600795475e-06</v>
       </c>
       <c r="D63" t="n">
-        <v>1.036380067020702e-06</v>
+        <v>1.042205691862203e-06</v>
       </c>
       <c r="E63" t="n">
-        <v>1.681853494989707e-06</v>
+        <v>1.681079960995483e-06</v>
       </c>
       <c r="F63" t="n">
-        <v>3.846824150592263</v>
+        <v>1.438518408101321</v>
       </c>
       <c r="G63" t="n">
-        <v>0.5716737079047426</v>
+        <v>0.9200538590049394</v>
       </c>
       <c r="H63" t="n">
-        <v>0.7693648301184526</v>
+        <v>0.2877036816202642</v>
       </c>
     </row>
     <row r="64">
@@ -2020,25 +2020,25 @@
         <v>3.875037166287922</v>
       </c>
       <c r="B64" t="n">
-        <v>2.981074004934195e-05</v>
+        <v>2.999368706920226e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>3.171166193197531e-06</v>
+        <v>2.12892925279154e-06</v>
       </c>
       <c r="D64" t="n">
-        <v>7.901685321354417e-07</v>
+        <v>7.976703589413987e-07</v>
       </c>
       <c r="E64" t="n">
-        <v>1.303538197798442e-06</v>
+        <v>1.296320850217631e-06</v>
       </c>
       <c r="F64" t="n">
-        <v>3.28271400901179</v>
+        <v>1.061266807935699</v>
       </c>
       <c r="G64" t="n">
-        <v>0.6564891810614593</v>
+        <v>0.9574743726064918</v>
       </c>
       <c r="H64" t="n">
-        <v>0.656542801802358</v>
+        <v>0.2122533615871397</v>
       </c>
     </row>
     <row r="65">
@@ -2046,25 +2046,25 @@
         <v>3.876751139867013</v>
       </c>
       <c r="B65" t="n">
-        <v>6.70616386935338e-05</v>
+        <v>6.789996888381935e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>1.907270793125486e-05</v>
+        <v>1.873019034591374e-05</v>
       </c>
       <c r="D65" t="n">
-        <v>1.695774945813665e-06</v>
+        <v>1.715599746780177e-06</v>
       </c>
       <c r="E65" t="n">
-        <v>2.972396526900242e-06</v>
+        <v>2.986881004666461e-06</v>
       </c>
       <c r="F65" t="n">
-        <v>2.227643323307421</v>
+        <v>1.664936042628336</v>
       </c>
       <c r="G65" t="n">
-        <v>0.816833168661047</v>
+        <v>0.8932872713270581</v>
       </c>
       <c r="H65" t="n">
-        <v>0.4455286646614843</v>
+        <v>0.3329872085256672</v>
       </c>
     </row>
     <row r="66">
@@ -2072,25 +2072,25 @@
         <v>3.879236401556695</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0001971852960465272</v>
+        <v>0.000197128584946958</v>
       </c>
       <c r="C66" t="n">
-        <v>5.577042365974128e-05</v>
+        <v>5.494290655226123e-05</v>
       </c>
       <c r="D66" t="n">
-        <v>4.805095295465738e-06</v>
+        <v>4.810104477243206e-06</v>
       </c>
       <c r="E66" t="n">
-        <v>8.363980135968075e-06</v>
+        <v>8.355237286388435e-06</v>
       </c>
       <c r="F66" t="n">
-        <v>5.128272260421479</v>
+        <v>4.955253200845699</v>
       </c>
       <c r="G66" t="n">
-        <v>0.4004272377803933</v>
+        <v>0.4213655530066583</v>
       </c>
       <c r="H66" t="n">
-        <v>1.025654452084296</v>
+        <v>0.9910506401691398</v>
       </c>
     </row>
     <row r="67">
@@ -2098,25 +2098,25 @@
         <v>3.883521335504422</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0003458028375611417</v>
+        <v>0.0003470038804740453</v>
       </c>
       <c r="C67" t="n">
-        <v>8.277193840023047e-05</v>
+        <v>8.473623390867809e-05</v>
       </c>
       <c r="D67" t="n">
-        <v>8.12869628166947e-06</v>
+        <v>8.14498756346283e-06</v>
       </c>
       <c r="E67" t="n">
-        <v>1.413563460340508e-05</v>
+        <v>1.418087000669339e-05</v>
       </c>
       <c r="F67" t="n">
-        <v>2.125528766670119</v>
+        <v>1.916878229589081</v>
       </c>
       <c r="G67" t="n">
-        <v>0.8315172769785943</v>
+        <v>0.8605228545760026</v>
       </c>
       <c r="H67" t="n">
-        <v>0.4251057533340237</v>
+        <v>0.3833756459178163</v>
       </c>
     </row>
     <row r="68">
@@ -2124,25 +2124,25 @@
         <v>3.887891968131104</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0006268703397131254</v>
+        <v>0.0006267176823496632</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0001261932358785905</v>
+        <v>0.0001271990993388354</v>
       </c>
       <c r="D68" t="n">
-        <v>1.478796443742397e-05</v>
+        <v>1.47898933163383e-05</v>
       </c>
       <c r="E68" t="n">
-        <v>2.522430395291772e-05</v>
+        <v>2.523774232520365e-05</v>
       </c>
       <c r="F68" t="n">
-        <v>4.716561796262464</v>
+        <v>5.514444403174441</v>
       </c>
       <c r="G68" t="n">
-        <v>0.451440826838607</v>
+        <v>0.3563645992605741</v>
       </c>
       <c r="H68" t="n">
-        <v>0.9433123592524929</v>
+        <v>1.102888880634888</v>
       </c>
     </row>
     <row r="69">
@@ -2150,25 +2150,25 @@
         <v>3.891491312647195</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0006286386387176521</v>
+        <v>0.0006296917226291316</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0001355487081778715</v>
+        <v>0.0001329020254249151</v>
       </c>
       <c r="D69" t="n">
-        <v>1.422437091081331e-05</v>
+        <v>1.424860531167473e-05</v>
       </c>
       <c r="E69" t="n">
-        <v>2.454083263722276e-05</v>
+        <v>2.458296122494805e-05</v>
       </c>
       <c r="F69" t="n">
-        <v>2.128788173169039</v>
+        <v>1.964305269658252</v>
       </c>
       <c r="G69" t="n">
-        <v>0.8310530606015339</v>
+        <v>0.8540617201153318</v>
       </c>
       <c r="H69" t="n">
-        <v>0.4257576346338078</v>
+        <v>0.3928610539316504</v>
       </c>
     </row>
     <row r="70">
@@ -2176,25 +2176,25 @@
         <v>3.896376137347605</v>
       </c>
       <c r="B70" t="n">
-        <v>0.001092178554364772</v>
+        <v>0.001094978402596049</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0002006162098637388</v>
+        <v>0.0001931069222417291</v>
       </c>
       <c r="D70" t="n">
-        <v>2.507249257150721e-05</v>
+        <v>2.513333486527505e-05</v>
       </c>
       <c r="E70" t="n">
-        <v>4.279486192322164e-05</v>
+        <v>4.279064770378315e-05</v>
       </c>
       <c r="F70" t="n">
-        <v>1.643063048190478</v>
+        <v>1.471343738280333</v>
       </c>
       <c r="G70" t="n">
-        <v>0.8959933186114664</v>
+        <v>0.9163528601080114</v>
       </c>
       <c r="H70" t="n">
-        <v>0.3286126096380955</v>
+        <v>0.2942687476560667</v>
       </c>
     </row>
     <row r="71">
@@ -2202,25 +2202,25 @@
         <v>3.900746769974288</v>
       </c>
       <c r="B71" t="n">
-        <v>0.001210652202830639</v>
+        <v>0.0012182270699651</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0001969930899861764</v>
+        <v>0.0001908537162743209</v>
       </c>
       <c r="D71" t="n">
-        <v>2.868534574327324e-05</v>
+        <v>2.887110143096936e-05</v>
       </c>
       <c r="E71" t="n">
-        <v>4.832243504816508e-05</v>
+        <v>4.860543398052704e-05</v>
       </c>
       <c r="F71" t="n">
-        <v>3.11559504867897</v>
+        <v>3.545119269980428</v>
       </c>
       <c r="G71" t="n">
-        <v>0.682169841674801</v>
+        <v>0.6165717773393748</v>
       </c>
       <c r="H71" t="n">
-        <v>0.6231190097357939</v>
+        <v>0.7090238539960856</v>
       </c>
     </row>
     <row r="72">
@@ -2228,25 +2228,25 @@
         <v>3.908973843153924</v>
       </c>
       <c r="B72" t="n">
-        <v>0.00156405561228967</v>
+        <v>0.001566731454096002</v>
       </c>
       <c r="C72" t="n">
-        <v>9.539193579317842e-05</v>
+        <v>9.334762947906601e-05</v>
       </c>
       <c r="D72" t="n">
-        <v>3.36167731964527e-05</v>
+        <v>3.368105479693097e-05</v>
       </c>
       <c r="E72" t="n">
-        <v>5.515865153295986e-05</v>
+        <v>5.526518874762364e-05</v>
       </c>
       <c r="F72" t="n">
-        <v>1.329274258450261</v>
+        <v>1.368687902217155</v>
       </c>
       <c r="G72" t="n">
-        <v>0.9318907475637197</v>
+        <v>0.9277075919339713</v>
       </c>
       <c r="H72" t="n">
-        <v>0.2658548516900522</v>
+        <v>0.273737580443431</v>
       </c>
     </row>
     <row r="73">
@@ -2254,25 +2254,25 @@
         <v>3.917886505765197</v>
       </c>
       <c r="B73" t="n">
-        <v>0.002371273072102534</v>
+        <v>0.002378700608332966</v>
       </c>
       <c r="C73" t="n">
-        <v>-5.35016381693976e-05</v>
+        <v>-5.831795960498272e-05</v>
       </c>
       <c r="D73" t="n">
-        <v>5.280053470451698e-05</v>
+        <v>5.294264481435345e-05</v>
       </c>
       <c r="E73" t="n">
-        <v>8.401831566302543e-05</v>
+        <v>8.42053111554819e-05</v>
       </c>
       <c r="F73" t="n">
-        <v>4.238772121625423</v>
+        <v>3.898183646688483</v>
       </c>
       <c r="G73" t="n">
-        <v>0.5155755372013355</v>
+        <v>0.564166306198048</v>
       </c>
       <c r="H73" t="n">
-        <v>0.8477544243250845</v>
+        <v>0.7796367293376967</v>
       </c>
     </row>
     <row r="74">
@@ -2280,25 +2280,25 @@
         <v>3.926370674981698</v>
       </c>
       <c r="B74" t="n">
-        <v>0.002188998851760987</v>
+        <v>0.002193140588039971</v>
       </c>
       <c r="C74" t="n">
-        <v>-9.834768172733966e-05</v>
+        <v>-9.430425148281301e-05</v>
       </c>
       <c r="D74" t="n">
-        <v>4.926534518330482e-05</v>
+        <v>4.933307417050081e-05</v>
       </c>
       <c r="E74" t="n">
-        <v>7.779095984687207e-05</v>
+        <v>7.797974307389454e-05</v>
       </c>
       <c r="F74" t="n">
-        <v>3.943426647843076</v>
+        <v>4.433290139707229</v>
       </c>
       <c r="G74" t="n">
-        <v>0.5575896069396404</v>
+        <v>0.4888582937291537</v>
       </c>
       <c r="H74" t="n">
-        <v>0.7886853295686151</v>
+        <v>0.8866580279414459</v>
       </c>
     </row>
     <row r="75">
@@ -2306,25 +2306,25 @@
         <v>3.934854844198199</v>
       </c>
       <c r="B75" t="n">
-        <v>0.001114209624610891</v>
+        <v>0.001113701504778483</v>
       </c>
       <c r="C75" t="n">
-        <v>-4.58280957766681e-05</v>
+        <v>-4.83713405399354e-05</v>
       </c>
       <c r="D75" t="n">
-        <v>2.668382440354024e-05</v>
+        <v>2.667306859014832e-05</v>
       </c>
       <c r="E75" t="n">
-        <v>4.18427200898371e-05</v>
+        <v>4.178650452737528e-05</v>
       </c>
       <c r="F75" t="n">
-        <v>4.800656308927333</v>
+        <v>4.577727469960366</v>
       </c>
       <c r="G75" t="n">
-        <v>0.4406897101777839</v>
+        <v>0.4695516021156217</v>
       </c>
       <c r="H75" t="n">
-        <v>0.9601312617854665</v>
+        <v>0.9155454939920732</v>
       </c>
     </row>
     <row r="76">
@@ -2332,25 +2332,25 @@
         <v>3.943510410772608</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0005975578704322149</v>
+        <v>0.0005972907885441181</v>
       </c>
       <c r="C76" t="n">
-        <v>-2.883225212315884e-05</v>
+        <v>-2.839971962426352e-05</v>
       </c>
       <c r="D76" t="n">
-        <v>1.420872422459746e-05</v>
+        <v>1.41960134553744e-05</v>
       </c>
       <c r="E76" t="n">
-        <v>2.229302067087545e-05</v>
+        <v>2.22696127782749e-05</v>
       </c>
       <c r="F76" t="n">
-        <v>1.295441732690894</v>
+        <v>1.574435537884367</v>
       </c>
       <c r="G76" t="n">
-        <v>0.9354000218999378</v>
+        <v>0.9043234274878503</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2590883465381789</v>
+        <v>0.3148871075768733</v>
       </c>
     </row>
     <row r="77">
@@ -2358,25 +2358,25 @@
         <v>3.952251676025972</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0004821418612688468</v>
+        <v>0.0004838224143565453</v>
       </c>
       <c r="C77" t="n">
-        <v>6.272042186615339e-05</v>
+        <v>6.195741033616171e-05</v>
       </c>
       <c r="D77" t="n">
-        <v>1.149003122915011e-05</v>
+        <v>1.151541415629865e-05</v>
       </c>
       <c r="E77" t="n">
-        <v>1.912424142288257e-05</v>
+        <v>1.915832779329475e-05</v>
       </c>
       <c r="F77" t="n">
-        <v>2.792797442453385</v>
+        <v>2.462323164273354</v>
       </c>
       <c r="G77" t="n">
-        <v>0.731892967037679</v>
+        <v>0.7821582781034686</v>
       </c>
       <c r="H77" t="n">
-        <v>0.5585594884906769</v>
+        <v>0.4924646328546707</v>
       </c>
     </row>
     <row r="78">
@@ -2384,25 +2384,25 @@
         <v>3.960564447884564</v>
       </c>
       <c r="B78" t="n">
-        <v>0.001088846873853519</v>
+        <v>0.001087367090395709</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0002403642652386334</v>
+        <v>0.0002375671579384329</v>
       </c>
       <c r="D78" t="n">
-        <v>2.449173441295759e-05</v>
+        <v>2.447202390281359e-05</v>
       </c>
       <c r="E78" t="n">
-        <v>4.230016881125978e-05</v>
+        <v>4.230996716303785e-05</v>
       </c>
       <c r="F78" t="n">
-        <v>2.443371140440327</v>
+        <v>2.488665196548418</v>
       </c>
       <c r="G78" t="n">
-        <v>0.7849982863633121</v>
+        <v>0.7782011392533812</v>
       </c>
       <c r="H78" t="n">
-        <v>0.4886742280880654</v>
+        <v>0.4977330393096835</v>
       </c>
     </row>
     <row r="79">
@@ -2410,25 +2410,25 @@
         <v>3.969305713137928</v>
       </c>
       <c r="B79" t="n">
-        <v>0.001223094639048</v>
+        <v>0.001221939387854176</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0002986153216694737</v>
+        <v>0.0003011673295277594</v>
       </c>
       <c r="D79" t="n">
-        <v>2.824691518540784e-05</v>
+        <v>2.823262806642331e-05</v>
       </c>
       <c r="E79" t="n">
-        <v>4.892271836685425e-05</v>
+        <v>4.893637567081186e-05</v>
       </c>
       <c r="F79" t="n">
-        <v>3.43196404921538</v>
+        <v>3.916806048560637</v>
       </c>
       <c r="G79" t="n">
-        <v>0.633706404438283</v>
+        <v>0.561455054296746</v>
       </c>
       <c r="H79" t="n">
-        <v>0.686392809843076</v>
+        <v>0.7833612097121273</v>
       </c>
     </row>
     <row r="80">
@@ -2436,25 +2436,25 @@
         <v>3.977618484996519</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0008872670947922737</v>
+        <v>0.0008884968542066886</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0002515223437460703</v>
+        <v>0.0002511772606346067</v>
       </c>
       <c r="D80" t="n">
-        <v>1.993669694152308e-05</v>
+        <v>1.996153595475879e-05</v>
       </c>
       <c r="E80" t="n">
-        <v>3.495735741791301e-05</v>
+        <v>3.498911352018079e-05</v>
       </c>
       <c r="F80" t="n">
-        <v>1.135439050392002</v>
+        <v>1.112577448372416</v>
       </c>
       <c r="G80" t="n">
-        <v>0.9509191173268288</v>
+        <v>0.9529843538013952</v>
       </c>
       <c r="H80" t="n">
-        <v>0.2270878100784004</v>
+        <v>0.2225154896744831</v>
       </c>
     </row>
     <row r="81">
@@ -2462,25 +2462,25 @@
         <v>3.982160514981111</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0004699634833501503</v>
+        <v>0.0004703898860562241</v>
       </c>
       <c r="C81" t="n">
-        <v>0.000100039315161967</v>
+        <v>0.0001012026698231058</v>
       </c>
       <c r="D81" t="n">
-        <v>1.111329811481229e-05</v>
+        <v>1.112545807604847e-05</v>
       </c>
       <c r="E81" t="n">
-        <v>1.88948618510045e-05</v>
+        <v>1.896374510850377e-05</v>
       </c>
       <c r="F81" t="n">
-        <v>2.992974233854051</v>
+        <v>2.9444649260149</v>
       </c>
       <c r="G81" t="n">
-        <v>0.701069069333117</v>
+        <v>0.7085475115451096</v>
       </c>
       <c r="H81" t="n">
-        <v>0.5985948467708101</v>
+        <v>0.5888929852029801</v>
       </c>
     </row>
     <row r="82">
@@ -2488,25 +2488,25 @@
         <v>3.986274051570929</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0002772219754459356</v>
+        <v>0.0002786851770548426</v>
       </c>
       <c r="C82" t="n">
-        <v>4.80602225736794e-05</v>
+        <v>4.556699738041012e-05</v>
       </c>
       <c r="D82" t="n">
-        <v>6.734271837406314e-06</v>
+        <v>6.767872135119441e-06</v>
       </c>
       <c r="E82" t="n">
-        <v>1.125847958019128e-05</v>
+        <v>1.125303132400744e-05</v>
       </c>
       <c r="F82" t="n">
-        <v>2.938396038243424</v>
+        <v>2.472659465967122</v>
       </c>
       <c r="G82" t="n">
-        <v>0.7094829434351061</v>
+        <v>0.7806068628674581</v>
       </c>
       <c r="H82" t="n">
-        <v>0.5876792076486849</v>
+        <v>0.4945318931934244</v>
       </c>
     </row>
     <row r="83">
@@ -2514,25 +2514,25 @@
         <v>3.994843919466384</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0002311961550640694</v>
+        <v>0.0002319633775040189</v>
       </c>
       <c r="C83" t="n">
-        <v>2.149409833304889e-05</v>
+        <v>2.178598301840617e-05</v>
       </c>
       <c r="D83" t="n">
-        <v>5.709407304570544e-06</v>
+        <v>5.713559052452694e-06</v>
       </c>
       <c r="E83" t="n">
-        <v>9.404522945946666e-06</v>
+        <v>9.402448173906523e-06</v>
       </c>
       <c r="F83" t="n">
-        <v>4.278201842800009</v>
+        <v>4.489816771606528</v>
       </c>
       <c r="G83" t="n">
-        <v>0.5100956061847333</v>
+        <v>0.4812470743091996</v>
       </c>
       <c r="H83" t="n">
-        <v>0.8556403685600019</v>
+        <v>0.8979633543213057</v>
       </c>
     </row>
     <row r="84">
@@ -2540,25 +2540,25 @@
         <v>4.012069353936249</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0001203762061346624</v>
+        <v>0.0001200384420734323</v>
       </c>
       <c r="C84" t="n">
-        <v>1.278269463111817e-05</v>
+        <v>1.417200632044662e-05</v>
       </c>
       <c r="D84" t="n">
-        <v>3.017718213020281e-06</v>
+        <v>3.007583634193657e-06</v>
       </c>
       <c r="E84" t="n">
-        <v>4.90936750926286e-06</v>
+        <v>4.909105567398605e-06</v>
       </c>
       <c r="F84" t="n">
-        <v>0.7895221076657807</v>
+        <v>1.365619299732154</v>
       </c>
       <c r="G84" t="n">
-        <v>0.97769683706056</v>
+        <v>0.9280368843292394</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1579044215331561</v>
+        <v>0.2731238599464308</v>
       </c>
     </row>
     <row r="85">
@@ -2566,25 +2566,25 @@
         <v>4.020724920510658</v>
       </c>
       <c r="B85" t="n">
-        <v>6.331282286091608e-05</v>
+        <v>6.225990864689907e-05</v>
       </c>
       <c r="C85" t="n">
-        <v>7.665303472211297e-06</v>
+        <v>8.150691281846674e-06</v>
       </c>
       <c r="D85" t="n">
-        <v>1.696894396667884e-06</v>
+        <v>1.677612080081736e-06</v>
       </c>
       <c r="E85" t="n">
-        <v>2.761731351076568e-06</v>
+        <v>2.739801511578383e-06</v>
       </c>
       <c r="F85" t="n">
-        <v>4.116799172366723</v>
+        <v>3.471939144228888</v>
       </c>
       <c r="G85" t="n">
-        <v>0.5327253407674372</v>
+        <v>0.6276377825310879</v>
       </c>
       <c r="H85" t="n">
-        <v>0.8233598344733446</v>
+        <v>0.6943878288457777</v>
       </c>
     </row>
     <row r="86">
@@ -2592,25 +2592,25 @@
         <v>4.02903769236925</v>
       </c>
       <c r="B86" t="n">
-        <v>4.853649607000778e-05</v>
+        <v>4.799251351649025e-05</v>
       </c>
       <c r="C86" t="n">
-        <v>6.448312218913568e-06</v>
+        <v>6.293420561439002e-06</v>
       </c>
       <c r="D86" t="n">
-        <v>1.301218537625635e-06</v>
+        <v>1.286400163454597e-06</v>
       </c>
       <c r="E86" t="n">
-        <v>2.144274955191656e-06</v>
+        <v>2.114171448069639e-06</v>
       </c>
       <c r="F86" t="n">
-        <v>5.225126693388339</v>
+        <v>1.692797410558345</v>
       </c>
       <c r="G86" t="n">
-        <v>0.3890278970099246</v>
+        <v>0.8898059107983328</v>
       </c>
       <c r="H86" t="n">
-        <v>1.045025338677668</v>
+        <v>0.338559482111669</v>
       </c>
     </row>
     <row r="87">
@@ -2618,25 +2618,25 @@
         <v>4.046263126839114</v>
       </c>
       <c r="B87" t="n">
-        <v>3.895714764604389e-05</v>
+        <v>3.846230136048694e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>4.929087668798849e-06</v>
+        <v>3.956902615534643e-06</v>
       </c>
       <c r="D87" t="n">
-        <v>9.948344757618147e-07</v>
+        <v>9.856477626092642e-07</v>
       </c>
       <c r="E87" t="n">
-        <v>1.658575532797383e-06</v>
+        <v>1.637584706456498e-06</v>
       </c>
       <c r="F87" t="n">
-        <v>0.8439085568833065</v>
+        <v>3.332952497690849</v>
       </c>
       <c r="G87" t="n">
-        <v>0.9741485939826187</v>
+        <v>0.6488005722750841</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1687817113766613</v>
+        <v>0.6665904995381697</v>
       </c>
     </row>
     <row r="88">
@@ -2644,25 +2644,25 @@
         <v>4.063402862630025</v>
       </c>
       <c r="B88" t="n">
-        <v>3.596957050399937e-05</v>
+        <v>3.565808814341556e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>6.291397614738428e-06</v>
+        <v>6.863910624200484e-06</v>
       </c>
       <c r="D88" t="n">
-        <v>9.876838630597432e-07</v>
+        <v>9.829153633206478e-07</v>
       </c>
       <c r="E88" t="n">
-        <v>1.63662871497139e-06</v>
+        <v>1.635204327121157e-06</v>
       </c>
       <c r="F88" t="n">
-        <v>1.317588119029567</v>
+        <v>0.6838821841490973</v>
       </c>
       <c r="G88" t="n">
-        <v>0.93311151058721</v>
+        <v>0.9838415338661063</v>
       </c>
       <c r="H88" t="n">
-        <v>0.2635176238059135</v>
+        <v>0.1367764368298195</v>
       </c>
     </row>
     <row r="89">
@@ -2670,25 +2670,25 @@
         <v>4.080542598420934</v>
       </c>
       <c r="B89" t="n">
-        <v>4.890341272614254e-05</v>
+        <v>4.902838902242452e-05</v>
       </c>
       <c r="C89" t="n">
-        <v>6.826464285082818e-06</v>
+        <v>6.689576826670098e-06</v>
       </c>
       <c r="D89" t="n">
-        <v>1.349856564704904e-06</v>
+        <v>1.335729578345948e-06</v>
       </c>
       <c r="E89" t="n">
-        <v>2.222385622917052e-06</v>
+        <v>2.211122063929129e-06</v>
       </c>
       <c r="F89" t="n">
-        <v>2.589395646406978</v>
+        <v>3.193841065952604</v>
       </c>
       <c r="G89" t="n">
-        <v>0.7629758069654786</v>
+        <v>0.6701295522806057</v>
       </c>
       <c r="H89" t="n">
-        <v>0.5178791292813956</v>
+        <v>0.6387682131905208</v>
       </c>
     </row>
     <row r="90">
@@ -2696,25 +2696,25 @@
         <v>4.084998929726572</v>
       </c>
       <c r="B90" t="n">
-        <v>8.802940877877635e-05</v>
+        <v>8.803279363690824e-05</v>
       </c>
       <c r="C90" t="n">
-        <v>1.186713853916458e-05</v>
+        <v>1.092718532765123e-05</v>
       </c>
       <c r="D90" t="n">
-        <v>2.395790234793519e-06</v>
+        <v>2.396827653399132e-06</v>
       </c>
       <c r="E90" t="n">
-        <v>3.932769060356258e-06</v>
+        <v>3.920519545734822e-06</v>
       </c>
       <c r="F90" t="n">
-        <v>2.674792945673878</v>
+        <v>2.51835683476248</v>
       </c>
       <c r="G90" t="n">
-        <v>0.7499709622774471</v>
+        <v>0.7737279933880793</v>
       </c>
       <c r="H90" t="n">
-        <v>0.5349585891347757</v>
+        <v>0.503671366952496</v>
       </c>
     </row>
     <row r="91">
@@ -2722,25 +2722,25 @@
         <v>4.08816978084789</v>
       </c>
       <c r="B91" t="n">
-        <v>9.923308370558867e-05</v>
+        <v>9.964690070149824e-05</v>
       </c>
       <c r="C91" t="n">
-        <v>9.825707552408124e-06</v>
+        <v>1.02323871528746e-05</v>
       </c>
       <c r="D91" t="n">
-        <v>2.640845650589294e-06</v>
+        <v>2.65481272650729e-06</v>
       </c>
       <c r="E91" t="n">
-        <v>4.250103638503338e-06</v>
+        <v>4.268868877187334e-06</v>
       </c>
       <c r="F91" t="n">
-        <v>1.941081162461479</v>
+        <v>2.364576967702548</v>
       </c>
       <c r="G91" t="n">
-        <v>0.8572360626085942</v>
+        <v>0.7967373594806024</v>
       </c>
       <c r="H91" t="n">
-        <v>0.3882162324922959</v>
+        <v>0.4729153935405096</v>
       </c>
     </row>
     <row r="92">
@@ -2748,25 +2748,25 @@
         <v>4.097682334211846</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0001216142866234235</v>
+        <v>0.0001220239298385816</v>
       </c>
       <c r="C92" t="n">
-        <v>1.709823423124232e-05</v>
+        <v>1.812529741923412e-05</v>
       </c>
       <c r="D92" t="n">
-        <v>3.154094326699387e-06</v>
+        <v>3.157725108095727e-06</v>
       </c>
       <c r="E92" t="n">
-        <v>5.213774413881128e-06</v>
+        <v>5.233588571812814e-06</v>
       </c>
       <c r="F92" t="n">
-        <v>2.226933968453508</v>
+        <v>2.860836914976255</v>
       </c>
       <c r="G92" t="n">
-        <v>0.816936128421611</v>
+        <v>0.7214302342411656</v>
       </c>
       <c r="H92" t="n">
-        <v>0.4453867936907016</v>
+        <v>0.5721673829952509</v>
       </c>
     </row>
     <row r="93">
@@ -2774,25 +2774,25 @@
         <v>4.101967268159573</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0001837779390975756</v>
+        <v>0.0001840805632339315</v>
       </c>
       <c r="C93" t="n">
-        <v>2.730564838119887e-05</v>
+        <v>2.950492504082772e-05</v>
       </c>
       <c r="D93" t="n">
-        <v>4.580638273046211e-06</v>
+        <v>4.572783936287596e-06</v>
       </c>
       <c r="E93" t="n">
-        <v>7.627235355132012e-06</v>
+        <v>7.643311581617784e-06</v>
       </c>
       <c r="F93" t="n">
-        <v>1.546337639228298</v>
+        <v>1.717561989522927</v>
       </c>
       <c r="G93" t="n">
-        <v>0.9076613139683158</v>
+        <v>0.886679861677915</v>
       </c>
       <c r="H93" t="n">
-        <v>0.3092675278456595</v>
+        <v>0.3435123979045854</v>
       </c>
     </row>
     <row r="94">
@@ -2800,25 +2800,25 @@
         <v>4.106423599465209</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0003853677286659953</v>
+        <v>0.0003850643862084647</v>
       </c>
       <c r="C94" t="n">
-        <v>8.627309268210637e-05</v>
+        <v>8.700014179230064e-05</v>
       </c>
       <c r="D94" t="n">
-        <v>9.356714435139088e-06</v>
+        <v>9.345926591361433e-06</v>
       </c>
       <c r="E94" t="n">
-        <v>1.580004107318714e-05</v>
+        <v>1.577375727469566e-05</v>
       </c>
       <c r="F94" t="n">
-        <v>5.67121195223692</v>
+        <v>6.426877639543668</v>
       </c>
       <c r="G94" t="n">
-        <v>0.3395367911040875</v>
+        <v>0.2668683205304264</v>
       </c>
       <c r="H94" t="n">
-        <v>1.134242390447384</v>
+        <v>1.285375527908734</v>
       </c>
     </row>
     <row r="95">
@@ -2826,25 +2826,25 @@
         <v>4.114907768681709</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0004865349037156601</v>
+        <v>0.0004865561462941313</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0001132864934031791</v>
+        <v>0.0001157863579820521</v>
       </c>
       <c r="D95" t="n">
-        <v>1.123301879576741e-05</v>
+        <v>1.121659343873615e-05</v>
       </c>
       <c r="E95" t="n">
-        <v>1.952652563818993e-05</v>
+        <v>1.949952992163072e-05</v>
       </c>
       <c r="F95" t="n">
-        <v>2.472847310145266</v>
+        <v>2.168298778193289</v>
       </c>
       <c r="G95" t="n">
-        <v>0.780578652666294</v>
+        <v>0.8254016045805206</v>
       </c>
       <c r="H95" t="n">
-        <v>0.4945694620290532</v>
+        <v>0.4336597556386578</v>
       </c>
     </row>
     <row r="96">
@@ -2852,25 +2852,25 @@
         <v>4.123306239219255</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0004012534781126119</v>
+        <v>0.0004013984531116051</v>
       </c>
       <c r="C96" t="n">
-        <v>8.091712076068139e-05</v>
+        <v>7.796260046951905e-05</v>
       </c>
       <c r="D96" t="n">
-        <v>9.258871128872833e-06</v>
+        <v>9.27954823522462e-06</v>
       </c>
       <c r="E96" t="n">
-        <v>1.588100369460861e-05</v>
+        <v>1.589659419733845e-05</v>
       </c>
       <c r="F96" t="n">
-        <v>1.436221365022809</v>
+        <v>1.355596799760403</v>
       </c>
       <c r="G96" t="n">
-        <v>0.9203104195194483</v>
+        <v>0.9291081848887942</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2872442730045618</v>
+        <v>0.2711193599520805</v>
       </c>
     </row>
     <row r="97">
@@ -2878,25 +2878,25 @@
         <v>4.131961805793665</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0001938734506852897</v>
+        <v>0.0001929579358436091</v>
       </c>
       <c r="C97" t="n">
-        <v>4.557654816701269e-05</v>
+        <v>4.772840478044426e-05</v>
       </c>
       <c r="D97" t="n">
-        <v>4.922634282672004e-06</v>
+        <v>4.893393945037186e-06</v>
       </c>
       <c r="E97" t="n">
-        <v>8.535636867498832e-06</v>
+        <v>8.489631834584587e-06</v>
       </c>
       <c r="F97" t="n">
-        <v>2.422398975071233</v>
+        <v>2.178613858767464</v>
       </c>
       <c r="G97" t="n">
-        <v>0.7881338692428277</v>
+        <v>0.8239189935544795</v>
       </c>
       <c r="H97" t="n">
-        <v>0.4844797950142467</v>
+        <v>0.4357227717534928</v>
       </c>
     </row>
     <row r="98">
@@ -2904,25 +2904,25 @@
         <v>4.133847176730665</v>
       </c>
       <c r="B98" t="n">
-        <v>9.244057570415427e-05</v>
+        <v>9.284261921619562e-05</v>
       </c>
       <c r="C98" t="n">
-        <v>2.258572933564596e-05</v>
+        <v>2.104108922647834e-05</v>
       </c>
       <c r="D98" t="n">
-        <v>2.519924754164871e-06</v>
+        <v>2.537935503921328e-06</v>
       </c>
       <c r="E98" t="n">
-        <v>4.308857426256411e-06</v>
+        <v>4.342289581129052e-06</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3864919613720044</v>
+        <v>0.260845699457197</v>
       </c>
       <c r="G98" t="n">
-        <v>0.9956934994810034</v>
+        <v>0.9983153172282988</v>
       </c>
       <c r="H98" t="n">
-        <v>0.07729839227440088</v>
+        <v>0.0521691398914394</v>
       </c>
     </row>
     <row r="99">
@@ -2930,25 +2930,25 @@
         <v>4.136503835778257</v>
       </c>
       <c r="B99" t="n">
-        <v>5.759991369123583e-05</v>
+        <v>5.765816040745066e-05</v>
       </c>
       <c r="C99" t="n">
-        <v>1.477935456685582e-05</v>
+        <v>1.543169454219674e-05</v>
       </c>
       <c r="D99" t="n">
-        <v>1.608333436110711e-06</v>
+        <v>1.614048819980211e-06</v>
       </c>
       <c r="E99" t="n">
-        <v>2.773993461869758e-06</v>
+        <v>2.786921079049475e-06</v>
       </c>
       <c r="F99" t="n">
-        <v>1.388821716174594</v>
+        <v>1.502283607405359</v>
       </c>
       <c r="G99" t="n">
-        <v>0.9255321406240244</v>
+        <v>0.9128061364857278</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2777643432349187</v>
+        <v>0.3004567214810718</v>
       </c>
     </row>
     <row r="100">
@@ -2956,25 +2956,25 @@
         <v>4.140617372368075</v>
       </c>
       <c r="B100" t="n">
-        <v>3.128103837747763e-05</v>
+        <v>3.142052162189856e-05</v>
       </c>
       <c r="C100" t="n">
-        <v>7.326424734914534e-06</v>
+        <v>7.560745921810818e-06</v>
       </c>
       <c r="D100" t="n">
-        <v>9.18258243745814e-07</v>
+        <v>9.179464108768835e-07</v>
       </c>
       <c r="E100" t="n">
-        <v>1.542230915425272e-06</v>
+        <v>1.542561210760817e-06</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9889436798037359</v>
+        <v>0.980224683354896</v>
       </c>
       <c r="G100" t="n">
-        <v>0.9634526029514823</v>
+        <v>0.9641449664550423</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1977887359607472</v>
+        <v>0.1960449366709792</v>
       </c>
     </row>
     <row r="101">
@@ -2982,25 +2982,25 @@
         <v>4.149015842905621</v>
       </c>
       <c r="B101" t="n">
-        <v>2.035540359232878e-05</v>
+        <v>2.008203476402962e-05</v>
       </c>
       <c r="C101" t="n">
-        <v>2.506579559049233e-06</v>
+        <v>2.337204873728378e-06</v>
       </c>
       <c r="D101" t="n">
-        <v>5.913476877433284e-07</v>
+        <v>5.875683838788635e-07</v>
       </c>
       <c r="E101" t="n">
-        <v>9.751794439435071e-07</v>
+        <v>9.681471739329028e-07</v>
       </c>
       <c r="F101" t="n">
-        <v>2.324508552817131</v>
+        <v>2.662845566166671</v>
       </c>
       <c r="G101" t="n">
-        <v>0.802660606684381</v>
+        <v>0.7517949123327164</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4649017105634263</v>
+        <v>0.5325691132333342</v>
       </c>
     </row>
     <row r="102">
@@ -3008,25 +3008,25 @@
         <v>4.166241277375486</v>
       </c>
       <c r="B102" t="n">
-        <v>1.417031081700806e-05</v>
+        <v>1.393118601794918e-05</v>
       </c>
       <c r="C102" t="n">
-        <v>2.590176693196819e-06</v>
+        <v>2.347422287100471e-06</v>
       </c>
       <c r="D102" t="n">
-        <v>4.724535218687589e-07</v>
+        <v>4.772644945647147e-07</v>
       </c>
       <c r="E102" t="n">
-        <v>7.872921425845896e-07</v>
+        <v>7.921905429100238e-07</v>
       </c>
       <c r="F102" t="n">
-        <v>5.226368448897539</v>
+        <v>7.156110955163812</v>
       </c>
       <c r="G102" t="n">
-        <v>0.3888832561882124</v>
+        <v>0.2092866368604166</v>
       </c>
       <c r="H102" t="n">
-        <v>1.045273689779508</v>
+        <v>1.431222191032762</v>
       </c>
     </row>
     <row r="103">
@@ -3034,25 +3034,25 @@
         <v>4.180210162045077</v>
       </c>
       <c r="B103" t="n">
-        <v>1.368182562781699e-05</v>
+        <v>1.401626417364335e-05</v>
       </c>
       <c r="C103" t="n">
-        <v>3.495551761008852e-06</v>
+        <v>2.649406060060764e-06</v>
       </c>
       <c r="D103" t="n">
-        <v>4.898011396917921e-07</v>
+        <v>4.952297534151002e-07</v>
       </c>
       <c r="E103" t="n">
-        <v>8.343516757839831e-07</v>
+        <v>8.274202101911743e-07</v>
       </c>
       <c r="F103" t="n">
-        <v>5.120619663766197</v>
+        <v>2.573663272793146</v>
       </c>
       <c r="G103" t="n">
-        <v>0.4013377980447405</v>
+        <v>0.7653626601840017</v>
       </c>
       <c r="H103" t="n">
-        <v>1.024123932753239</v>
+        <v>0.5147326545586292</v>
       </c>
     </row>
     <row r="104">
@@ -3060,25 +3060,25 @@
         <v>4.200435050278351</v>
       </c>
       <c r="B104" t="n">
-        <v>1.653388462467721e-05</v>
+        <v>1.624299427839282e-05</v>
       </c>
       <c r="C104" t="n">
-        <v>3.514205688165136e-06</v>
+        <v>3.488793811771832e-06</v>
       </c>
       <c r="D104" t="n">
-        <v>4.814369878905339e-07</v>
+        <v>4.774863764729335e-07</v>
       </c>
       <c r="E104" t="n">
-        <v>8.29465299359812e-07</v>
+        <v>8.185184715757028e-07</v>
       </c>
       <c r="F104" t="n">
-        <v>5.745850044794787</v>
+        <v>5.144212797097118</v>
       </c>
       <c r="G104" t="n">
-        <v>0.3317394745558255</v>
+        <v>0.3985351596010024</v>
       </c>
       <c r="H104" t="n">
-        <v>1.149170008958957</v>
+        <v>1.028842559419423</v>
       </c>
     </row>
     <row r="105">
@@ -3086,25 +3086,25 @@
         <v>4.209004918173807</v>
       </c>
       <c r="B105" t="n">
-        <v>3.072698643901926e-05</v>
+        <v>3.110713316789547e-05</v>
       </c>
       <c r="C105" t="n">
-        <v>-1.259876498492468e-07</v>
+        <v>3.911255146586439e-07</v>
       </c>
       <c r="D105" t="n">
-        <v>9.471282735574099e-07</v>
+        <v>9.549083152926414e-07</v>
       </c>
       <c r="E105" t="n">
-        <v>1.466415059971045e-06</v>
+        <v>1.480897419685362e-06</v>
       </c>
       <c r="F105" t="n">
-        <v>3.060703147677797</v>
+        <v>2.358836218402437</v>
       </c>
       <c r="G105" t="n">
-        <v>0.6906275528752721</v>
+        <v>0.7975880235425349</v>
       </c>
       <c r="H105" t="n">
-        <v>0.6121406295355594</v>
+        <v>0.4717672436804874</v>
       </c>
     </row>
     <row r="106">
@@ -3112,25 +3112,25 @@
         <v>4.21774618342717</v>
       </c>
       <c r="B106" t="n">
-        <v>4.427057251065168e-05</v>
+        <v>4.449972366413441e-05</v>
       </c>
       <c r="C106" t="n">
-        <v>-3.834834462149991e-07</v>
+        <v>-1.644803115974914e-06</v>
       </c>
       <c r="D106" t="n">
-        <v>1.187675103259336e-06</v>
+        <v>1.190118606775396e-06</v>
       </c>
       <c r="E106" t="n">
-        <v>1.880336224087854e-06</v>
+        <v>1.869234124903993e-06</v>
       </c>
       <c r="F106" t="n">
-        <v>2.900770033463354</v>
+        <v>3.759645761709587</v>
       </c>
       <c r="G106" t="n">
-        <v>0.7152808906935139</v>
+        <v>0.584513342891598</v>
       </c>
       <c r="H106" t="n">
-        <v>0.5801540066926708</v>
+        <v>0.7519291523419174</v>
       </c>
     </row>
     <row r="107">
@@ -3138,25 +3138,25 @@
         <v>4.226230352643671</v>
       </c>
       <c r="B107" t="n">
-        <v>5.644518257746202e-05</v>
+        <v>5.723319258048902e-05</v>
       </c>
       <c r="C107" t="n">
-        <v>-2.767362444681705e-06</v>
+        <v>-1.600462029986378e-06</v>
       </c>
       <c r="D107" t="n">
-        <v>1.540293941902099e-06</v>
+        <v>1.553090002969358e-06</v>
       </c>
       <c r="E107" t="n">
-        <v>2.391925931831049e-06</v>
+        <v>2.428145067417793e-06</v>
       </c>
       <c r="F107" t="n">
-        <v>2.280427622139216</v>
+        <v>2.694717317682375</v>
       </c>
       <c r="G107" t="n">
-        <v>0.8091371945335782</v>
+        <v>0.7469262810111383</v>
       </c>
       <c r="H107" t="n">
-        <v>0.4560855244278431</v>
+        <v>0.538943463536475</v>
       </c>
     </row>
     <row r="108">
@@ -3164,25 +3164,25 @@
         <v>4.231543670738853</v>
       </c>
       <c r="B108" t="n">
-        <v>5.740203815586278e-05</v>
+        <v>5.791744040971997e-05</v>
       </c>
       <c r="C108" t="n">
-        <v>1.42309034967558e-07</v>
+        <v>-1.143530261703876e-06</v>
       </c>
       <c r="D108" t="n">
-        <v>1.401064204924879e-06</v>
+        <v>1.414235614313298e-06</v>
       </c>
       <c r="E108" t="n">
-        <v>2.234271636104826e-06</v>
+        <v>2.241476268917226e-06</v>
       </c>
       <c r="F108" t="n">
-        <v>1.46289042811864</v>
+        <v>1.29667661287518</v>
       </c>
       <c r="G108" t="n">
-        <v>0.9173121100933811</v>
+        <v>0.9352732814654103</v>
       </c>
       <c r="H108" t="n">
-        <v>0.2925780856237281</v>
+        <v>0.259335322575036</v>
       </c>
     </row>
     <row r="109">
@@ -3190,25 +3190,25 @@
         <v>4.234971617897036</v>
       </c>
       <c r="B109" t="n">
-        <v>5.810606147302193e-05</v>
+        <v>5.828578130391855e-05</v>
       </c>
       <c r="C109" t="n">
-        <v>3.385164677703293e-06</v>
+        <v>2.859735492446698e-06</v>
       </c>
       <c r="D109" t="n">
-        <v>1.525757081443692e-06</v>
+        <v>1.533232952615503e-06</v>
       </c>
       <c r="E109" t="n">
-        <v>2.473007031524231e-06</v>
+        <v>2.482832911340469e-06</v>
       </c>
       <c r="F109" t="n">
-        <v>3.642829744063731</v>
+        <v>2.546266786688687</v>
       </c>
       <c r="G109" t="n">
-        <v>0.6018942841644311</v>
+        <v>0.7695116500303418</v>
       </c>
       <c r="H109" t="n">
-        <v>0.7285659488127462</v>
+        <v>0.5092533573377375</v>
       </c>
     </row>
     <row r="110">
@@ -3216,25 +3216,25 @@
         <v>4.24071342938699</v>
       </c>
       <c r="B110" t="n">
-        <v>5.602747035863335e-05</v>
+        <v>5.632722747149341e-05</v>
       </c>
       <c r="C110" t="n">
-        <v>3.422146565671643e-06</v>
+        <v>2.695683285659092e-06</v>
       </c>
       <c r="D110" t="n">
-        <v>1.369605836597042e-06</v>
+        <v>1.376329800129781e-06</v>
       </c>
       <c r="E110" t="n">
-        <v>2.259146376163246e-06</v>
+        <v>2.259209498279762e-06</v>
       </c>
       <c r="F110" t="n">
-        <v>4.432674484256346</v>
+        <v>5.48275165071871</v>
       </c>
       <c r="G110" t="n">
-        <v>0.4889415775534275</v>
+        <v>0.3598409322781589</v>
       </c>
       <c r="H110" t="n">
-        <v>0.8865348968512692</v>
+        <v>1.096550330143742</v>
       </c>
     </row>
     <row r="111">
@@ -3242,25 +3242,25 @@
         <v>4.249111899924536</v>
       </c>
       <c r="B111" t="n">
-        <v>5.777305570673578e-05</v>
+        <v>5.781951399238377e-05</v>
       </c>
       <c r="C111" t="n">
-        <v>3.006702093006879e-06</v>
+        <v>2.355630141600819e-06</v>
       </c>
       <c r="D111" t="n">
-        <v>1.419541764732915e-06</v>
+        <v>1.419793516750195e-06</v>
       </c>
       <c r="E111" t="n">
-        <v>2.316529640104723e-06</v>
+        <v>2.302310562152551e-06</v>
       </c>
       <c r="F111" t="n">
-        <v>6.788701907761042</v>
+        <v>4.67274802819422</v>
       </c>
       <c r="G111" t="n">
-        <v>0.2368350530910701</v>
+        <v>0.4571080763470197</v>
       </c>
       <c r="H111" t="n">
-        <v>1.357740381552208</v>
+        <v>0.9345496056388439</v>
       </c>
     </row>
     <row r="112">
@@ -3268,25 +3268,25 @@
         <v>4.2521970523669</v>
       </c>
       <c r="B112" t="n">
-        <v>5.855158032652693e-05</v>
+        <v>5.748974151365493e-05</v>
       </c>
       <c r="C112" t="n">
-        <v>6.76485259321786e-06</v>
+        <v>8.41074069210291e-06</v>
       </c>
       <c r="D112" t="n">
-        <v>1.530780477638473e-06</v>
+        <v>1.503515901477936e-06</v>
       </c>
       <c r="E112" t="n">
-        <v>2.542738490731484e-06</v>
+        <v>2.48912871312495e-06</v>
       </c>
       <c r="F112" t="n">
-        <v>6.992009285045632</v>
+        <v>5.633278596314974</v>
       </c>
       <c r="G112" t="n">
-        <v>0.2212352662487902</v>
+        <v>0.34355259337006</v>
       </c>
       <c r="H112" t="n">
-        <v>1.398401857009126</v>
+        <v>1.126655719262995</v>
       </c>
     </row>
     <row r="113">
@@ -3294,25 +3294,25 @@
         <v>4.257767466498946</v>
       </c>
       <c r="B113" t="n">
-        <v>6.194074044461578e-05</v>
+        <v>6.363804601444101e-05</v>
       </c>
       <c r="C113" t="n">
-        <v>4.617066001778919e-06</v>
+        <v>4.928341985801546e-06</v>
       </c>
       <c r="D113" t="n">
-        <v>1.519204272915456e-06</v>
+        <v>1.550093858874985e-06</v>
       </c>
       <c r="E113" t="n">
-        <v>2.501546209282411e-06</v>
+        <v>2.534137362455857e-06</v>
       </c>
       <c r="F113" t="n">
-        <v>1.536196230902917</v>
+        <v>0.7172975614843509</v>
       </c>
       <c r="G113" t="n">
-        <v>0.9088553605005125</v>
+        <v>0.9820058729031478</v>
       </c>
       <c r="H113" t="n">
-        <v>0.3072392461805835</v>
+        <v>0.1434595122968702</v>
       </c>
     </row>
     <row r="114">
@@ -3320,25 +3320,25 @@
         <v>4.262138099125628</v>
       </c>
       <c r="B114" t="n">
-        <v>6.470158718274529e-05</v>
+        <v>6.687753916938923e-05</v>
       </c>
       <c r="C114" t="n">
-        <v>7.307286029638149e-06</v>
+        <v>5.905025719210262e-06</v>
       </c>
       <c r="D114" t="n">
-        <v>1.559258232883928e-06</v>
+        <v>1.61290942369839e-06</v>
       </c>
       <c r="E114" t="n">
-        <v>2.601640509914382e-06</v>
+        <v>2.65548481555841e-06</v>
       </c>
       <c r="F114" t="n">
-        <v>2.344416164903196</v>
+        <v>1.97432076644288</v>
       </c>
       <c r="G114" t="n">
-        <v>0.7997218447504327</v>
+        <v>0.8526867224256487</v>
       </c>
       <c r="H114" t="n">
-        <v>0.4688832329806392</v>
+        <v>0.394864153288576</v>
       </c>
     </row>
     <row r="115">
@@ -3346,25 +3346,25 @@
         <v>4.264537662136355</v>
       </c>
       <c r="B115" t="n">
-        <v>6.92305045247905e-05</v>
+        <v>7.133873979167628e-05</v>
       </c>
       <c r="C115" t="n">
-        <v>6.122397875352904e-06</v>
+        <v>4.47587930380149e-06</v>
       </c>
       <c r="D115" t="n">
-        <v>1.68248337466381e-06</v>
+        <v>1.7332156843738e-06</v>
       </c>
       <c r="E115" t="n">
-        <v>2.783519923581229e-06</v>
+        <v>2.823770256302449e-06</v>
       </c>
       <c r="F115" t="n">
-        <v>1.911904875819703</v>
+        <v>1.203351716191416</v>
       </c>
       <c r="G115" t="n">
-        <v>0.8611954893673842</v>
+        <v>0.9445554091242472</v>
       </c>
       <c r="H115" t="n">
-        <v>0.3823809751639406</v>
+        <v>0.2406703432382832</v>
       </c>
     </row>
     <row r="116">
@@ -3372,25 +3372,25 @@
         <v>4.267280019862901</v>
       </c>
       <c r="B116" t="n">
-        <v>7.006163676854541e-05</v>
+        <v>7.136166186141813e-05</v>
       </c>
       <c r="C116" t="n">
-        <v>8.621001613836524e-06</v>
+        <v>8.661147787858832e-06</v>
       </c>
       <c r="D116" t="n">
-        <v>1.704537477790539e-06</v>
+        <v>1.733345985338239e-06</v>
       </c>
       <c r="E116" t="n">
-        <v>2.857996236990344e-06</v>
+        <v>2.88569877022881e-06</v>
       </c>
       <c r="F116" t="n">
-        <v>3.218444047387574</v>
+        <v>1.951143327400239</v>
       </c>
       <c r="G116" t="n">
-        <v>0.6663490962105593</v>
+        <v>0.8558631636516143</v>
       </c>
       <c r="H116" t="n">
-        <v>0.6436888094775148</v>
+        <v>0.3902286654800479</v>
       </c>
     </row>
     <row r="117">
@@ -3398,25 +3398,25 @@
         <v>4.269079692120946</v>
       </c>
       <c r="B117" t="n">
-        <v>7.161788159522128e-05</v>
+        <v>7.225517234126559e-05</v>
       </c>
       <c r="C117" t="n">
-        <v>9.718994882582551e-06</v>
+        <v>9.963438360161591e-06</v>
       </c>
       <c r="D117" t="n">
-        <v>1.830927234621136e-06</v>
+        <v>1.842442753553476e-06</v>
       </c>
       <c r="E117" t="n">
-        <v>3.056943216042145e-06</v>
+        <v>3.083519620479609e-06</v>
       </c>
       <c r="F117" t="n">
-        <v>6.614303428263419</v>
+        <v>6.968105624652647</v>
       </c>
       <c r="G117" t="n">
-        <v>0.2509409456673584</v>
+        <v>0.2230231612962804</v>
       </c>
       <c r="H117" t="n">
-        <v>1.322860685652684</v>
+        <v>1.393621124930529</v>
       </c>
     </row>
     <row r="118">
@@ -3424,25 +3424,25 @@
         <v>4.271479255131674</v>
       </c>
       <c r="B118" t="n">
-        <v>7.011729656340897e-05</v>
+        <v>7.185609084749581e-05</v>
       </c>
       <c r="C118" t="n">
-        <v>9.440793539555509e-06</v>
+        <v>9.575420936685135e-06</v>
       </c>
       <c r="D118" t="n">
-        <v>1.63638511351152e-06</v>
+        <v>1.670440342284579e-06</v>
       </c>
       <c r="E118" t="n">
-        <v>2.778425961680698e-06</v>
+        <v>2.820510802953393e-06</v>
       </c>
       <c r="F118" t="n">
-        <v>3.646419926908077</v>
+        <v>2.60083708314083</v>
       </c>
       <c r="G118" t="n">
-        <v>0.6013572964225283</v>
+        <v>0.7612380791319838</v>
       </c>
       <c r="H118" t="n">
-        <v>0.7292839853816154</v>
+        <v>0.520167416628166</v>
       </c>
     </row>
     <row r="119">
@@ -3450,25 +3450,25 @@
         <v>4.273021831352856</v>
       </c>
       <c r="B119" t="n">
-        <v>6.947406160178066e-05</v>
+        <v>7.163063599308742e-05</v>
       </c>
       <c r="C119" t="n">
-        <v>9.584162059666192e-06</v>
+        <v>9.125026179099136e-06</v>
       </c>
       <c r="D119" t="n">
-        <v>1.699217657240631e-06</v>
+        <v>1.746402570808715e-06</v>
       </c>
       <c r="E119" t="n">
-        <v>2.833002427791881e-06</v>
+        <v>2.899960778337481e-06</v>
       </c>
       <c r="F119" t="n">
-        <v>2.88024401487427</v>
+        <v>2.408432361578178</v>
       </c>
       <c r="G119" t="n">
-        <v>0.7184423498928453</v>
+        <v>0.7902177172581152</v>
       </c>
       <c r="H119" t="n">
-        <v>0.5760488029748541</v>
+        <v>0.4816864723156356</v>
       </c>
     </row>
     <row r="120">
@@ -3476,25 +3476,25 @@
         <v>4.281677397927266</v>
       </c>
       <c r="B120" t="n">
-        <v>5.813724566647584e-05</v>
+        <v>6.055557846343619e-05</v>
       </c>
       <c r="C120" t="n">
-        <v>6.88407224727895e-06</v>
+        <v>5.906599286308601e-06</v>
       </c>
       <c r="D120" t="n">
-        <v>1.429798303117264e-06</v>
+        <v>1.477639901583331e-06</v>
       </c>
       <c r="E120" t="n">
-        <v>2.394531738843634e-06</v>
+        <v>2.445539134609405e-06</v>
       </c>
       <c r="F120" t="n">
-        <v>2.193699916751732</v>
+        <v>2.576235557919351</v>
       </c>
       <c r="G120" t="n">
-        <v>0.821745454311861</v>
+        <v>0.7649726124287273</v>
       </c>
       <c r="H120" t="n">
-        <v>0.4387399833503464</v>
+        <v>0.5152471115838703</v>
       </c>
     </row>
     <row r="121">
@@ -3502,25 +3502,25 @@
         <v>4.286305126590811</v>
       </c>
       <c r="B121" t="n">
-        <v>5.670712142679334e-05</v>
+        <v>5.67981921539758e-05</v>
       </c>
       <c r="C121" t="n">
-        <v>9.270300595437848e-06</v>
+        <v>1.025223802232528e-05</v>
       </c>
       <c r="D121" t="n">
-        <v>1.500661791029241e-06</v>
+        <v>1.503206886532887e-06</v>
       </c>
       <c r="E121" t="n">
-        <v>2.511888187700011e-06</v>
+        <v>2.520081170802827e-06</v>
       </c>
       <c r="F121" t="n">
-        <v>6.164029768455164</v>
+        <v>4.721535279227474</v>
       </c>
       <c r="G121" t="n">
-        <v>0.2905837898115802</v>
+        <v>0.4508003510352409</v>
       </c>
       <c r="H121" t="n">
-        <v>1.232805953691033</v>
+        <v>0.9443070558454949</v>
       </c>
     </row>
     <row r="122">
@@ -3528,25 +3528,25 @@
         <v>4.29024726582272</v>
       </c>
       <c r="B122" t="n">
-        <v>4.546289190480585e-05</v>
+        <v>4.639706165598205e-05</v>
       </c>
       <c r="C122" t="n">
-        <v>5.853252605100055e-06</v>
+        <v>5.258156818660531e-06</v>
       </c>
       <c r="D122" t="n">
-        <v>1.144091580723421e-06</v>
+        <v>1.1640729826664e-06</v>
       </c>
       <c r="E122" t="n">
-        <v>1.92208395630283e-06</v>
+        <v>1.931763132187146e-06</v>
       </c>
       <c r="F122" t="n">
-        <v>5.569437243311738</v>
+        <v>2.809011716221517</v>
       </c>
       <c r="G122" t="n">
-        <v>0.3503918974483886</v>
+        <v>0.729401677650853</v>
       </c>
       <c r="H122" t="n">
-        <v>1.113887448662348</v>
+        <v>0.5618023432443034</v>
       </c>
     </row>
     <row r="123">
@@ -3554,25 +3554,25 @@
         <v>4.298731435039221</v>
       </c>
       <c r="B123" t="n">
-        <v>3.628925365918557e-05</v>
+        <v>3.722421850731032e-05</v>
       </c>
       <c r="C123" t="n">
-        <v>3.681740270928647e-06</v>
+        <v>3.382974067721748e-06</v>
       </c>
       <c r="D123" t="n">
-        <v>9.177115413707351e-07</v>
+        <v>9.345544139598589e-07</v>
       </c>
       <c r="E123" t="n">
-        <v>1.513978995401896e-06</v>
+        <v>1.530805100796141e-06</v>
       </c>
       <c r="F123" t="n">
-        <v>0.4413913409226783</v>
+        <v>0.09585170398874836</v>
       </c>
       <c r="G123" t="n">
-        <v>0.9941124937592793</v>
+        <v>0.9998537809432436</v>
       </c>
       <c r="H123" t="n">
-        <v>0.08827826818453567</v>
+        <v>0.01917034079774967</v>
       </c>
     </row>
     <row r="124">
@@ -3580,25 +3580,25 @@
         <v>4.303359163702766</v>
       </c>
       <c r="B124" t="n">
-        <v>3.871604586021887e-05</v>
+        <v>3.83526397134906e-05</v>
       </c>
       <c r="C124" t="n">
-        <v>5.192899620293184e-06</v>
+        <v>5.566853618314262e-06</v>
       </c>
       <c r="D124" t="n">
-        <v>1.12137714409305e-06</v>
+        <v>1.123808358251208e-06</v>
       </c>
       <c r="E124" t="n">
-        <v>1.862166386729179e-06</v>
+        <v>1.847263798534826e-06</v>
       </c>
       <c r="F124" t="n">
-        <v>2.861742220815518</v>
+        <v>2.377369430551794</v>
       </c>
       <c r="G124" t="n">
-        <v>0.7212908846458135</v>
+        <v>0.7948394219396728</v>
       </c>
       <c r="H124" t="n">
-        <v>0.5723484441631037</v>
+        <v>0.4754738861103588</v>
       </c>
     </row>
     <row r="125">
@@ -3606,25 +3606,25 @@
         <v>4.307472700292585</v>
       </c>
       <c r="B125" t="n">
-        <v>4.898971767431222e-05</v>
+        <v>5.028824921446987e-05</v>
       </c>
       <c r="C125" t="n">
-        <v>9.136824071434309e-06</v>
+        <v>8.49203572894646e-06</v>
       </c>
       <c r="D125" t="n">
-        <v>1.24512726016e-06</v>
+        <v>1.272681988675081e-06</v>
       </c>
       <c r="E125" t="n">
-        <v>2.122719745840838e-06</v>
+        <v>2.149453551738433e-06</v>
       </c>
       <c r="F125" t="n">
-        <v>3.251398685078564</v>
+        <v>2.222080780212679</v>
       </c>
       <c r="G125" t="n">
-        <v>0.6612903382056899</v>
+        <v>0.8176402067345629</v>
       </c>
       <c r="H125" t="n">
-        <v>0.6502797370157127</v>
+        <v>0.4444161560425359</v>
       </c>
     </row>
     <row r="126">
@@ -3632,25 +3632,25 @@
         <v>4.309957961982268</v>
       </c>
       <c r="B126" t="n">
-        <v>6.673344711708668e-05</v>
+        <v>6.851273870491772e-05</v>
       </c>
       <c r="C126" t="n">
-        <v>1.031633331970265e-05</v>
+        <v>9.359116385186979e-06</v>
       </c>
       <c r="D126" t="n">
-        <v>1.631694147453583e-06</v>
+        <v>1.672622773433353e-06</v>
       </c>
       <c r="E126" t="n">
-        <v>2.764511787689951e-06</v>
+        <v>2.802489459438756e-06</v>
       </c>
       <c r="F126" t="n">
-        <v>2.361679018174728</v>
+        <v>1.822834539049056</v>
       </c>
       <c r="G126" t="n">
-        <v>0.7971668600399764</v>
+        <v>0.8730757136079272</v>
       </c>
       <c r="H126" t="n">
-        <v>0.4723358036349456</v>
+        <v>0.3645669078098112</v>
       </c>
     </row>
     <row r="127">
@@ -3658,25 +3658,25 @@
         <v>4.310129359340176</v>
       </c>
       <c r="B127" t="n">
-        <v>6.411226379950111e-05</v>
+        <v>6.57146235731439e-05</v>
       </c>
       <c r="C127" t="n">
-        <v>8.071819054358961e-06</v>
+        <v>6.928982641147771e-06</v>
       </c>
       <c r="D127" t="n">
-        <v>1.570532166183078e-06</v>
+        <v>1.599412590965026e-06</v>
       </c>
       <c r="E127" t="n">
-        <v>2.605831569441462e-06</v>
+        <v>2.62387481677042e-06</v>
       </c>
       <c r="F127" t="n">
-        <v>0.04520735054471079</v>
+        <v>0.5146398073892208</v>
       </c>
       <c r="G127" t="n">
-        <v>0.9999772561184955</v>
+        <v>0.9915774289062994</v>
       </c>
       <c r="H127" t="n">
-        <v>0.009041470108942158</v>
+        <v>0.1029279614778442</v>
       </c>
     </row>
     <row r="128">
@@ -3684,25 +3684,25 @@
         <v>4.311757634240313</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0001036523462887526</v>
+        <v>0.0001064624860097513</v>
       </c>
       <c r="C128" t="n">
-        <v>1.921793319582663e-05</v>
+        <v>1.729919519567166e-05</v>
       </c>
       <c r="D128" t="n">
-        <v>2.496541998436673e-06</v>
+        <v>2.559355185755507e-06</v>
       </c>
       <c r="E128" t="n">
-        <v>4.241298868848015e-06</v>
+        <v>4.292695505775858e-06</v>
       </c>
       <c r="F128" t="n">
-        <v>0.4038062801137275</v>
+        <v>0.444785679296839</v>
       </c>
       <c r="G128" t="n">
-        <v>0.9952241060267271</v>
+        <v>0.9940058183364591</v>
       </c>
       <c r="H128" t="n">
-        <v>0.0807612560227455</v>
+        <v>0.08895713585936779</v>
       </c>
     </row>
     <row r="129">
@@ -3710,25 +3710,25 @@
         <v>4.31604256818804</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0001901091368968006</v>
+        <v>0.0001942121228016004</v>
       </c>
       <c r="C129" t="n">
-        <v>2.931532274944787e-05</v>
+        <v>2.498064369389516e-05</v>
       </c>
       <c r="D129" t="n">
-        <v>4.602505897270592e-06</v>
+        <v>4.68774971016162e-06</v>
       </c>
       <c r="E129" t="n">
-        <v>7.652077305733521e-06</v>
+        <v>7.69938106638386e-06</v>
       </c>
       <c r="F129" t="n">
-        <v>1.121148589308058</v>
+        <v>2.390042655058153</v>
       </c>
       <c r="G129" t="n">
-        <v>0.9522146866760502</v>
+        <v>0.792956037072347</v>
       </c>
       <c r="H129" t="n">
-        <v>0.2242297178616117</v>
+        <v>0.4780085310116307</v>
       </c>
     </row>
     <row r="130">
@@ -3736,25 +3736,25 @@
         <v>4.318613528556677</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0002078019637912005</v>
+        <v>0.0002109933546246358</v>
       </c>
       <c r="C130" t="n">
-        <v>3.306064685906581e-05</v>
+        <v>3.213432302758316e-05</v>
       </c>
       <c r="D130" t="n">
-        <v>5.116774887707655e-06</v>
+        <v>5.177916018607148e-06</v>
       </c>
       <c r="E130" t="n">
-        <v>8.494991825077153e-06</v>
+        <v>8.55194683097846e-06</v>
       </c>
       <c r="F130" t="n">
-        <v>1.322999960388105</v>
+        <v>2.105040149635926</v>
       </c>
       <c r="G130" t="n">
-        <v>0.9325472997640158</v>
+        <v>0.8344281564640086</v>
       </c>
       <c r="H130" t="n">
-        <v>0.2645999920776211</v>
+        <v>0.4210080299271852</v>
       </c>
     </row>
     <row r="131">
@@ -3762,25 +3762,25 @@
         <v>4.320584598172632</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0002204182546527018</v>
+        <v>0.000221431926952338</v>
       </c>
       <c r="C131" t="n">
-        <v>3.733347053793499e-05</v>
+        <v>3.859220325387236e-05</v>
       </c>
       <c r="D131" t="n">
-        <v>5.56619383204193e-06</v>
+        <v>5.587338235666463e-06</v>
       </c>
       <c r="E131" t="n">
-        <v>9.446908640096138e-06</v>
+        <v>9.489899292280031e-06</v>
       </c>
       <c r="F131" t="n">
-        <v>4.830588942140014</v>
+        <v>5.617248181463444</v>
       </c>
       <c r="G131" t="n">
-        <v>0.4369034298472917</v>
+        <v>0.3452603951976776</v>
       </c>
       <c r="H131" t="n">
-        <v>0.9661177884280028</v>
+        <v>1.123449636292689</v>
       </c>
     </row>
     <row r="132">
@@ -3788,25 +3788,25 @@
         <v>4.322898462504404</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0002505202228355619</v>
+        <v>0.0002547134906281276</v>
       </c>
       <c r="C132" t="n">
-        <v>4.787876698730093e-05</v>
+        <v>4.800249562213497e-05</v>
       </c>
       <c r="D132" t="n">
-        <v>5.936521420712462e-06</v>
+        <v>6.021968750159832e-06</v>
       </c>
       <c r="E132" t="n">
-        <v>1.013863919946886e-05</v>
+        <v>1.021201514539841e-05</v>
       </c>
       <c r="F132" t="n">
-        <v>0.558756769101684</v>
+        <v>0.724955753976706</v>
       </c>
       <c r="G132" t="n">
-        <v>0.9898136292422006</v>
+        <v>0.9815710210359264</v>
       </c>
       <c r="H132" t="n">
-        <v>0.1117513538203368</v>
+        <v>0.1449911507953412</v>
       </c>
     </row>
     <row r="133">
@@ -3814,25 +3814,25 @@
         <v>4.325555121551995</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0002855347904801552</v>
+        <v>0.0002913938980869997</v>
       </c>
       <c r="C133" t="n">
-        <v>4.780748072867022e-05</v>
+        <v>4.546643167308638e-05</v>
       </c>
       <c r="D133" t="n">
-        <v>6.650335479268405e-06</v>
+        <v>6.7725572570319e-06</v>
       </c>
       <c r="E133" t="n">
-        <v>1.123546760947079e-05</v>
+        <v>1.138302393754218e-05</v>
       </c>
       <c r="F133" t="n">
-        <v>0.3312593127508917</v>
+        <v>0.8286002313287802</v>
       </c>
       <c r="G133" t="n">
-        <v>0.9970135070855711</v>
+        <v>0.9751733766871303</v>
       </c>
       <c r="H133" t="n">
-        <v>0.06625186255017834</v>
+        <v>0.165720046265756</v>
       </c>
     </row>
     <row r="134">
@@ -3840,25 +3840,25 @@
         <v>4.327954684562723</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0003000268841471748</v>
+        <v>0.0003052876040769034</v>
       </c>
       <c r="C134" t="n">
-        <v>5.463211742550456e-05</v>
+        <v>5.315591908577571e-05</v>
       </c>
       <c r="D134" t="n">
-        <v>6.950083063292869e-06</v>
+        <v>7.057320702665948e-06</v>
       </c>
       <c r="E134" t="n">
-        <v>1.179625342140341e-05</v>
+        <v>1.191129346137941e-05</v>
       </c>
       <c r="F134" t="n">
-        <v>0.4029772760305148</v>
+        <v>1.377096445484094</v>
       </c>
       <c r="G134" t="n">
-        <v>0.9952471915990925</v>
+        <v>0.9268021848216119</v>
       </c>
       <c r="H134" t="n">
-        <v>0.08059545520610295</v>
+        <v>0.2754192890968187</v>
       </c>
     </row>
     <row r="135">
@@ -3866,25 +3866,25 @@
         <v>4.330782740968223</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0002908403422234676</v>
+        <v>0.0002940182112713426</v>
       </c>
       <c r="C135" t="n">
-        <v>6.150191845736137e-05</v>
+        <v>6.008244172386835e-05</v>
       </c>
       <c r="D135" t="n">
-        <v>6.920132496047446e-06</v>
+        <v>6.986901023095934e-06</v>
       </c>
       <c r="E135" t="n">
-        <v>1.18758978638572e-05</v>
+        <v>1.19272781664715e-05</v>
       </c>
       <c r="F135" t="n">
-        <v>0.3149118702086025</v>
+        <v>0.7232761396048865</v>
       </c>
       <c r="G135" t="n">
-        <v>0.9973531881795702</v>
+        <v>0.981666844256001</v>
       </c>
       <c r="H135" t="n">
-        <v>0.0629823740417205</v>
+        <v>0.1446552279209773</v>
       </c>
     </row>
     <row r="136">
@@ -3892,25 +3892,25 @@
         <v>4.33318230397895</v>
       </c>
       <c r="B136" t="n">
-        <v>0.000264674443616496</v>
+        <v>0.0002684133654231813</v>
       </c>
       <c r="C136" t="n">
-        <v>5.098204165834754e-05</v>
+        <v>5.001975229436059e-05</v>
       </c>
       <c r="D136" t="n">
-        <v>6.271394268875245e-06</v>
+        <v>6.3450878952334e-06</v>
       </c>
       <c r="E136" t="n">
-        <v>1.06676594652485e-05</v>
+        <v>1.073461608561907e-05</v>
       </c>
       <c r="F136" t="n">
-        <v>0.2814819633285142</v>
+        <v>0.7888847580328895</v>
       </c>
       <c r="G136" t="n">
-        <v>0.9979769229951461</v>
+        <v>0.9777368846747435</v>
       </c>
       <c r="H136" t="n">
-        <v>0.05629639266570283</v>
+        <v>0.1577769516065779</v>
       </c>
     </row>
     <row r="137">
@@ -3918,25 +3918,25 @@
         <v>4.337638635284587</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0002123125987158059</v>
+        <v>0.0002126697934042764</v>
       </c>
       <c r="C137" t="n">
-        <v>5.121399609029877e-05</v>
+        <v>5.317546184482618e-05</v>
       </c>
       <c r="D137" t="n">
-        <v>5.191512797099136e-06</v>
+        <v>5.185905788163859e-06</v>
       </c>
       <c r="E137" t="n">
-        <v>8.968094106441038e-06</v>
+        <v>8.969477209706545e-06</v>
       </c>
       <c r="F137" t="n">
-        <v>1.495191439928213</v>
+        <v>2.205763830041739</v>
       </c>
       <c r="G137" t="n">
-        <v>0.9136240531700962</v>
+        <v>0.8200029847388624</v>
       </c>
       <c r="H137" t="n">
-        <v>0.2990382879856427</v>
+        <v>0.4411527660083477</v>
       </c>
     </row>
     <row r="138">
@@ -3944,25 +3944,25 @@
         <v>4.341752171874406</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0001493712041460198</v>
+        <v>0.000153199844510227</v>
       </c>
       <c r="C138" t="n">
-        <v>3.826323445172893e-05</v>
+        <v>3.64635552198843e-05</v>
       </c>
       <c r="D138" t="n">
-        <v>3.634433069314775e-06</v>
+        <v>3.707437984685872e-06</v>
       </c>
       <c r="E138" t="n">
-        <v>6.211863639643075e-06</v>
+        <v>6.298102624068357e-06</v>
       </c>
       <c r="F138" t="n">
-        <v>2.266598801660772</v>
+        <v>2.165627941503037</v>
       </c>
       <c r="G138" t="n">
-        <v>0.811159897615776</v>
+        <v>0.8257850145008664</v>
       </c>
       <c r="H138" t="n">
-        <v>0.4533197603321543</v>
+        <v>0.4331255883006073</v>
       </c>
     </row>
     <row r="139">
@@ -3970,25 +3970,25 @@
         <v>4.350407738448815</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0001017396938215572</v>
+        <v>0.0001030729575682488</v>
       </c>
       <c r="C139" t="n">
-        <v>2.080344025884657e-05</v>
+        <v>2.00573395707898e-05</v>
       </c>
       <c r="D139" t="n">
-        <v>2.602343014159219e-06</v>
+        <v>2.627751150833151e-06</v>
       </c>
       <c r="E139" t="n">
-        <v>4.38169110007668e-06</v>
+        <v>4.396584387368169e-06</v>
       </c>
       <c r="F139" t="n">
-        <v>0.8050954657402865</v>
+        <v>1.103075280946883</v>
       </c>
       <c r="G139" t="n">
-        <v>0.976707200979088</v>
+        <v>0.9538311068916678</v>
       </c>
       <c r="H139" t="n">
-        <v>0.1610190931480573</v>
+        <v>0.2206150561893765</v>
       </c>
     </row>
     <row r="140">
@@ -3996,25 +3996,25 @@
         <v>4.354692672396543</v>
       </c>
       <c r="B140" t="n">
-        <v>8.344453646032183e-05</v>
+        <v>8.418572541587697e-05</v>
       </c>
       <c r="C140" t="n">
-        <v>1.920216291132836e-05</v>
+        <v>1.816334416628091e-05</v>
       </c>
       <c r="D140" t="n">
-        <v>2.318963306924233e-06</v>
+        <v>2.337391216333665e-06</v>
       </c>
       <c r="E140" t="n">
-        <v>3.987354805653653e-06</v>
+        <v>3.986419822559014e-06</v>
       </c>
       <c r="F140" t="n">
-        <v>3.065744805093187</v>
+        <v>2.051770945318842</v>
       </c>
       <c r="G140" t="n">
-        <v>0.6898504839117385</v>
+        <v>0.8419361713265608</v>
       </c>
       <c r="H140" t="n">
-        <v>0.6131489610186375</v>
+        <v>0.4103541890637684</v>
       </c>
     </row>
     <row r="141">
@@ -4022,25 +4022,25 @@
         <v>4.358634811628452</v>
       </c>
       <c r="B141" t="n">
-        <v>6.754626145199865e-05</v>
+        <v>6.822851704587264e-05</v>
       </c>
       <c r="C141" t="n">
-        <v>1.488009295012056e-05</v>
+        <v>1.471951733285085e-05</v>
       </c>
       <c r="D141" t="n">
-        <v>1.769105463143267e-06</v>
+        <v>1.781057534010666e-06</v>
       </c>
       <c r="E141" t="n">
-        <v>2.995512548710132e-06</v>
+        <v>3.003423249299317e-06</v>
       </c>
       <c r="F141" t="n">
-        <v>1.156226335700942</v>
+        <v>1.702919963283425</v>
       </c>
       <c r="G141" t="n">
-        <v>0.9490072833322272</v>
+        <v>0.8885316886530692</v>
       </c>
       <c r="H141" t="n">
-        <v>0.2312452671401885</v>
+        <v>0.340583992656685</v>
       </c>
     </row>
     <row r="142">
@@ -4048,25 +4048,25 @@
         <v>4.366947583487043</v>
       </c>
       <c r="B142" t="n">
-        <v>5.714296318322652e-05</v>
+        <v>5.821084069467143e-05</v>
       </c>
       <c r="C142" t="n">
-        <v>1.396965831127318e-05</v>
+        <v>1.410082155340986e-05</v>
       </c>
       <c r="D142" t="n">
-        <v>1.607944020267939e-06</v>
+        <v>1.633264264185271e-06</v>
       </c>
       <c r="E142" t="n">
-        <v>2.723582115591985e-06</v>
+        <v>2.772070969676154e-06</v>
       </c>
       <c r="F142" t="n">
-        <v>2.821307312359351</v>
+        <v>2.386563232726258</v>
       </c>
       <c r="G142" t="n">
-        <v>0.7275115624408062</v>
+        <v>0.7934734254035941</v>
       </c>
       <c r="H142" t="n">
-        <v>0.5642614624718701</v>
+        <v>0.4773126465452515</v>
       </c>
     </row>
     <row r="143">
@@ -4074,25 +4074,25 @@
         <v>4.371918106866407</v>
       </c>
       <c r="B143" t="n">
-        <v>6.385193717309378e-05</v>
+        <v>6.413667011450095e-05</v>
       </c>
       <c r="C143" t="n">
-        <v>1.417359361882036e-05</v>
+        <v>1.452156307272558e-05</v>
       </c>
       <c r="D143" t="n">
-        <v>1.818400542550093e-06</v>
+        <v>1.82276060085638e-06</v>
       </c>
       <c r="E143" t="n">
-        <v>3.081744088358606e-06</v>
+        <v>3.087180292844695e-06</v>
       </c>
       <c r="F143" t="n">
-        <v>1.990016447212049</v>
+        <v>1.734108073428438</v>
       </c>
       <c r="G143" t="n">
-        <v>0.8505247208484034</v>
+        <v>0.8845750132933133</v>
       </c>
       <c r="H143" t="n">
-        <v>0.3980032894424099</v>
+        <v>0.3468216146856875</v>
       </c>
     </row>
     <row r="144">
@@ -4100,25 +4100,25 @@
         <v>4.375088957987725</v>
       </c>
       <c r="B144" t="n">
-        <v>0.0002368013496420959</v>
+        <v>0.0002394349049033792</v>
       </c>
       <c r="C144" t="n">
-        <v>5.698360508250916e-05</v>
+        <v>5.453093663725816e-05</v>
       </c>
       <c r="D144" t="n">
-        <v>5.867136622751802e-06</v>
+        <v>5.921617685018589e-06</v>
       </c>
       <c r="E144" t="n">
-        <v>1.002468194762988e-05</v>
+        <v>1.007415182404141e-05</v>
       </c>
       <c r="F144" t="n">
-        <v>1.495243612627519</v>
+        <v>1.310054669336869</v>
       </c>
       <c r="G144" t="n">
-        <v>0.9136180468797002</v>
+        <v>0.9338936677694046</v>
       </c>
       <c r="H144" t="n">
-        <v>0.2990487225255037</v>
+        <v>0.2620109338673737</v>
       </c>
     </row>
     <row r="145">
@@ -4126,25 +4126,25 @@
         <v>4.377745617035317</v>
       </c>
       <c r="B145" t="n">
-        <v>0.0004519698227656953</v>
+        <v>0.000455869951740435</v>
       </c>
       <c r="C145" t="n">
-        <v>0.0001128109911087883</v>
+        <v>0.0001109142360141399</v>
       </c>
       <c r="D145" t="n">
-        <v>9.908301257504954e-06</v>
+        <v>9.990036184494019e-06</v>
       </c>
       <c r="E145" t="n">
-        <v>1.748821723107181e-05</v>
+        <v>1.75481996440305e-05</v>
       </c>
       <c r="F145" t="n">
-        <v>1.722373557977851</v>
+        <v>1.593803997112709</v>
       </c>
       <c r="G145" t="n">
-        <v>0.8860691031583182</v>
+        <v>0.9019976082089973</v>
       </c>
       <c r="H145" t="n">
-        <v>0.3444747115955701</v>
+        <v>0.3187607994225418</v>
       </c>
     </row>
     <row r="146">
@@ -4152,25 +4152,25 @@
         <v>4.379545289293363</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0005022277593418847</v>
+        <v>0.000504494145273562</v>
       </c>
       <c r="C146" t="n">
-        <v>0.0001280266885218092</v>
+        <v>0.0001281825452881283</v>
       </c>
       <c r="D146" t="n">
-        <v>1.126985499041122e-05</v>
+        <v>1.131178588470345e-05</v>
       </c>
       <c r="E146" t="n">
-        <v>1.984716032341148e-05</v>
+        <v>1.98847332139722e-05</v>
       </c>
       <c r="F146" t="n">
-        <v>1.052572734250026</v>
+        <v>0.7919551880411754</v>
       </c>
       <c r="G146" t="n">
-        <v>0.9582149445719903</v>
+        <v>0.9775436267644612</v>
       </c>
       <c r="H146" t="n">
-        <v>0.2105145468500053</v>
+        <v>0.1583910376082351</v>
       </c>
     </row>
     <row r="147">
@@ -4178,25 +4178,25 @@
         <v>4.380487974761863</v>
       </c>
       <c r="B147" t="n">
-        <v>0.0005272480697431566</v>
+        <v>0.000531749097410669</v>
       </c>
       <c r="C147" t="n">
-        <v>0.0001291344856643421</v>
+        <v>0.0001260814872080015</v>
       </c>
       <c r="D147" t="n">
-        <v>1.200685232057453e-05</v>
+        <v>1.210195526242269e-05</v>
       </c>
       <c r="E147" t="n">
-        <v>2.092621774835373e-05</v>
+        <v>2.10102186791203e-05</v>
       </c>
       <c r="F147" t="n">
-        <v>0.588686867231293</v>
+        <v>0.4233418644945474</v>
       </c>
       <c r="G147" t="n">
-        <v>0.9885153578132313</v>
+        <v>0.9946622233176626</v>
       </c>
       <c r="H147" t="n">
-        <v>0.1177373734462586</v>
+        <v>0.08466837289890947</v>
       </c>
     </row>
     <row r="148">
@@ -4204,25 +4204,25 @@
         <v>4.380830769477681</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0005164834340261558</v>
+        <v>0.0005198673192574544</v>
       </c>
       <c r="C148" t="n">
-        <v>0.0001285118866173652</v>
+        <v>0.0001268177021046811</v>
       </c>
       <c r="D148" t="n">
-        <v>1.174566678670212e-05</v>
+        <v>1.181253809643295e-05</v>
       </c>
       <c r="E148" t="n">
-        <v>2.050206305974775e-05</v>
+        <v>2.059259244182835e-05</v>
       </c>
       <c r="F148" t="n">
-        <v>1.151689739381607</v>
+        <v>1.172466029668614</v>
       </c>
       <c r="G148" t="n">
-        <v>0.9494272598290301</v>
+        <v>0.9474914447336658</v>
       </c>
       <c r="H148" t="n">
-        <v>0.2303379478763214</v>
+        <v>0.2344932059337229</v>
       </c>
     </row>
     <row r="149">
@@ -4230,25 +4230,25 @@
         <v>4.381087865514544</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0005152706506016663</v>
+        <v>0.0005169575504318575</v>
       </c>
       <c r="C149" t="n">
-        <v>0.0001176294706052955</v>
+        <v>0.000116860055507878</v>
       </c>
       <c r="D149" t="n">
-        <v>1.172908149702587e-05</v>
+        <v>1.175147562263491e-05</v>
       </c>
       <c r="E149" t="n">
-        <v>2.033575445541159e-05</v>
+        <v>2.03634425186327e-05</v>
       </c>
       <c r="F149" t="n">
-        <v>0.6820925416863549</v>
+        <v>0.7778406619537535</v>
       </c>
       <c r="G149" t="n">
-        <v>0.9839370034979791</v>
+        <v>0.9784251522347002</v>
       </c>
       <c r="H149" t="n">
-        <v>0.136418508337271</v>
+        <v>0.1555681323907507</v>
       </c>
     </row>
     <row r="150">
@@ -4256,25 +4256,25 @@
         <v>4.382973236451544</v>
       </c>
       <c r="B150" t="n">
-        <v>0.0006364036858704872</v>
+        <v>0.0006377035578777055</v>
       </c>
       <c r="C150" t="n">
-        <v>0.0001561920879050293</v>
+        <v>0.0001541294515849147</v>
       </c>
       <c r="D150" t="n">
-        <v>1.428112399388017e-05</v>
+        <v>1.431379140627689e-05</v>
       </c>
       <c r="E150" t="n">
-        <v>2.494280005653784e-05</v>
+        <v>2.495351957801435e-05</v>
       </c>
       <c r="F150" t="n">
-        <v>1.041518075820125</v>
+        <v>1.178417290262148</v>
       </c>
       <c r="G150" t="n">
-        <v>0.9591480233005667</v>
+        <v>0.9469311001557621</v>
       </c>
       <c r="H150" t="n">
-        <v>0.2083036151640249</v>
+        <v>0.2356834580524296</v>
       </c>
     </row>
     <row r="151">
@@ -4282,25 +4282,25 @@
         <v>4.384687210030635</v>
       </c>
       <c r="B151" t="n">
-        <v>0.000664674045126335</v>
+        <v>0.0006651718450217885</v>
       </c>
       <c r="C151" t="n">
-        <v>0.0001516960959258304</v>
+        <v>0.0001507994480063441</v>
       </c>
       <c r="D151" t="n">
-        <v>1.478764634037258e-05</v>
+        <v>1.479301229310688e-05</v>
       </c>
       <c r="E151" t="n">
-        <v>2.564939905171922e-05</v>
+        <v>2.56157414687336e-05</v>
       </c>
       <c r="F151" t="n">
-        <v>1.236368135265126</v>
+        <v>1.230959247029282</v>
       </c>
       <c r="G151" t="n">
-        <v>0.9413411186107273</v>
+        <v>0.9418729880977413</v>
       </c>
       <c r="H151" t="n">
-        <v>0.2472736270530251</v>
+        <v>0.2461918494058564</v>
       </c>
     </row>
     <row r="152">
@@ -4308,25 +4308,25 @@
         <v>4.386401183609727</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0006651345599648112</v>
+        <v>0.0006684787289179381</v>
       </c>
       <c r="C152" t="n">
-        <v>0.0001462486364470924</v>
+        <v>0.0001414909116809656</v>
       </c>
       <c r="D152" t="n">
-        <v>1.493604701681395e-05</v>
+        <v>1.501428754151571e-05</v>
       </c>
       <c r="E152" t="n">
-        <v>2.595654741734706e-05</v>
+        <v>2.601824616869065e-05</v>
       </c>
       <c r="F152" t="n">
-        <v>1.478080601690089</v>
+        <v>1.209879797588428</v>
       </c>
       <c r="G152" t="n">
-        <v>0.9155853618050589</v>
+        <v>0.9439260272818432</v>
       </c>
       <c r="H152" t="n">
-        <v>0.2956161203380178</v>
+        <v>0.2419759595176856</v>
       </c>
     </row>
     <row r="153">
@@ -4334,25 +4334,25 @@
         <v>4.388029458509863</v>
       </c>
       <c r="B153" t="n">
-        <v>0.0006735314640426197</v>
+        <v>0.0006756167421095186</v>
       </c>
       <c r="C153" t="n">
-        <v>0.0001822471780002359</v>
+        <v>0.0001810699159361237</v>
       </c>
       <c r="D153" t="n">
-        <v>1.484946392237481e-05</v>
+        <v>1.489805666756473e-05</v>
       </c>
       <c r="E153" t="n">
-        <v>2.627454093148446e-05</v>
+        <v>2.629871709475194e-05</v>
       </c>
       <c r="F153" t="n">
-        <v>1.939120348229848</v>
+        <v>1.824217666149437</v>
       </c>
       <c r="G153" t="n">
-        <v>0.8575031627634907</v>
+        <v>0.8728937245803666</v>
       </c>
       <c r="H153" t="n">
-        <v>0.3878240696459695</v>
+        <v>0.3648435332298874</v>
       </c>
     </row>
     <row r="154">
@@ -4360,25 +4360,25 @@
         <v>4.389057842657317</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0006820186510001175</v>
+        <v>0.0006815069776523551</v>
       </c>
       <c r="C154" t="n">
-        <v>0.0001676905168002503</v>
+        <v>0.0001709631838802682</v>
       </c>
       <c r="D154" t="n">
-        <v>1.521480302520162e-05</v>
+        <v>1.520614571333639e-05</v>
       </c>
       <c r="E154" t="n">
-        <v>2.67867423905716e-05</v>
+        <v>2.685333787743169e-05</v>
       </c>
       <c r="F154" t="n">
-        <v>3.678493744285603</v>
+        <v>4.150610975356293</v>
       </c>
       <c r="G154" t="n">
-        <v>0.59656764498491</v>
+        <v>0.5279418791437945</v>
       </c>
       <c r="H154" t="n">
-        <v>0.7356987488571206</v>
+        <v>0.8301221950712586</v>
       </c>
     </row>
     <row r="155">
@@ -4386,25 +4386,25 @@
         <v>4.389743432088954</v>
       </c>
       <c r="B155" t="n">
-        <v>0.0006732559761577079</v>
+        <v>0.0006749293486337653</v>
       </c>
       <c r="C155" t="n">
-        <v>0.0001515872121158431</v>
+        <v>0.0001519290950499896</v>
       </c>
       <c r="D155" t="n">
-        <v>1.502513760171919e-05</v>
+        <v>1.506052777459367e-05</v>
       </c>
       <c r="E155" t="n">
-        <v>2.622858193477693e-05</v>
+        <v>2.622284749720946e-05</v>
       </c>
       <c r="F155" t="n">
-        <v>1.533766264813907</v>
+        <v>1.551338410893547</v>
       </c>
       <c r="G155" t="n">
-        <v>0.9091406111545431</v>
+        <v>0.9070704210946722</v>
       </c>
       <c r="H155" t="n">
-        <v>0.3067532529627814</v>
+        <v>0.3102676821787094</v>
       </c>
     </row>
     <row r="156">
@@ -4412,25 +4412,25 @@
         <v>4.392314392457591</v>
       </c>
       <c r="B156" t="n">
-        <v>0.0006601753394083904</v>
+        <v>0.0006602366037301921</v>
       </c>
       <c r="C156" t="n">
-        <v>0.0001449128353112543</v>
+        <v>0.0001453243674380037</v>
       </c>
       <c r="D156" t="n">
-        <v>1.459125866928768e-05</v>
+        <v>1.459139815150423e-05</v>
       </c>
       <c r="E156" t="n">
-        <v>2.538973760254524e-05</v>
+        <v>2.536894731439539e-05</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9309394277802153</v>
+        <v>0.9748245175021735</v>
       </c>
       <c r="G156" t="n">
-        <v>0.9679414707173024</v>
+        <v>0.9645706828926716</v>
       </c>
       <c r="H156" t="n">
-        <v>0.1861878855560431</v>
+        <v>0.1949649035004347</v>
       </c>
     </row>
     <row r="157">
@@ -4438,25 +4438,25 @@
         <v>4.396599326405318</v>
       </c>
       <c r="B157" t="n">
-        <v>0.000551447070271869</v>
+        <v>0.0005523264503408576</v>
       </c>
       <c r="C157" t="n">
-        <v>0.0001304278330704439</v>
+        <v>0.0001298689977105188</v>
       </c>
       <c r="D157" t="n">
-        <v>1.207023944154276e-05</v>
+        <v>1.208623077134791e-05</v>
       </c>
       <c r="E157" t="n">
-        <v>2.115120307646517e-05</v>
+        <v>2.115005851776846e-05</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9744287814173241</v>
+        <v>1.044879921487817</v>
       </c>
       <c r="G157" t="n">
-        <v>0.9646017867605144</v>
+        <v>0.9588652818775386</v>
       </c>
       <c r="H157" t="n">
-        <v>0.1948857562834648</v>
+        <v>0.2089759842975634</v>
       </c>
     </row>
     <row r="158">
@@ -4464,25 +4464,25 @@
         <v>4.400884260353045</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0004049160372459251</v>
+        <v>0.0004058467575612314</v>
       </c>
       <c r="C158" t="n">
-        <v>9.218704225078751e-05</v>
+        <v>9.016721157489575e-05</v>
       </c>
       <c r="D158" t="n">
-        <v>9.331492055254389e-06</v>
+        <v>9.347225055751749e-06</v>
       </c>
       <c r="E158" t="n">
-        <v>1.615393882721587e-05</v>
+        <v>1.614272844043621e-05</v>
       </c>
       <c r="F158" t="n">
-        <v>1.418850935429006</v>
+        <v>1.468020634651402</v>
       </c>
       <c r="G158" t="n">
-        <v>0.9222401299470524</v>
+        <v>0.916730458663931</v>
       </c>
       <c r="H158" t="n">
-        <v>0.2837701870858013</v>
+        <v>0.2936041269302804</v>
       </c>
     </row>
     <row r="159">
@@ -4490,25 +4490,25 @@
         <v>4.404912098263909</v>
       </c>
       <c r="B159" t="n">
-        <v>0.0002956776834468055</v>
+        <v>0.0002960121081929706</v>
       </c>
       <c r="C159" t="n">
-        <v>6.085592886108374e-05</v>
+        <v>6.332555139327881e-05</v>
       </c>
       <c r="D159" t="n">
-        <v>6.715138477846681e-06</v>
+        <v>6.718336367080425e-06</v>
       </c>
       <c r="E159" t="n">
-        <v>1.163531756290491e-05</v>
+        <v>1.162351585259545e-05</v>
       </c>
       <c r="F159" t="n">
-        <v>0.8609122227509547</v>
+        <v>0.8316907860689218</v>
       </c>
       <c r="G159" t="n">
-        <v>0.9729866012479794</v>
+        <v>0.9749681221823613</v>
       </c>
       <c r="H159" t="n">
-        <v>0.1721824445501909</v>
+        <v>0.1663381572137844</v>
       </c>
     </row>
     <row r="160">
@@ -4516,25 +4516,25 @@
         <v>4.406111879769273</v>
       </c>
       <c r="B160" t="n">
-        <v>0.0003091647732906566</v>
+        <v>0.0003114053466186955</v>
       </c>
       <c r="C160" t="n">
-        <v>7.991191261787111e-05</v>
+        <v>7.964419789493771e-05</v>
       </c>
       <c r="D160" t="n">
-        <v>7.239273421631177e-06</v>
+        <v>7.28109179569635e-06</v>
       </c>
       <c r="E160" t="n">
-        <v>1.274767021426515e-05</v>
+        <v>1.280658775515842e-05</v>
       </c>
       <c r="F160" t="n">
-        <v>4.412090462737025</v>
+        <v>4.060592452315227</v>
       </c>
       <c r="G160" t="n">
-        <v>0.4917308757517482</v>
+        <v>0.5407255459396059</v>
       </c>
       <c r="H160" t="n">
-        <v>0.882418092547405</v>
+        <v>0.8121184904630454</v>
       </c>
     </row>
     <row r="161">
@@ -4542,25 +4542,25 @@
         <v>4.4094541282485</v>
       </c>
       <c r="B161" t="n">
-        <v>0.000237070229659241</v>
+        <v>0.0002395056755603672</v>
       </c>
       <c r="C161" t="n">
-        <v>5.940851244241527e-05</v>
+        <v>5.886807235514781e-05</v>
       </c>
       <c r="D161" t="n">
-        <v>5.444142852048221e-06</v>
+        <v>5.48964728116213e-06</v>
       </c>
       <c r="E161" t="n">
-        <v>9.519371945154133e-06</v>
+        <v>9.587698086815835e-06</v>
       </c>
       <c r="F161" t="n">
-        <v>0.3907851856680401</v>
+        <v>0.3110390308191048</v>
       </c>
       <c r="G161" t="n">
-        <v>0.9955796057282705</v>
+        <v>0.9974303003269541</v>
       </c>
       <c r="H161" t="n">
-        <v>0.07815703713360803</v>
+        <v>0.06220780616382097</v>
       </c>
     </row>
     <row r="162">
@@ -4568,25 +4568,25 @@
         <v>4.413824760875183</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0002373970170109808</v>
+        <v>0.0002394987882104859</v>
       </c>
       <c r="C162" t="n">
-        <v>5.301297921299273e-05</v>
+        <v>5.256066805336375e-05</v>
       </c>
       <c r="D162" t="n">
-        <v>5.520285551537552e-06</v>
+        <v>5.554964841757984e-06</v>
       </c>
       <c r="E162" t="n">
-        <v>9.574117125252912e-06</v>
+        <v>9.579455240518802e-06</v>
       </c>
       <c r="F162" t="n">
-        <v>0.3945349980196798</v>
+        <v>0.3403035803679313</v>
       </c>
       <c r="G162" t="n">
-        <v>0.9954787829255783</v>
+        <v>0.9968156567238908</v>
       </c>
       <c r="H162" t="n">
-        <v>0.07890699960393596</v>
+        <v>0.06806071607358626</v>
       </c>
     </row>
     <row r="163">
@@ -4594,25 +4594,25 @@
         <v>4.41622432388591</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0002288347784761179</v>
+        <v>0.0002286641099539209</v>
       </c>
       <c r="C163" t="n">
-        <v>5.673763614682179e-05</v>
+        <v>5.75728453608784e-05</v>
       </c>
       <c r="D163" t="n">
-        <v>5.2451089396802e-06</v>
+        <v>5.23874876652946e-06</v>
       </c>
       <c r="E163" t="n">
-        <v>9.120822250620851e-06</v>
+        <v>9.10832727589232e-06</v>
       </c>
       <c r="F163" t="n">
-        <v>0.2761005411022199</v>
+        <v>0.6583838825532974</v>
       </c>
       <c r="G163" t="n">
-        <v>0.9980685594353942</v>
+        <v>0.9851743631871677</v>
       </c>
       <c r="H163" t="n">
-        <v>0.05522010822044399</v>
+        <v>0.1316767765106595</v>
       </c>
     </row>
     <row r="164">
@@ -4620,25 +4620,25 @@
         <v>4.418795284254546</v>
       </c>
       <c r="B164" t="n">
-        <v>0.0002103179637935034</v>
+        <v>0.0002121183849291805</v>
       </c>
       <c r="C164" t="n">
-        <v>4.415284151969421e-05</v>
+        <v>4.536216516158877e-05</v>
       </c>
       <c r="D164" t="n">
-        <v>4.899626406418956e-06</v>
+        <v>4.924752573987162e-06</v>
       </c>
       <c r="E164" t="n">
-        <v>8.41556701634496e-06</v>
+        <v>8.498580316615124e-06</v>
       </c>
       <c r="F164" t="n">
-        <v>0.07913186854383271</v>
+        <v>0.4715325282994987</v>
       </c>
       <c r="G164" t="n">
-        <v>0.9999089103484489</v>
+        <v>0.9931286053704249</v>
       </c>
       <c r="H164" t="n">
-        <v>0.01582637370876654</v>
+        <v>0.09430650565989973</v>
       </c>
     </row>
     <row r="165">
@@ -4646,25 +4646,25 @@
         <v>4.421623340660047</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0001953384949193156</v>
+        <v>0.0001954071044694583</v>
       </c>
       <c r="C165" t="n">
-        <v>3.957060175243543e-05</v>
+        <v>4.115508814376196e-05</v>
       </c>
       <c r="D165" t="n">
-        <v>4.663645543866291e-06</v>
+        <v>4.664114529271445e-06</v>
       </c>
       <c r="E165" t="n">
-        <v>7.927076231523571e-06</v>
+        <v>7.952626294035514e-06</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9616798163582581</v>
+        <v>1.050653978436298</v>
       </c>
       <c r="G165" t="n">
-        <v>0.9655969665108449</v>
+        <v>0.9583775884376066</v>
       </c>
       <c r="H165" t="n">
-        <v>0.1923359632716516</v>
+        <v>0.2101307956872597</v>
       </c>
     </row>
     <row r="166">
@@ -4672,25 +4672,25 @@
         <v>4.423337314239138</v>
       </c>
       <c r="B166" t="n">
-        <v>0.0001870411608514363</v>
+        <v>0.000187368822993635</v>
       </c>
       <c r="C166" t="n">
-        <v>4.434323757783702e-05</v>
+        <v>4.568565842841094e-05</v>
       </c>
       <c r="D166" t="n">
-        <v>4.667709065900983e-06</v>
+        <v>4.664718201751388e-06</v>
       </c>
       <c r="E166" t="n">
-        <v>8.036336829686441e-06</v>
+        <v>8.026566670439585e-06</v>
       </c>
       <c r="F166" t="n">
-        <v>3.522818478928429</v>
+        <v>1.938534178515441</v>
       </c>
       <c r="G166" t="n">
-        <v>0.6199377496547815</v>
+        <v>0.8575829824230723</v>
       </c>
       <c r="H166" t="n">
-        <v>0.7045636957856858</v>
+        <v>0.3877068357030882</v>
       </c>
     </row>
     <row r="167">
@@ -4698,25 +4698,25 @@
         <v>4.424194301028683</v>
       </c>
       <c r="B167" t="n">
-        <v>0.0001787957515424849</v>
+        <v>0.000179990582252017</v>
       </c>
       <c r="C167" t="n">
-        <v>4.127775837001608e-05</v>
+        <v>4.145468576892171e-05</v>
       </c>
       <c r="D167" t="n">
-        <v>4.16560187377217e-06</v>
+        <v>4.188556030197201e-06</v>
       </c>
       <c r="E167" t="n">
-        <v>7.212120900580418e-06</v>
+        <v>7.251080651556508e-06</v>
       </c>
       <c r="F167" t="n">
-        <v>1.669288272492317</v>
+        <v>1.314019022879428</v>
       </c>
       <c r="G167" t="n">
-        <v>0.8927459702040024</v>
+        <v>0.933482541786071</v>
       </c>
       <c r="H167" t="n">
-        <v>0.3338576544984634</v>
+        <v>0.2628038045758856</v>
       </c>
     </row>
     <row r="168">
@@ -4724,25 +4724,25 @@
         <v>4.429336221765956</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0001502457487415607</v>
+        <v>0.0001515345316840853</v>
       </c>
       <c r="C168" t="n">
-        <v>3.134276012738562e-05</v>
+        <v>2.872207920626396e-05</v>
       </c>
       <c r="D168" t="n">
-        <v>3.565277334463078e-06</v>
+        <v>3.596199066720664e-06</v>
       </c>
       <c r="E168" t="n">
-        <v>6.082762704977347e-06</v>
+        <v>6.106813807961142e-06</v>
       </c>
       <c r="F168" t="n">
-        <v>1.536067089536245</v>
+        <v>0.6910135982106422</v>
       </c>
       <c r="G168" t="n">
-        <v>0.9088705285625991</v>
+        <v>0.9834582271667054</v>
       </c>
       <c r="H168" t="n">
-        <v>0.307213417907249</v>
+        <v>0.1382027196421284</v>
       </c>
     </row>
     <row r="169">
@@ -4750,25 +4750,25 @@
         <v>4.431392990060865</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0001359802015166561</v>
+        <v>0.0001363966125184783</v>
       </c>
       <c r="C169" t="n">
-        <v>2.980602626999481e-05</v>
+        <v>2.937304337154879e-05</v>
       </c>
       <c r="D169" t="n">
-        <v>3.176231233704982e-06</v>
+        <v>3.184588039367268e-06</v>
       </c>
       <c r="E169" t="n">
-        <v>5.514886480405975e-06</v>
+        <v>5.518839414521286e-06</v>
       </c>
       <c r="F169" t="n">
-        <v>1.276119989693591</v>
+        <v>1.185925416734586</v>
       </c>
       <c r="G169" t="n">
-        <v>0.9373696247036837</v>
+        <v>0.9462204836382485</v>
       </c>
       <c r="H169" t="n">
-        <v>0.2552239979387183</v>
+        <v>0.2371850833469172</v>
       </c>
     </row>
     <row r="170">
@@ -4776,25 +4776,25 @@
         <v>4.440477050030048</v>
       </c>
       <c r="B170" t="n">
-        <v>8.655776854727559e-05</v>
+        <v>8.636842628450865e-05</v>
       </c>
       <c r="C170" t="n">
-        <v>2.119768769577605e-05</v>
+        <v>1.979266470237709e-05</v>
       </c>
       <c r="D170" t="n">
-        <v>2.344664659080374e-06</v>
+        <v>2.340486077602692e-06</v>
       </c>
       <c r="E170" t="n">
-        <v>4.005690835589367e-06</v>
+        <v>3.979765138577863e-06</v>
       </c>
       <c r="F170" t="n">
-        <v>2.063196635356522</v>
+        <v>1.29207297974852</v>
       </c>
       <c r="G170" t="n">
-        <v>0.8403333015454106</v>
+        <v>0.9357452461430553</v>
       </c>
       <c r="H170" t="n">
-        <v>0.4126393270713044</v>
+        <v>0.2584145959497039</v>
       </c>
     </row>
     <row r="171">
@@ -4802,25 +4802,25 @@
         <v>4.457445388463049</v>
       </c>
       <c r="B171" t="n">
-        <v>6.399254531280394e-05</v>
+        <v>6.425165353224413e-05</v>
       </c>
       <c r="C171" t="n">
-        <v>1.468682251638215e-05</v>
+        <v>1.412014017544848e-05</v>
       </c>
       <c r="D171" t="n">
-        <v>1.642652782834495e-06</v>
+        <v>1.64756724228832e-06</v>
       </c>
       <c r="E171" t="n">
-        <v>2.836519001981918e-06</v>
+        <v>2.836371264982636e-06</v>
       </c>
       <c r="F171" t="n">
-        <v>5.226967131873558</v>
+        <v>4.297974536815971</v>
       </c>
       <c r="G171" t="n">
-        <v>0.3888135347117618</v>
+        <v>0.507359686886929</v>
       </c>
       <c r="H171" t="n">
-        <v>1.045393426374712</v>
+        <v>0.8595949073631942</v>
       </c>
     </row>
     <row r="172">
@@ -4828,25 +4828,25 @@
         <v>4.474756521611869</v>
       </c>
       <c r="B172" t="n">
-        <v>7.047075575411643e-05</v>
+        <v>7.031450702070563e-05</v>
       </c>
       <c r="C172" t="n">
-        <v>1.716693323878378e-05</v>
+        <v>1.731540468888029e-05</v>
       </c>
       <c r="D172" t="n">
-        <v>1.873262507367413e-06</v>
+        <v>1.864966125892621e-06</v>
       </c>
       <c r="E172" t="n">
-        <v>3.244590747078681e-06</v>
+        <v>3.219578800714605e-06</v>
       </c>
       <c r="F172" t="n">
-        <v>6.153444158468037</v>
+        <v>3.614051622381687</v>
       </c>
       <c r="G172" t="n">
-        <v>0.2915732298896267</v>
+        <v>0.6062047461455301</v>
       </c>
       <c r="H172" t="n">
-        <v>1.230688831693608</v>
+        <v>0.7228103244763373</v>
       </c>
     </row>
     <row r="173">
@@ -4854,25 +4854,25 @@
         <v>4.491896257402779</v>
       </c>
       <c r="B173" t="n">
-        <v>9.42569571017476e-05</v>
+        <v>9.48532256728953e-05</v>
       </c>
       <c r="C173" t="n">
-        <v>1.817789906098636e-05</v>
+        <v>1.868089575031361e-05</v>
       </c>
       <c r="D173" t="n">
-        <v>2.713913615876208e-06</v>
+        <v>2.725639753093683e-06</v>
       </c>
       <c r="E173" t="n">
-        <v>4.508995607463057e-06</v>
+        <v>4.554943670051669e-06</v>
       </c>
       <c r="F173" t="n">
-        <v>1.823244763143361</v>
+        <v>2.289350713384309</v>
       </c>
       <c r="G173" t="n">
-        <v>0.8730217456336933</v>
+        <v>0.8078296873130237</v>
       </c>
       <c r="H173" t="n">
-        <v>0.3646489526286721</v>
+        <v>0.4578701426768618</v>
       </c>
     </row>
     <row r="174">
@@ -4880,25 +4880,25 @@
         <v>4.500037631903461</v>
       </c>
       <c r="B174" t="n">
-        <v>0.000122074509915897</v>
+        <v>0.0001226454878922475</v>
       </c>
       <c r="C174" t="n">
-        <v>2.738774304708095e-05</v>
+        <v>2.806565878518889e-05</v>
       </c>
       <c r="D174" t="n">
-        <v>3.065213166834501e-06</v>
+        <v>3.078801787176578e-06</v>
       </c>
       <c r="E174" t="n">
-        <v>5.204715797213095e-06</v>
+        <v>5.236767715299973e-06</v>
       </c>
       <c r="F174" t="n">
-        <v>1.678113032025207</v>
+        <v>2.188578276968824</v>
       </c>
       <c r="G174" t="n">
-        <v>0.8916455251645513</v>
+        <v>0.8224840432891749</v>
       </c>
       <c r="H174" t="n">
-        <v>0.3356226064050415</v>
+        <v>0.4377156553937647</v>
       </c>
     </row>
     <row r="175">
@@ -4906,25 +4906,25 @@
         <v>4.503122784345824</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0001345593124315542</v>
+        <v>0.0001341150769645171</v>
       </c>
       <c r="C175" t="n">
-        <v>2.743652877589422e-05</v>
+        <v>2.701524391263549e-05</v>
       </c>
       <c r="D175" t="n">
-        <v>3.821443822843598e-06</v>
+        <v>3.825888344537829e-06</v>
       </c>
       <c r="E175" t="n">
-        <v>6.346001328110779e-06</v>
+        <v>6.332775883329463e-06</v>
       </c>
       <c r="F175" t="n">
-        <v>3.681343818363119</v>
+        <v>3.533751318941615</v>
       </c>
       <c r="G175" t="n">
-        <v>0.5961427143088923</v>
+        <v>0.61828689175135</v>
       </c>
       <c r="H175" t="n">
-        <v>0.7362687636726238</v>
+        <v>0.706750263788323</v>
       </c>
     </row>
     <row r="176">
@@ -4932,25 +4932,25 @@
         <v>4.509121691872643</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0001853359864670952</v>
+        <v>0.0001851150721443321</v>
       </c>
       <c r="C176" t="n">
-        <v>4.047895180923312e-05</v>
+        <v>3.678468789664703e-05</v>
       </c>
       <c r="D176" t="n">
-        <v>5.528340595134102e-06</v>
+        <v>5.501804262184757e-06</v>
       </c>
       <c r="E176" t="n">
-        <v>9.157351214864912e-06</v>
+        <v>9.046191903357047e-06</v>
       </c>
       <c r="F176" t="n">
-        <v>2.798509133863872</v>
+        <v>1.248143277975765</v>
       </c>
       <c r="G176" t="n">
-        <v>0.7310155420447134</v>
+        <v>0.9401761401146925</v>
       </c>
       <c r="H176" t="n">
-        <v>0.5597018267727744</v>
+        <v>0.249628655595153</v>
       </c>
     </row>
     <row r="177">
@@ -4958,25 +4958,25 @@
         <v>4.517520162410189</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0002769079441880783</v>
+        <v>0.0002771467865461172</v>
       </c>
       <c r="C177" t="n">
-        <v>6.038250226413574e-05</v>
+        <v>5.904214689178474e-05</v>
       </c>
       <c r="D177" t="n">
-        <v>7.462824876213205e-06</v>
+        <v>7.485760190092748e-06</v>
       </c>
       <c r="E177" t="n">
-        <v>1.252749518280634e-05</v>
+        <v>1.257054414656249e-05</v>
       </c>
       <c r="F177" t="n">
-        <v>1.888581995979486</v>
+        <v>2.684253510162917</v>
       </c>
       <c r="G177" t="n">
-        <v>0.8643370754437674</v>
+        <v>0.7485257197178037</v>
       </c>
       <c r="H177" t="n">
-        <v>0.3777163991958971</v>
+        <v>0.5368507020325833</v>
       </c>
     </row>
     <row r="178">
@@ -4984,25 +4984,25 @@
         <v>4.521890795036872</v>
       </c>
       <c r="B178" t="n">
-        <v>0.0003289468438537425</v>
+        <v>0.0003268738627004395</v>
       </c>
       <c r="C178" t="n">
-        <v>6.717036368732767e-05</v>
+        <v>6.728863202878991e-05</v>
       </c>
       <c r="D178" t="n">
-        <v>9.183833886431125e-06</v>
+        <v>9.126305687804475e-06</v>
       </c>
       <c r="E178" t="n">
-        <v>1.526364880187406e-05</v>
+        <v>1.512460664569457e-05</v>
       </c>
       <c r="F178" t="n">
-        <v>3.575965325184757</v>
+        <v>2.660061346632682</v>
       </c>
       <c r="G178" t="n">
-        <v>0.6119255677171239</v>
+        <v>0.7522197698398601</v>
       </c>
       <c r="H178" t="n">
-        <v>0.7151930650369513</v>
+        <v>0.5320122693265363</v>
       </c>
     </row>
     <row r="179">
@@ -5010,25 +5010,25 @@
         <v>4.526175728984599</v>
       </c>
       <c r="B179" t="n">
-        <v>0.0004030174575755357</v>
+        <v>0.0004020364095288396</v>
       </c>
       <c r="C179" t="n">
-        <v>9.472529392511207e-05</v>
+        <v>9.394209897437513e-05</v>
       </c>
       <c r="D179" t="n">
-        <v>1.066454832148462e-05</v>
+        <v>1.066787829735288e-05</v>
       </c>
       <c r="E179" t="n">
-        <v>1.810640018598121e-05</v>
+        <v>1.80823921564736e-05</v>
       </c>
       <c r="F179" t="n">
-        <v>1.329601061332853</v>
+        <v>1.006472788932673</v>
       </c>
       <c r="G179" t="n">
-        <v>0.9318564792341717</v>
+        <v>0.9620420102893459</v>
       </c>
       <c r="H179" t="n">
-        <v>0.2659202122665707</v>
+        <v>0.2012945577865345</v>
       </c>
     </row>
     <row r="180">
@@ -5036,25 +5036,25 @@
         <v>4.530460662932327</v>
       </c>
       <c r="B180" t="n">
-        <v>0.0005376850243618465</v>
+        <v>0.000536208033010924</v>
       </c>
       <c r="C180" t="n">
-        <v>0.0001542258558663355</v>
+        <v>0.0001551935396399962</v>
       </c>
       <c r="D180" t="n">
-        <v>9.065148029990023e-06</v>
+        <v>9.046063306415202e-06</v>
       </c>
       <c r="E180" t="n">
-        <v>1.595103567741764e-05</v>
+        <v>1.59172560192111e-05</v>
       </c>
       <c r="F180" t="n">
-        <v>4.290623790974166</v>
+        <v>4.315741620620386</v>
       </c>
       <c r="G180" t="n">
-        <v>0.9776028780231989</v>
+        <v>0.9770416394813031</v>
       </c>
       <c r="H180" t="n">
-        <v>0.3575519825811805</v>
+        <v>0.3596451350516989</v>
       </c>
     </row>
     <row r="181">
@@ -5062,25 +5062,25 @@
         <v>4.534574199522145</v>
       </c>
       <c r="B181" t="n">
-        <v>0.000806582459797437</v>
+        <v>0.0008079250320292722</v>
       </c>
       <c r="C181" t="n">
-        <v>0.000195213533973556</v>
+        <v>0.0001894431895698487</v>
       </c>
       <c r="D181" t="n">
-        <v>1.971601318013359e-05</v>
+        <v>1.976873009391989e-05</v>
       </c>
       <c r="E181" t="n">
-        <v>3.406722861457462e-05</v>
+        <v>3.408644590540667e-05</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9081118292062693</v>
+        <v>1.005061893742212</v>
       </c>
       <c r="G181" t="n">
-        <v>0.9696315912637886</v>
+        <v>0.9621564640947801</v>
       </c>
       <c r="H181" t="n">
-        <v>0.1816223658412539</v>
+        <v>0.2010123787484424</v>
       </c>
     </row>
     <row r="182">
@@ -5088,25 +5088,25 @@
         <v>4.539030530827781</v>
       </c>
       <c r="B182" t="n">
-        <v>0.001035185178127096</v>
+        <v>0.001028906531159488</v>
       </c>
       <c r="C182" t="n">
-        <v>0.0002351532946148939</v>
+        <v>0.0002395183111923876</v>
       </c>
       <c r="D182" t="n">
-        <v>2.506941398064236e-05</v>
+        <v>2.49735049522031e-05</v>
       </c>
       <c r="E182" t="n">
-        <v>4.320993774805743e-05</v>
+        <v>4.298078545412767e-05</v>
       </c>
       <c r="F182" t="n">
-        <v>5.523036745470279</v>
+        <v>4.291094717126898</v>
       </c>
       <c r="G182" t="n">
-        <v>0.3554264302912489</v>
+        <v>0.5083107156123469</v>
       </c>
       <c r="H182" t="n">
-        <v>1.104607349094056</v>
+        <v>0.8582189434253797</v>
       </c>
     </row>
     <row r="183">
@@ -5114,25 +5114,25 @@
         <v>4.543486862133419</v>
       </c>
       <c r="B183" t="n">
-        <v>0.001355923032710257</v>
+        <v>0.001355492975643158</v>
       </c>
       <c r="C183" t="n">
-        <v>0.0002969907885894213</v>
+        <v>0.000301514217506276</v>
       </c>
       <c r="D183" t="n">
-        <v>3.007513921906042e-05</v>
+        <v>3.006171998378866e-05</v>
       </c>
       <c r="E183" t="n">
-        <v>5.292398793259543e-05</v>
+        <v>5.293767945880192e-05</v>
       </c>
       <c r="F183" t="n">
-        <v>6.610321513557004</v>
+        <v>6.310737203889755</v>
       </c>
       <c r="G183" t="n">
-        <v>0.2512709847862066</v>
+        <v>0.2771460817441785</v>
       </c>
       <c r="H183" t="n">
-        <v>1.322064302711401</v>
+        <v>1.262147440777951</v>
       </c>
     </row>
     <row r="184">
@@ -5140,25 +5140,25 @@
         <v>4.545800726465191</v>
       </c>
       <c r="B184" t="n">
-        <v>0.001585988844027495</v>
+        <v>0.001586978282118184</v>
       </c>
       <c r="C184" t="n">
-        <v>0.0004514727808814912</v>
+        <v>0.0004554379281810818</v>
       </c>
       <c r="D184" t="n">
-        <v>3.453364468793219e-05</v>
+        <v>3.45522554856349e-05</v>
       </c>
       <c r="E184" t="n">
-        <v>6.163425102771072e-05</v>
+        <v>6.175300073019831e-05</v>
       </c>
       <c r="F184" t="n">
-        <v>0.6838242500566366</v>
+        <v>0.7827379913873563</v>
       </c>
       <c r="G184" t="n">
-        <v>0.9838446289364318</v>
+        <v>0.9781212780797085</v>
       </c>
       <c r="H184" t="n">
-        <v>0.1367648500113273</v>
+        <v>0.1565475982774713</v>
       </c>
     </row>
     <row r="185">
@@ -5166,25 +5166,25 @@
         <v>4.549914263055009</v>
       </c>
       <c r="B185" t="n">
-        <v>0.001545719046113382</v>
+        <v>0.001549673861630782</v>
       </c>
       <c r="C185" t="n">
-        <v>0.0003751930169858729</v>
+        <v>0.0003733786580601223</v>
       </c>
       <c r="D185" t="n">
-        <v>3.269819005081443e-05</v>
+        <v>3.279011825426312e-05</v>
       </c>
       <c r="E185" t="n">
-        <v>5.79361065435724e-05</v>
+        <v>5.808217582320702e-05</v>
       </c>
       <c r="F185" t="n">
-        <v>5.4331972384093</v>
+        <v>5.543930181274088</v>
       </c>
       <c r="G185" t="n">
-        <v>0.3653266608020891</v>
+        <v>0.3531528203535689</v>
       </c>
       <c r="H185" t="n">
-        <v>1.08663944768186</v>
+        <v>1.108786036254818</v>
       </c>
     </row>
     <row r="186">
@@ -5192,25 +5192,25 @@
         <v>4.551628236634101</v>
       </c>
       <c r="B186" t="n">
-        <v>0.001517871784526788</v>
+        <v>0.001518132008220356</v>
       </c>
       <c r="C186" t="n">
-        <v>0.0003948690153100824</v>
+        <v>0.0003919651060588803</v>
       </c>
       <c r="D186" t="n">
-        <v>3.249287351493308e-05</v>
+        <v>3.251665628028213e-05</v>
       </c>
       <c r="E186" t="n">
-        <v>5.739816029147015e-05</v>
+        <v>5.740804243738883e-05</v>
       </c>
       <c r="F186" t="n">
-        <v>0.4756504156515884</v>
+        <v>0.4853027676448432</v>
       </c>
       <c r="G186" t="n">
-        <v>0.9929877640355496</v>
+        <v>0.9926515647529142</v>
       </c>
       <c r="H186" t="n">
-        <v>0.09513008313031769</v>
+        <v>0.09706055352896864</v>
       </c>
     </row>
     <row r="187">
@@ -5218,25 +5218,25 @@
         <v>4.553942100965873</v>
       </c>
       <c r="B187" t="n">
-        <v>0.001429784003021576</v>
+        <v>0.001429904867017707</v>
       </c>
       <c r="C187" t="n">
-        <v>0.0003495471270984289</v>
+        <v>0.0003479593116919485</v>
       </c>
       <c r="D187" t="n">
-        <v>3.096087606270679e-05</v>
+        <v>3.098706222686351e-05</v>
       </c>
       <c r="E187" t="n">
-        <v>5.460800379232673e-05</v>
+        <v>5.466850699529207e-05</v>
       </c>
       <c r="F187" t="n">
-        <v>5.083710731143</v>
+        <v>5.182404854762675</v>
       </c>
       <c r="G187" t="n">
-        <v>0.4057497482410674</v>
+        <v>0.3940274552031885</v>
       </c>
       <c r="H187" t="n">
-        <v>1.0167421462286</v>
+        <v>1.036480970952535</v>
       </c>
     </row>
     <row r="188">
@@ -5244,25 +5244,25 @@
         <v>4.558912624345237</v>
       </c>
       <c r="B188" t="n">
-        <v>0.001243109585960793</v>
+        <v>0.0012451671361664</v>
       </c>
       <c r="C188" t="n">
-        <v>0.0003129852254916287</v>
+        <v>0.0003118581956194304</v>
       </c>
       <c r="D188" t="n">
-        <v>2.603437649737588e-05</v>
+        <v>2.608152164928697e-05</v>
       </c>
       <c r="E188" t="n">
-        <v>4.640017483295629e-05</v>
+        <v>4.646896623053428e-05</v>
       </c>
       <c r="F188" t="n">
-        <v>3.875406796858251</v>
+        <v>3.798888727957296</v>
       </c>
       <c r="G188" t="n">
-        <v>0.5674903159657775</v>
+        <v>0.5787190298093697</v>
       </c>
       <c r="H188" t="n">
-        <v>0.7750813593716501</v>
+        <v>0.7597777455914592</v>
       </c>
     </row>
     <row r="189">
@@ -5270,25 +5270,25 @@
         <v>4.562940462256101</v>
       </c>
       <c r="B189" t="n">
-        <v>0.001181408795016022</v>
+        <v>0.001182961710492042</v>
       </c>
       <c r="C189" t="n">
-        <v>0.0003045954031131405</v>
+        <v>0.0003043937529618286</v>
       </c>
       <c r="D189" t="n">
-        <v>2.496265502458943e-05</v>
+        <v>2.499435601991193e-05</v>
       </c>
       <c r="E189" t="n">
-        <v>4.459914887094086e-05</v>
+        <v>4.46795995501481e-05</v>
       </c>
       <c r="F189" t="n">
-        <v>6.008160477882887</v>
+        <v>5.809428721280356</v>
       </c>
       <c r="G189" t="n">
-        <v>0.3054256782387221</v>
+        <v>0.3252062373061305</v>
       </c>
       <c r="H189" t="n">
-        <v>1.201632095576577</v>
+        <v>1.161885744256071</v>
       </c>
     </row>
     <row r="190">
@@ -5296,25 +5296,25 @@
         <v>4.56688260148801</v>
       </c>
       <c r="B190" t="n">
-        <v>0.001013350781011509</v>
+        <v>0.001012702116865398</v>
       </c>
       <c r="C190" t="n">
-        <v>0.0002742018421098305</v>
+        <v>0.0002754410779207086</v>
       </c>
       <c r="D190" t="n">
-        <v>2.144662189905456e-05</v>
+        <v>2.143548537244654e-05</v>
       </c>
       <c r="E190" t="n">
-        <v>3.840512597499871e-05</v>
+        <v>3.838528710680936e-05</v>
       </c>
       <c r="F190" t="n">
-        <v>5.800756354351148</v>
+        <v>5.529846800388286</v>
       </c>
       <c r="G190" t="n">
-        <v>0.3260915167239316</v>
+        <v>0.354684169974562</v>
       </c>
       <c r="H190" t="n">
-        <v>1.16015127087023</v>
+        <v>1.105969360077657</v>
       </c>
     </row>
     <row r="191">
@@ -5322,25 +5322,25 @@
         <v>4.571424631472602</v>
       </c>
       <c r="B191" t="n">
-        <v>0.0008056318925539045</v>
+        <v>0.0008056053852941801</v>
       </c>
       <c r="C191" t="n">
-        <v>0.0002242773686166997</v>
+        <v>0.0002261409509226452</v>
       </c>
       <c r="D191" t="n">
-        <v>1.713740475641505e-05</v>
+        <v>1.712656403395418e-05</v>
       </c>
       <c r="E191" t="n">
-        <v>3.072948643100196e-05</v>
+        <v>3.071773701565333e-05</v>
       </c>
       <c r="F191" t="n">
-        <v>5.046953180880205</v>
+        <v>4.923785246077745</v>
       </c>
       <c r="G191" t="n">
-        <v>0.4101768954897695</v>
+        <v>0.4252522525229994</v>
       </c>
       <c r="H191" t="n">
-        <v>1.009390636176041</v>
+        <v>0.9847570492155491</v>
       </c>
     </row>
     <row r="192">
@@ -5348,25 +5348,25 @@
         <v>4.575623866741375</v>
       </c>
       <c r="B192" t="n">
-        <v>0.0006786905942501549</v>
+        <v>0.0006801622145849176</v>
       </c>
       <c r="C192" t="n">
-        <v>0.0001703065164418723</v>
+        <v>0.0001696294502784</v>
       </c>
       <c r="D192" t="n">
-        <v>1.469981044323346e-05</v>
+        <v>1.472976641525189e-05</v>
       </c>
       <c r="E192" t="n">
-        <v>2.618110136317353e-05</v>
+        <v>2.622413634627524e-05</v>
       </c>
       <c r="F192" t="n">
-        <v>5.124387991224214</v>
+        <v>4.884599778588705</v>
       </c>
       <c r="G192" t="n">
-        <v>0.4008892351903035</v>
+        <v>0.4301256580272773</v>
       </c>
       <c r="H192" t="n">
-        <v>1.024877598244843</v>
+        <v>0.976919955717741</v>
       </c>
     </row>
     <row r="193">
@@ -5374,25 +5374,25 @@
         <v>4.580080198047011</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0005064083947628538</v>
+        <v>0.0005064526541113322</v>
       </c>
       <c r="C193" t="n">
-        <v>0.000141699265601223</v>
+        <v>0.0001420075377123766</v>
       </c>
       <c r="D193" t="n">
-        <v>7.920620359504411e-06</v>
+        <v>7.922783540442442e-06</v>
       </c>
       <c r="E193" t="n">
-        <v>1.4095173292578e-05</v>
+        <v>1.409085937114378e-05</v>
       </c>
       <c r="F193" t="n">
-        <v>5.789209672853168</v>
+        <v>5.820660309621637</v>
       </c>
       <c r="G193" t="n">
-        <v>0.9263326174461367</v>
+        <v>0.9248510238604492</v>
       </c>
       <c r="H193" t="n">
-        <v>0.4824341394044307</v>
+        <v>0.4850550258018031</v>
       </c>
     </row>
     <row r="194">
@@ -5400,25 +5400,25 @@
         <v>4.58402233727892</v>
       </c>
       <c r="B194" t="n">
-        <v>0.0003474035527496078</v>
+        <v>0.000347451286915143</v>
       </c>
       <c r="C194" t="n">
-        <v>8.459368176670984e-05</v>
+        <v>8.466202207423477e-05</v>
       </c>
       <c r="D194" t="n">
-        <v>7.75379112555937e-06</v>
+        <v>7.753801985002169e-06</v>
       </c>
       <c r="E194" t="n">
-        <v>1.373347008061323e-05</v>
+        <v>1.373302216056613e-05</v>
       </c>
       <c r="F194" t="n">
-        <v>5.268908736059396</v>
+        <v>5.245285531887807</v>
       </c>
       <c r="G194" t="n">
-        <v>0.3839512390104951</v>
+        <v>0.3866845081379542</v>
       </c>
       <c r="H194" t="n">
-        <v>1.053781747211879</v>
+        <v>1.049057106377561</v>
       </c>
     </row>
     <row r="195">
@@ -5426,25 +5426,25 @@
         <v>4.588478668584557</v>
       </c>
       <c r="B195" t="n">
-        <v>0.0002119662128927965</v>
+        <v>0.0002131844212611058</v>
       </c>
       <c r="C195" t="n">
-        <v>4.857626201019668e-05</v>
+        <v>4.723560771195669e-05</v>
       </c>
       <c r="D195" t="n">
-        <v>5.102720094240539e-06</v>
+        <v>5.126589387034727e-06</v>
       </c>
       <c r="E195" t="n">
-        <v>8.76348321359174e-06</v>
+        <v>8.810065984254228e-06</v>
       </c>
       <c r="F195" t="n">
-        <v>0.7451456701204079</v>
+        <v>0.8268819002655468</v>
       </c>
       <c r="G195" t="n">
-        <v>0.9803994137146412</v>
+        <v>0.9752871382871048</v>
       </c>
       <c r="H195" t="n">
-        <v>0.1490291340240816</v>
+        <v>0.1653763800531093</v>
       </c>
     </row>
     <row r="196">
@@ -5452,25 +5452,25 @@
         <v>4.588650065942466</v>
       </c>
       <c r="B196" t="n">
-        <v>0.0002152469571510225</v>
+        <v>0.0002149655721571288</v>
       </c>
       <c r="C196" t="n">
-        <v>4.571563695253117e-05</v>
+        <v>4.772632863989249e-05</v>
       </c>
       <c r="D196" t="n">
-        <v>5.022014158736567e-06</v>
+        <v>5.014881427875362e-06</v>
       </c>
       <c r="E196" t="n">
-        <v>8.735068903984142e-06</v>
+        <v>8.749143061172628e-06</v>
       </c>
       <c r="F196" t="n">
-        <v>1.748392414454453</v>
+        <v>1.784532232368841</v>
       </c>
       <c r="G196" t="n">
-        <v>0.8827476210548938</v>
+        <v>0.8780827414489601</v>
       </c>
       <c r="H196" t="n">
-        <v>0.3496784828908907</v>
+        <v>0.3569064464737682</v>
       </c>
     </row>
     <row r="197">
@@ -5478,25 +5478,25 @@
         <v>4.592078013100648</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0001609576030819696</v>
+        <v>0.0001610064289027298</v>
       </c>
       <c r="C197" t="n">
-        <v>2.826018584750526e-05</v>
+        <v>2.819881087934306e-05</v>
       </c>
       <c r="D197" t="n">
-        <v>3.937693237638948e-06</v>
+        <v>3.9346386717558e-06</v>
       </c>
       <c r="E197" t="n">
-        <v>6.635720168886266e-06</v>
+        <v>6.636995897338682e-06</v>
       </c>
       <c r="F197" t="n">
-        <v>1.430861687387221</v>
+        <v>1.209615974398351</v>
       </c>
       <c r="G197" t="n">
-        <v>0.9209078028307237</v>
+        <v>0.9439515220266976</v>
       </c>
       <c r="H197" t="n">
-        <v>0.2861723374774441</v>
+        <v>0.2419231948796702</v>
       </c>
     </row>
     <row r="198">
@@ -5504,25 +5504,25 @@
         <v>4.593277794606012</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0001542470168341615</v>
+        <v>0.0001535233023872677</v>
       </c>
       <c r="C198" t="n">
-        <v>3.133584201906278e-05</v>
+        <v>3.364250069714623e-05</v>
       </c>
       <c r="D198" t="n">
-        <v>3.665660954772273e-06</v>
+        <v>3.642762617767484e-06</v>
       </c>
       <c r="E198" t="n">
-        <v>6.390292980458875e-06</v>
+        <v>6.376553431862029e-06</v>
       </c>
       <c r="F198" t="n">
-        <v>3.47823573285614</v>
+        <v>3.123991553168626</v>
       </c>
       <c r="G198" t="n">
-        <v>0.6266833680910114</v>
+        <v>0.6808767736764894</v>
       </c>
       <c r="H198" t="n">
-        <v>0.6956471465712281</v>
+        <v>0.6247983106337252</v>
       </c>
     </row>
     <row r="199">
@@ -5530,25 +5530,25 @@
         <v>4.593534890642876</v>
       </c>
       <c r="B199" t="n">
-        <v>0.0001435445904202146</v>
+        <v>0.0001435994150400252</v>
       </c>
       <c r="C199" t="n">
-        <v>2.818188723489019e-05</v>
+        <v>2.790687937672737e-05</v>
       </c>
       <c r="D199" t="n">
-        <v>3.419401115647496e-06</v>
+        <v>3.423459361837105e-06</v>
       </c>
       <c r="E199" t="n">
-        <v>5.838675553667129e-06</v>
+        <v>5.845653777791118e-06</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9766511351035738</v>
+        <v>0.8340610473165863</v>
       </c>
       <c r="G199" t="n">
-        <v>0.9644269496066121</v>
+        <v>0.9748101434122292</v>
       </c>
       <c r="H199" t="n">
-        <v>0.1953302270207148</v>
+        <v>0.1668122094633173</v>
       </c>
     </row>
     <row r="200">
@@ -5556,25 +5556,25 @@
         <v>4.596534344406285</v>
       </c>
       <c r="B200" t="n">
-        <v>0.0002422477004068312</v>
+        <v>0.0002426013619407029</v>
       </c>
       <c r="C200" t="n">
-        <v>5.40675412500446e-05</v>
+        <v>5.384397405677085e-05</v>
       </c>
       <c r="D200" t="n">
-        <v>5.836747705201408e-06</v>
+        <v>5.846680057912827e-06</v>
       </c>
       <c r="E200" t="n">
-        <v>1.003642898942781e-05</v>
+        <v>1.005995451530467e-05</v>
       </c>
       <c r="F200" t="n">
-        <v>1.152135097073123</v>
+        <v>0.9807729203787446</v>
       </c>
       <c r="G200" t="n">
-        <v>0.9493860982190343</v>
+        <v>0.9641016138538145</v>
       </c>
       <c r="H200" t="n">
-        <v>0.2304270194146246</v>
+        <v>0.1961545840757489</v>
       </c>
     </row>
     <row r="201">
@@ -5582,25 +5582,25 @@
         <v>4.597819824590603</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0001881528210443837</v>
+        <v>0.0001881985784742777</v>
       </c>
       <c r="C201" t="n">
-        <v>4.456376178452622e-05</v>
+        <v>4.426899093016079e-05</v>
       </c>
       <c r="D201" t="n">
-        <v>4.17017297463218e-06</v>
+        <v>4.170919686044583e-06</v>
       </c>
       <c r="E201" t="n">
-        <v>7.339245246973092e-06</v>
+        <v>7.34495509156847e-06</v>
       </c>
       <c r="F201" t="n">
-        <v>3.404373473772796</v>
+        <v>3.259994041615568</v>
       </c>
       <c r="G201" t="n">
-        <v>0.6379039187755584</v>
+        <v>0.6599719209487553</v>
       </c>
       <c r="H201" t="n">
-        <v>0.6808746947545592</v>
+        <v>0.6519988083231135</v>
       </c>
     </row>
     <row r="202">
@@ -5608,25 +5608,25 @@
         <v>4.601504867785649</v>
       </c>
       <c r="B202" t="n">
-        <v>0.0002958225487166737</v>
+        <v>0.0002961925590156381</v>
       </c>
       <c r="C202" t="n">
-        <v>6.452251893188042e-05</v>
+        <v>6.480844991206303e-05</v>
       </c>
       <c r="D202" t="n">
-        <v>7.045130261051645e-06</v>
+        <v>7.051401888526869e-06</v>
       </c>
       <c r="E202" t="n">
-        <v>1.218975598117619e-05</v>
+        <v>1.221501529757779e-05</v>
       </c>
       <c r="F202" t="n">
-        <v>1.092090145220609</v>
+        <v>1.054056589117675</v>
       </c>
       <c r="G202" t="n">
-        <v>0.9548014202022108</v>
+        <v>0.9580889670566635</v>
       </c>
       <c r="H202" t="n">
-        <v>0.2184180290441217</v>
+        <v>0.210811317823535</v>
       </c>
     </row>
     <row r="203">
@@ -5634,25 +5634,25 @@
         <v>4.603133142685785</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0002804872926494807</v>
+        <v>0.000279922211694657</v>
       </c>
       <c r="C203" t="n">
-        <v>6.137205994398185e-05</v>
+        <v>6.227656652380069e-05</v>
       </c>
       <c r="D203" t="n">
-        <v>6.678847293498862e-06</v>
+        <v>6.66910077691342e-06</v>
       </c>
       <c r="E203" t="n">
-        <v>1.154360356030923e-05</v>
+        <v>1.151144556017633e-05</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9439870580780235</v>
+        <v>0.6247901844619287</v>
       </c>
       <c r="G203" t="n">
-        <v>0.9669559114644969</v>
+        <v>0.9868400974172902</v>
       </c>
       <c r="H203" t="n">
-        <v>0.1887974116156047</v>
+        <v>0.1249580368923857</v>
       </c>
     </row>
     <row r="204">
@@ -5660,25 +5660,25 @@
         <v>4.604932814943831</v>
       </c>
       <c r="B204" t="n">
-        <v>0.0002689517343394608</v>
+        <v>0.0002699629152237918</v>
       </c>
       <c r="C204" t="n">
-        <v>6.28544204633304e-05</v>
+        <v>6.196018892952709e-05</v>
       </c>
       <c r="D204" t="n">
-        <v>6.462959917118344e-06</v>
+        <v>6.483234845058899e-06</v>
       </c>
       <c r="E204" t="n">
-        <v>1.115645787511022e-05</v>
+        <v>1.119125809567454e-05</v>
       </c>
       <c r="F204" t="n">
-        <v>2.09332134011759</v>
+        <v>2.693767669944727</v>
       </c>
       <c r="G204" t="n">
-        <v>0.8360874186612131</v>
+        <v>0.7470714784794931</v>
       </c>
       <c r="H204" t="n">
-        <v>0.418664268023518</v>
+        <v>0.5387535339889453</v>
       </c>
     </row>
     <row r="205">
@@ -5686,25 +5686,25 @@
         <v>4.606646788522922</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0002663553723089043</v>
+        <v>0.0002669164344896732</v>
       </c>
       <c r="C205" t="n">
-        <v>6.572134210060094e-05</v>
+        <v>6.595038468898187e-05</v>
       </c>
       <c r="D205" t="n">
-        <v>6.360106489289573e-06</v>
+        <v>6.370003498762731e-06</v>
       </c>
       <c r="E205" t="n">
-        <v>1.107823053236528e-05</v>
+        <v>1.112582028272745e-05</v>
       </c>
       <c r="F205" t="n">
-        <v>3.184534711390093</v>
+        <v>3.059347516039773</v>
       </c>
       <c r="G205" t="n">
-        <v>0.6715603063319499</v>
+        <v>0.6908365026831927</v>
       </c>
       <c r="H205" t="n">
-        <v>0.6369069422780186</v>
+        <v>0.6118695032079545</v>
       </c>
     </row>
     <row r="206">
@@ -5712,25 +5712,25 @@
         <v>4.608446460780968</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0002600428786159582</v>
+        <v>0.0002588205972706981</v>
       </c>
       <c r="C206" t="n">
-        <v>5.633035973026565e-05</v>
+        <v>5.98691375708836e-05</v>
       </c>
       <c r="D206" t="n">
-        <v>6.302808570249329e-06</v>
+        <v>6.283943531874722e-06</v>
       </c>
       <c r="E206" t="n">
-        <v>1.082475483135633e-05</v>
+        <v>1.082289723327956e-05</v>
       </c>
       <c r="F206" t="n">
-        <v>0.4618163347268053</v>
+        <v>0.5717122974890845</v>
       </c>
       <c r="G206" t="n">
-        <v>0.9934547946881032</v>
+        <v>0.9892617453960802</v>
       </c>
       <c r="H206" t="n">
-        <v>0.09236326694536105</v>
+        <v>0.1143424594978169</v>
       </c>
     </row>
     <row r="207">
@@ -5738,25 +5738,25 @@
         <v>4.610160434360059</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0002460760475431181</v>
+        <v>0.0002461002265920998</v>
       </c>
       <c r="C207" t="n">
-        <v>5.427285645048478e-05</v>
+        <v>5.515112006539476e-05</v>
       </c>
       <c r="D207" t="n">
-        <v>5.562515814505339e-06</v>
+        <v>5.560418955593527e-06</v>
       </c>
       <c r="E207" t="n">
-        <v>9.598807554752797e-06</v>
+        <v>9.607277326199853e-06</v>
       </c>
       <c r="F207" t="n">
-        <v>0.6019317723970654</v>
+        <v>0.6498019966826458</v>
       </c>
       <c r="G207" t="n">
-        <v>0.9879146249048046</v>
+        <v>0.9856096704104619</v>
       </c>
       <c r="H207" t="n">
-        <v>0.1203863544794131</v>
+        <v>0.1299603993365292</v>
       </c>
     </row>
     <row r="208">
@@ -5764,25 +5764,25 @@
         <v>4.611617311902286</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0002503193102176727</v>
+        <v>0.0002498008847607155</v>
       </c>
       <c r="C208" t="n">
-        <v>5.139528278564617e-05</v>
+        <v>5.406736479262808e-05</v>
       </c>
       <c r="D208" t="n">
-        <v>5.974080579303612e-06</v>
+        <v>5.957972639781495e-06</v>
       </c>
       <c r="E208" t="n">
-        <v>1.027227596526611e-05</v>
+        <v>1.027589936890513e-05</v>
       </c>
       <c r="F208" t="n">
-        <v>0.4229077590322027</v>
+        <v>0.6243112735239497</v>
       </c>
       <c r="G208" t="n">
-        <v>0.9946750822946331</v>
+        <v>0.9868630999511186</v>
       </c>
       <c r="H208" t="n">
-        <v>0.08458155180644054</v>
+        <v>0.1248622547047899</v>
       </c>
     </row>
     <row r="209">
@@ -5790,25 +5790,25 @@
         <v>4.615987944528968</v>
       </c>
       <c r="B209" t="n">
-        <v>0.0001475415689144009</v>
+        <v>0.0001483056490501864</v>
       </c>
       <c r="C209" t="n">
-        <v>3.667908042185005e-05</v>
+        <v>3.547653095256225e-05</v>
       </c>
       <c r="D209" t="n">
-        <v>3.386300861999112e-06</v>
+        <v>3.40437747026341e-06</v>
       </c>
       <c r="E209" t="n">
-        <v>5.925654057029192e-06</v>
+        <v>5.943898602923439e-06</v>
       </c>
       <c r="F209" t="n">
-        <v>1.659105711512071</v>
+        <v>1.471096501734148</v>
       </c>
       <c r="G209" t="n">
-        <v>0.8940109291493911</v>
+        <v>0.9163809756572633</v>
       </c>
       <c r="H209" t="n">
-        <v>0.3318211423024142</v>
+        <v>0.2942193003468295</v>
       </c>
     </row>
     <row r="210">
@@ -5816,25 +5816,25 @@
         <v>4.620529974513559</v>
       </c>
       <c r="B210" t="n">
-        <v>6.449683114842896e-05</v>
+        <v>6.486392594496482e-05</v>
       </c>
       <c r="C210" t="n">
-        <v>1.388799554350742e-05</v>
+        <v>1.378779375092312e-05</v>
       </c>
       <c r="D210" t="n">
-        <v>1.784306145410982e-06</v>
+        <v>1.796780980816863e-06</v>
       </c>
       <c r="E210" t="n">
-        <v>3.013962008712253e-06</v>
+        <v>3.032036816616667e-06</v>
       </c>
       <c r="F210" t="n">
-        <v>0.6942719442162627</v>
+        <v>0.4764013029333763</v>
       </c>
       <c r="G210" t="n">
-        <v>0.9832815646405922</v>
+        <v>0.9929619151585312</v>
       </c>
       <c r="H210" t="n">
-        <v>0.1388543888432525</v>
+        <v>0.09528026058667527</v>
       </c>
     </row>
     <row r="211">
@@ -5842,25 +5842,25 @@
         <v>4.622929537524286</v>
       </c>
       <c r="B211" t="n">
-        <v>4.125894406968329e-05</v>
+        <v>4.129684253241332e-05</v>
       </c>
       <c r="C211" t="n">
-        <v>4.241077842610561e-06</v>
+        <v>4.371756345786168e-06</v>
       </c>
       <c r="D211" t="n">
-        <v>1.274570230543017e-06</v>
+        <v>1.274989352338926e-06</v>
       </c>
       <c r="E211" t="n">
-        <v>2.063126278239457e-06</v>
+        <v>2.064981513089582e-06</v>
       </c>
       <c r="F211" t="n">
-        <v>1.214676959412561</v>
+        <v>1.48764290357385</v>
       </c>
       <c r="G211" t="n">
-        <v>0.9434615830053192</v>
+        <v>0.9144913998396831</v>
       </c>
       <c r="H211" t="n">
-        <v>0.2429353918825123</v>
+        <v>0.2975285807147701</v>
       </c>
     </row>
     <row r="212">
@@ -5868,25 +5868,25 @@
         <v>4.623272332240105</v>
       </c>
       <c r="B212" t="n">
-        <v>5.828771944653501e-05</v>
+        <v>5.852572297416398e-05</v>
       </c>
       <c r="C212" t="n">
-        <v>1.266169408384729e-05</v>
+        <v>1.262394655608049e-05</v>
       </c>
       <c r="D212" t="n">
-        <v>1.520471028564545e-06</v>
+        <v>1.525712215566822e-06</v>
       </c>
       <c r="E212" t="n">
-        <v>2.610674493335662e-06</v>
+        <v>2.62045332465211e-06</v>
       </c>
       <c r="F212" t="n">
-        <v>1.691370583471141</v>
+        <v>2.034585966271079</v>
       </c>
       <c r="G212" t="n">
-        <v>0.8899851205543473</v>
+        <v>0.8443390125670119</v>
       </c>
       <c r="H212" t="n">
-        <v>0.3382741166942283</v>
+        <v>0.4069171932542158</v>
       </c>
     </row>
     <row r="213">
@@ -5894,25 +5894,25 @@
         <v>4.623786524313832</v>
       </c>
       <c r="B213" t="n">
-        <v>3.643723489527561e-05</v>
+        <v>3.617018966316233e-05</v>
       </c>
       <c r="C213" t="n">
-        <v>5.694381448793304e-06</v>
+        <v>6.200219633827145e-06</v>
       </c>
       <c r="D213" t="n">
-        <v>1.080507963556074e-06</v>
+        <v>1.093530988490354e-06</v>
       </c>
       <c r="E213" t="n">
-        <v>1.796190101737579e-06</v>
+        <v>1.817523539426915e-06</v>
       </c>
       <c r="F213" t="n">
-        <v>2.969210473824899</v>
+        <v>3.126908015988941</v>
       </c>
       <c r="G213" t="n">
-        <v>0.7047328495290076</v>
+        <v>0.6804276859118842</v>
       </c>
       <c r="H213" t="n">
-        <v>0.5938420947649798</v>
+        <v>0.6253816031977882</v>
       </c>
     </row>
     <row r="214">
@@ -5920,25 +5920,25 @@
         <v>4.625586196571877</v>
       </c>
       <c r="B214" t="n">
-        <v>2.845056100948526e-05</v>
+        <v>2.8325260639016e-05</v>
       </c>
       <c r="C214" t="n">
-        <v>3.776013760562042e-06</v>
+        <v>4.221875361064486e-06</v>
       </c>
       <c r="D214" t="n">
-        <v>9.205793796046829e-07</v>
+        <v>9.42231545740213e-07</v>
       </c>
       <c r="E214" t="n">
-        <v>1.541743051794927e-06</v>
+        <v>1.581869457036423e-06</v>
       </c>
       <c r="F214" t="n">
-        <v>1.396135178320474</v>
+        <v>1.656918891066885</v>
       </c>
       <c r="G214" t="n">
-        <v>0.9247355755278306</v>
+        <v>0.8942819175673457</v>
       </c>
       <c r="H214" t="n">
-        <v>0.2792270356640948</v>
+        <v>0.3313837782133769</v>
       </c>
     </row>
     <row r="215">
@@ -5946,25 +5946,25 @@
         <v>4.628928445051105</v>
       </c>
       <c r="B215" t="n">
-        <v>2.448590749074157e-05</v>
+        <v>2.433643143928862e-05</v>
       </c>
       <c r="C215" t="n">
-        <v>1.474693400213854e-06</v>
+        <v>1.79726055637219e-06</v>
       </c>
       <c r="D215" t="n">
-        <v>8.054868774994768e-07</v>
+        <v>8.024520189318565e-07</v>
       </c>
       <c r="E215" t="n">
-        <v>1.274569306717687e-06</v>
+        <v>1.273465217371733e-06</v>
       </c>
       <c r="F215" t="n">
-        <v>1.522763895743389</v>
+        <v>2.086595196954701</v>
       </c>
       <c r="G215" t="n">
-        <v>0.9104280114679135</v>
+        <v>0.8370378755559337</v>
       </c>
       <c r="H215" t="n">
-        <v>0.3045527791486778</v>
+        <v>0.4173190393909403</v>
       </c>
     </row>
     <row r="216">
@@ -5972,25 +5972,25 @@
         <v>4.631670802777651</v>
       </c>
       <c r="B216" t="n">
-        <v>2.31187288904761e-05</v>
+        <v>2.309292065204193e-05</v>
       </c>
       <c r="C216" t="n">
-        <v>1.382817270660931e-06</v>
+        <v>1.461030750934061e-06</v>
       </c>
       <c r="D216" t="n">
-        <v>7.854668572144482e-07</v>
+        <v>7.859142851334587e-07</v>
       </c>
       <c r="E216" t="n">
-        <v>1.292110465758136e-06</v>
+        <v>1.296325154738256e-06</v>
       </c>
       <c r="F216" t="n">
-        <v>9.260274253287498</v>
+        <v>8.531695375585569</v>
       </c>
       <c r="G216" t="n">
-        <v>0.0991222907337112</v>
+        <v>0.1292654922316424</v>
       </c>
       <c r="H216" t="n">
-        <v>1.8520548506575</v>
+        <v>1.706339075117114</v>
       </c>
     </row>
     <row r="217">
@@ -5998,25 +5998,25 @@
         <v>4.64049776670997</v>
       </c>
       <c r="B217" t="n">
-        <v>2.261681765190337e-05</v>
+        <v>2.310516115648428e-05</v>
       </c>
       <c r="C217" t="n">
-        <v>1.647398513741449e-06</v>
+        <v>3.888809299790595e-07</v>
       </c>
       <c r="D217" t="n">
-        <v>7.975096055825859e-07</v>
+        <v>8.013719913751816e-07</v>
       </c>
       <c r="E217" t="n">
-        <v>1.315848899056282e-06</v>
+        <v>1.307449869086379e-06</v>
       </c>
       <c r="F217" t="n">
-        <v>8.10679028834247</v>
+        <v>8.512441354529967</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1504475800676101</v>
+        <v>0.1301641300824279</v>
       </c>
       <c r="H217" t="n">
-        <v>1.621358057668494</v>
+        <v>1.702488270905993</v>
       </c>
     </row>
     <row r="218">
@@ -6024,25 +6024,25 @@
         <v>4.649667525358106</v>
       </c>
       <c r="B218" t="n">
-        <v>2.72847706574661e-05</v>
+        <v>2.696992967290675e-05</v>
       </c>
       <c r="C218" t="n">
-        <v>1.153109040829155e-06</v>
+        <v>1.259310706340725e-06</v>
       </c>
       <c r="D218" t="n">
-        <v>9.141894095778032e-07</v>
+        <v>9.08305337245587e-07</v>
       </c>
       <c r="E218" t="n">
-        <v>1.474762344114619e-06</v>
+        <v>1.469232401749771e-06</v>
       </c>
       <c r="F218" t="n">
-        <v>2.090855053490979</v>
+        <v>1.85615185339908</v>
       </c>
       <c r="G218" t="n">
-        <v>0.8364360858905593</v>
+        <v>0.8686695735472441</v>
       </c>
       <c r="H218" t="n">
-        <v>0.4181710106981957</v>
+        <v>0.371230370679816</v>
       </c>
     </row>
     <row r="219">
@@ -6050,25 +6050,25 @@
         <v>4.658494489290425</v>
       </c>
       <c r="B219" t="n">
-        <v>2.733260854752396e-05</v>
+        <v>2.744081217034678e-05</v>
       </c>
       <c r="C219" t="n">
-        <v>3.656023598987887e-06</v>
+        <v>3.37650192414249e-06</v>
       </c>
       <c r="D219" t="n">
-        <v>9.347049751512093e-07</v>
+        <v>9.339821005296904e-07</v>
       </c>
       <c r="E219" t="n">
-        <v>1.536545872365456e-06</v>
+        <v>1.529775825665862e-06</v>
       </c>
       <c r="F219" t="n">
-        <v>0.8953313389123959</v>
+        <v>1.024085465210827</v>
       </c>
       <c r="G219" t="n">
-        <v>0.9705587139715515</v>
+        <v>0.9605998136357079</v>
       </c>
       <c r="H219" t="n">
-        <v>0.1790662677824792</v>
+        <v>0.2048170930421654</v>
       </c>
     </row>
     <row r="220">
@@ -6076,25 +6076,25 @@
         <v>4.667921343975426</v>
       </c>
       <c r="B220" t="n">
-        <v>3.052771729446931e-05</v>
+        <v>3.054954894833521e-05</v>
       </c>
       <c r="C220" t="n">
-        <v>5.416842376157463e-06</v>
+        <v>5.281726599493804e-06</v>
       </c>
       <c r="D220" t="n">
-        <v>8.898853278335407e-07</v>
+        <v>8.886341290438308e-07</v>
       </c>
       <c r="E220" t="n">
-        <v>1.50642318633501e-06</v>
+        <v>1.506028967491521e-06</v>
       </c>
       <c r="F220" t="n">
-        <v>3.005879725566149</v>
+        <v>3.334228061421411</v>
       </c>
       <c r="G220" t="n">
-        <v>0.699079298721388</v>
+        <v>0.6486055970774811</v>
       </c>
       <c r="H220" t="n">
-        <v>0.6011759451132298</v>
+        <v>0.6668456122842821</v>
       </c>
     </row>
     <row r="221">
@@ -6102,25 +6102,25 @@
         <v>4.671263592454653</v>
       </c>
       <c r="B221" t="n">
-        <v>3.51940534649829e-05</v>
+        <v>3.53545432393952e-05</v>
       </c>
       <c r="C221" t="n">
-        <v>5.108377735488592e-06</v>
+        <v>4.972830668802405e-06</v>
       </c>
       <c r="D221" t="n">
-        <v>1.032880057586341e-06</v>
+        <v>1.036031631958007e-06</v>
       </c>
       <c r="E221" t="n">
-        <v>1.730264848908439e-06</v>
+        <v>1.738046630442724e-06</v>
       </c>
       <c r="F221" t="n">
-        <v>1.5112904894343</v>
+        <v>1.669819016163874</v>
       </c>
       <c r="G221" t="n">
-        <v>0.9117632288584055</v>
+        <v>0.8926798954989781</v>
       </c>
       <c r="H221" t="n">
-        <v>0.30225809788686</v>
+        <v>0.3339638032327747</v>
       </c>
     </row>
   </sheetData>
